--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -1510,13 +1510,13 @@
         <v>1200</v>
       </c>
       <c r="C2">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D2">
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F2">
         <v>32.43243243243244</v>
@@ -1530,13 +1530,13 @@
         <v>900</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="D3">
         <v>900</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="F3">
         <v>32.14285714285715</v>
@@ -1550,13 +1550,13 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>3.333333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4">
-        <v>3.333333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -1570,13 +1570,13 @@
         <v>1200</v>
       </c>
       <c r="C5">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D5">
         <v>1200</v>
       </c>
       <c r="E5">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F5">
         <v>32.43243243243244</v>
@@ -1590,13 +1590,13 @@
         <v>1800</v>
       </c>
       <c r="C6">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D6">
         <v>600</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F6">
         <v>33.33333333333334</v>
@@ -1610,13 +1610,13 @@
         <v>1800</v>
       </c>
       <c r="C7">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D7">
         <v>600</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F7">
         <v>33.33333333333334</v>
@@ -1630,13 +1630,13 @@
         <v>660</v>
       </c>
       <c r="C8">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D8">
         <v>600</v>
       </c>
       <c r="E8">
-        <v>36.66666666666666</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="F8">
         <v>33.33333333333334</v>
@@ -1650,13 +1650,13 @@
         <v>3000</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D9">
         <v>1800</v>
       </c>
       <c r="E9">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F9">
         <v>32.14285714285715</v>
@@ -1670,13 +1670,13 @@
         <v>2400</v>
       </c>
       <c r="C10">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D10">
         <v>1200</v>
       </c>
       <c r="E10">
-        <v>133.3333333333333</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F10">
         <v>32.43243243243244</v>
@@ -1690,13 +1690,13 @@
         <v>1800</v>
       </c>
       <c r="C11">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D11">
         <v>600</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F11">
         <v>33.33333333333334</v>
@@ -1710,13 +1710,13 @@
         <v>1800</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="D12">
         <v>900</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F12">
         <v>32.14285714285715</v>
@@ -1730,13 +1730,13 @@
         <v>3600</v>
       </c>
       <c r="C13">
-        <v>133.3333333333333</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D13">
         <v>2400</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -1750,13 +1750,13 @@
         <v>2400</v>
       </c>
       <c r="C14">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D14">
         <v>1200</v>
       </c>
       <c r="E14">
-        <v>133.3333333333333</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F14">
         <v>32.43243243243244</v>
@@ -1770,13 +1770,13 @@
         <v>1800</v>
       </c>
       <c r="C15">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D15">
         <v>600</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F15">
         <v>33.33333333333334</v>
@@ -1790,13 +1790,13 @@
         <v>660</v>
       </c>
       <c r="C16">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D16">
         <v>600</v>
       </c>
       <c r="E16">
-        <v>36.66666666666666</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="F16">
         <v>33.33333333333334</v>
@@ -1810,13 +1810,13 @@
         <v>2400</v>
       </c>
       <c r="C17">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D17">
         <v>1200</v>
       </c>
       <c r="E17">
-        <v>133.3333333333333</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F17">
         <v>32.43243243243244</v>
@@ -1830,13 +1830,13 @@
         <v>3600</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D18">
         <v>1800</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F18">
         <v>32.14285714285715</v>
@@ -1850,13 +1850,13 @@
         <v>1860</v>
       </c>
       <c r="C19">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D19">
         <v>1200</v>
       </c>
       <c r="E19">
-        <v>103.3333333333333</v>
+        <v>132.8571428571429</v>
       </c>
       <c r="F19">
         <v>32.43243243243244</v>
@@ -1870,13 +1870,13 @@
         <v>3300</v>
       </c>
       <c r="C20">
-        <v>83.33333333333333</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D20">
         <v>1500</v>
       </c>
       <c r="E20">
-        <v>183.3333333333333</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F20">
         <v>32.60869565217391</v>
@@ -1890,13 +1890,13 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D21">
         <v>1200</v>
       </c>
       <c r="E21">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F21">
         <v>32.43243243243244</v>
@@ -1910,13 +1910,13 @@
         <v>3000</v>
       </c>
       <c r="C22">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D22">
         <v>1200</v>
       </c>
       <c r="E22">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F22">
         <v>32.43243243243244</v>
@@ -1930,13 +1930,13 @@
         <v>4800</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D23">
         <v>2400</v>
       </c>
       <c r="E23">
-        <v>253.3333333333333</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F23">
         <v>32</v>
@@ -1950,13 +1950,13 @@
         <v>3000</v>
       </c>
       <c r="C24">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D24">
         <v>1200</v>
       </c>
       <c r="E24">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F24">
         <v>32.43243243243244</v>
@@ -1970,13 +1970,13 @@
         <v>8400</v>
       </c>
       <c r="C25">
-        <v>117.6470588235294</v>
+        <v>163.265306122449</v>
       </c>
       <c r="D25">
         <v>4800</v>
       </c>
       <c r="E25">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F25">
         <v>32</v>
@@ -1990,13 +1990,13 @@
         <v>2460</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D26">
         <v>1800</v>
       </c>
       <c r="E26">
-        <v>136.6666666666667</v>
+        <v>175.7142857142857</v>
       </c>
       <c r="F26">
         <v>32.14285714285715</v>
@@ -2010,13 +2010,13 @@
         <v>2400</v>
       </c>
       <c r="C27">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D27">
         <v>600</v>
       </c>
       <c r="E27">
-        <v>133.3333333333333</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F27">
         <v>33.33333333333334</v>
@@ -2030,13 +2030,13 @@
         <v>1860</v>
       </c>
       <c r="C28">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D28">
         <v>1200</v>
       </c>
       <c r="E28">
-        <v>103.3333333333333</v>
+        <v>132.8571428571429</v>
       </c>
       <c r="F28">
         <v>32.43243243243244</v>
@@ -2050,13 +2050,13 @@
         <v>3600</v>
       </c>
       <c r="C29">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D29">
         <v>1200</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F29">
         <v>32.43243243243244</v>
@@ -2070,13 +2070,13 @@
         <v>3300</v>
       </c>
       <c r="C30">
-        <v>83.33333333333333</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D30">
         <v>1500</v>
       </c>
       <c r="E30">
-        <v>183.3333333333333</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F30">
         <v>32.60869565217391</v>
@@ -2090,13 +2090,13 @@
         <v>3300</v>
       </c>
       <c r="C31">
-        <v>83.33333333333333</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D31">
         <v>1500</v>
       </c>
       <c r="E31">
-        <v>183.3333333333333</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F31">
         <v>32.60869565217391</v>
@@ -2110,13 +2110,13 @@
         <v>7200</v>
       </c>
       <c r="C32">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D32">
         <v>2400</v>
       </c>
       <c r="E32">
-        <v>1080.847457627119</v>
+        <v>1378.142857142857</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -2130,13 +2130,13 @@
         <v>6000</v>
       </c>
       <c r="C33">
-        <v>33.89830508474576</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="D33">
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>1046.949152542373</v>
+        <v>1330.523809523809</v>
       </c>
       <c r="F33">
         <v>32.43243243243244</v>
@@ -2150,13 +2150,13 @@
         <v>7200</v>
       </c>
       <c r="C34">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D34">
         <v>3600</v>
       </c>
       <c r="E34">
-        <v>1080.847457627119</v>
+        <v>1378.142857142857</v>
       </c>
       <c r="F34">
         <v>32.14285714285715</v>
@@ -2170,13 +2170,13 @@
         <v>3660</v>
       </c>
       <c r="C35">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D35">
         <v>1200</v>
       </c>
       <c r="E35">
-        <v>203.3333333333333</v>
+        <v>261.4285714285714</v>
       </c>
       <c r="F35">
         <v>32.43243243243244</v>
@@ -2190,13 +2190,13 @@
         <v>3600</v>
       </c>
       <c r="C36">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D36">
         <v>1200</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F36">
         <v>32.43243243243244</v>
@@ -2210,13 +2210,13 @@
         <v>3060</v>
       </c>
       <c r="C37">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D37">
         <v>1200</v>
       </c>
       <c r="E37">
-        <v>170</v>
+        <v>218.5714285714286</v>
       </c>
       <c r="F37">
         <v>32.43243243243244</v>
@@ -2230,13 +2230,13 @@
         <v>6000</v>
       </c>
       <c r="C38">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D38">
         <v>2400</v>
       </c>
       <c r="E38">
-        <v>1046.949152542373</v>
+        <v>1330.523809523809</v>
       </c>
       <c r="F38">
         <v>32</v>
@@ -2250,13 +2250,13 @@
         <v>9000</v>
       </c>
       <c r="C39">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D39">
         <v>3600</v>
       </c>
       <c r="E39">
-        <v>1118.235294117647</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F39">
         <v>32.14285714285715</v>
@@ -2270,13 +2270,13 @@
         <v>6600</v>
       </c>
       <c r="C40">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D40">
         <v>2400</v>
       </c>
       <c r="E40">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -2290,13 +2290,13 @@
         <v>6600</v>
       </c>
       <c r="C41">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D41">
         <v>2400</v>
       </c>
       <c r="E41">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F41">
         <v>32</v>
@@ -2310,13 +2310,13 @@
         <v>6000</v>
       </c>
       <c r="C42">
-        <v>50.84745762711864</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="D42">
         <v>1800</v>
       </c>
       <c r="E42">
-        <v>1046.949152542373</v>
+        <v>1330.523809523809</v>
       </c>
       <c r="F42">
         <v>32.14285714285715</v>
@@ -2330,13 +2330,13 @@
         <v>13200</v>
       </c>
       <c r="C43">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D43">
         <v>6000</v>
       </c>
       <c r="E43">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F43">
         <v>32.0855614973262</v>
@@ -2350,13 +2350,13 @@
         <v>6660</v>
       </c>
       <c r="C44">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D44">
         <v>3600</v>
       </c>
       <c r="E44">
-        <v>1065.593220338983</v>
+        <v>1356.714285714286</v>
       </c>
       <c r="F44">
         <v>32.14285714285715</v>
@@ -2370,13 +2370,13 @@
         <v>6060</v>
       </c>
       <c r="C45">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D45">
         <v>2400</v>
       </c>
       <c r="E45">
-        <v>1048.64406779661</v>
+        <v>1332.904761904762</v>
       </c>
       <c r="F45">
         <v>32</v>
@@ -2390,13 +2390,13 @@
         <v>7260</v>
       </c>
       <c r="C46">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D46">
         <v>3600</v>
       </c>
       <c r="E46">
-        <v>1082.542372881356</v>
+        <v>1380.523809523809</v>
       </c>
       <c r="F46">
         <v>32.14285714285715</v>
@@ -2410,13 +2410,13 @@
         <v>6000</v>
       </c>
       <c r="C47">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D47">
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1046.949152542373</v>
+        <v>1330.523809523809</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2430,13 +2430,13 @@
         <v>4500</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D48">
         <v>900</v>
       </c>
       <c r="E48">
-        <v>243.3333333333333</v>
+        <v>314.2857142857143</v>
       </c>
       <c r="F48">
         <v>32.14285714285715</v>
@@ -2450,13 +2450,13 @@
         <v>4260</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D49">
         <v>2400</v>
       </c>
       <c r="E49">
-        <v>235.3333333333333</v>
+        <v>302.8571428571428</v>
       </c>
       <c r="F49">
         <v>32</v>
@@ -2470,13 +2470,13 @@
         <v>6060</v>
       </c>
       <c r="C50">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D50">
         <v>2400</v>
       </c>
       <c r="E50">
-        <v>1048.64406779661</v>
+        <v>1332.904761904762</v>
       </c>
       <c r="F50">
         <v>32</v>
@@ -2490,13 +2490,13 @@
         <v>9600</v>
       </c>
       <c r="C51">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D51">
         <v>3600</v>
       </c>
       <c r="E51">
-        <v>1132.941176470588</v>
+        <v>1449.571428571428</v>
       </c>
       <c r="F51">
         <v>32.14285714285715</v>
@@ -2510,13 +2510,13 @@
         <v>8400</v>
       </c>
       <c r="C52">
-        <v>58.82352941176471</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D52">
         <v>2400</v>
       </c>
       <c r="E52">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F52">
         <v>32</v>
@@ -2530,13 +2530,13 @@
         <v>8400</v>
       </c>
       <c r="C53">
-        <v>58.82352941176471</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D53">
         <v>2400</v>
       </c>
       <c r="E53">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F53">
         <v>32</v>
@@ -2550,13 +2550,13 @@
         <v>10260</v>
       </c>
       <c r="C54">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D54">
         <v>3600</v>
       </c>
       <c r="E54">
-        <v>1149.117647058823</v>
+        <v>1472.020408163265</v>
       </c>
       <c r="F54">
         <v>32.14285714285715</v>
@@ -2570,13 +2570,13 @@
         <v>3000</v>
       </c>
       <c r="C55">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D55">
         <v>1200</v>
       </c>
       <c r="E55">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F55">
         <v>32.43243243243244</v>
@@ -2590,13 +2590,13 @@
         <v>3000</v>
       </c>
       <c r="C56">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D56">
         <v>1200</v>
       </c>
       <c r="E56">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F56">
         <v>32.43243243243244</v>
@@ -2610,13 +2610,13 @@
         <v>5100</v>
       </c>
       <c r="C57">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D57">
         <v>1800</v>
       </c>
       <c r="E57">
-        <v>263.3333333333334</v>
+        <v>342.8571428571428</v>
       </c>
       <c r="F57">
         <v>32.14285714285715</v>
@@ -2630,13 +2630,13 @@
         <v>10200</v>
       </c>
       <c r="C58">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D58">
         <v>3600</v>
       </c>
       <c r="E58">
-        <v>1147.647058823529</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F58">
         <v>32.14285714285715</v>
@@ -2650,13 +2650,13 @@
         <v>19200</v>
       </c>
       <c r="C59">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D59">
         <v>6000</v>
       </c>
       <c r="E59">
-        <v>1317.908398031517</v>
+        <v>1701.839002267574</v>
       </c>
       <c r="F59">
         <v>32.0855614973262</v>
@@ -2670,13 +2670,13 @@
         <v>7200</v>
       </c>
       <c r="C60">
-        <v>33.89830508474576</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="D60">
         <v>1200</v>
       </c>
       <c r="E60">
-        <v>1080.847457627119</v>
+        <v>1378.142857142857</v>
       </c>
       <c r="F60">
         <v>32.43243243243244</v>
@@ -2690,13 +2690,13 @@
         <v>9600</v>
       </c>
       <c r="C61">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D61">
         <v>3600</v>
       </c>
       <c r="E61">
-        <v>1132.941176470588</v>
+        <v>1449.571428571428</v>
       </c>
       <c r="F61">
         <v>32.14285714285715</v>
@@ -2710,13 +2710,13 @@
         <v>12660</v>
       </c>
       <c r="C62">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D62">
         <v>6000</v>
       </c>
       <c r="E62">
-        <v>1194.01833460657</v>
+        <v>1532.989795918367</v>
       </c>
       <c r="F62">
         <v>32.0855614973262</v>
@@ -2730,13 +2730,13 @@
         <v>18700</v>
       </c>
       <c r="C63">
-        <v>106.5891472868217</v>
+        <v>145.5026455026455</v>
       </c>
       <c r="D63">
         <v>5500</v>
       </c>
       <c r="E63">
-        <v>1308.218475550897</v>
+        <v>1688.61148904006</v>
       </c>
       <c r="F63">
         <v>32.16374269005848</v>
@@ -2750,13 +2750,13 @@
         <v>9000</v>
       </c>
       <c r="C64">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D64">
         <v>3600</v>
       </c>
       <c r="E64">
-        <v>1118.235294117647</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F64">
         <v>32.14285714285715</v>
@@ -2770,13 +2770,13 @@
         <v>9660</v>
       </c>
       <c r="C65">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D65">
         <v>3600</v>
       </c>
       <c r="E65">
-        <v>1134.411764705882</v>
+        <v>1451.612244897959</v>
       </c>
       <c r="F65">
         <v>32.14285714285715</v>
@@ -2790,13 +2790,13 @@
         <v>13200</v>
       </c>
       <c r="C66">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D66">
         <v>7200</v>
       </c>
       <c r="E66">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F66">
         <v>32</v>
@@ -2810,13 +2810,13 @@
         <v>11460</v>
       </c>
       <c r="C67">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D67">
         <v>7200</v>
       </c>
       <c r="E67">
-        <v>1168.044308632544</v>
+        <v>1497.275510204081</v>
       </c>
       <c r="F67">
         <v>32</v>
@@ -2830,13 +2830,13 @@
         <v>7860</v>
       </c>
       <c r="C68">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D68">
         <v>3600</v>
       </c>
       <c r="E68">
-        <v>1090.294117647059</v>
+        <v>1390.387755102041</v>
       </c>
       <c r="F68">
         <v>32.14285714285715</v>
@@ -2850,13 +2850,13 @@
         <v>5460</v>
       </c>
       <c r="C69">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D69">
         <v>2400</v>
       </c>
       <c r="E69">
-        <v>1031.694915254237</v>
+        <v>1309.095238095238</v>
       </c>
       <c r="F69">
         <v>32</v>
@@ -2870,13 +2870,13 @@
         <v>7860</v>
       </c>
       <c r="C70">
-        <v>44.11764705882353</v>
+        <v>61.22448979591837</v>
       </c>
       <c r="D70">
         <v>1800</v>
       </c>
       <c r="E70">
-        <v>1090.294117647059</v>
+        <v>1390.387755102041</v>
       </c>
       <c r="F70">
         <v>32.14285714285715</v>
@@ -2890,13 +2890,13 @@
         <v>9000</v>
       </c>
       <c r="C71">
-        <v>88.23529411764706</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D71">
         <v>3600</v>
       </c>
       <c r="E71">
-        <v>1118.235294117647</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F71">
         <v>32.14285714285715</v>
@@ -2910,13 +2910,13 @@
         <v>13200</v>
       </c>
       <c r="C72">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D72">
         <v>4800</v>
       </c>
       <c r="E72">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F72">
         <v>32</v>
@@ -2930,13 +2930,13 @@
         <v>6600</v>
       </c>
       <c r="C73">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D73">
         <v>3600</v>
       </c>
       <c r="E73">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F73">
         <v>32.14285714285715</v>
@@ -2950,13 +2950,13 @@
         <v>3000</v>
       </c>
       <c r="C74">
-        <v>66.66666666666667</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="D74">
         <v>1200</v>
       </c>
       <c r="E74">
-        <v>166.6666666666667</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F74">
         <v>32.43243243243244</v>
@@ -2970,13 +2970,13 @@
         <v>16800</v>
       </c>
       <c r="C75">
-        <v>69.76744186046513</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D75">
         <v>3600</v>
       </c>
       <c r="E75">
-        <v>1271.39677012454</v>
+        <v>1638.34693877551</v>
       </c>
       <c r="F75">
         <v>32.14285714285715</v>
@@ -2990,13 +2990,13 @@
         <v>9600</v>
       </c>
       <c r="C76">
-        <v>58.82352941176471</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D76">
         <v>2400</v>
       </c>
       <c r="E76">
-        <v>1132.941176470588</v>
+        <v>1449.571428571428</v>
       </c>
       <c r="F76">
         <v>32</v>
@@ -3010,13 +3010,13 @@
         <v>8400</v>
       </c>
       <c r="C77">
-        <v>58.82352941176471</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D77">
         <v>2400</v>
       </c>
       <c r="E77">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F77">
         <v>32</v>
@@ -3030,13 +3030,13 @@
         <v>15000</v>
       </c>
       <c r="C78">
-        <v>116.8831168831169</v>
+        <v>160.7142857142857</v>
       </c>
       <c r="D78">
         <v>5400</v>
       </c>
       <c r="E78">
-        <v>1244.667685255921</v>
+        <v>1602.632653061224</v>
       </c>
       <c r="F78">
         <v>32.14285714285715</v>
@@ -3050,13 +3050,13 @@
         <v>4800</v>
       </c>
       <c r="C79">
-        <v>80</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D79">
         <v>2400</v>
       </c>
       <c r="E79">
-        <v>253.3333333333333</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F79">
         <v>32</v>
@@ -3070,13 +3070,13 @@
         <v>19860</v>
       </c>
       <c r="C80">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D80">
         <v>7200</v>
       </c>
       <c r="E80">
-        <v>1330.699095705936</v>
+        <v>1719.299319727891</v>
       </c>
       <c r="F80">
         <v>32</v>
@@ -3090,13 +3090,13 @@
         <v>11460</v>
       </c>
       <c r="C81">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D81">
         <v>3600</v>
       </c>
       <c r="E81">
-        <v>1168.044308632544</v>
+        <v>1497.275510204081</v>
       </c>
       <c r="F81">
         <v>32.14285714285715</v>
@@ -3110,13 +3110,13 @@
         <v>13200</v>
       </c>
       <c r="C82">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D82">
         <v>7200</v>
       </c>
       <c r="E82">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F82">
         <v>32</v>
@@ -3130,13 +3130,13 @@
         <v>15660</v>
       </c>
       <c r="C83">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D83">
         <v>6000</v>
       </c>
       <c r="E83">
-        <v>1258.953399541635</v>
+        <v>1622.275510204081</v>
       </c>
       <c r="F83">
         <v>32.0855614973262</v>
@@ -3150,13 +3150,13 @@
         <v>7260</v>
       </c>
       <c r="C84">
-        <v>135.5932203389831</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D84">
         <v>4800</v>
       </c>
       <c r="E84">
-        <v>1082.542372881356</v>
+        <v>1380.523809523809</v>
       </c>
       <c r="F84">
         <v>32</v>
@@ -3170,13 +3170,13 @@
         <v>9000</v>
       </c>
       <c r="C85">
-        <v>176.4705882352941</v>
+        <v>244.8979591836735</v>
       </c>
       <c r="D85">
         <v>7200</v>
       </c>
       <c r="E85">
-        <v>1118.235294117647</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F85">
         <v>32</v>
@@ -3190,13 +3190,13 @@
         <v>22400</v>
       </c>
       <c r="C86">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D86">
         <v>9200</v>
       </c>
       <c r="E86">
-        <v>1368.540792972358</v>
+        <v>1770.092970521542</v>
       </c>
       <c r="F86">
         <v>32.05574912891986</v>
@@ -3210,13 +3210,13 @@
         <v>17060</v>
       </c>
       <c r="C87">
-        <v>178.2945736434109</v>
+        <v>243.3862433862434</v>
       </c>
       <c r="D87">
         <v>9200</v>
       </c>
       <c r="E87">
-        <v>1276.435529814463</v>
+        <v>1645.225245653817</v>
       </c>
       <c r="F87">
         <v>32.05574912891986</v>
@@ -3230,13 +3230,13 @@
         <v>12660</v>
       </c>
       <c r="C88">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D88">
         <v>4800</v>
       </c>
       <c r="E88">
-        <v>1194.01833460657</v>
+        <v>1532.989795918367</v>
       </c>
       <c r="F88">
         <v>32</v>
@@ -3250,13 +3250,13 @@
         <v>11460</v>
       </c>
       <c r="C89">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D89">
         <v>3600</v>
       </c>
       <c r="E89">
-        <v>1168.044308632544</v>
+        <v>1497.275510204081</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3270,13 +3270,13 @@
         <v>22800</v>
       </c>
       <c r="C90">
-        <v>168.421052631579</v>
+        <v>228.5714285714285</v>
       </c>
       <c r="D90">
         <v>9600</v>
       </c>
       <c r="E90">
-        <v>1375.558336832007</v>
+        <v>1779.616780045351</v>
       </c>
       <c r="F90">
         <v>32</v>
@@ -3290,13 +3290,13 @@
         <v>12600</v>
       </c>
       <c r="C91">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D91">
         <v>3600</v>
       </c>
       <c r="E91">
-        <v>1192.719633307869</v>
+        <v>1531.204081632653</v>
       </c>
       <c r="F91">
         <v>32.14285714285715</v>
@@ -3310,13 +3310,13 @@
         <v>15000</v>
       </c>
       <c r="C92">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D92">
         <v>3600</v>
       </c>
       <c r="E92">
-        <v>1244.667685255921</v>
+        <v>1602.632653061224</v>
       </c>
       <c r="F92">
         <v>32.14285714285715</v>
@@ -3330,13 +3330,13 @@
         <v>10460</v>
       </c>
       <c r="C93">
-        <v>78.43137254901961</v>
+        <v>108.843537414966</v>
       </c>
       <c r="D93">
         <v>3200</v>
       </c>
       <c r="E93">
-        <v>1154.019607843137</v>
+        <v>1478.823129251701</v>
       </c>
       <c r="F93">
         <v>32</v>
@@ -3350,13 +3350,13 @@
         <v>13000</v>
       </c>
       <c r="C94">
-        <v>86.58008658008659</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D94">
         <v>4000</v>
       </c>
       <c r="E94">
-        <v>1201.377641965877</v>
+        <v>1543.108843537415</v>
       </c>
       <c r="F94">
         <v>32</v>
@@ -3370,13 +3370,13 @@
         <v>3300</v>
       </c>
       <c r="C95">
-        <v>83.33333333333333</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D95">
         <v>1500</v>
       </c>
       <c r="E95">
-        <v>183.3333333333333</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F95">
         <v>32.60869565217391</v>
@@ -3390,13 +3390,13 @@
         <v>12060</v>
       </c>
       <c r="C96">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D96">
         <v>4800</v>
       </c>
       <c r="E96">
-        <v>1181.031321619557</v>
+        <v>1515.132653061224</v>
       </c>
       <c r="F96">
         <v>32</v>
@@ -3410,13 +3410,13 @@
         <v>3300</v>
       </c>
       <c r="C97">
-        <v>83.33333333333333</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D97">
         <v>1500</v>
       </c>
       <c r="E97">
-        <v>183.3333333333333</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F97">
         <v>32.60869565217391</v>
@@ -3430,13 +3430,13 @@
         <v>16400</v>
       </c>
       <c r="C98">
-        <v>178.2945736434109</v>
+        <v>243.3862433862434</v>
       </c>
       <c r="D98">
         <v>9200</v>
       </c>
       <c r="E98">
-        <v>1263.644832140044</v>
+        <v>1627.7649281935</v>
       </c>
       <c r="F98">
         <v>32.05574912891986</v>
@@ -3450,13 +3450,13 @@
         <v>21600</v>
       </c>
       <c r="C99">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D99">
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1364.420025938494</v>
+        <v>1765.331065759637</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3470,13 +3470,13 @@
         <v>10600</v>
       </c>
       <c r="C100">
-        <v>98.03921568627452</v>
+        <v>136.0544217687075</v>
       </c>
       <c r="D100">
         <v>4000</v>
       </c>
       <c r="E100">
-        <v>1157.450980392157</v>
+        <v>1483.585034013605</v>
       </c>
       <c r="F100">
         <v>32</v>
@@ -3490,13 +3490,13 @@
         <v>19800</v>
       </c>
       <c r="C101">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D101">
         <v>4800</v>
       </c>
       <c r="E101">
-        <v>1329.536305008261</v>
+        <v>1717.712018140589</v>
       </c>
       <c r="F101">
         <v>32</v>
@@ -3510,13 +3510,13 @@
         <v>28260</v>
       </c>
       <c r="C102">
-        <v>147.3684210526316</v>
+        <v>200</v>
       </c>
       <c r="D102">
         <v>8400</v>
       </c>
       <c r="E102">
-        <v>1471.347810516217</v>
+        <v>1909.616780045351</v>
       </c>
       <c r="F102">
         <v>32.06106870229008</v>
@@ -3530,13 +3530,13 @@
         <v>16260</v>
       </c>
       <c r="C103">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D103">
         <v>4800</v>
       </c>
       <c r="E103">
-        <v>1260.93165384547</v>
+        <v>1624.061224489796</v>
       </c>
       <c r="F103">
         <v>32</v>
@@ -3550,13 +3550,13 @@
         <v>14460</v>
       </c>
       <c r="C104">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D104">
         <v>7200</v>
       </c>
       <c r="E104">
-        <v>1232.979373567609</v>
+        <v>1586.561224489796</v>
       </c>
       <c r="F104">
         <v>32</v>
@@ -3570,13 +3570,13 @@
         <v>22400</v>
       </c>
       <c r="C105">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D105">
         <v>9200</v>
       </c>
       <c r="E105">
-        <v>1368.540792972358</v>
+        <v>1770.092970521542</v>
       </c>
       <c r="F105">
         <v>32.05574912891986</v>
@@ -3590,13 +3590,13 @@
         <v>22860</v>
       </c>
       <c r="C106">
-        <v>126.3157894736842</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D106">
         <v>7200</v>
       </c>
       <c r="E106">
-        <v>1376.610968410954</v>
+        <v>1781.045351473923</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3610,13 +3610,13 @@
         <v>19660</v>
       </c>
       <c r="C107">
-        <v>77.51937984496125</v>
+        <v>105.8201058201058</v>
       </c>
       <c r="D107">
         <v>4000</v>
       </c>
       <c r="E107">
-        <v>1326.823126713688</v>
+        <v>1714.008314436886</v>
       </c>
       <c r="F107">
         <v>32</v>
@@ -3630,13 +3630,13 @@
         <v>33600</v>
       </c>
       <c r="C108">
-        <v>179.4871794871795</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="D108">
         <v>11200</v>
       </c>
       <c r="E108">
-        <v>1547.724328734841</v>
+        <v>2012.084312512884</v>
       </c>
       <c r="F108">
         <v>32</v>
@@ -3650,13 +3650,13 @@
         <v>10500</v>
       </c>
       <c r="C109">
-        <v>147.0588235294118</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="D109">
         <v>6000</v>
       </c>
       <c r="E109">
-        <v>1155</v>
+        <v>1480.183673469388</v>
       </c>
       <c r="F109">
         <v>32.0855614973262</v>
@@ -3670,13 +3670,13 @@
         <v>28260</v>
       </c>
       <c r="C110">
-        <v>196.4912280701755</v>
+        <v>266.6666666666666</v>
       </c>
       <c r="D110">
         <v>11200</v>
       </c>
       <c r="E110">
-        <v>1471.347810516217</v>
+        <v>1909.616780045351</v>
       </c>
       <c r="F110">
         <v>32</v>
@@ -3690,13 +3690,13 @@
         <v>19460</v>
       </c>
       <c r="C111">
-        <v>131.7829457364341</v>
+        <v>179.8941798941799</v>
       </c>
       <c r="D111">
         <v>6800</v>
       </c>
       <c r="E111">
-        <v>1322.947157721439</v>
+        <v>1708.717309145881</v>
       </c>
       <c r="F111">
         <v>32.0754716981132</v>
@@ -3710,13 +3710,13 @@
         <v>18660</v>
       </c>
       <c r="C112">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D112">
         <v>7200</v>
       </c>
       <c r="E112">
-        <v>1307.443281752447</v>
+        <v>1687.553287981859</v>
       </c>
       <c r="F112">
         <v>32</v>
@@ -3730,13 +3730,13 @@
         <v>13200</v>
       </c>
       <c r="C113">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D113">
         <v>7200</v>
       </c>
       <c r="E113">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F113">
         <v>32</v>
@@ -3750,13 +3750,13 @@
         <v>17400</v>
       </c>
       <c r="C114">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D114">
         <v>4800</v>
       </c>
       <c r="E114">
-        <v>1283.024677101284</v>
+        <v>1654.219954648526</v>
       </c>
       <c r="F114">
         <v>32</v>
@@ -3770,13 +3770,13 @@
         <v>18600</v>
       </c>
       <c r="C115">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D115">
         <v>6000</v>
       </c>
       <c r="E115">
-        <v>1306.280491054773</v>
+        <v>1685.965986394558</v>
       </c>
       <c r="F115">
         <v>32.0855614973262</v>
@@ -3790,13 +3790,13 @@
         <v>19800</v>
       </c>
       <c r="C116">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D116">
         <v>4800</v>
       </c>
       <c r="E116">
-        <v>1329.536305008261</v>
+        <v>1717.712018140589</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3810,13 +3810,13 @@
         <v>17000</v>
       </c>
       <c r="C117">
-        <v>108.5271317829457</v>
+        <v>148.1481481481481</v>
       </c>
       <c r="D117">
         <v>5600</v>
       </c>
       <c r="E117">
-        <v>1275.272739116788</v>
+        <v>1643.637944066515</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3830,13 +3830,13 @@
         <v>19260</v>
       </c>
       <c r="C118">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D118">
         <v>4800</v>
       </c>
       <c r="E118">
-        <v>1319.071188729191</v>
+        <v>1703.426303854875</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3850,13 +3850,13 @@
         <v>6600</v>
       </c>
       <c r="C119">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D119">
         <v>3600</v>
       </c>
       <c r="E119">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F119">
         <v>32.14285714285715</v>
@@ -3870,13 +3870,13 @@
         <v>20400</v>
       </c>
       <c r="C120">
-        <v>34.88372093023256</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D120">
         <v>1800</v>
       </c>
       <c r="E120">
-        <v>1341.164211985005</v>
+        <v>1733.585034013605</v>
       </c>
       <c r="F120">
         <v>32.14285714285715</v>
@@ -3890,13 +3890,13 @@
         <v>44460</v>
       </c>
       <c r="C121">
-        <v>442.4778761061947</v>
+        <v>595.2380952380951</v>
       </c>
       <c r="D121">
         <v>30000</v>
       </c>
       <c r="E121">
-        <v>1703.561633023472</v>
+        <v>2221.427746856318</v>
       </c>
       <c r="F121">
         <v>66.66666666666667</v>
@@ -3910,13 +3910,13 @@
         <v>8400</v>
       </c>
       <c r="C122">
-        <v>147.0588235294118</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="D122">
         <v>6000</v>
       </c>
       <c r="E122">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F122">
         <v>32.0855614973262</v>
@@ -3930,13 +3930,13 @@
         <v>12600</v>
       </c>
       <c r="C123">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D123">
         <v>6000</v>
       </c>
       <c r="E123">
-        <v>1192.719633307869</v>
+        <v>1531.204081632653</v>
       </c>
       <c r="F123">
         <v>32.0855614973262</v>
@@ -3950,13 +3950,13 @@
         <v>27600</v>
       </c>
       <c r="C124">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D124">
         <v>6000</v>
       </c>
       <c r="E124">
-        <v>1459.768863147796</v>
+        <v>1893.902494331066</v>
       </c>
       <c r="F124">
         <v>32.0855614973262</v>
@@ -3970,13 +3970,13 @@
         <v>6000</v>
       </c>
       <c r="C125">
-        <v>135.5932203389831</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D125">
         <v>4800</v>
       </c>
       <c r="E125">
-        <v>1046.949152542373</v>
+        <v>1330.523809523809</v>
       </c>
       <c r="F125">
         <v>32</v>
@@ -3990,13 +3990,13 @@
         <v>3600</v>
       </c>
       <c r="C126">
-        <v>100</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D126">
         <v>1800</v>
       </c>
       <c r="E126">
-        <v>200</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F126">
         <v>32.14285714285715</v>
@@ -4010,13 +4010,13 @@
         <v>26800</v>
       </c>
       <c r="C127">
-        <v>122.8070175438597</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D127">
         <v>7000</v>
       </c>
       <c r="E127">
-        <v>1445.733775428498</v>
+        <v>1874.854875283447</v>
       </c>
       <c r="F127">
         <v>32.11009174311926</v>
@@ -4030,13 +4030,13 @@
         <v>15400</v>
       </c>
       <c r="C128">
-        <v>151.5151515151515</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="D128">
         <v>7000</v>
       </c>
       <c r="E128">
-        <v>1253.325693913929</v>
+        <v>1614.537414965986</v>
       </c>
       <c r="F128">
         <v>32.11009174311926</v>
@@ -4050,13 +4050,13 @@
         <v>22600</v>
       </c>
       <c r="C129">
-        <v>133.3333333333333</v>
+        <v>180.9523809523809</v>
       </c>
       <c r="D129">
         <v>7600</v>
       </c>
       <c r="E129">
-        <v>1372.049564902182</v>
+        <v>1774.854875283447</v>
       </c>
       <c r="F129">
         <v>32.06751054852321</v>
@@ -4070,13 +4070,13 @@
         <v>18660</v>
       </c>
       <c r="C130">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D130">
         <v>7200</v>
       </c>
       <c r="E130">
-        <v>1307.443281752447</v>
+        <v>1687.553287981859</v>
       </c>
       <c r="F130">
         <v>32</v>
@@ -4090,13 +4090,13 @@
         <v>13800</v>
       </c>
       <c r="C131">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D131">
         <v>4800</v>
       </c>
       <c r="E131">
-        <v>1218.693659281894</v>
+        <v>1566.918367346939</v>
       </c>
       <c r="F131">
         <v>32</v>
@@ -4110,13 +4110,13 @@
         <v>31260</v>
       </c>
       <c r="C132">
-        <v>134.6153846153846</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="D132">
         <v>8400</v>
       </c>
       <c r="E132">
-        <v>1510.224328734841</v>
+        <v>1961.434961863533</v>
       </c>
       <c r="F132">
         <v>32.06106870229008</v>
@@ -4130,13 +4130,13 @@
         <v>22400</v>
       </c>
       <c r="C133">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D133">
         <v>6000</v>
       </c>
       <c r="E133">
-        <v>1368.540792972358</v>
+        <v>1770.092970521542</v>
       </c>
       <c r="F133">
         <v>32.0855614973262</v>
@@ -4150,13 +4150,13 @@
         <v>13600</v>
       </c>
       <c r="C134">
-        <v>190.4761904761905</v>
+        <v>261.9047619047619</v>
       </c>
       <c r="D134">
         <v>8800</v>
       </c>
       <c r="E134">
-        <v>1214.36465495289</v>
+        <v>1560.965986394558</v>
       </c>
       <c r="F134">
         <v>32</v>
@@ -4170,13 +4170,13 @@
         <v>10460</v>
       </c>
       <c r="C135">
-        <v>196.078431372549</v>
+        <v>272.108843537415</v>
       </c>
       <c r="D135">
         <v>8000</v>
       </c>
       <c r="E135">
-        <v>1154.019607843137</v>
+        <v>1478.823129251701</v>
       </c>
       <c r="F135">
         <v>32</v>
@@ -4190,13 +4190,13 @@
         <v>18500</v>
       </c>
       <c r="C136">
-        <v>155.0387596899225</v>
+        <v>211.6402116402116</v>
       </c>
       <c r="D136">
         <v>8000</v>
       </c>
       <c r="E136">
-        <v>1304.342506558649</v>
+        <v>1683.320483749055</v>
       </c>
       <c r="F136">
         <v>32</v>
@@ -4210,13 +4210,13 @@
         <v>41460</v>
       </c>
       <c r="C137">
-        <v>194.6902654867257</v>
+        <v>261.9047619047618</v>
       </c>
       <c r="D137">
         <v>13200</v>
       </c>
       <c r="E137">
-        <v>1659.313845412853</v>
+        <v>2161.903937332509</v>
       </c>
       <c r="F137">
         <v>32.03883495145631</v>
@@ -4230,13 +4230,13 @@
         <v>12660</v>
       </c>
       <c r="C138">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D138">
         <v>7200</v>
       </c>
       <c r="E138">
-        <v>1194.01833460657</v>
+        <v>1532.989795918367</v>
       </c>
       <c r="F138">
         <v>32</v>
@@ -4250,13 +4250,13 @@
         <v>18600</v>
       </c>
       <c r="C139">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D139">
         <v>7200</v>
       </c>
       <c r="E139">
-        <v>1306.280491054773</v>
+        <v>1685.965986394558</v>
       </c>
       <c r="F139">
         <v>32</v>
@@ -4270,13 +4270,13 @@
         <v>22400</v>
       </c>
       <c r="C140">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D140">
         <v>9200</v>
       </c>
       <c r="E140">
-        <v>1368.540792972358</v>
+        <v>1770.092970521542</v>
       </c>
       <c r="F140">
         <v>32.05574912891986</v>
@@ -4290,13 +4290,13 @@
         <v>12600</v>
       </c>
       <c r="C141">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D141">
         <v>3600</v>
       </c>
       <c r="E141">
-        <v>1192.719633307869</v>
+        <v>1531.204081632653</v>
       </c>
       <c r="F141">
         <v>32.14285714285715</v>
@@ -4310,13 +4310,13 @@
         <v>20460</v>
       </c>
       <c r="C142">
-        <v>34.88372093023256</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D142">
         <v>1800</v>
       </c>
       <c r="E142">
-        <v>1342.32700268268</v>
+        <v>1735.172335600907</v>
       </c>
       <c r="F142">
         <v>32.14285714285715</v>
@@ -4330,13 +4330,13 @@
         <v>12600</v>
       </c>
       <c r="C143">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D143">
         <v>4800</v>
       </c>
       <c r="E143">
-        <v>1192.719633307869</v>
+        <v>1531.204081632653</v>
       </c>
       <c r="F143">
         <v>32</v>
@@ -4350,13 +4350,13 @@
         <v>23400</v>
       </c>
       <c r="C144">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D144">
         <v>6000</v>
       </c>
       <c r="E144">
-        <v>1386.08465262148</v>
+        <v>1793.902494331066</v>
       </c>
       <c r="F144">
         <v>32.0855614973262</v>
@@ -4370,13 +4370,13 @@
         <v>25800</v>
       </c>
       <c r="C145">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D145">
         <v>6000</v>
       </c>
       <c r="E145">
-        <v>1428.189915779375</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F145">
         <v>32.0855614973262</v>
@@ -4390,13 +4390,13 @@
         <v>11260</v>
       </c>
       <c r="C146">
-        <v>98.03921568627452</v>
+        <v>136.0544217687075</v>
       </c>
       <c r="D146">
         <v>4000</v>
       </c>
       <c r="E146">
-        <v>1173.627450980392</v>
+        <v>1506.034013605442</v>
       </c>
       <c r="F146">
         <v>32</v>
@@ -4410,13 +4410,13 @@
         <v>24600</v>
       </c>
       <c r="C147">
-        <v>133.3333333333333</v>
+        <v>180.9523809523809</v>
       </c>
       <c r="D147">
         <v>7600</v>
       </c>
       <c r="E147">
-        <v>1407.137284200428</v>
+        <v>1822.473922902494</v>
       </c>
       <c r="F147">
         <v>32.06751054852321</v>
@@ -4430,13 +4430,13 @@
         <v>9000</v>
       </c>
       <c r="C148">
-        <v>58.82352941176471</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D148">
         <v>2400</v>
       </c>
       <c r="E148">
-        <v>1118.235294117647</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F148">
         <v>32</v>
@@ -4450,13 +4450,13 @@
         <v>17460</v>
       </c>
       <c r="C149">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D149">
         <v>4800</v>
       </c>
       <c r="E149">
-        <v>1284.187467798959</v>
+        <v>1655.807256235827</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4470,13 +4470,13 @@
         <v>15260</v>
       </c>
       <c r="C150">
-        <v>103.8961038961039</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D150">
         <v>4800</v>
       </c>
       <c r="E150">
-        <v>1250.295390883626</v>
+        <v>1610.37074829932</v>
       </c>
       <c r="F150">
         <v>32</v>
@@ -4490,13 +4490,13 @@
         <v>7500</v>
       </c>
       <c r="C151">
-        <v>67.79661016949153</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D151">
         <v>2400</v>
       </c>
       <c r="E151">
-        <v>1089.322033898305</v>
+        <v>1390.047619047619</v>
       </c>
       <c r="F151">
         <v>32</v>
@@ -4510,13 +4510,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D152">
         <v>6000</v>
       </c>
       <c r="E152">
-        <v>1179.732620320856</v>
+        <v>1513.34693877551</v>
       </c>
       <c r="F152">
         <v>32.0855614973262</v>
@@ -4530,13 +4530,13 @@
         <v>14400</v>
       </c>
       <c r="C153">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D153">
         <v>6000</v>
       </c>
       <c r="E153">
-        <v>1231.680672268908</v>
+        <v>1584.775510204081</v>
       </c>
       <c r="F153">
         <v>32.0855614973262</v>
@@ -4550,13 +4550,13 @@
         <v>35600</v>
       </c>
       <c r="C154">
-        <v>128.2051282051282</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D154">
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>1579.775610786123</v>
+        <v>2055.374355802927</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4570,13 +4570,13 @@
         <v>8400</v>
       </c>
       <c r="C155">
-        <v>117.6470588235294</v>
+        <v>163.265306122449</v>
       </c>
       <c r="D155">
         <v>4800</v>
       </c>
       <c r="E155">
-        <v>1103.529411764706</v>
+        <v>1408.755102040816</v>
       </c>
       <c r="F155">
         <v>32</v>
@@ -4590,13 +4590,13 @@
         <v>6600</v>
       </c>
       <c r="C156">
-        <v>16.94915254237288</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="D156">
         <v>600</v>
       </c>
       <c r="E156">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F156">
         <v>33.33333333333334</v>
@@ -4610,13 +4610,13 @@
         <v>5600</v>
       </c>
       <c r="C157">
-        <v>56.49717514124294</v>
+        <v>79.36507936507937</v>
       </c>
       <c r="D157">
         <v>2000</v>
       </c>
       <c r="E157">
-        <v>1035.649717514124</v>
+        <v>1314.650793650794</v>
       </c>
       <c r="F157">
         <v>32.25806451612903</v>
@@ -4630,13 +4630,13 @@
         <v>7200</v>
       </c>
       <c r="C158">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D158">
         <v>3600</v>
       </c>
       <c r="E158">
-        <v>1080.847457627119</v>
+        <v>1378.142857142857</v>
       </c>
       <c r="F158">
         <v>32.14285714285715</v>
@@ -4650,13 +4650,13 @@
         <v>8100</v>
       </c>
       <c r="C159">
-        <v>176.4705882352941</v>
+        <v>244.8979591836735</v>
       </c>
       <c r="D159">
         <v>7200</v>
       </c>
       <c r="E159">
-        <v>1096.176470588235</v>
+        <v>1398.551020408163</v>
       </c>
       <c r="F159">
         <v>32</v>
@@ -4670,13 +4670,13 @@
         <v>35800</v>
       </c>
       <c r="C160">
-        <v>144.2307692307693</v>
+        <v>194.8051948051948</v>
       </c>
       <c r="D160">
         <v>9000</v>
       </c>
       <c r="E160">
-        <v>1582.980738991251</v>
+        <v>2059.703360131931</v>
       </c>
       <c r="F160">
         <v>32.02846975088968</v>
@@ -4690,13 +4690,13 @@
         <v>28600</v>
       </c>
       <c r="C161">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D161">
         <v>6000</v>
       </c>
       <c r="E161">
-        <v>1477.312722796919</v>
+        <v>1917.712018140589</v>
       </c>
       <c r="F161">
         <v>32.0855614973262</v>
@@ -4710,13 +4710,13 @@
         <v>13200</v>
       </c>
       <c r="C162">
-        <v>77.92207792207793</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D162">
         <v>3600</v>
       </c>
       <c r="E162">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F162">
         <v>32.14285714285715</v>
@@ -4730,13 +4730,13 @@
         <v>24400</v>
       </c>
       <c r="C163">
-        <v>157.8947368421053</v>
+        <v>214.2857142857142</v>
       </c>
       <c r="D163">
         <v>9000</v>
       </c>
       <c r="E163">
-        <v>1403.628512270603</v>
+        <v>1817.712018140589</v>
       </c>
       <c r="F163">
         <v>32.02846975088968</v>
@@ -4750,13 +4750,13 @@
         <v>32200</v>
       </c>
       <c r="C164">
-        <v>153.8461538461539</v>
+        <v>207.7922077922077</v>
       </c>
       <c r="D164">
         <v>9600</v>
       </c>
       <c r="E164">
-        <v>1525.288431298943</v>
+        <v>1981.781282209854</v>
       </c>
       <c r="F164">
         <v>32</v>
@@ -4770,13 +4770,13 @@
         <v>18660</v>
       </c>
       <c r="C165">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D165">
         <v>6000</v>
       </c>
       <c r="E165">
-        <v>1307.443281752447</v>
+        <v>1687.553287981859</v>
       </c>
       <c r="F165">
         <v>32.0855614973262</v>
@@ -4790,13 +4790,13 @@
         <v>27860</v>
       </c>
       <c r="C166">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D166">
         <v>9200</v>
       </c>
       <c r="E166">
-        <v>1464.330266656568</v>
+        <v>1900.092970521542</v>
       </c>
       <c r="F166">
         <v>32.05574912891986</v>
@@ -4810,13 +4810,13 @@
         <v>25860</v>
       </c>
       <c r="C167">
-        <v>126.3157894736842</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D167">
         <v>7200</v>
       </c>
       <c r="E167">
-        <v>1429.242547358323</v>
+        <v>1852.473922902494</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4830,13 +4830,13 @@
         <v>40860</v>
       </c>
       <c r="C168">
-        <v>141.5929203539823</v>
+        <v>190.4761904761904</v>
       </c>
       <c r="D168">
         <v>9600</v>
       </c>
       <c r="E168">
-        <v>1650.464287890729</v>
+        <v>2149.999175427747</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4850,13 +4850,13 @@
         <v>30400</v>
       </c>
       <c r="C169">
-        <v>128.2051282051282</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D169">
         <v>8000</v>
       </c>
       <c r="E169">
-        <v>1496.442277452789</v>
+        <v>1942.820243248815</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4870,13 +4870,13 @@
         <v>20060</v>
       </c>
       <c r="C170">
-        <v>186.046511627907</v>
+        <v>253.9682539682539</v>
       </c>
       <c r="D170">
         <v>9600</v>
       </c>
       <c r="E170">
-        <v>1334.575064698184</v>
+        <v>1724.590325018896</v>
       </c>
       <c r="F170">
         <v>32</v>
@@ -4890,13 +4890,13 @@
         <v>12600</v>
       </c>
       <c r="C171">
-        <v>194.8051948051948</v>
+        <v>267.8571428571428</v>
       </c>
       <c r="D171">
         <v>9000</v>
       </c>
       <c r="E171">
-        <v>1192.719633307869</v>
+        <v>1531.204081632653</v>
       </c>
       <c r="F171">
         <v>32.02846975088968</v>
@@ -4910,13 +4910,13 @@
         <v>33600</v>
       </c>
       <c r="C172">
-        <v>179.4871794871795</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="D172">
         <v>11200</v>
       </c>
       <c r="E172">
-        <v>1547.724328734841</v>
+        <v>2012.084312512884</v>
       </c>
       <c r="F172">
         <v>32</v>
@@ -4930,13 +4930,13 @@
         <v>19200</v>
       </c>
       <c r="C173">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D173">
         <v>6000</v>
       </c>
       <c r="E173">
-        <v>1317.908398031517</v>
+        <v>1701.839002267574</v>
       </c>
       <c r="F173">
         <v>32.0855614973262</v>
@@ -4950,13 +4950,13 @@
         <v>30600</v>
       </c>
       <c r="C174">
-        <v>115.3846153846154</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D174">
         <v>7200</v>
       </c>
       <c r="E174">
-        <v>1499.647405657917</v>
+        <v>1947.149247577819</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -4970,13 +4970,13 @@
         <v>18600</v>
       </c>
       <c r="C175">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D175">
         <v>6000</v>
       </c>
       <c r="E175">
-        <v>1306.280491054773</v>
+        <v>1685.965986394558</v>
       </c>
       <c r="F175">
         <v>32.0855614973262</v>
@@ -4990,13 +4990,13 @@
         <v>11260</v>
       </c>
       <c r="C176">
-        <v>98.03921568627452</v>
+        <v>136.0544217687075</v>
       </c>
       <c r="D176">
         <v>4000</v>
       </c>
       <c r="E176">
-        <v>1173.627450980392</v>
+        <v>1506.034013605442</v>
       </c>
       <c r="F176">
         <v>32</v>
@@ -5010,13 +5010,13 @@
         <v>34200</v>
       </c>
       <c r="C177">
-        <v>153.8461538461539</v>
+        <v>207.7922077922077</v>
       </c>
       <c r="D177">
         <v>9600</v>
       </c>
       <c r="E177">
-        <v>1557.339713350225</v>
+        <v>2025.071325499897</v>
       </c>
       <c r="F177">
         <v>32</v>
@@ -5030,13 +5030,13 @@
         <v>16260</v>
       </c>
       <c r="C178">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D178">
         <v>6000</v>
       </c>
       <c r="E178">
-        <v>1260.93165384547</v>
+        <v>1624.061224489796</v>
       </c>
       <c r="F178">
         <v>32.0855614973262</v>
@@ -5050,13 +5050,13 @@
         <v>18400</v>
       </c>
       <c r="C179">
-        <v>124.031007751938</v>
+        <v>169.3121693121693</v>
       </c>
       <c r="D179">
         <v>6400</v>
       </c>
       <c r="E179">
-        <v>1302.404522062525</v>
+        <v>1680.674981103552</v>
       </c>
       <c r="F179">
         <v>32</v>
@@ -5070,13 +5070,13 @@
         <v>17400</v>
       </c>
       <c r="C180">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D180">
         <v>4800</v>
       </c>
       <c r="E180">
-        <v>1283.024677101284</v>
+        <v>1654.219954648526</v>
       </c>
       <c r="F180">
         <v>32</v>
@@ -5090,13 +5090,13 @@
         <v>17460</v>
       </c>
       <c r="C181">
-        <v>93.0232558139535</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D181">
         <v>4800</v>
       </c>
       <c r="E181">
-        <v>1284.187467798959</v>
+        <v>1655.807256235827</v>
       </c>
       <c r="F181">
         <v>32</v>
@@ -5110,13 +5110,13 @@
         <v>20000</v>
       </c>
       <c r="C182">
-        <v>155.0387596899225</v>
+        <v>211.6402116402116</v>
       </c>
       <c r="D182">
         <v>8000</v>
       </c>
       <c r="E182">
-        <v>1333.412274000509</v>
+        <v>1723.003023431595</v>
       </c>
       <c r="F182">
         <v>32</v>
@@ -5130,13 +5130,13 @@
         <v>20400</v>
       </c>
       <c r="C183">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D183">
         <v>6000</v>
       </c>
       <c r="E183">
-        <v>1341.164211985005</v>
+        <v>1733.585034013605</v>
       </c>
       <c r="F183">
         <v>32.0855614973262</v>
@@ -5150,13 +5150,13 @@
         <v>16000</v>
       </c>
       <c r="C184">
-        <v>216.4502164502165</v>
+        <v>297.6190476190476</v>
       </c>
       <c r="D184">
         <v>10000</v>
       </c>
       <c r="E184">
-        <v>1266.312706900942</v>
+        <v>1632.394557823129</v>
       </c>
       <c r="F184">
         <v>32.05128205128205</v>
@@ -5170,13 +5170,13 @@
         <v>6600</v>
       </c>
       <c r="C185">
-        <v>101.6949152542373</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D185">
         <v>3600</v>
       </c>
       <c r="E185">
-        <v>1063.898305084746</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F185">
         <v>32.14285714285715</v>
@@ -5190,13 +5190,13 @@
         <v>15600</v>
       </c>
       <c r="C186">
-        <v>181.8181818181818</v>
+        <v>250</v>
       </c>
       <c r="D186">
         <v>8400</v>
       </c>
       <c r="E186">
-        <v>1257.654698242934</v>
+        <v>1620.489795918367</v>
       </c>
       <c r="F186">
         <v>32.06106870229008</v>
@@ -5210,13 +5210,13 @@
         <v>10200</v>
       </c>
       <c r="C187">
-        <v>176.4705882352941</v>
+        <v>244.8979591836735</v>
       </c>
       <c r="D187">
         <v>7200</v>
       </c>
       <c r="E187">
-        <v>1147.647058823529</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F187">
         <v>32</v>
@@ -5230,13 +5230,13 @@
         <v>13200</v>
       </c>
       <c r="C188">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D188">
         <v>7200</v>
       </c>
       <c r="E188">
-        <v>1205.706646294881</v>
+        <v>1549.061224489796</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -5250,13 +5250,13 @@
         <v>35400</v>
       </c>
       <c r="C189">
-        <v>176.2820512820513</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D189">
         <v>11000</v>
       </c>
       <c r="E189">
-        <v>1576.570482580994</v>
+        <v>2051.045351473923</v>
       </c>
       <c r="F189">
         <v>32.06997084548105</v>
@@ -5270,13 +5270,13 @@
         <v>43800</v>
       </c>
       <c r="C190">
-        <v>171.0914454277286</v>
+        <v>230.1587301587301</v>
       </c>
       <c r="D190">
         <v>11600</v>
       </c>
       <c r="E190">
-        <v>1693.827119749136</v>
+        <v>2208.33250876108</v>
       </c>
       <c r="F190">
         <v>32.04419889502763</v>
@@ -5290,13 +5290,13 @@
         <v>37860</v>
       </c>
       <c r="C191">
-        <v>153.8461538461539</v>
+        <v>207.7922077922077</v>
       </c>
       <c r="D191">
         <v>9600</v>
       </c>
       <c r="E191">
-        <v>1615.993559504072</v>
+        <v>2104.292104720676</v>
       </c>
       <c r="F191">
         <v>32</v>
@@ -5310,13 +5310,13 @@
         <v>22260</v>
       </c>
       <c r="C192">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D192">
         <v>6000</v>
       </c>
       <c r="E192">
-        <v>1366.08465262148</v>
+        <v>1766.759637188208</v>
       </c>
       <c r="F192">
         <v>32.0855614973262</v>
@@ -5330,13 +5330,13 @@
         <v>39060</v>
       </c>
       <c r="C193">
-        <v>179.4871794871795</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="D193">
         <v>11200</v>
       </c>
       <c r="E193">
-        <v>1635.224328734841</v>
+        <v>2130.266130694702</v>
       </c>
       <c r="F193">
         <v>32</v>
@@ -5350,13 +5350,13 @@
         <v>51660</v>
       </c>
       <c r="C194">
-        <v>159.2920353982301</v>
+        <v>214.2857142857142</v>
       </c>
       <c r="D194">
         <v>10800</v>
       </c>
       <c r="E194">
-        <v>1809.756323288959</v>
+        <v>2364.284889713461</v>
       </c>
       <c r="F194">
         <v>32.04747774480713</v>
@@ -5370,13 +5370,13 @@
         <v>40400</v>
       </c>
       <c r="C195">
-        <v>147.4926253687316</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D195">
         <v>10000</v>
       </c>
       <c r="E195">
-        <v>1643.679627123767</v>
+        <v>2140.872191300763</v>
       </c>
       <c r="F195">
         <v>32.05128205128205</v>
@@ -5390,13 +5390,13 @@
         <v>19800</v>
       </c>
       <c r="C196">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D196">
         <v>7200</v>
       </c>
       <c r="E196">
-        <v>1329.536305008261</v>
+        <v>1717.712018140589</v>
       </c>
       <c r="F196">
         <v>32</v>
@@ -5410,13 +5410,13 @@
         <v>18600</v>
       </c>
       <c r="C197">
-        <v>116.2790697674419</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D197">
         <v>6000</v>
       </c>
       <c r="E197">
-        <v>1306.280491054773</v>
+        <v>1685.965986394558</v>
       </c>
       <c r="F197">
         <v>32.0855614973262</v>
@@ -5430,13 +5430,13 @@
         <v>46800</v>
       </c>
       <c r="C198">
-        <v>194.6902654867257</v>
+        <v>261.9047619047618</v>
       </c>
       <c r="D198">
         <v>13200</v>
       </c>
       <c r="E198">
-        <v>1738.074907359756</v>
+        <v>2267.856318284889</v>
       </c>
       <c r="F198">
         <v>32.03883495145631</v>
@@ -5450,13 +5450,13 @@
         <v>27200</v>
       </c>
       <c r="C199">
-        <v>140.3508771929825</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D199">
         <v>8000</v>
       </c>
       <c r="E199">
-        <v>1452.751319288147</v>
+        <v>1884.378684807256</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5470,13 +5470,13 @@
         <v>19260</v>
       </c>
       <c r="C200">
-        <v>232.5581395348837</v>
+        <v>317.4603174603174</v>
       </c>
       <c r="D200">
         <v>12000</v>
       </c>
       <c r="E200">
-        <v>1319.071188729191</v>
+        <v>1703.426303854875</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5490,13 +5490,13 @@
         <v>39000</v>
       </c>
       <c r="C201">
-        <v>134.6153846153846</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="D201">
         <v>8400</v>
       </c>
       <c r="E201">
-        <v>1634.262790273302</v>
+        <v>2128.967429396001</v>
       </c>
       <c r="F201">
         <v>32.06106870229008</v>
@@ -5510,13 +5510,13 @@
         <v>15600</v>
       </c>
       <c r="C202">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D202">
         <v>7200</v>
       </c>
       <c r="E202">
-        <v>1257.654698242934</v>
+        <v>1620.489795918367</v>
       </c>
       <c r="F202">
         <v>32</v>
@@ -5530,13 +5530,13 @@
         <v>28600</v>
       </c>
       <c r="C203">
-        <v>175.4385964912281</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D203">
         <v>10000</v>
       </c>
       <c r="E203">
-        <v>1477.312722796919</v>
+        <v>1917.712018140589</v>
       </c>
       <c r="F203">
         <v>32.05128205128205</v>
@@ -5550,13 +5550,13 @@
         <v>23400</v>
       </c>
       <c r="C204">
-        <v>126.3157894736842</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D204">
         <v>7200</v>
       </c>
       <c r="E204">
-        <v>1386.08465262148</v>
+        <v>1793.902494331066</v>
       </c>
       <c r="F204">
         <v>32</v>
@@ -5570,13 +5570,13 @@
         <v>9200</v>
       </c>
       <c r="C205">
-        <v>122.5490196078431</v>
+        <v>170.0680272108844</v>
       </c>
       <c r="D205">
         <v>5000</v>
       </c>
       <c r="E205">
-        <v>1123.137254901961</v>
+        <v>1435.965986394558</v>
       </c>
       <c r="F205">
         <v>11.11111111111111</v>
@@ -5590,13 +5590,13 @@
         <v>33800</v>
       </c>
       <c r="C206">
-        <v>128.2051282051282</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D206">
         <v>8000</v>
       </c>
       <c r="E206">
-        <v>1550.929456939969</v>
+        <v>2016.413316841888</v>
       </c>
       <c r="F206">
         <v>32</v>
@@ -5610,13 +5610,13 @@
         <v>14460</v>
       </c>
       <c r="C207">
-        <v>86.58008658008659</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D207">
         <v>4000</v>
       </c>
       <c r="E207">
-        <v>1232.979373567609</v>
+        <v>1586.561224489796</v>
       </c>
       <c r="F207">
         <v>32</v>
@@ -5630,13 +5630,13 @@
         <v>22000</v>
       </c>
       <c r="C208">
-        <v>96.89922480620156</v>
+        <v>132.2751322751323</v>
       </c>
       <c r="D208">
         <v>5000</v>
       </c>
       <c r="E208">
-        <v>1372.17196392299</v>
+        <v>1775.913076341648</v>
       </c>
       <c r="F208">
         <v>32.05128205128205</v>
@@ -5650,13 +5650,13 @@
         <v>45800</v>
       </c>
       <c r="C209">
-        <v>171.0914454277286</v>
+        <v>230.1587301587301</v>
       </c>
       <c r="D209">
         <v>11600</v>
       </c>
       <c r="E209">
-        <v>1723.325644822882</v>
+        <v>2248.01504844362</v>
       </c>
       <c r="F209">
         <v>32.04419889502763</v>
@@ -5670,13 +5670,13 @@
         <v>33400</v>
       </c>
       <c r="C210">
-        <v>76.92307692307693</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D210">
         <v>4800</v>
       </c>
       <c r="E210">
-        <v>1544.519200529712</v>
+        <v>2007.75530818388</v>
       </c>
       <c r="F210">
         <v>32</v>
@@ -5690,13 +5690,13 @@
         <v>33660</v>
       </c>
       <c r="C211">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D211">
         <v>14400</v>
       </c>
       <c r="E211">
-        <v>1548.685867196379</v>
+        <v>2013.383013811585</v>
       </c>
       <c r="F211">
         <v>32</v>
@@ -5710,13 +5710,13 @@
         <v>28400</v>
       </c>
       <c r="C212">
-        <v>147.3684210526316</v>
+        <v>200</v>
       </c>
       <c r="D212">
         <v>8400</v>
       </c>
       <c r="E212">
-        <v>1473.803950867094</v>
+        <v>1912.950113378685</v>
       </c>
       <c r="F212">
         <v>32.06106870229008</v>
@@ -5730,13 +5730,13 @@
         <v>33600</v>
       </c>
       <c r="C213">
-        <v>80.12820512820514</v>
+        <v>108.2251082251082</v>
       </c>
       <c r="D213">
         <v>5000</v>
       </c>
       <c r="E213">
-        <v>1547.724328734841</v>
+        <v>2012.084312512884</v>
       </c>
       <c r="F213">
         <v>32.05128205128205</v>
@@ -5750,13 +5750,13 @@
         <v>46260</v>
       </c>
       <c r="C214">
-        <v>442.4778761061947</v>
+        <v>595.2380952380951</v>
       </c>
       <c r="D214">
         <v>30000</v>
       </c>
       <c r="E214">
-        <v>1730.110305589844</v>
+        <v>2257.142032570604</v>
       </c>
       <c r="F214">
         <v>66.66666666666667</v>
@@ -5770,13 +5770,13 @@
         <v>30000</v>
       </c>
       <c r="C215">
-        <v>175.4385964912281</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D215">
         <v>10000</v>
       </c>
       <c r="E215">
-        <v>1501.874126305691</v>
+        <v>1951.045351473923</v>
       </c>
       <c r="F215">
         <v>32.05128205128205</v>
@@ -5790,13 +5790,13 @@
         <v>24200</v>
       </c>
       <c r="C216">
-        <v>140.3508771929825</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D216">
         <v>8000</v>
       </c>
       <c r="E216">
-        <v>1400.119740340779</v>
+        <v>1812.950113378685</v>
       </c>
       <c r="F216">
         <v>32</v>
@@ -5810,13 +5810,13 @@
         <v>29400</v>
       </c>
       <c r="C217">
-        <v>157.8947368421053</v>
+        <v>214.2857142857142</v>
       </c>
       <c r="D217">
         <v>9000</v>
       </c>
       <c r="E217">
-        <v>1491.347810516217</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F217">
         <v>32.02846975088968</v>
@@ -5830,13 +5830,13 @@
         <v>28000</v>
       </c>
       <c r="C218">
-        <v>210.5263157894737</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="D218">
         <v>12000</v>
       </c>
       <c r="E218">
-        <v>1466.786407007445</v>
+        <v>1903.426303854875</v>
       </c>
       <c r="F218">
         <v>32</v>
@@ -5850,13 +5850,13 @@
         <v>14400</v>
       </c>
       <c r="C219">
-        <v>155.8441558441559</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="D219">
         <v>7200</v>
       </c>
       <c r="E219">
-        <v>1231.680672268908</v>
+        <v>1584.775510204081</v>
       </c>
       <c r="F219">
         <v>32</v>
@@ -5870,13 +5870,13 @@
         <v>15300</v>
       </c>
       <c r="C220">
-        <v>311.6883116883117</v>
+        <v>428.5714285714286</v>
       </c>
       <c r="D220">
         <v>14400</v>
       </c>
       <c r="E220">
-        <v>1251.161191749427</v>
+        <v>1611.561224489796</v>
       </c>
       <c r="F220">
         <v>32</v>
@@ -5890,13 +5890,13 @@
         <v>10200</v>
       </c>
       <c r="C221">
-        <v>176.4705882352941</v>
+        <v>244.8979591836735</v>
       </c>
       <c r="D221">
         <v>7200</v>
       </c>
       <c r="E221">
-        <v>1147.647058823529</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -5910,13 +5910,13 @@
         <v>46800</v>
       </c>
       <c r="C222">
-        <v>162.2418879056047</v>
+        <v>218.2539682539682</v>
       </c>
       <c r="D222">
         <v>11000</v>
       </c>
       <c r="E222">
-        <v>1738.074907359756</v>
+        <v>2267.856318284889</v>
       </c>
       <c r="F222">
         <v>32.06997084548105</v>
@@ -5930,13 +5930,13 @@
         <v>16800</v>
       </c>
       <c r="C223">
-        <v>162.7906976744186</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="D223">
         <v>8400</v>
       </c>
       <c r="E223">
-        <v>1271.39677012454</v>
+        <v>1638.34693877551</v>
       </c>
       <c r="F223">
         <v>32.06106870229008</v>
@@ -5950,13 +5950,13 @@
         <v>53800</v>
       </c>
       <c r="C224">
-        <v>185.7923497267759</v>
+        <v>249.084249084249</v>
       </c>
       <c r="D224">
         <v>13600</v>
       </c>
       <c r="E224">
-        <v>1826.522124343169</v>
+        <v>2385.988186416758</v>
       </c>
       <c r="F224">
         <v>32</v>
@@ -5970,13 +5970,13 @@
         <v>12660</v>
       </c>
       <c r="C225">
-        <v>129.8701298701299</v>
+        <v>178.5714285714286</v>
       </c>
       <c r="D225">
         <v>6000</v>
       </c>
       <c r="E225">
-        <v>1194.01833460657</v>
+        <v>1532.989795918367</v>
       </c>
       <c r="F225">
         <v>32.0855614973262</v>
@@ -5990,13 +5990,13 @@
         <v>48660</v>
       </c>
       <c r="C226">
-        <v>159.2920353982301</v>
+        <v>214.2857142857142</v>
       </c>
       <c r="D226">
         <v>10800</v>
       </c>
       <c r="E226">
-        <v>1765.50853567834</v>
+        <v>2304.761080189651</v>
       </c>
       <c r="F226">
         <v>32.04747774480713</v>
@@ -6010,13 +6010,13 @@
         <v>30260</v>
       </c>
       <c r="C227">
-        <v>128.2051282051282</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D227">
         <v>8000</v>
       </c>
       <c r="E227">
-        <v>1494.1986877092</v>
+        <v>1939.789940218511</v>
       </c>
       <c r="F227">
         <v>32</v>
@@ -6030,13 +6030,13 @@
         <v>63660</v>
       </c>
       <c r="C228">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D228">
         <v>12000</v>
       </c>
       <c r="E228">
-        <v>1961.221577895081</v>
+        <v>2566.574267002838</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6050,13 +6050,13 @@
         <v>52400</v>
       </c>
       <c r="C229">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D229">
         <v>12000</v>
       </c>
       <c r="E229">
-        <v>1807.396441283059</v>
+        <v>2360.347160775732</v>
       </c>
       <c r="F229">
         <v>32</v>
@@ -6070,13 +6070,13 @@
         <v>25400</v>
       </c>
       <c r="C230">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D230">
         <v>9200</v>
       </c>
       <c r="E230">
-        <v>1421.172371919726</v>
+        <v>1841.521541950113</v>
       </c>
       <c r="F230">
         <v>32.05574912891986</v>
@@ -6090,13 +6090,13 @@
         <v>26600</v>
       </c>
       <c r="C231">
-        <v>140.3508771929825</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D231">
         <v>8000</v>
       </c>
       <c r="E231">
-        <v>1442.225003498673</v>
+        <v>1870.092970521542</v>
       </c>
       <c r="F231">
         <v>32</v>
@@ -6110,13 +6110,13 @@
         <v>21600</v>
       </c>
       <c r="C232">
-        <v>279.0697674418605</v>
+        <v>380.9523809523809</v>
       </c>
       <c r="D232">
         <v>14400</v>
       </c>
       <c r="E232">
-        <v>1364.420025938494</v>
+        <v>1765.331065759637</v>
       </c>
       <c r="F232">
         <v>32</v>
@@ -6130,13 +6130,13 @@
         <v>55400</v>
       </c>
       <c r="C233">
-        <v>207.6502732240437</v>
+        <v>278.3882783882783</v>
       </c>
       <c r="D233">
         <v>15200</v>
       </c>
       <c r="E233">
-        <v>1848.380047840436</v>
+        <v>2415.292215720787</v>
       </c>
       <c r="F233">
         <v>33.77777777777778</v>
@@ -6150,13 +6150,13 @@
         <v>27660</v>
       </c>
       <c r="C234">
-        <v>263.1578947368421</v>
+        <v>357.1428571428571</v>
       </c>
       <c r="D234">
         <v>15000</v>
       </c>
       <c r="E234">
-        <v>1460.821494726744</v>
+        <v>1895.331065759637</v>
       </c>
       <c r="F234">
         <v>33.33333333333334</v>
@@ -6170,13 +6170,13 @@
         <v>37800</v>
       </c>
       <c r="C235">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D235">
         <v>14400</v>
       </c>
       <c r="E235">
-        <v>1615.032021042533</v>
+        <v>2102.993403421975</v>
       </c>
       <c r="F235">
         <v>32</v>
@@ -6190,13 +6190,13 @@
         <v>37200</v>
       </c>
       <c r="C236">
-        <v>160.2564102564103</v>
+        <v>216.4502164502164</v>
       </c>
       <c r="D236">
         <v>10000</v>
       </c>
       <c r="E236">
-        <v>1605.416636427148</v>
+        <v>2090.006390434962</v>
       </c>
       <c r="F236">
         <v>32.05128205128205</v>
@@ -6210,13 +6210,13 @@
         <v>23200</v>
       </c>
       <c r="C237">
-        <v>175.4385964912281</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D237">
         <v>10000</v>
       </c>
       <c r="E237">
-        <v>1382.575880691656</v>
+        <v>1789.140589569161</v>
       </c>
       <c r="F237">
         <v>32.05128205128205</v>
@@ -6230,13 +6230,13 @@
         <v>21660</v>
       </c>
       <c r="C238">
-        <v>279.0697674418605</v>
+        <v>380.9523809523809</v>
       </c>
       <c r="D238">
         <v>14400</v>
       </c>
       <c r="E238">
-        <v>1365.582816636168</v>
+        <v>1766.918367346939</v>
       </c>
       <c r="F238">
         <v>32</v>
@@ -6250,13 +6250,13 @@
         <v>48600</v>
       </c>
       <c r="C239">
-        <v>141.5929203539823</v>
+        <v>190.4761904761904</v>
       </c>
       <c r="D239">
         <v>9600</v>
       </c>
       <c r="E239">
-        <v>1764.623579926127</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F239">
         <v>32</v>
@@ -6270,13 +6270,13 @@
         <v>43800</v>
       </c>
       <c r="C240">
-        <v>147.4926253687316</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D240">
         <v>10000</v>
       </c>
       <c r="E240">
-        <v>1693.827119749136</v>
+        <v>2208.33250876108</v>
       </c>
       <c r="F240">
         <v>32.05128205128205</v>
@@ -6290,13 +6290,13 @@
         <v>22000</v>
       </c>
       <c r="C241">
-        <v>96.89922480620156</v>
+        <v>132.2751322751323</v>
       </c>
       <c r="D241">
         <v>5000</v>
       </c>
       <c r="E241">
-        <v>1372.17196392299</v>
+        <v>1775.913076341648</v>
       </c>
       <c r="F241">
         <v>32.05128205128205</v>
@@ -6310,13 +6310,13 @@
         <v>59400</v>
       </c>
       <c r="C242">
-        <v>185.7923497267759</v>
+        <v>249.084249084249</v>
       </c>
       <c r="D242">
         <v>13600</v>
       </c>
       <c r="E242">
-        <v>1903.024856583606</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6330,13 +6330,13 @@
         <v>45000</v>
       </c>
       <c r="C243">
-        <v>106.1946902654867</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D243">
         <v>7200</v>
       </c>
       <c r="E243">
-        <v>1711.526234793384</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6350,13 +6350,13 @@
         <v>28860</v>
       </c>
       <c r="C244">
-        <v>126.3157894736842</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D244">
         <v>7200</v>
       </c>
       <c r="E244">
-        <v>1481.874126305691</v>
+        <v>1923.902494331066</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6370,13 +6370,13 @@
         <v>20200</v>
       </c>
       <c r="C245">
-        <v>77.51937984496125</v>
+        <v>105.8201058201058</v>
       </c>
       <c r="D245">
         <v>4000</v>
       </c>
       <c r="E245">
-        <v>1337.288242992757</v>
+        <v>1728.2940287226</v>
       </c>
       <c r="F245">
         <v>32</v>
@@ -6390,13 +6390,13 @@
         <v>36000</v>
       </c>
       <c r="C246">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D246">
         <v>14400</v>
       </c>
       <c r="E246">
-        <v>1586.185867196379</v>
+        <v>2064.032364460936</v>
       </c>
       <c r="F246">
         <v>32</v>
@@ -6410,13 +6410,13 @@
         <v>28000</v>
       </c>
       <c r="C247">
-        <v>84.21052631578948</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D247">
         <v>4800</v>
       </c>
       <c r="E247">
-        <v>1466.786407007445</v>
+        <v>1903.426303854875</v>
       </c>
       <c r="F247">
         <v>32</v>
@@ -6430,13 +6430,13 @@
         <v>32000</v>
       </c>
       <c r="C248">
-        <v>192.3076923076923</v>
+        <v>259.7402597402597</v>
       </c>
       <c r="D248">
         <v>12000</v>
       </c>
       <c r="E248">
-        <v>1522.083303093815</v>
+        <v>1977.452277880849</v>
       </c>
       <c r="F248">
         <v>32</v>
@@ -6450,13 +6450,13 @@
         <v>45000</v>
       </c>
       <c r="C249">
-        <v>106.1946902654867</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D249">
         <v>7200</v>
       </c>
       <c r="E249">
-        <v>1711.526234793384</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F249">
         <v>32</v>
@@ -6470,13 +6470,13 @@
         <v>42660</v>
       </c>
       <c r="C250">
-        <v>221.2389380530973</v>
+        <v>297.6190476190475</v>
       </c>
       <c r="D250">
         <v>15000</v>
       </c>
       <c r="E250">
-        <v>1677.012960457101</v>
+        <v>2185.713461142032</v>
       </c>
       <c r="F250">
         <v>33.33333333333334</v>
@@ -6490,13 +6490,13 @@
         <v>34200</v>
       </c>
       <c r="C251">
-        <v>160.2564102564103</v>
+        <v>216.4502164502164</v>
       </c>
       <c r="D251">
         <v>10000</v>
       </c>
       <c r="E251">
-        <v>1557.339713350225</v>
+        <v>2025.071325499897</v>
       </c>
       <c r="F251">
         <v>32.05128205128205</v>
@@ -6510,13 +6510,13 @@
         <v>41400</v>
       </c>
       <c r="C252">
-        <v>176.9911504424779</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D252">
         <v>12000</v>
       </c>
       <c r="E252">
-        <v>1658.42888966064</v>
+        <v>2160.713461142032</v>
       </c>
       <c r="F252">
         <v>32</v>
@@ -6530,13 +6530,13 @@
         <v>42000</v>
       </c>
       <c r="C253">
-        <v>206.4896755162242</v>
+        <v>277.7777777777777</v>
       </c>
       <c r="D253">
         <v>14000</v>
       </c>
       <c r="E253">
-        <v>1667.278447182764</v>
+        <v>2172.618223046794</v>
       </c>
       <c r="F253">
         <v>32.03661327231121</v>
@@ -6550,13 +6550,13 @@
         <v>66600</v>
       </c>
       <c r="C254">
-        <v>183.206106870229</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D254">
         <v>14400</v>
       </c>
       <c r="E254">
-        <v>1987.87030771613</v>
+        <v>2601.582116296402</v>
       </c>
       <c r="F254">
         <v>32</v>
@@ -6570,13 +6570,13 @@
         <v>15600</v>
       </c>
       <c r="C255">
-        <v>207.7922077922078</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="D255">
         <v>9600</v>
       </c>
       <c r="E255">
-        <v>1257.654698242934</v>
+        <v>1620.489795918367</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6590,13 +6590,13 @@
         <v>19400</v>
       </c>
       <c r="C256">
-        <v>317.8294573643411</v>
+        <v>433.8624338624338</v>
       </c>
       <c r="D256">
         <v>16400</v>
       </c>
       <c r="E256">
-        <v>1321.784367023765</v>
+        <v>1707.130007558579</v>
       </c>
       <c r="F256">
         <v>36.44444444444444</v>
@@ -6610,13 +6610,13 @@
         <v>59800</v>
       </c>
       <c r="C257">
-        <v>177.5956284153006</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D257">
         <v>13000</v>
       </c>
       <c r="E257">
-        <v>1908.489337457923</v>
+        <v>2495.878296306867</v>
       </c>
       <c r="F257">
         <v>32.01970443349754</v>
@@ -6630,13 +6630,13 @@
         <v>38800</v>
       </c>
       <c r="C258">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D258">
         <v>14400</v>
       </c>
       <c r="E258">
-        <v>1631.057662068174</v>
+        <v>2124.638425066996</v>
       </c>
       <c r="F258">
         <v>32</v>
@@ -6650,13 +6650,13 @@
         <v>26200</v>
       </c>
       <c r="C259">
-        <v>228.0701754385965</v>
+        <v>309.5238095238095</v>
       </c>
       <c r="D259">
         <v>13000</v>
       </c>
       <c r="E259">
-        <v>1435.207459639024</v>
+        <v>1860.569160997732</v>
       </c>
       <c r="F259">
         <v>32.01970443349754</v>
@@ -6670,13 +6670,13 @@
         <v>69400</v>
       </c>
       <c r="C260">
-        <v>198.4732824427481</v>
+        <v>265.3061224489795</v>
       </c>
       <c r="D260">
         <v>15600</v>
       </c>
       <c r="E260">
-        <v>2023.493717385341</v>
+        <v>2649.201163915449</v>
       </c>
       <c r="F260">
         <v>34.66666666666666</v>
@@ -6690,13 +6690,13 @@
         <v>19860</v>
       </c>
       <c r="C261">
-        <v>139.5348837209303</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D261">
         <v>7200</v>
       </c>
       <c r="E261">
-        <v>1330.699095705936</v>
+        <v>1719.299319727891</v>
       </c>
       <c r="F261">
         <v>32</v>
@@ -6710,13 +6710,13 @@
         <v>60660</v>
       </c>
       <c r="C262">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D262">
         <v>12000</v>
       </c>
       <c r="E262">
-        <v>1920.237971337704</v>
+        <v>2511.629212057783</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6730,13 +6730,13 @@
         <v>40260</v>
       </c>
       <c r="C263">
-        <v>147.4926253687316</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D263">
         <v>10000</v>
       </c>
       <c r="E263">
-        <v>1641.614730368605</v>
+        <v>2138.094413522985</v>
       </c>
       <c r="F263">
         <v>32.05128205128205</v>
@@ -6750,13 +6750,13 @@
         <v>36200</v>
       </c>
       <c r="C264">
-        <v>320.5128205128206</v>
+        <v>432.9004329004328</v>
       </c>
       <c r="D264">
         <v>20000</v>
       </c>
       <c r="E264">
-        <v>1589.390995401507</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F264">
         <v>44.44444444444444</v>
@@ -6770,13 +6770,13 @@
         <v>66400</v>
       </c>
       <c r="C265">
-        <v>178.117048346056</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D265">
         <v>14000</v>
       </c>
       <c r="E265">
-        <v>1985.325778454043</v>
+        <v>2598.180755752184</v>
       </c>
       <c r="F265">
         <v>32.03661327231121</v>
@@ -6790,13 +6790,13 @@
         <v>36000</v>
       </c>
       <c r="C266">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D266">
         <v>14400</v>
       </c>
       <c r="E266">
-        <v>1586.185867196379</v>
+        <v>2064.032364460936</v>
       </c>
       <c r="F266">
         <v>32</v>
@@ -6810,13 +6810,13 @@
         <v>29400</v>
       </c>
       <c r="C267">
-        <v>231.5789473684211</v>
+        <v>314.2857142857142</v>
       </c>
       <c r="D267">
         <v>13200</v>
       </c>
       <c r="E267">
-        <v>1491.347810516217</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F267">
         <v>32.03883495145631</v>
@@ -6830,13 +6830,13 @@
         <v>36600</v>
       </c>
       <c r="C268">
-        <v>179.4871794871795</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="D268">
         <v>11200</v>
       </c>
       <c r="E268">
-        <v>1595.801251811764</v>
+        <v>2077.019377447949</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6850,13 +6850,13 @@
         <v>36600</v>
       </c>
       <c r="C269">
-        <v>160.2564102564103</v>
+        <v>216.4502164502164</v>
       </c>
       <c r="D269">
         <v>10000</v>
       </c>
       <c r="E269">
-        <v>1595.801251811764</v>
+        <v>2077.019377447949</v>
       </c>
       <c r="F269">
         <v>32.05128205128205</v>
@@ -6870,13 +6870,13 @@
         <v>22600</v>
       </c>
       <c r="C270">
-        <v>175.4385964912281</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D270">
         <v>10000</v>
       </c>
       <c r="E270">
-        <v>1372.049564902182</v>
+        <v>1774.854875283447</v>
       </c>
       <c r="F270">
         <v>32.05128205128205</v>
@@ -6890,13 +6890,13 @@
         <v>43200</v>
       </c>
       <c r="C271">
-        <v>424.7787610619469</v>
+        <v>571.4285714285713</v>
       </c>
       <c r="D271">
         <v>28800</v>
       </c>
       <c r="E271">
-        <v>1684.977562227012</v>
+        <v>2196.427746856318</v>
       </c>
       <c r="F271">
         <v>64</v>
@@ -6910,13 +6910,13 @@
         <v>22800</v>
       </c>
       <c r="C272">
-        <v>252.6315789473684</v>
+        <v>342.8571428571428</v>
       </c>
       <c r="D272">
         <v>14400</v>
       </c>
       <c r="E272">
-        <v>1375.558336832007</v>
+        <v>1779.616780045351</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -6930,13 +6930,13 @@
         <v>21600</v>
       </c>
       <c r="C273">
-        <v>279.0697674418605</v>
+        <v>380.9523809523809</v>
       </c>
       <c r="D273">
         <v>14400</v>
       </c>
       <c r="E273">
-        <v>1364.420025938494</v>
+        <v>1765.331065759637</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -6950,13 +6950,13 @@
         <v>27800</v>
       </c>
       <c r="C274">
-        <v>161.4035087719298</v>
+        <v>219.047619047619</v>
       </c>
       <c r="D274">
         <v>9200</v>
       </c>
       <c r="E274">
-        <v>1463.277635077621</v>
+        <v>1898.66439909297</v>
       </c>
       <c r="F274">
         <v>32.05574912891986</v>
@@ -6970,13 +6970,13 @@
         <v>36060</v>
       </c>
       <c r="C275">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D275">
         <v>14400</v>
       </c>
       <c r="E275">
-        <v>1587.147405657917</v>
+        <v>2065.331065759637</v>
       </c>
       <c r="F275">
         <v>32</v>
@@ -6990,13 +6990,13 @@
         <v>59400</v>
       </c>
       <c r="C276">
-        <v>147.5409836065574</v>
+        <v>197.8021978021978</v>
       </c>
       <c r="D276">
         <v>10800</v>
       </c>
       <c r="E276">
-        <v>1903.024856583606</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F276">
         <v>32.04747774480713</v>
@@ -7010,13 +7010,13 @@
         <v>55800</v>
       </c>
       <c r="C277">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D277">
         <v>12000</v>
       </c>
       <c r="E277">
-        <v>1853.844528714753</v>
+        <v>2422.618223046794</v>
       </c>
       <c r="F277">
         <v>32</v>
@@ -7030,13 +7030,13 @@
         <v>48200</v>
       </c>
       <c r="C278">
-        <v>73.74631268436579</v>
+        <v>99.20634920634919</v>
       </c>
       <c r="D278">
         <v>5000</v>
       </c>
       <c r="E278">
-        <v>1758.723874911378</v>
+        <v>2295.634096062667</v>
       </c>
       <c r="F278">
         <v>32.05128205128205</v>
@@ -7050,13 +7050,13 @@
         <v>75000</v>
       </c>
       <c r="C279">
-        <v>198.4732824427481</v>
+        <v>265.3061224489795</v>
       </c>
       <c r="D279">
         <v>15600</v>
       </c>
       <c r="E279">
-        <v>2094.740536723763</v>
+        <v>2744.439259153545</v>
       </c>
       <c r="F279">
         <v>34.66666666666666</v>
@@ -7070,13 +7070,13 @@
         <v>23400</v>
       </c>
       <c r="C280">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D280">
         <v>6000</v>
       </c>
       <c r="E280">
-        <v>1386.08465262148</v>
+        <v>1793.902494331066</v>
       </c>
       <c r="F280">
         <v>32.0855614973262</v>
@@ -7090,13 +7090,13 @@
         <v>37200</v>
       </c>
       <c r="C281">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D281">
         <v>14400</v>
       </c>
       <c r="E281">
-        <v>1605.416636427148</v>
+        <v>2090.006390434962</v>
       </c>
       <c r="F281">
         <v>32</v>
@@ -7110,13 +7110,13 @@
         <v>57600</v>
       </c>
       <c r="C282">
-        <v>196.7213114754098</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D282">
         <v>14400</v>
       </c>
       <c r="E282">
-        <v>1878.434692649179</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F282">
         <v>32</v>
@@ -7130,13 +7130,13 @@
         <v>36000</v>
       </c>
       <c r="C283">
-        <v>230.7692307692308</v>
+        <v>311.6883116883116</v>
       </c>
       <c r="D283">
         <v>14400</v>
       </c>
       <c r="E283">
-        <v>1586.185867196379</v>
+        <v>2064.032364460936</v>
       </c>
       <c r="F283">
         <v>32</v>
@@ -7150,13 +7150,13 @@
         <v>57600</v>
       </c>
       <c r="C284">
-        <v>196.7213114754098</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D284">
         <v>14400</v>
       </c>
       <c r="E284">
-        <v>1878.434692649179</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F284">
         <v>32</v>
@@ -7170,13 +7170,13 @@
         <v>27600</v>
       </c>
       <c r="C285">
-        <v>210.5263157894737</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="D285">
         <v>12000</v>
       </c>
       <c r="E285">
-        <v>1459.768863147796</v>
+        <v>1893.902494331066</v>
       </c>
       <c r="F285">
         <v>32</v>
@@ -7190,13 +7190,13 @@
         <v>30800</v>
       </c>
       <c r="C286">
-        <v>243.5897435897436</v>
+        <v>329.004329004329</v>
       </c>
       <c r="D286">
         <v>15200</v>
       </c>
       <c r="E286">
-        <v>1502.852533863046</v>
+        <v>1951.478251906823</v>
       </c>
       <c r="F286">
         <v>33.77777777777778</v>
@@ -7210,13 +7210,13 @@
         <v>53400</v>
       </c>
       <c r="C287">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D287">
         <v>12000</v>
       </c>
       <c r="E287">
-        <v>1821.057643468851</v>
+        <v>2378.66217909075</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7230,13 +7230,13 @@
         <v>22600</v>
       </c>
       <c r="C288">
-        <v>175.4385964912281</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D288">
         <v>10000</v>
       </c>
       <c r="E288">
-        <v>1372.049564902182</v>
+        <v>1774.854875283447</v>
       </c>
       <c r="F288">
         <v>32.05128205128205</v>
@@ -7250,13 +7250,13 @@
         <v>29700</v>
       </c>
       <c r="C289">
-        <v>252.6315789473684</v>
+        <v>342.8571428571428</v>
       </c>
       <c r="D289">
         <v>14400</v>
       </c>
       <c r="E289">
-        <v>1496.610968410954</v>
+        <v>1943.902494331066</v>
       </c>
       <c r="F289">
         <v>32</v>
@@ -7270,13 +7270,13 @@
         <v>44100</v>
       </c>
       <c r="C290">
-        <v>424.7787610619469</v>
+        <v>571.4285714285713</v>
       </c>
       <c r="D290">
         <v>28800</v>
       </c>
       <c r="E290">
-        <v>1698.251898510198</v>
+        <v>2214.284889713461</v>
       </c>
       <c r="F290">
         <v>64</v>
@@ -7290,13 +7290,13 @@
         <v>29700</v>
       </c>
       <c r="C291">
-        <v>252.6315789473684</v>
+        <v>342.8571428571428</v>
       </c>
       <c r="D291">
         <v>14400</v>
       </c>
       <c r="E291">
-        <v>1496.610968410954</v>
+        <v>1943.902494331066</v>
       </c>
       <c r="F291">
         <v>32</v>
@@ -7310,13 +7310,13 @@
         <v>74800</v>
       </c>
       <c r="C292">
-        <v>190.8396946564885</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="D292">
         <v>15000</v>
       </c>
       <c r="E292">
-        <v>2092.196007461677</v>
+        <v>2741.037898609327</v>
       </c>
       <c r="F292">
         <v>33.33333333333334</v>
@@ -7330,13 +7330,13 @@
         <v>64200</v>
       </c>
       <c r="C293">
-        <v>393.4426229508197</v>
+        <v>527.4725274725273</v>
       </c>
       <c r="D293">
         <v>28800</v>
       </c>
       <c r="E293">
-        <v>1968.598627075409</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F293">
         <v>64</v>
@@ -7350,13 +7350,13 @@
         <v>87000</v>
       </c>
       <c r="C294">
-        <v>223.9185750636132</v>
+        <v>299.3197278911564</v>
       </c>
       <c r="D294">
         <v>17600</v>
       </c>
       <c r="E294">
-        <v>2247.412292448954</v>
+        <v>2948.520891806606</v>
       </c>
       <c r="F294">
         <v>39.11111111111111</v>
@@ -7370,13 +7370,13 @@
         <v>28260</v>
       </c>
       <c r="C295">
-        <v>147.3684210526316</v>
+        <v>200</v>
       </c>
       <c r="D295">
         <v>8400</v>
       </c>
       <c r="E295">
-        <v>1471.347810516217</v>
+        <v>1909.616780045351</v>
       </c>
       <c r="F295">
         <v>32.06106870229008</v>
@@ -7390,13 +7390,13 @@
         <v>52260</v>
       </c>
       <c r="C296">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D296">
         <v>12000</v>
       </c>
       <c r="E296">
-        <v>1805.483872977048</v>
+        <v>2357.783058211629</v>
       </c>
       <c r="F296">
         <v>32</v>
@@ -7410,13 +7410,13 @@
         <v>50400</v>
       </c>
       <c r="C297">
-        <v>212.3893805309735</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="D297">
         <v>14400</v>
       </c>
       <c r="E297">
-        <v>1791.172252492499</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F297">
         <v>32</v>
@@ -7430,13 +7430,13 @@
         <v>44600</v>
       </c>
       <c r="C298">
-        <v>224.188790560472</v>
+        <v>301.5873015873015</v>
       </c>
       <c r="D298">
         <v>15200</v>
       </c>
       <c r="E298">
-        <v>1705.626529778634</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F298">
         <v>33.77777777777778</v>
@@ -7450,13 +7450,13 @@
         <v>21000</v>
       </c>
       <c r="C299">
-        <v>232.5581395348837</v>
+        <v>317.4603174603174</v>
       </c>
       <c r="D299">
         <v>12000</v>
       </c>
       <c r="E299">
-        <v>1352.79211896175</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7470,13 +7470,13 @@
         <v>28600</v>
       </c>
       <c r="C300">
-        <v>105.2631578947368</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D300">
         <v>6000</v>
       </c>
       <c r="E300">
-        <v>1477.312722796919</v>
+        <v>1917.712018140589</v>
       </c>
       <c r="F300">
         <v>32.0855614973262</v>
@@ -7490,13 +7490,13 @@
         <v>34600</v>
       </c>
       <c r="C301">
-        <v>192.3076923076923</v>
+        <v>259.7402597402597</v>
       </c>
       <c r="D301">
         <v>12000</v>
       </c>
       <c r="E301">
-        <v>1563.749969760482</v>
+        <v>2033.729334157905</v>
       </c>
       <c r="F301">
         <v>32</v>
@@ -7510,13 +7510,13 @@
         <v>66600</v>
       </c>
       <c r="C302">
-        <v>183.206106870229</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D302">
         <v>14400</v>
       </c>
       <c r="E302">
-        <v>1987.87030771613</v>
+        <v>2601.582116296402</v>
       </c>
       <c r="F302">
         <v>32</v>
@@ -7530,13 +7530,13 @@
         <v>81000</v>
       </c>
       <c r="C303">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D303">
         <v>28800</v>
       </c>
       <c r="E303">
-        <v>2171.076414586359</v>
+        <v>2846.480075480075</v>
       </c>
       <c r="F303">
         <v>64</v>
@@ -7550,13 +7550,13 @@
         <v>50460</v>
       </c>
       <c r="C304">
-        <v>212.3893805309735</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="D304">
         <v>14400</v>
       </c>
       <c r="E304">
-        <v>1792.057208244711</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F304">
         <v>32</v>
@@ -7570,13 +7570,13 @@
         <v>64860</v>
       </c>
       <c r="C305">
-        <v>393.4426229508197</v>
+        <v>527.4725274725273</v>
       </c>
       <c r="D305">
         <v>28800</v>
       </c>
       <c r="E305">
-        <v>1977.615020518032</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F305">
         <v>64</v>
@@ -7590,13 +7590,13 @@
         <v>69800</v>
       </c>
       <c r="C306">
-        <v>178.117048346056</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D306">
         <v>14000</v>
       </c>
       <c r="E306">
-        <v>2028.582775909514</v>
+        <v>2656.003885003885</v>
       </c>
       <c r="F306">
         <v>32.03661327231121</v>
@@ -7610,13 +7610,13 @@
         <v>39600</v>
       </c>
       <c r="C307">
-        <v>80.12820512820514</v>
+        <v>108.2251082251082</v>
       </c>
       <c r="D307">
         <v>5000</v>
       </c>
       <c r="E307">
-        <v>1643.878174888687</v>
+        <v>2141.954442383014</v>
       </c>
       <c r="F307">
         <v>32.05128205128205</v>
@@ -7630,13 +7630,13 @@
         <v>57600</v>
       </c>
       <c r="C308">
-        <v>409.8360655737705</v>
+        <v>549.4505494505493</v>
       </c>
       <c r="D308">
         <v>30000</v>
       </c>
       <c r="E308">
-        <v>1878.434692649179</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F308">
         <v>66.66666666666667</v>
@@ -7650,13 +7650,13 @@
         <v>41600</v>
       </c>
       <c r="C309">
-        <v>206.4896755162242</v>
+        <v>277.7777777777777</v>
       </c>
       <c r="D309">
         <v>14000</v>
       </c>
       <c r="E309">
-        <v>1661.378742168015</v>
+        <v>2164.681715110286</v>
       </c>
       <c r="F309">
         <v>32.03661327231121</v>
@@ -7670,13 +7670,13 @@
         <v>50000</v>
       </c>
       <c r="C310">
-        <v>283.1858407079646</v>
+        <v>380.9523809523808</v>
       </c>
       <c r="D310">
         <v>19200</v>
       </c>
       <c r="E310">
-        <v>1785.27254747775</v>
+        <v>2331.348381776953</v>
       </c>
       <c r="F310">
         <v>42.66666666666666</v>
@@ -7690,13 +7690,13 @@
         <v>39600</v>
       </c>
       <c r="C311">
-        <v>192.3076923076923</v>
+        <v>259.7402597402597</v>
       </c>
       <c r="D311">
         <v>12000</v>
       </c>
       <c r="E311">
-        <v>1643.878174888687</v>
+        <v>2141.954442383014</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7710,13 +7710,13 @@
         <v>10200</v>
       </c>
       <c r="C312">
-        <v>176.4705882352941</v>
+        <v>244.8979591836735</v>
       </c>
       <c r="D312">
         <v>7200</v>
       </c>
       <c r="E312">
-        <v>1147.647058823529</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F312">
         <v>32</v>
@@ -7730,13 +7730,13 @@
         <v>91800</v>
       </c>
       <c r="C313">
-        <v>216.2849872773537</v>
+        <v>289.1156462585033</v>
       </c>
       <c r="D313">
         <v>17000</v>
       </c>
       <c r="E313">
-        <v>2308.48099473903</v>
+        <v>3030.15354486783</v>
       </c>
       <c r="F313">
         <v>37.77777777777778</v>
@@ -7750,13 +7750,13 @@
         <v>69400</v>
       </c>
       <c r="C314">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D314">
         <v>43200</v>
       </c>
       <c r="E314">
-        <v>2023.493717385341</v>
+        <v>2649.201163915449</v>
       </c>
       <c r="F314">
         <v>96</v>
@@ -7770,13 +7770,13 @@
         <v>41200</v>
       </c>
       <c r="C315">
-        <v>221.2389380530973</v>
+        <v>297.6190476190475</v>
       </c>
       <c r="D315">
         <v>15000</v>
       </c>
       <c r="E315">
-        <v>1655.479037153266</v>
+        <v>2156.745207173778</v>
       </c>
       <c r="F315">
         <v>33.33333333333334</v>
@@ -7790,13 +7790,13 @@
         <v>58500</v>
       </c>
       <c r="C316">
-        <v>393.4426229508197</v>
+        <v>527.4725274725273</v>
       </c>
       <c r="D316">
         <v>28800</v>
       </c>
       <c r="E316">
-        <v>1890.729774616392</v>
+        <v>2472.068772497344</v>
       </c>
       <c r="F316">
         <v>64</v>
@@ -7810,13 +7810,13 @@
         <v>79200</v>
       </c>
       <c r="C317">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D317">
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>2148.17565122758</v>
+        <v>2815.867830582116</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7830,13 +7830,13 @@
         <v>64800</v>
       </c>
       <c r="C318">
-        <v>196.7213114754098</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D318">
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>1976.795348386884</v>
+        <v>2587.453387881959</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7850,13 +7850,13 @@
         <v>61800</v>
       </c>
       <c r="C319">
-        <v>234.9726775956284</v>
+        <v>315.0183150183149</v>
       </c>
       <c r="D319">
         <v>17200</v>
       </c>
       <c r="E319">
-        <v>1935.811741829507</v>
+        <v>2532.508332936904</v>
       </c>
       <c r="F319">
         <v>38.22222222222222</v>
@@ -7870,13 +7870,13 @@
         <v>44600</v>
       </c>
       <c r="C320">
-        <v>147.4926253687316</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D320">
         <v>10000</v>
       </c>
       <c r="E320">
-        <v>1705.626529778634</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F320">
         <v>32.05128205128205</v>
@@ -7890,13 +7890,13 @@
         <v>36600</v>
       </c>
       <c r="C321">
-        <v>128.2051282051282</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D321">
         <v>8000</v>
       </c>
       <c r="E321">
-        <v>1595.801251811764</v>
+        <v>2077.019377447949</v>
       </c>
       <c r="F321">
         <v>32</v>
@@ -7910,13 +7910,13 @@
         <v>86400</v>
       </c>
       <c r="C322">
-        <v>458.0152671755725</v>
+        <v>612.2448979591835</v>
       </c>
       <c r="D322">
         <v>36000</v>
       </c>
       <c r="E322">
-        <v>2239.778704662695</v>
+        <v>2938.316810173953</v>
       </c>
       <c r="F322">
         <v>80</v>
@@ -7930,13 +7930,13 @@
         <v>100700</v>
       </c>
       <c r="C323">
-        <v>720.1017811704834</v>
+        <v>962.5850340136052</v>
       </c>
       <c r="D323">
         <v>56600</v>
       </c>
       <c r="E323">
-        <v>2421.71254690188</v>
+        <v>3181.514089085517</v>
       </c>
       <c r="F323">
         <v>125.7777777777778</v>
@@ -7950,13 +7950,13 @@
         <v>81000</v>
       </c>
       <c r="C324">
-        <v>183.206106870229</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D324">
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2171.076414586359</v>
+        <v>2846.480075480075</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -7970,13 +7970,13 @@
         <v>95400</v>
       </c>
       <c r="C325">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D325">
         <v>28800</v>
       </c>
       <c r="E325">
-        <v>2354.282521456588</v>
+        <v>3091.378034663749</v>
       </c>
       <c r="F325">
         <v>64</v>
@@ -7990,13 +7990,13 @@
         <v>124200</v>
       </c>
       <c r="C326">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D326">
         <v>43200</v>
       </c>
       <c r="E326">
-        <v>2720.694735197046</v>
+        <v>3581.173953031095</v>
       </c>
       <c r="F326">
         <v>96</v>
@@ -8010,13 +8010,13 @@
         <v>64860</v>
       </c>
       <c r="C327">
-        <v>196.7213114754098</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D327">
         <v>14400</v>
       </c>
       <c r="E327">
-        <v>1977.615020518032</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F327">
         <v>32</v>
@@ -8030,13 +8030,13 @@
         <v>50460</v>
       </c>
       <c r="C328">
-        <v>424.7787610619469</v>
+        <v>571.4285714285713</v>
       </c>
       <c r="D328">
         <v>28800</v>
       </c>
       <c r="E328">
-        <v>1792.057208244711</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F328">
         <v>64</v>
@@ -8050,13 +8050,13 @@
         <v>85800</v>
       </c>
       <c r="C329">
-        <v>203.5623409669211</v>
+        <v>272.1088435374149</v>
       </c>
       <c r="D329">
         <v>16000</v>
       </c>
       <c r="E329">
-        <v>2232.145116876435</v>
+        <v>2928.112728541299</v>
       </c>
       <c r="F329">
         <v>35.55555555555556</v>
@@ -8070,13 +8070,13 @@
         <v>55960</v>
       </c>
       <c r="C330">
-        <v>75.13661202185791</v>
+        <v>100.7326007326007</v>
       </c>
       <c r="D330">
         <v>5500</v>
       </c>
       <c r="E330">
-        <v>1856.03032106448</v>
+        <v>2425.548625977197</v>
       </c>
       <c r="F330">
         <v>32.16374269005848</v>
@@ -8090,13 +8090,13 @@
         <v>87300</v>
       </c>
       <c r="C331">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D331">
         <v>28800</v>
       </c>
       <c r="E331">
-        <v>2251.229086342084</v>
+        <v>2953.622932622932</v>
       </c>
       <c r="F331">
         <v>64</v>
@@ -8110,13 +8110,13 @@
         <v>106800</v>
       </c>
       <c r="C332">
-        <v>259.5419847328244</v>
+        <v>346.938775510204</v>
       </c>
       <c r="D332">
         <v>20400</v>
       </c>
       <c r="E332">
-        <v>2499.320689395519</v>
+        <v>3285.255585684157</v>
       </c>
       <c r="F332">
         <v>45.33333333333334</v>
@@ -8130,13 +8130,13 @@
         <v>60460</v>
       </c>
       <c r="C333">
-        <v>136.6120218579235</v>
+        <v>183.1501831501831</v>
       </c>
       <c r="D333">
         <v>10000</v>
       </c>
       <c r="E333">
-        <v>1917.505730900546</v>
+        <v>2507.96620839478</v>
       </c>
       <c r="F333">
         <v>32.05128205128205</v>
@@ -8150,13 +8150,13 @@
         <v>64860</v>
       </c>
       <c r="C334">
-        <v>196.7213114754098</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D334">
         <v>14400</v>
       </c>
       <c r="E334">
-        <v>1977.615020518032</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F334">
         <v>32</v>
@@ -8170,13 +8170,13 @@
         <v>57600</v>
       </c>
       <c r="C335">
-        <v>218.5792349726776</v>
+        <v>293.040293040293</v>
       </c>
       <c r="D335">
         <v>16000</v>
       </c>
       <c r="E335">
-        <v>1878.434692649179</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F335">
         <v>35.55555555555556</v>
@@ -8190,13 +8190,13 @@
         <v>53600</v>
       </c>
       <c r="C336">
-        <v>191.2568306010929</v>
+        <v>256.4102564102564</v>
       </c>
       <c r="D336">
         <v>14000</v>
       </c>
       <c r="E336">
-        <v>1823.78988390601</v>
+        <v>2382.325182753754</v>
       </c>
       <c r="F336">
         <v>32.03661327231121</v>
@@ -8210,13 +8210,13 @@
         <v>110800</v>
       </c>
       <c r="C337">
-        <v>241.7302798982188</v>
+        <v>323.1292517006802</v>
       </c>
       <c r="D337">
         <v>19000</v>
       </c>
       <c r="E337">
-        <v>2550.21127463725</v>
+        <v>3353.282796568511</v>
       </c>
       <c r="F337">
         <v>42.22222222222222</v>
@@ -8230,13 +8230,13 @@
         <v>58200</v>
       </c>
       <c r="C338">
-        <v>232.2404371584699</v>
+        <v>311.3553113553112</v>
       </c>
       <c r="D338">
         <v>17000</v>
       </c>
       <c r="E338">
-        <v>1886.631413960655</v>
+        <v>2466.574267002838</v>
       </c>
       <c r="F338">
         <v>37.77777777777778</v>
@@ -8250,13 +8250,13 @@
         <v>93600</v>
       </c>
       <c r="C339">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D339">
         <v>28800</v>
       </c>
       <c r="E339">
-        <v>2331.381758097809</v>
+        <v>3060.76578976579</v>
       </c>
       <c r="F339">
         <v>64</v>
@@ -8270,13 +8270,13 @@
         <v>47400</v>
       </c>
       <c r="C340">
-        <v>368.7315634218289</v>
+        <v>496.0317460317459</v>
       </c>
       <c r="D340">
         <v>25000</v>
       </c>
       <c r="E340">
-        <v>1746.924464881879</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F340">
         <v>55.55555555555556</v>
@@ -8290,13 +8290,13 @@
         <v>122400</v>
       </c>
       <c r="C341">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D341">
         <v>43200</v>
       </c>
       <c r="E341">
-        <v>2697.793971838267</v>
+        <v>3550.561708133136</v>
       </c>
       <c r="F341">
         <v>96</v>
@@ -8310,13 +8310,13 @@
         <v>93600</v>
       </c>
       <c r="C342">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D342">
         <v>28800</v>
       </c>
       <c r="E342">
-        <v>2331.381758097809</v>
+        <v>3060.76578976579</v>
       </c>
       <c r="F342">
         <v>64</v>
@@ -8330,13 +8330,13 @@
         <v>56600</v>
       </c>
       <c r="C343">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D343">
         <v>12000</v>
       </c>
       <c r="E343">
-        <v>1864.773490463387</v>
+        <v>2437.270237698809</v>
       </c>
       <c r="F343">
         <v>32</v>
@@ -8350,13 +8350,13 @@
         <v>46600</v>
       </c>
       <c r="C344">
-        <v>147.4926253687316</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D344">
         <v>10000</v>
       </c>
       <c r="E344">
-        <v>1735.125054852381</v>
+        <v>2263.888064316635</v>
       </c>
       <c r="F344">
         <v>32.05128205128205</v>
@@ -8370,13 +8370,13 @@
         <v>44400</v>
       </c>
       <c r="C345">
-        <v>424.7787610619469</v>
+        <v>571.4285714285713</v>
       </c>
       <c r="D345">
         <v>28800</v>
       </c>
       <c r="E345">
-        <v>1702.67667727126</v>
+        <v>2220.237270665842</v>
       </c>
       <c r="F345">
         <v>64</v>
@@ -8390,13 +8390,13 @@
         <v>109800</v>
       </c>
       <c r="C346">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D346">
         <v>28800</v>
       </c>
       <c r="E346">
-        <v>2537.488628326817</v>
+        <v>3336.275993847422</v>
       </c>
       <c r="F346">
         <v>64</v>
@@ -8410,13 +8410,13 @@
         <v>138600</v>
       </c>
       <c r="C347">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D347">
         <v>43200</v>
       </c>
       <c r="E347">
-        <v>2903.900842067274</v>
+        <v>3826.071912214769</v>
       </c>
       <c r="F347">
         <v>96</v>
@@ -8430,13 +8430,13 @@
         <v>93660</v>
       </c>
       <c r="C348">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D348">
         <v>43200</v>
       </c>
       <c r="E348">
-        <v>2332.145116876435</v>
+        <v>3061.786197929055</v>
       </c>
       <c r="F348">
         <v>96</v>
@@ -8450,13 +8450,13 @@
         <v>93660</v>
       </c>
       <c r="C349">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D349">
         <v>28800</v>
       </c>
       <c r="E349">
-        <v>2332.145116876435</v>
+        <v>3061.786197929055</v>
       </c>
       <c r="F349">
         <v>64</v>
@@ -8470,13 +8470,13 @@
         <v>103800</v>
       </c>
       <c r="C350">
-        <v>229.0076335877862</v>
+        <v>306.1224489795918</v>
       </c>
       <c r="D350">
         <v>18000</v>
       </c>
       <c r="E350">
-        <v>2461.152750464221</v>
+        <v>3234.235177520891</v>
       </c>
       <c r="F350">
         <v>40</v>
@@ -8490,13 +8490,13 @@
         <v>108000</v>
       </c>
       <c r="C351">
-        <v>183.206106870229</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D351">
         <v>14400</v>
       </c>
       <c r="E351">
-        <v>2514.587864968038</v>
+        <v>3305.663748949463</v>
       </c>
       <c r="F351">
         <v>32</v>
@@ -8510,13 +8510,13 @@
         <v>116100</v>
       </c>
       <c r="C352">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D352">
         <v>28800</v>
       </c>
       <c r="E352">
-        <v>2617.641300082542</v>
+        <v>3443.418850990279</v>
       </c>
       <c r="F352">
         <v>64</v>
@@ -8530,13 +8530,13 @@
         <v>73200</v>
       </c>
       <c r="C353">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D353">
         <v>28800</v>
       </c>
       <c r="E353">
-        <v>2071.839773364984</v>
+        <v>2713.827014255585</v>
       </c>
       <c r="F353">
         <v>64</v>
@@ -8550,13 +8550,13 @@
         <v>75600</v>
       </c>
       <c r="C354">
-        <v>229.0076335877862</v>
+        <v>306.1224489795918</v>
       </c>
       <c r="D354">
         <v>18000</v>
       </c>
       <c r="E354">
-        <v>2102.374124510023</v>
+        <v>2754.643340786198</v>
       </c>
       <c r="F354">
         <v>40</v>
@@ -8570,13 +8570,13 @@
         <v>69600</v>
       </c>
       <c r="C355">
-        <v>203.5623409669211</v>
+        <v>272.1088435374149</v>
       </c>
       <c r="D355">
         <v>16000</v>
       </c>
       <c r="E355">
-        <v>2026.038246647428</v>
+        <v>2652.602524459667</v>
       </c>
       <c r="F355">
         <v>35.55555555555556</v>
@@ -8590,13 +8590,13 @@
         <v>131800</v>
       </c>
       <c r="C356">
-        <v>267.1755725190839</v>
+        <v>357.1428571428571</v>
       </c>
       <c r="D356">
         <v>21000</v>
       </c>
       <c r="E356">
-        <v>2817.386847156333</v>
+        <v>3710.425653711367</v>
       </c>
       <c r="F356">
         <v>46.66666666666666</v>
@@ -8610,13 +8610,13 @@
         <v>108200</v>
       </c>
       <c r="C357">
-        <v>636.1323155216285</v>
+        <v>850.3401360544215</v>
       </c>
       <c r="D357">
         <v>50000</v>
       </c>
       <c r="E357">
-        <v>2517.132394230125</v>
+        <v>3309.065109493681</v>
       </c>
       <c r="F357">
         <v>111.1111111111111</v>
@@ -8630,13 +8630,13 @@
         <v>136800</v>
       </c>
       <c r="C358">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D358">
         <v>43200</v>
       </c>
       <c r="E358">
-        <v>2881.000078708496</v>
+        <v>3795.45966731681</v>
       </c>
       <c r="F358">
         <v>96</v>
@@ -8650,13 +8650,13 @@
         <v>70600</v>
       </c>
       <c r="C359">
-        <v>178.117048346056</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D359">
         <v>14000</v>
       </c>
       <c r="E359">
-        <v>2038.76089295786</v>
+        <v>2669.609327180755</v>
       </c>
       <c r="F359">
         <v>32.03661327231121</v>
@@ -8670,13 +8670,13 @@
         <v>58600</v>
       </c>
       <c r="C360">
-        <v>163.9344262295082</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D360">
         <v>12000</v>
       </c>
       <c r="E360">
-        <v>1892.095894834972</v>
+        <v>2473.900274328846</v>
       </c>
       <c r="F360">
         <v>32</v>
@@ -8690,13 +8690,13 @@
         <v>50400</v>
       </c>
       <c r="C361">
-        <v>424.7787610619469</v>
+        <v>571.4285714285713</v>
       </c>
       <c r="D361">
         <v>28800</v>
       </c>
       <c r="E361">
-        <v>1791.172252492499</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F361">
         <v>64</v>
@@ -8710,13 +8710,13 @@
         <v>136860</v>
       </c>
       <c r="C362">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D362">
         <v>43200</v>
       </c>
       <c r="E362">
-        <v>2881.763437487122</v>
+        <v>3796.480075480075</v>
       </c>
       <c r="F362">
         <v>96</v>
@@ -8730,13 +8730,13 @@
         <v>93660</v>
       </c>
       <c r="C363">
-        <v>549.618320610687</v>
+        <v>734.6938775510201</v>
       </c>
       <c r="D363">
         <v>43200</v>
       </c>
       <c r="E363">
-        <v>2332.145116876435</v>
+        <v>3061.786197929055</v>
       </c>
       <c r="F363">
         <v>96</v>
@@ -8750,13 +8750,13 @@
         <v>125600</v>
       </c>
       <c r="C364">
-        <v>636.1323155216285</v>
+        <v>850.3401360544215</v>
       </c>
       <c r="D364">
         <v>50000</v>
       </c>
       <c r="E364">
-        <v>2738.506440031651</v>
+        <v>3604.983476840619</v>
       </c>
       <c r="F364">
         <v>111.1111111111111</v>
@@ -8770,13 +8770,13 @@
         <v>103660</v>
       </c>
       <c r="C365">
-        <v>127.2264631043257</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D365">
         <v>10000</v>
       </c>
       <c r="E365">
-        <v>2459.371579980761</v>
+        <v>3231.854225139939</v>
       </c>
       <c r="F365">
         <v>32.05128205128205</v>
@@ -8790,13 +8790,13 @@
         <v>79200</v>
       </c>
       <c r="C366">
-        <v>366.412213740458</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D366">
         <v>28800</v>
       </c>
       <c r="E366">
-        <v>2148.17565122758</v>
+        <v>2815.867830582116</v>
       </c>
       <c r="F366">
         <v>64</v>
@@ -8810,13 +8810,13 @@
         <v>87800</v>
       </c>
       <c r="C367">
-        <v>636.1323155216285</v>
+        <v>850.3401360544215</v>
       </c>
       <c r="D367">
         <v>50000</v>
       </c>
       <c r="E367">
-        <v>2257.5904094973</v>
+        <v>2962.126333983476</v>
       </c>
       <c r="F367">
         <v>111.1111111111111</v>
@@ -8830,13 +8830,13 @@
         <v>108060</v>
       </c>
       <c r="C368">
-        <v>183.206106870229</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D368">
         <v>14400</v>
       </c>
       <c r="E368">
-        <v>2515.351223746664</v>
+        <v>3306.684157112728</v>
       </c>
       <c r="F368">
         <v>32</v>
@@ -8850,13 +8850,13 @@
         <v>57600</v>
       </c>
       <c r="C369">
-        <v>409.8360655737705</v>
+        <v>549.4505494505493</v>
       </c>
       <c r="D369">
         <v>30000</v>
       </c>
       <c r="E369">
-        <v>1878.434692649179</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F369">
         <v>66.66666666666667</v>
@@ -8870,13 +8870,13 @@
         <v>97600</v>
       </c>
       <c r="C370">
-        <v>279.8982188295165</v>
+        <v>374.1496598639455</v>
       </c>
       <c r="D370">
         <v>22000</v>
       </c>
       <c r="E370">
-        <v>2382.272343339539</v>
+        <v>3128.793000650143</v>
       </c>
       <c r="F370">
         <v>48.88888888888889</v>
@@ -8890,13 +8890,13 @@
         <v>113200</v>
       </c>
       <c r="C371">
-        <v>699.7455470737913</v>
+        <v>935.3741496598636</v>
       </c>
       <c r="D371">
         <v>55000</v>
       </c>
       <c r="E371">
-        <v>2580.745625782287</v>
+        <v>3394.099123099123</v>
       </c>
       <c r="F371">
         <v>122.2222222222222</v>
@@ -8910,13 +8910,13 @@
         <v>121600</v>
       </c>
       <c r="C372">
-        <v>305.3435114503816</v>
+        <v>408.1632653061223</v>
       </c>
       <c r="D372">
         <v>24000</v>
       </c>
       <c r="E372">
-        <v>2687.615854789921</v>
+        <v>3536.956265956265</v>
       </c>
       <c r="F372">
         <v>53.33333333333334</v>

--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -1600,7 +1600,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>85.71428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F2">
         <v>32.43243243243244</v>
@@ -1620,7 +1620,7 @@
         <v>900</v>
       </c>
       <c r="E3">
-        <v>64.28571428571429</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F3">
         <v>32.14285714285715</v>
@@ -1640,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <v>4.285714285714286</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -1660,7 +1660,7 @@
         <v>1200</v>
       </c>
       <c r="E5">
-        <v>85.71428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F5">
         <v>32.43243243243244</v>
@@ -1680,7 +1680,7 @@
         <v>1200</v>
       </c>
       <c r="E6">
-        <v>85.71428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F6">
         <v>32.43243243243244</v>
@@ -1700,7 +1700,7 @@
         <v>600</v>
       </c>
       <c r="E7">
-        <v>42.85714285714285</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F7">
         <v>33.33333333333334</v>
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0.7142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>600</v>
       </c>
       <c r="E9">
-        <v>128.5714285714286</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F9">
         <v>33.33333333333334</v>
@@ -1760,7 +1760,7 @@
         <v>600</v>
       </c>
       <c r="E10">
-        <v>128.5714285714286</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F10">
         <v>33.33333333333334</v>
@@ -1780,7 +1780,7 @@
         <v>600</v>
       </c>
       <c r="E11">
-        <v>47.14285714285715</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>33.33333333333334</v>
@@ -1800,7 +1800,7 @@
         <v>1800</v>
       </c>
       <c r="E12">
-        <v>214.2857142857143</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F12">
         <v>32.14285714285715</v>
@@ -1820,7 +1820,7 @@
         <v>1200</v>
       </c>
       <c r="E13">
-        <v>171.4285714285714</v>
+        <v>257.1428571428571</v>
       </c>
       <c r="F13">
         <v>32.43243243243244</v>
@@ -1840,7 +1840,7 @@
         <v>600</v>
       </c>
       <c r="E14">
-        <v>128.5714285714286</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F14">
         <v>33.33333333333334</v>
@@ -1860,7 +1860,7 @@
         <v>900</v>
       </c>
       <c r="E15">
-        <v>128.5714285714286</v>
+        <v>192.8571428571429</v>
       </c>
       <c r="F15">
         <v>32.14285714285715</v>
@@ -1880,7 +1880,7 @@
         <v>2400</v>
       </c>
       <c r="E16">
-        <v>257.1428571428572</v>
+        <v>428.5714285714286</v>
       </c>
       <c r="F16">
         <v>32</v>
@@ -1900,7 +1900,7 @@
         <v>1200</v>
       </c>
       <c r="E17">
-        <v>171.4285714285714</v>
+        <v>257.1428571428571</v>
       </c>
       <c r="F17">
         <v>32.43243243243244</v>
@@ -1920,7 +1920,7 @@
         <v>600</v>
       </c>
       <c r="E18">
-        <v>128.5714285714286</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F18">
         <v>33.33333333333334</v>
@@ -1940,7 +1940,7 @@
         <v>600</v>
       </c>
       <c r="E19">
-        <v>47.14285714285715</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>33.33333333333334</v>
@@ -1960,7 +1960,7 @@
         <v>1200</v>
       </c>
       <c r="E20">
-        <v>171.4285714285714</v>
+        <v>257.1428571428571</v>
       </c>
       <c r="F20">
         <v>32.43243243243244</v>
@@ -1980,7 +1980,7 @@
         <v>1800</v>
       </c>
       <c r="E21">
-        <v>257.1428571428572</v>
+        <v>385.7142857142858</v>
       </c>
       <c r="F21">
         <v>32.14285714285715</v>
@@ -2000,7 +2000,7 @@
         <v>1200</v>
       </c>
       <c r="E22">
-        <v>132.8571428571429</v>
+        <v>218.5714285714286</v>
       </c>
       <c r="F22">
         <v>32.43243243243244</v>
@@ -2020,7 +2020,7 @@
         <v>1500</v>
       </c>
       <c r="E23">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F23">
         <v>32.60869565217391</v>
@@ -2040,7 +2040,7 @@
         <v>2400</v>
       </c>
       <c r="E24">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F24">
         <v>32</v>
@@ -2060,7 +2060,7 @@
         <v>1200</v>
       </c>
       <c r="E25">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F25">
         <v>32.43243243243244</v>
@@ -2080,7 +2080,7 @@
         <v>1200</v>
       </c>
       <c r="E26">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F26">
         <v>32.43243243243244</v>
@@ -2100,7 +2100,7 @@
         <v>2400</v>
       </c>
       <c r="E27">
-        <v>328.5714285714286</v>
+        <v>442.8571428571428</v>
       </c>
       <c r="F27">
         <v>32</v>
@@ -2120,7 +2120,7 @@
         <v>1200</v>
       </c>
       <c r="E28">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <v>32.43243243243244</v>
@@ -2140,7 +2140,7 @@
         <v>4800</v>
       </c>
       <c r="E29">
-        <v>1505.951556380128</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -2160,7 +2160,7 @@
         <v>1800</v>
       </c>
       <c r="E30">
-        <v>175.7142857142857</v>
+        <v>304.2857142857143</v>
       </c>
       <c r="F30">
         <v>32.14285714285715</v>
@@ -2180,7 +2180,7 @@
         <v>600</v>
       </c>
       <c r="E31">
-        <v>171.4285714285714</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F31">
         <v>33.33333333333334</v>
@@ -2200,7 +2200,7 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>132.8571428571429</v>
+        <v>218.5714285714286</v>
       </c>
       <c r="F32">
         <v>32.43243243243244</v>
@@ -2220,7 +2220,7 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>257.1428571428572</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F33">
         <v>32.43243243243244</v>
@@ -2240,7 +2240,7 @@
         <v>1200</v>
       </c>
       <c r="E34">
-        <v>257.1428571428572</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F34">
         <v>32.43243243243244</v>
@@ -2260,7 +2260,7 @@
         <v>1500</v>
       </c>
       <c r="E35">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F35">
         <v>32.60869565217391</v>
@@ -2280,7 +2280,7 @@
         <v>1500</v>
       </c>
       <c r="E36">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F36">
         <v>32.60869565217391</v>
@@ -2300,7 +2300,7 @@
         <v>2400</v>
       </c>
       <c r="E37">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F37">
         <v>32</v>
@@ -2320,7 +2320,7 @@
         <v>2400</v>
       </c>
       <c r="E38">
-        <v>1482.142032570604</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F38">
         <v>32</v>
@@ -2340,7 +2340,7 @@
         <v>1200</v>
       </c>
       <c r="E39">
-        <v>1482.142032570604</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F39">
         <v>32.43243243243244</v>
@@ -2360,7 +2360,7 @@
         <v>2400</v>
       </c>
       <c r="E40">
-        <v>1482.142032570604</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -2380,7 +2380,7 @@
         <v>1200</v>
       </c>
       <c r="E41">
-        <v>1482.142032570604</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F41">
         <v>32.43243243243244</v>
@@ -2400,7 +2400,7 @@
         <v>1200</v>
       </c>
       <c r="E42">
-        <v>1458.33250876108</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F42">
         <v>32.43243243243244</v>
@@ -2420,7 +2420,7 @@
         <v>3600</v>
       </c>
       <c r="E43">
-        <v>1482.142032570604</v>
+        <v>1553.570603999175</v>
       </c>
       <c r="F43">
         <v>32.14285714285715</v>
@@ -2440,7 +2440,7 @@
         <v>1200</v>
       </c>
       <c r="E44">
-        <v>261.4285714285714</v>
+        <v>347.1428571428572</v>
       </c>
       <c r="F44">
         <v>32.43243243243244</v>
@@ -2460,7 +2460,7 @@
         <v>1200</v>
       </c>
       <c r="E45">
-        <v>257.1428571428572</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F45">
         <v>32.43243243243244</v>
@@ -2480,7 +2480,7 @@
         <v>1200</v>
       </c>
       <c r="E46">
-        <v>218.5714285714286</v>
+        <v>304.2857142857143</v>
       </c>
       <c r="F46">
         <v>32.43243243243244</v>
@@ -2500,7 +2500,7 @@
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1458.33250876108</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2520,7 +2520,7 @@
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>1458.33250876108</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F48">
         <v>32.43243243243244</v>
@@ -2540,7 +2540,7 @@
         <v>3600</v>
       </c>
       <c r="E49">
-        <v>1517.85631828489</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F49">
         <v>32.14285714285715</v>
@@ -2560,7 +2560,7 @@
         <v>2400</v>
       </c>
       <c r="E50">
-        <v>1470.237270665842</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F50">
         <v>32</v>
@@ -2580,7 +2580,7 @@
         <v>1200</v>
       </c>
       <c r="E51">
-        <v>1470.237270665842</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F51">
         <v>32.43243243243244</v>
@@ -2600,7 +2600,7 @@
         <v>2400</v>
       </c>
       <c r="E52">
-        <v>1470.237270665842</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F52">
         <v>32</v>
@@ -2620,7 +2620,7 @@
         <v>1800</v>
       </c>
       <c r="E53">
-        <v>1458.33250876108</v>
+        <v>1494.046794475366</v>
       </c>
       <c r="F53">
         <v>32.14285714285715</v>
@@ -2640,7 +2640,7 @@
         <v>6000</v>
       </c>
       <c r="E54">
-        <v>1601.189651618223</v>
+        <v>1720.237270665842</v>
       </c>
       <c r="F54">
         <v>32.0855614973262</v>
@@ -2660,7 +2660,7 @@
         <v>3600</v>
       </c>
       <c r="E55">
-        <v>1471.427746856318</v>
+        <v>1542.85631828489</v>
       </c>
       <c r="F55">
         <v>32.14285714285715</v>
@@ -2680,7 +2680,7 @@
         <v>2400</v>
       </c>
       <c r="E56">
-        <v>1459.522984951556</v>
+        <v>1507.142032570604</v>
       </c>
       <c r="F56">
         <v>32</v>
@@ -2700,7 +2700,7 @@
         <v>3600</v>
       </c>
       <c r="E57">
-        <v>1483.33250876108</v>
+        <v>1554.761080189651</v>
       </c>
       <c r="F57">
         <v>32.14285714285715</v>
@@ -2720,7 +2720,7 @@
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>1458.33250876108</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F58">
         <v>32</v>
@@ -2740,7 +2740,7 @@
         <v>900</v>
       </c>
       <c r="E59">
-        <v>314.2857142857143</v>
+        <v>357.1428571428571</v>
       </c>
       <c r="F59">
         <v>32.14285714285715</v>
@@ -2760,7 +2760,7 @@
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>302.8571428571428</v>
+        <v>417.1428571428571</v>
       </c>
       <c r="F60">
         <v>32</v>
@@ -2780,7 +2780,7 @@
         <v>2400</v>
       </c>
       <c r="E61">
-        <v>1459.522984951556</v>
+        <v>1507.142032570604</v>
       </c>
       <c r="F61">
         <v>32</v>
@@ -2800,7 +2800,7 @@
         <v>3600</v>
       </c>
       <c r="E62">
-        <v>1529.761080189652</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F62">
         <v>32.14285714285715</v>
@@ -2820,7 +2820,7 @@
         <v>2400</v>
       </c>
       <c r="E63">
-        <v>1505.951556380128</v>
+        <v>1553.570603999176</v>
       </c>
       <c r="F63">
         <v>32</v>
@@ -2840,7 +2840,7 @@
         <v>2400</v>
       </c>
       <c r="E64">
-        <v>1505.951556380128</v>
+        <v>1553.570603999176</v>
       </c>
       <c r="F64">
         <v>32</v>
@@ -2860,7 +2860,7 @@
         <v>2400</v>
       </c>
       <c r="E65">
-        <v>1505.951556380128</v>
+        <v>1553.570603999176</v>
       </c>
       <c r="F65">
         <v>32</v>
@@ -2880,7 +2880,7 @@
         <v>3600</v>
       </c>
       <c r="E66">
-        <v>1542.85631828489</v>
+        <v>1614.284889713461</v>
       </c>
       <c r="F66">
         <v>32.14285714285715</v>
@@ -2900,7 +2900,7 @@
         <v>1200</v>
       </c>
       <c r="E67">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F67">
         <v>32.43243243243244</v>
@@ -2920,7 +2920,7 @@
         <v>1200</v>
       </c>
       <c r="E68">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F68">
         <v>32.43243243243244</v>
@@ -2940,7 +2940,7 @@
         <v>1800</v>
       </c>
       <c r="E69">
-        <v>342.8571428571428</v>
+        <v>428.5714285714286</v>
       </c>
       <c r="F69">
         <v>32.14285714285715</v>
@@ -2960,7 +2960,7 @@
         <v>3600</v>
       </c>
       <c r="E70">
-        <v>1541.665842094414</v>
+        <v>1613.094413522985</v>
       </c>
       <c r="F70">
         <v>32.14285714285715</v>
@@ -2980,7 +2980,7 @@
         <v>2400</v>
       </c>
       <c r="E71">
-        <v>1541.665842094414</v>
+        <v>1613.094413522985</v>
       </c>
       <c r="F71">
         <v>32</v>
@@ -3000,7 +3000,7 @@
         <v>6000</v>
       </c>
       <c r="E72">
-        <v>1720.237270665842</v>
+        <v>1839.284889713461</v>
       </c>
       <c r="F72">
         <v>32.0855614973262</v>
@@ -3020,7 +3020,7 @@
         <v>1200</v>
       </c>
       <c r="E73">
-        <v>1482.142032570604</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F73">
         <v>32.43243243243244</v>
@@ -3040,7 +3040,7 @@
         <v>3600</v>
       </c>
       <c r="E74">
-        <v>1529.761080189652</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F74">
         <v>32.14285714285715</v>
@@ -3060,7 +3060,7 @@
         <v>6000</v>
       </c>
       <c r="E75">
-        <v>1590.475365903937</v>
+        <v>1709.522984951556</v>
       </c>
       <c r="F75">
         <v>32.0855614973262</v>
@@ -3080,7 +3080,7 @@
         <v>5500</v>
       </c>
       <c r="E76">
-        <v>1710.316635745207</v>
+        <v>1819.443619872191</v>
       </c>
       <c r="F76">
         <v>32.16374269005848</v>
@@ -3100,7 +3100,7 @@
         <v>3600</v>
       </c>
       <c r="E77">
-        <v>1517.85631828489</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F77">
         <v>32.14285714285715</v>
@@ -3120,7 +3120,7 @@
         <v>3600</v>
       </c>
       <c r="E78">
-        <v>1530.951556380128</v>
+        <v>1602.380127808699</v>
       </c>
       <c r="F78">
         <v>32.14285714285715</v>
@@ -3140,7 +3140,7 @@
         <v>7200</v>
       </c>
       <c r="E79">
-        <v>1601.189651618223</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F79">
         <v>32</v>
@@ -3160,7 +3160,7 @@
         <v>7200</v>
       </c>
       <c r="E80">
-        <v>1566.665842094414</v>
+        <v>1709.522984951557</v>
       </c>
       <c r="F80">
         <v>32</v>
@@ -3180,7 +3180,7 @@
         <v>3600</v>
       </c>
       <c r="E81">
-        <v>1495.237270665842</v>
+        <v>1566.665842094413</v>
       </c>
       <c r="F81">
         <v>32.14285714285715</v>
@@ -3200,7 +3200,7 @@
         <v>2400</v>
       </c>
       <c r="E82">
-        <v>1447.618223046794</v>
+        <v>1495.237270665842</v>
       </c>
       <c r="F82">
         <v>32</v>
@@ -3220,7 +3220,7 @@
         <v>1800</v>
       </c>
       <c r="E83">
-        <v>1495.237270665842</v>
+        <v>1530.951556380128</v>
       </c>
       <c r="F83">
         <v>32.14285714285715</v>
@@ -3240,7 +3240,7 @@
         <v>3600</v>
       </c>
       <c r="E84">
-        <v>1517.85631828489</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F84">
         <v>32.14285714285715</v>
@@ -3260,7 +3260,7 @@
         <v>4800</v>
       </c>
       <c r="E85">
-        <v>1601.189651618223</v>
+        <v>1696.427746856318</v>
       </c>
       <c r="F85">
         <v>32</v>
@@ -3280,7 +3280,7 @@
         <v>3600</v>
       </c>
       <c r="E86">
-        <v>1601.189651618223</v>
+        <v>1696.427746856318</v>
       </c>
       <c r="F86">
         <v>32.14285714285715</v>
@@ -3300,7 +3300,7 @@
         <v>3600</v>
       </c>
       <c r="E87">
-        <v>1470.237270665842</v>
+        <v>1541.665842094413</v>
       </c>
       <c r="F87">
         <v>32.14285714285715</v>
@@ -3320,7 +3320,7 @@
         <v>1200</v>
       </c>
       <c r="E88">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F88">
         <v>32.43243243243244</v>
@@ -3340,7 +3340,7 @@
         <v>3600</v>
       </c>
       <c r="E89">
-        <v>214.2857142857143</v>
+        <v>300</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3360,7 +3360,7 @@
         <v>3600</v>
       </c>
       <c r="E90">
-        <v>1672.618223046794</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F90">
         <v>32.14285714285715</v>
@@ -3380,7 +3380,7 @@
         <v>2400</v>
       </c>
       <c r="E91">
-        <v>1529.761080189652</v>
+        <v>1577.380127808699</v>
       </c>
       <c r="F91">
         <v>32</v>
@@ -3400,7 +3400,7 @@
         <v>2400</v>
       </c>
       <c r="E92">
-        <v>1505.951556380128</v>
+        <v>1553.570603999176</v>
       </c>
       <c r="F92">
         <v>32</v>
@@ -3420,7 +3420,7 @@
         <v>5400</v>
       </c>
       <c r="E93">
-        <v>1636.903937332509</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F93">
         <v>32.14285714285715</v>
@@ -3440,7 +3440,7 @@
         <v>2400</v>
       </c>
       <c r="E94">
-        <v>328.5714285714286</v>
+        <v>442.8571428571428</v>
       </c>
       <c r="F94">
         <v>32</v>
@@ -3460,7 +3460,7 @@
         <v>7200</v>
       </c>
       <c r="E95">
-        <v>1733.33250876108</v>
+        <v>1876.189651618223</v>
       </c>
       <c r="F95">
         <v>32</v>
@@ -3480,7 +3480,7 @@
         <v>3600</v>
       </c>
       <c r="E96">
-        <v>1566.665842094414</v>
+        <v>1638.094413522985</v>
       </c>
       <c r="F96">
         <v>32.14285714285715</v>
@@ -3500,7 +3500,7 @@
         <v>7200</v>
       </c>
       <c r="E97">
-        <v>1601.189651618223</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F97">
         <v>32</v>
@@ -3520,7 +3520,7 @@
         <v>6000</v>
       </c>
       <c r="E98">
-        <v>1649.999175427747</v>
+        <v>1769.046794475366</v>
       </c>
       <c r="F98">
         <v>32.0855614973262</v>
@@ -3540,7 +3540,7 @@
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1483.33250876108</v>
+        <v>1578.570603999175</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3560,7 +3560,7 @@
         <v>7200</v>
       </c>
       <c r="E100">
-        <v>1517.85631828489</v>
+        <v>1660.713461142033</v>
       </c>
       <c r="F100">
         <v>32</v>
@@ -3580,7 +3580,7 @@
         <v>9200</v>
       </c>
       <c r="E101">
-        <v>1783.729334157905</v>
+        <v>1966.269016697588</v>
       </c>
       <c r="F101">
         <v>32.05574912891986</v>
@@ -3600,7 +3600,7 @@
         <v>9200</v>
       </c>
       <c r="E102">
-        <v>1677.776953205524</v>
+        <v>1860.316635745207</v>
       </c>
       <c r="F102">
         <v>32.05574912891986</v>
@@ -3620,7 +3620,7 @@
         <v>4800</v>
       </c>
       <c r="E103">
-        <v>1590.475365903937</v>
+        <v>1685.713461142032</v>
       </c>
       <c r="F103">
         <v>32</v>
@@ -3640,7 +3640,7 @@
         <v>3600</v>
       </c>
       <c r="E104">
-        <v>1590.475365903937</v>
+        <v>1685.713461142032</v>
       </c>
       <c r="F104">
         <v>32.14285714285715</v>
@@ -3660,7 +3660,7 @@
         <v>3600</v>
       </c>
       <c r="E105">
-        <v>1566.665842094414</v>
+        <v>1638.094413522985</v>
       </c>
       <c r="F105">
         <v>32.14285714285715</v>
@@ -3680,7 +3680,7 @@
         <v>9600</v>
       </c>
       <c r="E106">
-        <v>1791.665842094413</v>
+        <v>1982.142032570604</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3700,7 +3700,7 @@
         <v>3600</v>
       </c>
       <c r="E107">
-        <v>1589.284889713461</v>
+        <v>1660.713461142032</v>
       </c>
       <c r="F107">
         <v>32.14285714285715</v>
@@ -3720,7 +3720,7 @@
         <v>3600</v>
       </c>
       <c r="E108">
-        <v>1636.903937332509</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F108">
         <v>32.14285714285715</v>
@@ -3740,7 +3740,7 @@
         <v>3200</v>
       </c>
       <c r="E109">
-        <v>1546.824572253144</v>
+        <v>1610.316635745207</v>
       </c>
       <c r="F109">
         <v>32</v>
@@ -3760,7 +3760,7 @@
         <v>4000</v>
       </c>
       <c r="E110">
-        <v>1597.221397649969</v>
+        <v>1676.586477015048</v>
       </c>
       <c r="F110">
         <v>32</v>
@@ -3780,7 +3780,7 @@
         <v>1500</v>
       </c>
       <c r="E111">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F111">
         <v>32.60869565217391</v>
@@ -3800,7 +3800,7 @@
         <v>4800</v>
       </c>
       <c r="E112">
-        <v>1578.570603999176</v>
+        <v>1673.808699237271</v>
       </c>
       <c r="F112">
         <v>32</v>
@@ -3820,7 +3820,7 @@
         <v>1500</v>
       </c>
       <c r="E113">
-        <v>235.7142857142857</v>
+        <v>342.8571428571429</v>
       </c>
       <c r="F113">
         <v>32.60869565217391</v>
@@ -3840,7 +3840,7 @@
         <v>9200</v>
       </c>
       <c r="E114">
-        <v>1664.681715110286</v>
+        <v>1847.221397649969</v>
       </c>
       <c r="F114">
         <v>32.05574912891986</v>
@@ -3860,7 +3860,7 @@
         <v>4800</v>
       </c>
       <c r="E115">
-        <v>1664.681715110286</v>
+        <v>1847.221397649969</v>
       </c>
       <c r="F115">
         <v>32</v>
@@ -3880,7 +3880,7 @@
         <v>4800</v>
       </c>
       <c r="E116">
-        <v>1767.85631828489</v>
+        <v>1863.094413522985</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3900,7 +3900,7 @@
         <v>4000</v>
       </c>
       <c r="E117">
-        <v>1549.602350030922</v>
+        <v>1628.967429396001</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3920,7 +3920,7 @@
         <v>4800</v>
       </c>
       <c r="E118">
-        <v>1732.142032570604</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3940,7 +3940,7 @@
         <v>8400</v>
       </c>
       <c r="E119">
-        <v>1899.999175427747</v>
+        <v>2066.665842094413</v>
       </c>
       <c r="F119">
         <v>32.06106870229008</v>
@@ -3960,7 +3960,7 @@
         <v>4800</v>
       </c>
       <c r="E120">
-        <v>1661.903937332509</v>
+        <v>1757.142032570604</v>
       </c>
       <c r="F120">
         <v>32</v>
@@ -3980,7 +3980,7 @@
         <v>7200</v>
       </c>
       <c r="E121">
-        <v>1626.189651618223</v>
+        <v>1769.046794475366</v>
       </c>
       <c r="F121">
         <v>32</v>
@@ -4000,7 +4000,7 @@
         <v>9200</v>
       </c>
       <c r="E122">
-        <v>1783.729334157905</v>
+        <v>1966.269016697588</v>
       </c>
       <c r="F122">
         <v>32.05574912891986</v>
@@ -4020,7 +4020,7 @@
         <v>7200</v>
       </c>
       <c r="E123">
-        <v>1792.85631828489</v>
+        <v>1935.713461142032</v>
       </c>
       <c r="F123">
         <v>32</v>
@@ -4040,7 +4040,7 @@
         <v>4000</v>
       </c>
       <c r="E124">
-        <v>1729.364254792826</v>
+        <v>1808.729334157905</v>
       </c>
       <c r="F124">
         <v>32</v>
@@ -4060,7 +4060,7 @@
         <v>11200</v>
       </c>
       <c r="E125">
-        <v>2005.951556380128</v>
+        <v>2228.17377860235</v>
       </c>
       <c r="F125">
         <v>32</v>
@@ -4080,7 +4080,7 @@
         <v>6000</v>
       </c>
       <c r="E126">
-        <v>1547.618223046794</v>
+        <v>1666.665842094413</v>
       </c>
       <c r="F126">
         <v>32.0855614973262</v>
@@ -4100,7 +4100,7 @@
         <v>11200</v>
       </c>
       <c r="E127">
-        <v>1899.999175427747</v>
+        <v>2122.221397649969</v>
       </c>
       <c r="F127">
         <v>32</v>
@@ -4120,7 +4120,7 @@
         <v>6800</v>
       </c>
       <c r="E128">
-        <v>1725.396000824572</v>
+        <v>1860.316635745207</v>
       </c>
       <c r="F128">
         <v>32.0754716981132</v>
@@ -4140,7 +4140,7 @@
         <v>7200</v>
       </c>
       <c r="E129">
-        <v>1709.522984951556</v>
+        <v>1852.380127808699</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -4160,7 +4160,7 @@
         <v>7200</v>
       </c>
       <c r="E130">
-        <v>1601.189651618223</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F130">
         <v>32</v>
@@ -4180,7 +4180,7 @@
         <v>4800</v>
       </c>
       <c r="E131">
-        <v>1684.522984951556</v>
+        <v>1779.761080189651</v>
       </c>
       <c r="F131">
         <v>32</v>
@@ -4200,7 +4200,7 @@
         <v>4800</v>
       </c>
       <c r="E132">
-        <v>1684.522984951556</v>
+        <v>1779.761080189651</v>
       </c>
       <c r="F132">
         <v>32</v>
@@ -4220,7 +4220,7 @@
         <v>6000</v>
       </c>
       <c r="E133">
-        <v>1708.33250876108</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F133">
         <v>32.0855614973262</v>
@@ -4240,7 +4240,7 @@
         <v>4800</v>
       </c>
       <c r="E134">
-        <v>1732.142032570604</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F134">
         <v>32</v>
@@ -4260,7 +4260,7 @@
         <v>5600</v>
       </c>
       <c r="E135">
-        <v>1676.586477015048</v>
+        <v>1787.697588126159</v>
       </c>
       <c r="F135">
         <v>32</v>
@@ -4280,7 +4280,7 @@
         <v>4800</v>
       </c>
       <c r="E136">
-        <v>1721.427746856318</v>
+        <v>1816.665842094413</v>
       </c>
       <c r="F136">
         <v>32</v>
@@ -4300,7 +4300,7 @@
         <v>3600</v>
       </c>
       <c r="E137">
-        <v>1470.237270665842</v>
+        <v>1541.665842094413</v>
       </c>
       <c r="F137">
         <v>32.14285714285715</v>
@@ -4320,7 +4320,7 @@
         <v>1800</v>
       </c>
       <c r="E138">
-        <v>1744.046794475366</v>
+        <v>1779.761080189652</v>
       </c>
       <c r="F138">
         <v>32.14285714285715</v>
@@ -4340,7 +4340,7 @@
         <v>30000</v>
       </c>
       <c r="E139">
-        <v>2221.427746856318</v>
+        <v>2816.665842094413</v>
       </c>
       <c r="F139">
         <v>66.66666666666667</v>
@@ -4360,7 +4360,7 @@
         <v>6000</v>
       </c>
       <c r="E140">
-        <v>1505.951556380128</v>
+        <v>1624.999175427747</v>
       </c>
       <c r="F140">
         <v>32.0855614973262</v>
@@ -4380,7 +4380,7 @@
         <v>6000</v>
       </c>
       <c r="E141">
-        <v>1505.951556380128</v>
+        <v>1624.999175427747</v>
       </c>
       <c r="F141">
         <v>32.0855614973262</v>
@@ -4400,7 +4400,7 @@
         <v>6000</v>
       </c>
       <c r="E142">
-        <v>1589.284889713461</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F142">
         <v>32.0855614973262</v>
@@ -4420,7 +4420,7 @@
         <v>6000</v>
       </c>
       <c r="E143">
-        <v>1886.903937332509</v>
+        <v>2005.951556380128</v>
       </c>
       <c r="F143">
         <v>32.0855614973262</v>
@@ -4440,7 +4440,7 @@
         <v>4800</v>
       </c>
       <c r="E144">
-        <v>1458.33250876108</v>
+        <v>1553.570603999175</v>
       </c>
       <c r="F144">
         <v>32</v>
@@ -4460,7 +4460,7 @@
         <v>1800</v>
       </c>
       <c r="E145">
-        <v>257.1428571428572</v>
+        <v>385.7142857142858</v>
       </c>
       <c r="F145">
         <v>32.14285714285715</v>
@@ -4480,7 +4480,7 @@
         <v>7000</v>
       </c>
       <c r="E146">
-        <v>1871.030921459493</v>
+        <v>2009.919810348382</v>
       </c>
       <c r="F146">
         <v>32.11009174311926</v>
@@ -4500,7 +4500,7 @@
         <v>7000</v>
       </c>
       <c r="E147">
-        <v>1644.840445269017</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F147">
         <v>32.11009174311926</v>
@@ -4520,7 +4520,7 @@
         <v>7600</v>
       </c>
       <c r="E148">
-        <v>1787.697588126159</v>
+        <v>1938.49123891981</v>
       </c>
       <c r="F148">
         <v>32.06751054852321</v>
@@ -4540,7 +4540,7 @@
         <v>7200</v>
       </c>
       <c r="E149">
-        <v>1709.522984951556</v>
+        <v>1852.380127808699</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4560,7 +4560,7 @@
         <v>4800</v>
       </c>
       <c r="E150">
-        <v>1613.094413522985</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F150">
         <v>32</v>
@@ -4580,7 +4580,7 @@
         <v>8400</v>
       </c>
       <c r="E151">
-        <v>1959.522984951556</v>
+        <v>2126.189651618223</v>
       </c>
       <c r="F151">
         <v>32.06106870229008</v>
@@ -4600,7 +4600,7 @@
         <v>6000</v>
       </c>
       <c r="E152">
-        <v>1783.729334157905</v>
+        <v>1902.776953205524</v>
       </c>
       <c r="F152">
         <v>32.0855614973262</v>
@@ -4620,7 +4620,7 @@
         <v>8800</v>
       </c>
       <c r="E153">
-        <v>1609.126159554731</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F153">
         <v>32</v>
@@ -4640,7 +4640,7 @@
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>1546.824572253144</v>
+        <v>1705.554730983302</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4660,7 +4660,7 @@
         <v>8000</v>
       </c>
       <c r="E155">
-        <v>1706.348381776953</v>
+        <v>1865.078540507112</v>
       </c>
       <c r="F155">
         <v>32</v>
@@ -4680,7 +4680,7 @@
         <v>13200</v>
       </c>
       <c r="E156">
-        <v>2161.903937332509</v>
+        <v>2423.808699237271</v>
       </c>
       <c r="F156">
         <v>32.03883495145631</v>
@@ -4700,7 +4700,7 @@
         <v>7200</v>
       </c>
       <c r="E157">
-        <v>1590.475365903937</v>
+        <v>1733.33250876108</v>
       </c>
       <c r="F157">
         <v>32</v>
@@ -4720,7 +4720,7 @@
         <v>7200</v>
       </c>
       <c r="E158">
-        <v>1708.33250876108</v>
+        <v>1851.189651618223</v>
       </c>
       <c r="F158">
         <v>32</v>
@@ -4740,7 +4740,7 @@
         <v>9200</v>
       </c>
       <c r="E159">
-        <v>1783.729334157905</v>
+        <v>1966.269016697588</v>
       </c>
       <c r="F159">
         <v>32.05574912891986</v>
@@ -4760,7 +4760,7 @@
         <v>3600</v>
       </c>
       <c r="E160">
-        <v>1589.284889713461</v>
+        <v>1660.713461142032</v>
       </c>
       <c r="F160">
         <v>32.14285714285715</v>
@@ -4780,7 +4780,7 @@
         <v>1800</v>
       </c>
       <c r="E161">
-        <v>1745.237270665842</v>
+        <v>1780.951556380128</v>
       </c>
       <c r="F161">
         <v>32.14285714285715</v>
@@ -4800,7 +4800,7 @@
         <v>4800</v>
       </c>
       <c r="E162">
-        <v>1589.284889713461</v>
+        <v>1684.522984951556</v>
       </c>
       <c r="F162">
         <v>32</v>
@@ -4820,7 +4820,7 @@
         <v>6000</v>
       </c>
       <c r="E163">
-        <v>1803.570603999175</v>
+        <v>1922.618223046794</v>
       </c>
       <c r="F163">
         <v>32.0855614973262</v>
@@ -4840,7 +4840,7 @@
         <v>6000</v>
       </c>
       <c r="E164">
-        <v>1851.189651618223</v>
+        <v>1970.237270665842</v>
       </c>
       <c r="F164">
         <v>32.0855614973262</v>
@@ -4860,7 +4860,7 @@
         <v>4000</v>
       </c>
       <c r="E165">
-        <v>1562.69758812616</v>
+        <v>1642.062667491239</v>
       </c>
       <c r="F165">
         <v>32</v>
@@ -4880,7 +4880,7 @@
         <v>7600</v>
       </c>
       <c r="E166">
-        <v>1827.380127808699</v>
+        <v>1978.17377860235</v>
       </c>
       <c r="F166">
         <v>32.06751054852321</v>
@@ -4900,7 +4900,7 @@
         <v>2400</v>
       </c>
       <c r="E167">
-        <v>1517.85631828489</v>
+        <v>1565.475365903937</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4920,7 +4920,7 @@
         <v>4800</v>
       </c>
       <c r="E168">
-        <v>1685.713461142032</v>
+        <v>1780.951556380128</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4940,7 +4940,7 @@
         <v>4800</v>
       </c>
       <c r="E169">
-        <v>1642.062667491239</v>
+        <v>1737.300762729334</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4960,7 +4960,7 @@
         <v>2400</v>
       </c>
       <c r="E170">
-        <v>1488.094413522985</v>
+        <v>1535.713461142033</v>
       </c>
       <c r="F170">
         <v>32</v>
@@ -4980,7 +4980,7 @@
         <v>6000</v>
       </c>
       <c r="E171">
-        <v>1577.380127808699</v>
+        <v>1696.427746856318</v>
       </c>
       <c r="F171">
         <v>32.0855614973262</v>
@@ -5000,7 +5000,7 @@
         <v>6000</v>
       </c>
       <c r="E172">
-        <v>1624.999175427747</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F172">
         <v>32.0855614973262</v>
@@ -5020,7 +5020,7 @@
         <v>8000</v>
       </c>
       <c r="E173">
-        <v>1624.999175427747</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F173">
         <v>32</v>
@@ -5040,7 +5040,7 @@
         <v>8000</v>
       </c>
       <c r="E174">
-        <v>2045.634096062667</v>
+        <v>2204.364254792826</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -5060,7 +5060,7 @@
         <v>4800</v>
       </c>
       <c r="E175">
-        <v>1505.951556380128</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F175">
         <v>32</v>
@@ -5080,7 +5080,7 @@
         <v>600</v>
       </c>
       <c r="E176">
-        <v>1470.237270665842</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F176">
         <v>33.33333333333334</v>
@@ -5100,7 +5100,7 @@
         <v>2000</v>
       </c>
       <c r="E177">
-        <v>1450.396000824572</v>
+        <v>1490.078540507112</v>
       </c>
       <c r="F177">
         <v>32.25806451612903</v>
@@ -5120,7 +5120,7 @@
         <v>3600</v>
       </c>
       <c r="E178">
-        <v>1482.142032570604</v>
+        <v>1553.570603999175</v>
       </c>
       <c r="F178">
         <v>32.14285714285715</v>
@@ -5140,7 +5140,7 @@
         <v>7200</v>
       </c>
       <c r="E179">
-        <v>1499.999175427747</v>
+        <v>1642.85631828489</v>
       </c>
       <c r="F179">
         <v>32</v>
@@ -5160,7 +5160,7 @@
         <v>9000</v>
       </c>
       <c r="E180">
-        <v>2049.602350030921</v>
+        <v>2228.17377860235</v>
       </c>
       <c r="F180">
         <v>32.02846975088968</v>
@@ -5180,7 +5180,7 @@
         <v>6000</v>
       </c>
       <c r="E181">
-        <v>1906.745207173778</v>
+        <v>2025.792826221397</v>
       </c>
       <c r="F181">
         <v>32.0855614973262</v>
@@ -5200,7 +5200,7 @@
         <v>3600</v>
       </c>
       <c r="E182">
-        <v>1601.189651618223</v>
+        <v>1672.618223046794</v>
       </c>
       <c r="F182">
         <v>32.14285714285715</v>
@@ -5220,7 +5220,7 @@
         <v>9000</v>
       </c>
       <c r="E183">
-        <v>1823.411873840445</v>
+        <v>2001.983302411874</v>
       </c>
       <c r="F183">
         <v>32.02846975088968</v>
@@ -5240,7 +5240,7 @@
         <v>9600</v>
       </c>
       <c r="E184">
-        <v>1978.17377860235</v>
+        <v>2168.64996907854</v>
       </c>
       <c r="F184">
         <v>32</v>
@@ -5260,7 +5260,7 @@
         <v>6000</v>
       </c>
       <c r="E185">
-        <v>1709.522984951556</v>
+        <v>1828.570603999175</v>
       </c>
       <c r="F185">
         <v>32.0855614973262</v>
@@ -5280,7 +5280,7 @@
         <v>9200</v>
       </c>
       <c r="E186">
-        <v>1892.062667491239</v>
+        <v>2074.602350030921</v>
       </c>
       <c r="F186">
         <v>32.05574912891986</v>
@@ -5300,7 +5300,7 @@
         <v>7200</v>
       </c>
       <c r="E187">
-        <v>1852.380127808699</v>
+        <v>1995.237270665842</v>
       </c>
       <c r="F187">
         <v>32</v>
@@ -5320,7 +5320,7 @@
         <v>9600</v>
       </c>
       <c r="E188">
-        <v>2149.999175427747</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -5340,7 +5340,7 @@
         <v>8000</v>
       </c>
       <c r="E189">
-        <v>1942.459492888064</v>
+        <v>2101.189651618223</v>
       </c>
       <c r="F189">
         <v>32</v>
@@ -5360,7 +5360,7 @@
         <v>9600</v>
       </c>
       <c r="E190">
-        <v>1737.300762729334</v>
+        <v>1927.776953205524</v>
       </c>
       <c r="F190">
         <v>32</v>
@@ -5380,7 +5380,7 @@
         <v>9000</v>
       </c>
       <c r="E191">
-        <v>1589.284889713461</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F191">
         <v>32.02846975088968</v>
@@ -5400,7 +5400,7 @@
         <v>11200</v>
       </c>
       <c r="E192">
-        <v>2005.951556380128</v>
+        <v>2228.17377860235</v>
       </c>
       <c r="F192">
         <v>32</v>
@@ -5420,7 +5420,7 @@
         <v>6000</v>
       </c>
       <c r="E193">
-        <v>1720.237270665842</v>
+        <v>1839.284889713461</v>
       </c>
       <c r="F193">
         <v>32.0855614973262</v>
@@ -5440,7 +5440,7 @@
         <v>7200</v>
       </c>
       <c r="E194">
-        <v>1946.427746856318</v>
+        <v>2089.284889713461</v>
       </c>
       <c r="F194">
         <v>32</v>
@@ -5460,7 +5460,7 @@
         <v>6000</v>
       </c>
       <c r="E195">
-        <v>1708.33250876108</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F195">
         <v>32.0855614973262</v>
@@ -5480,7 +5480,7 @@
         <v>4000</v>
       </c>
       <c r="E196">
-        <v>1562.69758812616</v>
+        <v>1642.062667491239</v>
       </c>
       <c r="F196">
         <v>32</v>
@@ -5500,7 +5500,7 @@
         <v>9600</v>
       </c>
       <c r="E197">
-        <v>2017.85631828489</v>
+        <v>2208.33250876108</v>
       </c>
       <c r="F197">
         <v>32</v>
@@ -5520,7 +5520,7 @@
         <v>6000</v>
       </c>
       <c r="E198">
-        <v>1661.903937332509</v>
+        <v>1780.951556380128</v>
       </c>
       <c r="F198">
         <v>32.0855614973262</v>
@@ -5540,7 +5540,7 @@
         <v>6400</v>
       </c>
       <c r="E199">
-        <v>1704.364254792826</v>
+        <v>1831.348381776953</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5560,7 +5560,7 @@
         <v>4800</v>
       </c>
       <c r="E200">
-        <v>1684.522984951556</v>
+        <v>1779.761080189651</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5580,7 +5580,7 @@
         <v>4800</v>
       </c>
       <c r="E201">
-        <v>1685.713461142032</v>
+        <v>1780.951556380128</v>
       </c>
       <c r="F201">
         <v>32</v>
@@ -5600,7 +5600,7 @@
         <v>8000</v>
       </c>
       <c r="E202">
-        <v>1736.110286538858</v>
+        <v>1894.840445269017</v>
       </c>
       <c r="F202">
         <v>32</v>
@@ -5620,7 +5620,7 @@
         <v>6000</v>
       </c>
       <c r="E203">
-        <v>1736.110286538858</v>
+        <v>1894.840445269017</v>
       </c>
       <c r="F203">
         <v>32.0855614973262</v>
@@ -5640,7 +5640,7 @@
         <v>6000</v>
       </c>
       <c r="E204">
-        <v>1744.046794475366</v>
+        <v>1863.094413522985</v>
       </c>
       <c r="F204">
         <v>32.0855614973262</v>
@@ -5660,7 +5660,7 @@
         <v>10000</v>
       </c>
       <c r="E205">
-        <v>1744.046794475366</v>
+        <v>1863.094413522985</v>
       </c>
       <c r="F205">
         <v>32.05128205128205</v>
@@ -5680,7 +5680,7 @@
         <v>10000</v>
       </c>
       <c r="E206">
-        <v>1656.745207173778</v>
+        <v>1855.157905586477</v>
       </c>
       <c r="F206">
         <v>32.05128205128205</v>
@@ -5700,7 +5700,7 @@
         <v>3600</v>
       </c>
       <c r="E207">
-        <v>1470.237270665842</v>
+        <v>1541.665842094413</v>
       </c>
       <c r="F207">
         <v>32.14285714285715</v>
@@ -5720,7 +5720,7 @@
         <v>8400</v>
       </c>
       <c r="E208">
-        <v>1648.808699237271</v>
+        <v>1815.475365903937</v>
       </c>
       <c r="F208">
         <v>32.06106870229008</v>
@@ -5740,7 +5740,7 @@
         <v>7200</v>
       </c>
       <c r="E209">
-        <v>1541.665842094414</v>
+        <v>1684.522984951557</v>
       </c>
       <c r="F209">
         <v>32</v>
@@ -5760,7 +5760,7 @@
         <v>7200</v>
       </c>
       <c r="E210">
-        <v>1601.189651618223</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F210">
         <v>32</v>
@@ -5780,7 +5780,7 @@
         <v>11000</v>
       </c>
       <c r="E211">
-        <v>2041.665842094413</v>
+        <v>2259.919810348381</v>
       </c>
       <c r="F211">
         <v>32.06997084548105</v>
@@ -5800,7 +5800,7 @@
         <v>11600</v>
       </c>
       <c r="E212">
-        <v>2208.33250876108</v>
+        <v>2438.49123891981</v>
       </c>
       <c r="F212">
         <v>32.04419889502763</v>
@@ -5820,7 +5820,7 @@
         <v>9600</v>
       </c>
       <c r="E213">
-        <v>2090.475365903937</v>
+        <v>2280.951556380127</v>
       </c>
       <c r="F213">
         <v>32</v>
@@ -5840,7 +5840,7 @@
         <v>6000</v>
       </c>
       <c r="E214">
-        <v>1780.951556380128</v>
+        <v>1899.999175427747</v>
       </c>
       <c r="F214">
         <v>32.0855614973262</v>
@@ -5860,7 +5860,7 @@
         <v>11200</v>
       </c>
       <c r="E215">
-        <v>2114.284889713461</v>
+        <v>2336.507111935683</v>
       </c>
       <c r="F215">
         <v>32</v>
@@ -5880,7 +5880,7 @@
         <v>10800</v>
       </c>
       <c r="E216">
-        <v>2364.284889713461</v>
+        <v>2578.570603999175</v>
       </c>
       <c r="F216">
         <v>32.04747774480713</v>
@@ -5900,7 +5900,7 @@
         <v>10000</v>
       </c>
       <c r="E217">
-        <v>2140.872191300763</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F217">
         <v>32.05128205128205</v>
@@ -5920,7 +5920,7 @@
         <v>7200</v>
       </c>
       <c r="E218">
-        <v>1732.142032570604</v>
+        <v>1874.999175427747</v>
       </c>
       <c r="F218">
         <v>32</v>
@@ -5940,7 +5940,7 @@
         <v>6000</v>
       </c>
       <c r="E219">
-        <v>1708.33250876108</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F219">
         <v>32.0855614973262</v>
@@ -5960,7 +5960,7 @@
         <v>13200</v>
       </c>
       <c r="E220">
-        <v>2267.856318284889</v>
+        <v>2529.761080189651</v>
       </c>
       <c r="F220">
         <v>32.03883495145631</v>
@@ -5980,7 +5980,7 @@
         <v>8000</v>
       </c>
       <c r="E221">
-        <v>1878.967429396001</v>
+        <v>2037.697588126159</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -6000,7 +6000,7 @@
         <v>12000</v>
       </c>
       <c r="E222">
-        <v>1721.427746856318</v>
+        <v>1959.522984951556</v>
       </c>
       <c r="F222">
         <v>32</v>
@@ -6020,7 +6020,7 @@
         <v>8400</v>
       </c>
       <c r="E223">
-        <v>2113.094413522985</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F223">
         <v>32.06106870229008</v>
@@ -6040,7 +6040,7 @@
         <v>7200</v>
       </c>
       <c r="E224">
-        <v>1648.808699237271</v>
+        <v>1791.665842094413</v>
       </c>
       <c r="F224">
         <v>32</v>
@@ -6060,7 +6060,7 @@
         <v>10000</v>
       </c>
       <c r="E225">
-        <v>1906.745207173778</v>
+        <v>2105.157905586477</v>
       </c>
       <c r="F225">
         <v>32.05128205128205</v>
@@ -6080,7 +6080,7 @@
         <v>7200</v>
       </c>
       <c r="E226">
-        <v>1803.570603999175</v>
+        <v>1946.427746856318</v>
       </c>
       <c r="F226">
         <v>32</v>
@@ -6100,7 +6100,7 @@
         <v>5000</v>
       </c>
       <c r="E227">
-        <v>1521.824572253144</v>
+        <v>1621.030921459493</v>
       </c>
       <c r="F227">
         <v>11.11111111111111</v>
@@ -6120,7 +6120,7 @@
         <v>8000</v>
       </c>
       <c r="E228">
-        <v>2009.919810348382</v>
+        <v>2168.64996907854</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6140,7 +6140,7 @@
         <v>4000</v>
       </c>
       <c r="E229">
-        <v>1626.189651618223</v>
+        <v>1705.554730983302</v>
       </c>
       <c r="F229">
         <v>32</v>
@@ -6160,7 +6160,7 @@
         <v>5000</v>
       </c>
       <c r="E230">
-        <v>1775.792826221397</v>
+        <v>1874.999175427747</v>
       </c>
       <c r="F230">
         <v>32.05128205128205</v>
@@ -6180,7 +6180,7 @@
         <v>11600</v>
       </c>
       <c r="E231">
-        <v>2248.01504844362</v>
+        <v>2478.17377860235</v>
       </c>
       <c r="F231">
         <v>32.04419889502763</v>
@@ -6200,7 +6200,7 @@
         <v>4800</v>
       </c>
       <c r="E232">
-        <v>2001.983302411874</v>
+        <v>2097.221397649969</v>
       </c>
       <c r="F232">
         <v>32</v>
@@ -6220,7 +6220,7 @@
         <v>4800</v>
       </c>
       <c r="E233">
-        <v>2001.983302411874</v>
+        <v>2097.221397649969</v>
       </c>
       <c r="F233">
         <v>32</v>
@@ -6240,7 +6240,7 @@
         <v>14400</v>
       </c>
       <c r="E234">
-        <v>2007.142032570604</v>
+        <v>2292.856318284889</v>
       </c>
       <c r="F234">
         <v>32</v>
@@ -6260,7 +6260,7 @@
         <v>8400</v>
       </c>
       <c r="E235">
-        <v>1902.776953205524</v>
+        <v>2069.443619872191</v>
       </c>
       <c r="F235">
         <v>32.06106870229008</v>
@@ -6280,7 +6280,7 @@
         <v>5000</v>
       </c>
       <c r="E236">
-        <v>2005.951556380128</v>
+        <v>2105.157905586477</v>
       </c>
       <c r="F236">
         <v>32.05128205128205</v>
@@ -6300,7 +6300,7 @@
         <v>30000</v>
       </c>
       <c r="E237">
-        <v>2257.142032570604</v>
+        <v>2852.380127808699</v>
       </c>
       <c r="F237">
         <v>66.66666666666667</v>
@@ -6320,7 +6320,7 @@
         <v>10000</v>
       </c>
       <c r="E238">
-        <v>1934.522984951556</v>
+        <v>2132.935683364255</v>
       </c>
       <c r="F238">
         <v>32.05128205128205</v>
@@ -6340,7 +6340,7 @@
         <v>8000</v>
       </c>
       <c r="E239">
-        <v>1819.443619872191</v>
+        <v>1978.17377860235</v>
       </c>
       <c r="F239">
         <v>32</v>
@@ -6360,7 +6360,7 @@
         <v>9000</v>
       </c>
       <c r="E240">
-        <v>1922.618223046794</v>
+        <v>2101.189651618223</v>
       </c>
       <c r="F240">
         <v>32.02846975088968</v>
@@ -6380,7 +6380,7 @@
         <v>12000</v>
       </c>
       <c r="E241">
-        <v>1922.618223046794</v>
+        <v>2101.189651618223</v>
       </c>
       <c r="F241">
         <v>32</v>
@@ -6400,7 +6400,7 @@
         <v>12000</v>
       </c>
       <c r="E242">
-        <v>1894.840445269017</v>
+        <v>2132.935683364255</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6420,7 +6420,7 @@
         <v>7200</v>
       </c>
       <c r="E243">
-        <v>1624.999175427747</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6440,7 +6440,7 @@
         <v>14400</v>
       </c>
       <c r="E244">
-        <v>1642.85631828489</v>
+        <v>1928.570603999176</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6460,7 +6460,7 @@
         <v>7200</v>
       </c>
       <c r="E245">
-        <v>1541.665842094414</v>
+        <v>1684.522984951557</v>
       </c>
       <c r="F245">
         <v>32</v>
@@ -6480,7 +6480,7 @@
         <v>11000</v>
       </c>
       <c r="E246">
-        <v>2267.856318284889</v>
+        <v>2486.110286538858</v>
       </c>
       <c r="F246">
         <v>32.06997084548105</v>
@@ -6500,7 +6500,7 @@
         <v>8400</v>
       </c>
       <c r="E247">
-        <v>1672.618223046794</v>
+        <v>1839.284889713461</v>
       </c>
       <c r="F247">
         <v>32.06106870229008</v>
@@ -6520,7 +6520,7 @@
         <v>13600</v>
       </c>
       <c r="E248">
-        <v>2385.988186416758</v>
+        <v>2635.072435501007</v>
       </c>
       <c r="F248">
         <v>32</v>
@@ -6540,7 +6540,7 @@
         <v>6000</v>
       </c>
       <c r="E249">
-        <v>1590.475365903937</v>
+        <v>1709.522984951556</v>
       </c>
       <c r="F249">
         <v>32.0855614973262</v>
@@ -6560,7 +6560,7 @@
         <v>10800</v>
       </c>
       <c r="E250">
-        <v>2304.761080189651</v>
+        <v>2519.046794475365</v>
       </c>
       <c r="F250">
         <v>32.04747774480713</v>
@@ -6580,7 +6580,7 @@
         <v>8000</v>
       </c>
       <c r="E251">
-        <v>1939.681715110286</v>
+        <v>2098.411873840445</v>
       </c>
       <c r="F251">
         <v>32</v>
@@ -6600,7 +6600,7 @@
         <v>12000</v>
       </c>
       <c r="E252">
-        <v>2566.574267002838</v>
+        <v>2786.354486783058</v>
       </c>
       <c r="F252">
         <v>32</v>
@@ -6620,7 +6620,7 @@
         <v>12000</v>
       </c>
       <c r="E253">
-        <v>2360.347160775732</v>
+        <v>2580.127380555952</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -6640,7 +6640,7 @@
         <v>9200</v>
       </c>
       <c r="E254">
-        <v>1843.253143681715</v>
+        <v>2025.792826221397</v>
       </c>
       <c r="F254">
         <v>32.05574912891986</v>
@@ -6660,7 +6660,7 @@
         <v>8000</v>
       </c>
       <c r="E255">
-        <v>1867.062667491239</v>
+        <v>2025.792826221397</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6680,7 +6680,7 @@
         <v>14400</v>
       </c>
       <c r="E256">
-        <v>1767.85631828489</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F256">
         <v>32</v>
@@ -6700,7 +6700,7 @@
         <v>15200</v>
       </c>
       <c r="E257">
-        <v>2415.292215720787</v>
+        <v>2693.680494109065</v>
       </c>
       <c r="F257">
         <v>33.77777777777778</v>
@@ -6720,7 +6720,7 @@
         <v>15000</v>
       </c>
       <c r="E258">
-        <v>1888.094413522985</v>
+        <v>2185.713461142032</v>
       </c>
       <c r="F258">
         <v>33.33333333333334</v>
@@ -6740,7 +6740,7 @@
         <v>14400</v>
       </c>
       <c r="E259">
-        <v>2089.284889713461</v>
+        <v>2374.999175427747</v>
       </c>
       <c r="F259">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>10000</v>
       </c>
       <c r="E260">
-        <v>2077.380127808699</v>
+        <v>2275.792826221397</v>
       </c>
       <c r="F260">
         <v>32.05128205128205</v>
@@ -6780,7 +6780,7 @@
         <v>10000</v>
       </c>
       <c r="E261">
-        <v>1799.602350030921</v>
+        <v>1998.01504844362</v>
       </c>
       <c r="F261">
         <v>32.05128205128205</v>
@@ -6800,7 +6800,7 @@
         <v>7200</v>
       </c>
       <c r="E262">
-        <v>1799.602350030921</v>
+        <v>1998.01504844362</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6820,7 +6820,7 @@
         <v>14400</v>
       </c>
       <c r="E263">
-        <v>1769.046794475366</v>
+        <v>2054.761080189652</v>
       </c>
       <c r="F263">
         <v>32</v>
@@ -6840,7 +6840,7 @@
         <v>9600</v>
       </c>
       <c r="E264">
-        <v>2303.570603999175</v>
+        <v>2494.046794475365</v>
       </c>
       <c r="F264">
         <v>32</v>
@@ -6860,7 +6860,7 @@
         <v>10000</v>
       </c>
       <c r="E265">
-        <v>2208.33250876108</v>
+        <v>2406.745207173778</v>
       </c>
       <c r="F265">
         <v>32.05128205128205</v>
@@ -6880,7 +6880,7 @@
         <v>5000</v>
       </c>
       <c r="E266">
-        <v>1775.792826221397</v>
+        <v>1874.999175427747</v>
       </c>
       <c r="F266">
         <v>32.05128205128205</v>
@@ -6900,7 +6900,7 @@
         <v>13600</v>
       </c>
       <c r="E267">
-        <v>2488.55228898086</v>
+        <v>2737.63653806511</v>
       </c>
       <c r="F267">
         <v>32</v>
@@ -6920,7 +6920,7 @@
         <v>7200</v>
       </c>
       <c r="E268">
-        <v>2232.142032570604</v>
+        <v>2374.999175427747</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6940,7 +6940,7 @@
         <v>7200</v>
       </c>
       <c r="E269">
-        <v>1911.903937332509</v>
+        <v>2054.761080189651</v>
       </c>
       <c r="F269">
         <v>32</v>
@@ -6960,7 +6960,7 @@
         <v>4000</v>
       </c>
       <c r="E270">
-        <v>1740.078540507112</v>
+        <v>1819.443619872191</v>
       </c>
       <c r="F270">
         <v>32</v>
@@ -6980,7 +6980,7 @@
         <v>14400</v>
       </c>
       <c r="E271">
-        <v>2053.570603999175</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F271">
         <v>32</v>
@@ -7000,7 +7000,7 @@
         <v>4800</v>
       </c>
       <c r="E272">
-        <v>1894.840445269017</v>
+        <v>1990.078540507112</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -7020,7 +7020,7 @@
         <v>12000</v>
       </c>
       <c r="E273">
-        <v>1974.205524634096</v>
+        <v>2212.300762729334</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -7040,7 +7040,7 @@
         <v>7200</v>
       </c>
       <c r="E274">
-        <v>2232.142032570604</v>
+        <v>2374.999175427747</v>
       </c>
       <c r="F274">
         <v>32</v>
@@ -7060,7 +7060,7 @@
         <v>15000</v>
       </c>
       <c r="E275">
-        <v>2185.713461142032</v>
+        <v>2483.33250876108</v>
       </c>
       <c r="F275">
         <v>33.33333333333334</v>
@@ -7080,7 +7080,7 @@
         <v>10000</v>
       </c>
       <c r="E276">
-        <v>2017.85631828489</v>
+        <v>2216.269016697588</v>
       </c>
       <c r="F276">
         <v>32.05128205128205</v>
@@ -7100,7 +7100,7 @@
         <v>12000</v>
       </c>
       <c r="E277">
-        <v>2160.713461142032</v>
+        <v>2398.808699237271</v>
       </c>
       <c r="F277">
         <v>32</v>
@@ -7120,7 +7120,7 @@
         <v>14000</v>
       </c>
       <c r="E278">
-        <v>2160.713461142032</v>
+        <v>2398.808699237271</v>
       </c>
       <c r="F278">
         <v>32.03661327231121</v>
@@ -7140,7 +7140,7 @@
         <v>14000</v>
       </c>
       <c r="E279">
-        <v>2172.618223046794</v>
+        <v>2450.396000824572</v>
       </c>
       <c r="F279">
         <v>32.03661327231121</v>
@@ -7160,7 +7160,7 @@
         <v>14400</v>
       </c>
       <c r="E280">
-        <v>2601.582116296402</v>
+        <v>2846.480075480075</v>
       </c>
       <c r="F280">
         <v>32</v>
@@ -7180,7 +7180,7 @@
         <v>9600</v>
       </c>
       <c r="E281">
-        <v>1648.808699237271</v>
+        <v>1839.284889713461</v>
       </c>
       <c r="F281">
         <v>32</v>
@@ -7200,7 +7200,7 @@
         <v>16400</v>
       </c>
       <c r="E282">
-        <v>1724.205524634096</v>
+        <v>2049.602350030921</v>
       </c>
       <c r="F282">
         <v>36.44444444444444</v>
@@ -7220,7 +7220,7 @@
         <v>13000</v>
       </c>
       <c r="E283">
-        <v>2495.878296306867</v>
+        <v>2733.973534402106</v>
       </c>
       <c r="F283">
         <v>32.01970443349754</v>
@@ -7240,7 +7240,7 @@
         <v>14400</v>
       </c>
       <c r="E284">
-        <v>2109.126159554731</v>
+        <v>2394.840445269017</v>
       </c>
       <c r="F284">
         <v>32</v>
@@ -7260,7 +7260,7 @@
         <v>13000</v>
       </c>
       <c r="E285">
-        <v>1859.126159554731</v>
+        <v>2117.062667491239</v>
       </c>
       <c r="F285">
         <v>32.01970443349754</v>
@@ -7280,7 +7280,7 @@
         <v>15600</v>
       </c>
       <c r="E286">
-        <v>2649.201163915449</v>
+        <v>2914.507286364429</v>
       </c>
       <c r="F286">
         <v>34.66666666666666</v>
@@ -7300,7 +7300,7 @@
         <v>7200</v>
       </c>
       <c r="E287">
-        <v>1733.33250876108</v>
+        <v>1876.189651618223</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7320,7 +7320,7 @@
         <v>12000</v>
       </c>
       <c r="E288">
-        <v>2511.629212057783</v>
+        <v>2731.409431838003</v>
       </c>
       <c r="F288">
         <v>32</v>
@@ -7340,7 +7340,7 @@
         <v>10000</v>
       </c>
       <c r="E289">
-        <v>2138.094413522985</v>
+        <v>2336.507111935683</v>
       </c>
       <c r="F289">
         <v>32.05128205128205</v>
@@ -7360,7 +7360,7 @@
         <v>20000</v>
       </c>
       <c r="E290">
-        <v>2057.538857967429</v>
+        <v>2454.364254792826</v>
       </c>
       <c r="F290">
         <v>44.44444444444444</v>
@@ -7380,7 +7380,7 @@
         <v>14000</v>
       </c>
       <c r="E291">
-        <v>2598.180755752184</v>
+        <v>2836.275993847422</v>
       </c>
       <c r="F291">
         <v>32.03661327231121</v>
@@ -7400,7 +7400,7 @@
         <v>14400</v>
       </c>
       <c r="E292">
-        <v>2053.570603999175</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F292">
         <v>32</v>
@@ -7420,7 +7420,7 @@
         <v>13200</v>
       </c>
       <c r="E293">
-        <v>1922.618223046794</v>
+        <v>2184.522984951556</v>
       </c>
       <c r="F293">
         <v>32.03883495145631</v>
@@ -7440,7 +7440,7 @@
         <v>11200</v>
       </c>
       <c r="E294">
-        <v>2065.475365903937</v>
+        <v>2287.697588126159</v>
       </c>
       <c r="F294">
         <v>32</v>
@@ -7460,7 +7460,7 @@
         <v>10000</v>
       </c>
       <c r="E295">
-        <v>2065.475365903937</v>
+        <v>2263.888064316635</v>
       </c>
       <c r="F295">
         <v>32.05128205128205</v>
@@ -7480,7 +7480,7 @@
         <v>10000</v>
       </c>
       <c r="E296">
-        <v>1787.697588126159</v>
+        <v>1986.110286538858</v>
       </c>
       <c r="F296">
         <v>32.05128205128205</v>
@@ -7500,7 +7500,7 @@
         <v>28800</v>
       </c>
       <c r="E297">
-        <v>2196.427746856318</v>
+        <v>2767.856318284889</v>
       </c>
       <c r="F297">
         <v>64</v>
@@ -7520,7 +7520,7 @@
         <v>14400</v>
       </c>
       <c r="E298">
-        <v>1791.665842094413</v>
+        <v>2077.380127808699</v>
       </c>
       <c r="F298">
         <v>32</v>
@@ -7540,7 +7540,7 @@
         <v>14400</v>
       </c>
       <c r="E299">
-        <v>1767.85631828489</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7560,7 +7560,7 @@
         <v>14400</v>
       </c>
       <c r="E300">
-        <v>1767.85631828489</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F300">
         <v>32</v>
@@ -7580,7 +7580,7 @@
         <v>9200</v>
       </c>
       <c r="E301">
-        <v>1890.872191300763</v>
+        <v>2073.411873840445</v>
       </c>
       <c r="F301">
         <v>32.05574912891986</v>
@@ -7600,7 +7600,7 @@
         <v>14400</v>
       </c>
       <c r="E302">
-        <v>2054.761080189651</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F302">
         <v>32</v>
@@ -7620,7 +7620,7 @@
         <v>10800</v>
       </c>
       <c r="E303">
-        <v>2488.55228898086</v>
+        <v>2686.354486783058</v>
       </c>
       <c r="F303">
         <v>32.04747774480713</v>
@@ -7640,7 +7640,7 @@
         <v>12000</v>
       </c>
       <c r="E304">
-        <v>2422.618223046794</v>
+        <v>2642.398442827014</v>
       </c>
       <c r="F304">
         <v>32</v>
@@ -7660,7 +7660,7 @@
         <v>5000</v>
       </c>
       <c r="E305">
-        <v>2295.634096062667</v>
+        <v>2394.840445269017</v>
       </c>
       <c r="F305">
         <v>32.05128205128205</v>
@@ -7680,7 +7680,7 @@
         <v>15600</v>
       </c>
       <c r="E306">
-        <v>2744.439259153545</v>
+        <v>3009.745381602525</v>
       </c>
       <c r="F306">
         <v>34.66666666666666</v>
@@ -7700,7 +7700,7 @@
         <v>6000</v>
       </c>
       <c r="E307">
-        <v>1803.570603999175</v>
+        <v>1922.618223046794</v>
       </c>
       <c r="F307">
         <v>32.0855614973262</v>
@@ -7720,7 +7720,7 @@
         <v>14400</v>
       </c>
       <c r="E308">
-        <v>2077.380127808699</v>
+        <v>2363.094413522985</v>
       </c>
       <c r="F308">
         <v>32</v>
@@ -7740,7 +7740,7 @@
         <v>14400</v>
       </c>
       <c r="E309">
-        <v>2455.585256013827</v>
+        <v>2719.321519750091</v>
       </c>
       <c r="F309">
         <v>32</v>
@@ -7760,7 +7760,7 @@
         <v>14400</v>
       </c>
       <c r="E310">
-        <v>2053.570603999175</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F310">
         <v>32</v>
@@ -7780,7 +7780,7 @@
         <v>14400</v>
       </c>
       <c r="E311">
-        <v>2455.585256013827</v>
+        <v>2719.321519750091</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7800,7 +7800,7 @@
         <v>12000</v>
       </c>
       <c r="E312">
-        <v>1886.903937332509</v>
+        <v>2124.999175427747</v>
       </c>
       <c r="F312">
         <v>32</v>
@@ -7820,7 +7820,7 @@
         <v>15200</v>
       </c>
       <c r="E313">
-        <v>1950.396000824572</v>
+        <v>2251.983302411874</v>
       </c>
       <c r="F313">
         <v>33.77777777777778</v>
@@ -7840,7 +7840,7 @@
         <v>12000</v>
       </c>
       <c r="E314">
-        <v>2378.66217909075</v>
+        <v>2598.44239887097</v>
       </c>
       <c r="F314">
         <v>32</v>
@@ -7860,7 +7860,7 @@
         <v>10000</v>
       </c>
       <c r="E315">
-        <v>1787.697588126159</v>
+        <v>1986.110286538858</v>
       </c>
       <c r="F315">
         <v>32.05128205128205</v>
@@ -7880,7 +7880,7 @@
         <v>14400</v>
       </c>
       <c r="E316">
-        <v>1928.570603999175</v>
+        <v>2214.284889713461</v>
       </c>
       <c r="F316">
         <v>32</v>
@@ -7900,7 +7900,7 @@
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>2214.284889713461</v>
+        <v>2785.713461142032</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7920,7 +7920,7 @@
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>1928.570603999175</v>
+        <v>2214.284889713461</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7940,7 +7940,7 @@
         <v>15000</v>
       </c>
       <c r="E319">
-        <v>2741.037898609327</v>
+        <v>2996.139939425653</v>
       </c>
       <c r="F319">
         <v>33.33333333333334</v>
@@ -7960,7 +7960,7 @@
         <v>28800</v>
       </c>
       <c r="E320">
-        <v>2576.464376892948</v>
+        <v>3103.936904365476</v>
       </c>
       <c r="F320">
         <v>64</v>
@@ -7980,7 +7980,7 @@
         <v>17600</v>
       </c>
       <c r="E321">
-        <v>2948.520891806606</v>
+        <v>3247.840619697762</v>
       </c>
       <c r="F321">
         <v>39.11111111111111</v>
@@ -8000,7 +8000,7 @@
         <v>8400</v>
       </c>
       <c r="E322">
-        <v>1899.999175427747</v>
+        <v>2066.665842094413</v>
       </c>
       <c r="F322">
         <v>32.06106870229008</v>
@@ -8020,7 +8020,7 @@
         <v>12000</v>
       </c>
       <c r="E323">
-        <v>2357.783058211629</v>
+        <v>2577.563277991849</v>
       </c>
       <c r="F323">
         <v>32</v>
@@ -8040,7 +8040,7 @@
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2339.284889713461</v>
+        <v>2624.999175427747</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -8060,7 +8060,7 @@
         <v>15200</v>
       </c>
       <c r="E325">
-        <v>2224.205524634096</v>
+        <v>2525.792826221398</v>
       </c>
       <c r="F325">
         <v>33.77777777777778</v>
@@ -8080,7 +8080,7 @@
         <v>12000</v>
       </c>
       <c r="E326">
-        <v>1755.951556380128</v>
+        <v>1994.046794475366</v>
       </c>
       <c r="F326">
         <v>32</v>
@@ -8100,7 +8100,7 @@
         <v>6000</v>
       </c>
       <c r="E327">
-        <v>1906.745207173778</v>
+        <v>2025.792826221397</v>
       </c>
       <c r="F327">
         <v>32.0855614973262</v>
@@ -8120,7 +8120,7 @@
         <v>12000</v>
       </c>
       <c r="E328">
-        <v>2025.792826221397</v>
+        <v>2263.888064316635</v>
       </c>
       <c r="F328">
         <v>32</v>
@@ -8140,7 +8140,7 @@
         <v>14400</v>
       </c>
       <c r="E329">
-        <v>2601.582116296402</v>
+        <v>2846.480075480075</v>
       </c>
       <c r="F329">
         <v>32</v>
@@ -8160,7 +8160,7 @@
         <v>28800</v>
       </c>
       <c r="E330">
-        <v>2846.480075480075</v>
+        <v>3336.275993847422</v>
       </c>
       <c r="F330">
         <v>64</v>
@@ -8180,7 +8180,7 @@
         <v>14400</v>
       </c>
       <c r="E331">
-        <v>2340.475365903937</v>
+        <v>2626.189651618223</v>
       </c>
       <c r="F331">
         <v>32</v>
@@ -8200,7 +8200,7 @@
         <v>28800</v>
       </c>
       <c r="E332">
-        <v>2588.55228898086</v>
+        <v>3116.024816453388</v>
       </c>
       <c r="F332">
         <v>64</v>
@@ -8220,7 +8220,7 @@
         <v>14000</v>
       </c>
       <c r="E333">
-        <v>2656.003885003885</v>
+        <v>2894.099123099123</v>
       </c>
       <c r="F333">
         <v>32.03661327231121</v>
@@ -8240,7 +8240,7 @@
         <v>4800</v>
       </c>
       <c r="E334">
-        <v>2656.003885003885</v>
+        <v>2894.099123099123</v>
       </c>
       <c r="F334">
         <v>32</v>
@@ -8260,7 +8260,7 @@
         <v>5000</v>
       </c>
       <c r="E335">
-        <v>2124.999175427747</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F335">
         <v>32.05128205128205</v>
@@ -8280,7 +8280,7 @@
         <v>30000</v>
       </c>
       <c r="E336">
-        <v>2455.585256013827</v>
+        <v>3005.035805464377</v>
       </c>
       <c r="F336">
         <v>66.66666666666667</v>
@@ -8300,7 +8300,7 @@
         <v>14000</v>
       </c>
       <c r="E337">
-        <v>2164.681715110286</v>
+        <v>2442.459492888064</v>
       </c>
       <c r="F337">
         <v>32.03661327231121</v>
@@ -8320,7 +8320,7 @@
         <v>19200</v>
       </c>
       <c r="E338">
-        <v>2331.348381776953</v>
+        <v>2712.300762729334</v>
       </c>
       <c r="F338">
         <v>42.66666666666666</v>
@@ -8340,7 +8340,7 @@
         <v>12000</v>
       </c>
       <c r="E339">
-        <v>2124.999175427747</v>
+        <v>2363.094413522985</v>
       </c>
       <c r="F339">
         <v>32</v>
@@ -8360,7 +8360,7 @@
         <v>7200</v>
       </c>
       <c r="E340">
-        <v>1541.665842094414</v>
+        <v>1684.522984951557</v>
       </c>
       <c r="F340">
         <v>32</v>
@@ -8380,7 +8380,7 @@
         <v>17000</v>
       </c>
       <c r="E341">
-        <v>3030.15354486783</v>
+        <v>3319.269191126333</v>
       </c>
       <c r="F341">
         <v>37.77777777777778</v>
@@ -8400,7 +8400,7 @@
         <v>43200</v>
       </c>
       <c r="E342">
-        <v>2649.201163915449</v>
+        <v>3383.89504146647</v>
       </c>
       <c r="F342">
         <v>96</v>
@@ -8420,7 +8420,7 @@
         <v>15000</v>
       </c>
       <c r="E343">
-        <v>2156.745207173778</v>
+        <v>2454.364254792826</v>
       </c>
       <c r="F343">
         <v>33.33333333333334</v>
@@ -8440,7 +8440,7 @@
         <v>28800</v>
       </c>
       <c r="E344">
-        <v>2472.068772497344</v>
+        <v>2999.541299969871</v>
       </c>
       <c r="F344">
         <v>64</v>
@@ -8460,7 +8460,7 @@
         <v>28800</v>
       </c>
       <c r="E345">
-        <v>2815.867830582116</v>
+        <v>3305.663748949462</v>
       </c>
       <c r="F345">
         <v>64</v>
@@ -8480,7 +8480,7 @@
         <v>14400</v>
       </c>
       <c r="E346">
-        <v>2587.453387881959</v>
+        <v>2851.189651618223</v>
       </c>
       <c r="F346">
         <v>32</v>
@@ -8500,7 +8500,7 @@
         <v>17200</v>
       </c>
       <c r="E347">
-        <v>2532.508332936904</v>
+        <v>2847.526647955219</v>
       </c>
       <c r="F347">
         <v>38.22222222222222</v>
@@ -8520,7 +8520,7 @@
         <v>10000</v>
       </c>
       <c r="E348">
-        <v>2224.205524634096</v>
+        <v>2422.618223046794</v>
       </c>
       <c r="F348">
         <v>32.05128205128205</v>
@@ -8540,7 +8540,7 @@
         <v>8000</v>
       </c>
       <c r="E349">
-        <v>2065.475365903937</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F349">
         <v>32</v>
@@ -8560,7 +8560,7 @@
         <v>36000</v>
       </c>
       <c r="E350">
-        <v>2938.316810173953</v>
+        <v>3550.561708133137</v>
       </c>
       <c r="F350">
         <v>80</v>
@@ -8580,7 +8580,7 @@
         <v>56600</v>
       </c>
       <c r="E351">
-        <v>3181.514089085517</v>
+        <v>4144.099123099122</v>
       </c>
       <c r="F351">
         <v>125.7777777777778</v>
@@ -8600,7 +8600,7 @@
         <v>14400</v>
       </c>
       <c r="E352">
-        <v>2846.480075480075</v>
+        <v>3091.378034663749</v>
       </c>
       <c r="F352">
         <v>32</v>
@@ -8620,7 +8620,7 @@
         <v>28800</v>
       </c>
       <c r="E353">
-        <v>3091.378034663749</v>
+        <v>3581.173953031095</v>
       </c>
       <c r="F353">
         <v>64</v>
@@ -8640,7 +8640,7 @@
         <v>43200</v>
       </c>
       <c r="E354">
-        <v>3581.173953031095</v>
+        <v>4315.867830582115</v>
       </c>
       <c r="F354">
         <v>96</v>
@@ -8660,7 +8660,7 @@
         <v>14400</v>
       </c>
       <c r="E355">
-        <v>2588.55228898086</v>
+        <v>2852.288552717124</v>
       </c>
       <c r="F355">
         <v>32</v>
@@ -8680,7 +8680,7 @@
         <v>28800</v>
       </c>
       <c r="E356">
-        <v>2340.475365903937</v>
+        <v>2911.903937332509</v>
       </c>
       <c r="F356">
         <v>64</v>
@@ -8700,7 +8700,7 @@
         <v>16000</v>
       </c>
       <c r="E357">
-        <v>2928.112728541299</v>
+        <v>3200.221572078714</v>
       </c>
       <c r="F357">
         <v>35.55555555555556</v>
@@ -8720,7 +8720,7 @@
         <v>5500</v>
       </c>
       <c r="E358">
-        <v>2425.548625977197</v>
+        <v>2526.281226709798</v>
       </c>
       <c r="F358">
         <v>32.16374269005848</v>
@@ -8740,7 +8740,7 @@
         <v>28800</v>
       </c>
       <c r="E359">
-        <v>2953.622932622932</v>
+        <v>3443.418850990279</v>
       </c>
       <c r="F359">
         <v>64</v>
@@ -8760,7 +8760,7 @@
         <v>20400</v>
       </c>
       <c r="E360">
-        <v>3285.255585684157</v>
+        <v>3632.194361194361</v>
       </c>
       <c r="F360">
         <v>45.33333333333334</v>
@@ -8780,7 +8780,7 @@
         <v>10000</v>
       </c>
       <c r="E361">
-        <v>2507.96620839478</v>
+        <v>2691.116391544963</v>
       </c>
       <c r="F361">
         <v>32.05128205128205</v>
@@ -8800,7 +8800,7 @@
         <v>14400</v>
       </c>
       <c r="E362">
-        <v>2588.55228898086</v>
+        <v>2852.288552717124</v>
       </c>
       <c r="F362">
         <v>32</v>
@@ -8820,7 +8820,7 @@
         <v>16000</v>
       </c>
       <c r="E363">
-        <v>2455.585256013827</v>
+        <v>2748.62554905412</v>
       </c>
       <c r="F363">
         <v>35.55555555555556</v>
@@ -8840,7 +8840,7 @@
         <v>14000</v>
       </c>
       <c r="E364">
-        <v>2382.325182753754</v>
+        <v>2638.735439164011</v>
       </c>
       <c r="F364">
         <v>32.03661327231121</v>
@@ -8860,7 +8860,7 @@
         <v>19000</v>
       </c>
       <c r="E365">
-        <v>3353.282796568511</v>
+        <v>3676.412048269191</v>
       </c>
       <c r="F365">
         <v>42.22222222222222</v>
@@ -8880,7 +8880,7 @@
         <v>17000</v>
       </c>
       <c r="E366">
-        <v>2466.574267002838</v>
+        <v>2777.929578358149</v>
       </c>
       <c r="F366">
         <v>37.77777777777778</v>
@@ -8900,7 +8900,7 @@
         <v>28800</v>
       </c>
       <c r="E367">
-        <v>3060.76578976579</v>
+        <v>3550.561708133137</v>
       </c>
       <c r="F367">
         <v>64</v>
@@ -8920,7 +8920,7 @@
         <v>25000</v>
       </c>
       <c r="E368">
-        <v>2279.761080189651</v>
+        <v>2775.792826221397</v>
       </c>
       <c r="F368">
         <v>55.55555555555556</v>
@@ -8940,7 +8940,7 @@
         <v>43200</v>
       </c>
       <c r="E369">
-        <v>3550.561708133136</v>
+        <v>4285.255585684156</v>
       </c>
       <c r="F369">
         <v>96</v>
@@ -8960,7 +8960,7 @@
         <v>28800</v>
       </c>
       <c r="E370">
-        <v>3060.76578976579</v>
+        <v>3550.561708133137</v>
       </c>
       <c r="F370">
         <v>64</v>
@@ -8980,7 +8980,7 @@
         <v>12000</v>
       </c>
       <c r="E371">
-        <v>2437.270237698809</v>
+        <v>2657.050457479029</v>
       </c>
       <c r="F371">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>10000</v>
       </c>
       <c r="E372">
-        <v>2263.888064316635</v>
+        <v>2462.300762729334</v>
       </c>
       <c r="F372">
         <v>32.05128205128205</v>
@@ -9020,7 +9020,7 @@
         <v>28800</v>
       </c>
       <c r="E373">
-        <v>2220.237270665842</v>
+        <v>2791.665842094413</v>
       </c>
       <c r="F373">
         <v>64</v>
@@ -9040,7 +9040,7 @@
         <v>28800</v>
       </c>
       <c r="E374">
-        <v>3336.275993847422</v>
+        <v>3826.071912214768</v>
       </c>
       <c r="F374">
         <v>64</v>
@@ -9060,7 +9060,7 @@
         <v>43200</v>
       </c>
       <c r="E375">
-        <v>3826.071912214769</v>
+        <v>4560.765789765789</v>
       </c>
       <c r="F375">
         <v>96</v>
@@ -9080,7 +9080,7 @@
         <v>43200</v>
       </c>
       <c r="E376">
-        <v>3061.786197929055</v>
+        <v>3796.480075480075</v>
       </c>
       <c r="F376">
         <v>96</v>
@@ -9100,7 +9100,7 @@
         <v>28800</v>
       </c>
       <c r="E377">
-        <v>3061.786197929055</v>
+        <v>3551.582116296401</v>
       </c>
       <c r="F377">
         <v>64</v>
@@ -9120,7 +9120,7 @@
         <v>18000</v>
       </c>
       <c r="E378">
-        <v>3234.235177520891</v>
+        <v>3540.357626500483</v>
       </c>
       <c r="F378">
         <v>40</v>
@@ -9140,7 +9140,7 @@
         <v>14400</v>
       </c>
       <c r="E379">
-        <v>3305.663748949463</v>
+        <v>3550.561708133136</v>
       </c>
       <c r="F379">
         <v>32</v>
@@ -9160,7 +9160,7 @@
         <v>28800</v>
       </c>
       <c r="E380">
-        <v>3443.418850990279</v>
+        <v>3933.214769357626</v>
       </c>
       <c r="F380">
         <v>64</v>
@@ -9180,7 +9180,7 @@
         <v>28800</v>
       </c>
       <c r="E381">
-        <v>2713.827014255585</v>
+        <v>3203.622932622932</v>
       </c>
       <c r="F381">
         <v>64</v>
@@ -9200,7 +9200,7 @@
         <v>18000</v>
       </c>
       <c r="E382">
-        <v>2754.643340786198</v>
+        <v>3060.76578976579</v>
       </c>
       <c r="F382">
         <v>40</v>
@@ -9220,7 +9220,7 @@
         <v>16000</v>
       </c>
       <c r="E383">
-        <v>2652.602524459667</v>
+        <v>2924.711367997082</v>
       </c>
       <c r="F383">
         <v>35.55555555555556</v>
@@ -9240,7 +9240,7 @@
         <v>21000</v>
       </c>
       <c r="E384">
-        <v>3710.425653711367</v>
+        <v>4067.568510854224</v>
       </c>
       <c r="F384">
         <v>46.66666666666666</v>
@@ -9260,7 +9260,7 @@
         <v>50000</v>
       </c>
       <c r="E385">
-        <v>3309.065109493681</v>
+        <v>4159.405245548102</v>
       </c>
       <c r="F385">
         <v>111.1111111111111</v>
@@ -9280,7 +9280,7 @@
         <v>43200</v>
       </c>
       <c r="E386">
-        <v>3795.45966731681</v>
+        <v>4530.15354486783</v>
       </c>
       <c r="F386">
         <v>96</v>
@@ -9300,7 +9300,7 @@
         <v>14000</v>
       </c>
       <c r="E387">
-        <v>2669.609327180755</v>
+        <v>2907.704565275993</v>
       </c>
       <c r="F387">
         <v>32.03661327231121</v>
@@ -9320,7 +9320,7 @@
         <v>12000</v>
       </c>
       <c r="E388">
-        <v>2473.900274328846</v>
+        <v>2693.680494109065</v>
       </c>
       <c r="F388">
         <v>32</v>
@@ -9340,7 +9340,7 @@
         <v>28800</v>
       </c>
       <c r="E389">
-        <v>2339.284889713461</v>
+        <v>2910.713461142032</v>
       </c>
       <c r="F389">
         <v>64</v>
@@ -9360,7 +9360,7 @@
         <v>43200</v>
       </c>
       <c r="E390">
-        <v>3796.480075480075</v>
+        <v>4531.173953031095</v>
       </c>
       <c r="F390">
         <v>96</v>
@@ -9380,7 +9380,7 @@
         <v>43200</v>
       </c>
       <c r="E391">
-        <v>3061.786197929055</v>
+        <v>3796.480075480075</v>
       </c>
       <c r="F391">
         <v>96</v>
@@ -9400,7 +9400,7 @@
         <v>50000</v>
       </c>
       <c r="E392">
-        <v>3604.983476840619</v>
+        <v>4455.32361289504</v>
       </c>
       <c r="F392">
         <v>111.1111111111111</v>
@@ -9420,7 +9420,7 @@
         <v>10000</v>
       </c>
       <c r="E393">
-        <v>3231.854225139939</v>
+        <v>3401.922252350823</v>
       </c>
       <c r="F393">
         <v>32.05128205128205</v>
@@ -9440,7 +9440,7 @@
         <v>28800</v>
       </c>
       <c r="E394">
-        <v>2815.867830582116</v>
+        <v>3305.663748949462</v>
       </c>
       <c r="F394">
         <v>64</v>
@@ -9460,7 +9460,7 @@
         <v>50000</v>
       </c>
       <c r="E395">
-        <v>2962.126333983476</v>
+        <v>3812.466470037898</v>
       </c>
       <c r="F395">
         <v>111.1111111111111</v>
@@ -9480,7 +9480,7 @@
         <v>14400</v>
       </c>
       <c r="E396">
-        <v>3306.684157112728</v>
+        <v>3551.582116296401</v>
       </c>
       <c r="F396">
         <v>32</v>
@@ -9500,7 +9500,7 @@
         <v>30000</v>
       </c>
       <c r="E397">
-        <v>2455.585256013827</v>
+        <v>3005.035805464377</v>
       </c>
       <c r="F397">
         <v>66.66666666666667</v>
@@ -9520,7 +9520,7 @@
         <v>22000</v>
       </c>
       <c r="E398">
-        <v>3128.793000650143</v>
+        <v>3502.942660514089</v>
       </c>
       <c r="F398">
         <v>48.88888888888889</v>
@@ -9540,7 +9540,7 @@
         <v>55000</v>
       </c>
       <c r="E399">
-        <v>3394.099123099123</v>
+        <v>4329.473272758986</v>
       </c>
       <c r="F399">
         <v>122.2222222222222</v>
@@ -9560,7 +9560,7 @@
         <v>24000</v>
       </c>
       <c r="E400">
-        <v>3536.956265956265</v>
+        <v>3945.119531262388</v>
       </c>
       <c r="F400">
         <v>53.33333333333334</v>

--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -1600,7 +1600,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>171.4285714285714</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F2">
         <v>32.43243243243244</v>
@@ -1620,7 +1620,7 @@
         <v>900</v>
       </c>
       <c r="E3">
-        <v>128.5714285714286</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="F3">
         <v>32.14285714285715</v>
@@ -1640,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <v>8.571428571428571</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -1660,7 +1660,7 @@
         <v>1200</v>
       </c>
       <c r="E5">
-        <v>171.4285714285714</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F5">
         <v>32.43243243243244</v>
@@ -1680,7 +1680,7 @@
         <v>1200</v>
       </c>
       <c r="E6">
-        <v>171.4285714285714</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F6">
         <v>32.43243243243244</v>
@@ -1700,7 +1700,7 @@
         <v>600</v>
       </c>
       <c r="E7">
-        <v>85.71428571428571</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F7">
         <v>33.33333333333334</v>
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>1.428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>600</v>
       </c>
       <c r="E9">
-        <v>171.4285714285714</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F9">
         <v>33.33333333333334</v>
@@ -1760,7 +1760,7 @@
         <v>600</v>
       </c>
       <c r="E10">
-        <v>171.4285714285714</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F10">
         <v>33.33333333333334</v>
@@ -1780,7 +1780,7 @@
         <v>600</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="F11">
         <v>33.33333333333334</v>
@@ -1800,7 +1800,7 @@
         <v>1800</v>
       </c>
       <c r="E12">
-        <v>342.8571428571429</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F12">
         <v>32.14285714285715</v>
@@ -1820,7 +1820,7 @@
         <v>1200</v>
       </c>
       <c r="E13">
-        <v>257.1428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F13">
         <v>32.43243243243244</v>
@@ -1840,7 +1840,7 @@
         <v>600</v>
       </c>
       <c r="E14">
-        <v>171.4285714285714</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F14">
         <v>33.33333333333334</v>
@@ -1860,7 +1860,7 @@
         <v>900</v>
       </c>
       <c r="E15">
-        <v>192.8571428571429</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F15">
         <v>32.14285714285715</v>
@@ -1880,7 +1880,7 @@
         <v>2400</v>
       </c>
       <c r="E16">
-        <v>428.5714285714286</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F16">
         <v>32</v>
@@ -1900,7 +1900,7 @@
         <v>1200</v>
       </c>
       <c r="E17">
-        <v>257.1428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F17">
         <v>32.43243243243244</v>
@@ -1920,7 +1920,7 @@
         <v>600</v>
       </c>
       <c r="E18">
-        <v>171.4285714285714</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="F18">
         <v>33.33333333333334</v>
@@ -1940,7 +1940,7 @@
         <v>600</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="F19">
         <v>33.33333333333334</v>
@@ -1960,7 +1960,7 @@
         <v>1200</v>
       </c>
       <c r="E20">
-        <v>257.1428571428571</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F20">
         <v>32.43243243243244</v>
@@ -1980,7 +1980,7 @@
         <v>1800</v>
       </c>
       <c r="E21">
-        <v>385.7142857142858</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F21">
         <v>32.14285714285715</v>
@@ -2000,7 +2000,7 @@
         <v>1200</v>
       </c>
       <c r="E22">
-        <v>218.5714285714286</v>
+        <v>132.8571428571429</v>
       </c>
       <c r="F22">
         <v>32.43243243243244</v>
@@ -2020,7 +2020,7 @@
         <v>1500</v>
       </c>
       <c r="E23">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F23">
         <v>32.60869565217391</v>
@@ -2040,7 +2040,7 @@
         <v>2400</v>
       </c>
       <c r="E24">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F24">
         <v>32</v>
@@ -2060,7 +2060,7 @@
         <v>1200</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F25">
         <v>32.43243243243244</v>
@@ -2080,7 +2080,7 @@
         <v>1200</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F26">
         <v>32.43243243243244</v>
@@ -2100,7 +2100,7 @@
         <v>2400</v>
       </c>
       <c r="E27">
-        <v>442.8571428571428</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F27">
         <v>32</v>
@@ -2120,7 +2120,7 @@
         <v>1200</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F28">
         <v>32.43243243243244</v>
@@ -2140,7 +2140,7 @@
         <v>4800</v>
       </c>
       <c r="E29">
-        <v>1601.189651618223</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -2160,7 +2160,7 @@
         <v>1800</v>
       </c>
       <c r="E30">
-        <v>304.2857142857143</v>
+        <v>175.7142857142857</v>
       </c>
       <c r="F30">
         <v>32.14285714285715</v>
@@ -2180,7 +2180,7 @@
         <v>600</v>
       </c>
       <c r="E31">
-        <v>214.2857142857143</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="F31">
         <v>33.33333333333334</v>
@@ -2200,7 +2200,7 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>218.5714285714286</v>
+        <v>132.8571428571429</v>
       </c>
       <c r="F32">
         <v>32.43243243243244</v>
@@ -2220,7 +2220,7 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>342.8571428571429</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F33">
         <v>32.43243243243244</v>
@@ -2240,7 +2240,7 @@
         <v>1200</v>
       </c>
       <c r="E34">
-        <v>342.8571428571429</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F34">
         <v>32.43243243243244</v>
@@ -2260,7 +2260,7 @@
         <v>1500</v>
       </c>
       <c r="E35">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F35">
         <v>32.60869565217391</v>
@@ -2280,7 +2280,7 @@
         <v>1500</v>
       </c>
       <c r="E36">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F36">
         <v>32.60869565217391</v>
@@ -2300,7 +2300,7 @@
         <v>2400</v>
       </c>
       <c r="E37">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F37">
         <v>32</v>
@@ -2320,7 +2320,7 @@
         <v>2400</v>
       </c>
       <c r="E38">
-        <v>1529.761080189652</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F38">
         <v>32</v>
@@ -2340,7 +2340,7 @@
         <v>1200</v>
       </c>
       <c r="E39">
-        <v>1529.761080189652</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F39">
         <v>32.43243243243244</v>
@@ -2360,7 +2360,7 @@
         <v>2400</v>
       </c>
       <c r="E40">
-        <v>1529.761080189652</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -2380,7 +2380,7 @@
         <v>1200</v>
       </c>
       <c r="E41">
-        <v>1529.761080189652</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F41">
         <v>32.43243243243244</v>
@@ -2400,7 +2400,7 @@
         <v>1200</v>
       </c>
       <c r="E42">
-        <v>1482.142032570604</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F42">
         <v>32.43243243243244</v>
@@ -2420,7 +2420,7 @@
         <v>3600</v>
       </c>
       <c r="E43">
-        <v>1553.570603999175</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F43">
         <v>32.14285714285715</v>
@@ -2440,7 +2440,7 @@
         <v>1200</v>
       </c>
       <c r="E44">
-        <v>347.1428571428572</v>
+        <v>261.4285714285714</v>
       </c>
       <c r="F44">
         <v>32.43243243243244</v>
@@ -2460,7 +2460,7 @@
         <v>1200</v>
       </c>
       <c r="E45">
-        <v>342.8571428571429</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F45">
         <v>32.43243243243244</v>
@@ -2480,7 +2480,7 @@
         <v>1200</v>
       </c>
       <c r="E46">
-        <v>304.2857142857143</v>
+        <v>218.5714285714286</v>
       </c>
       <c r="F46">
         <v>32.43243243243244</v>
@@ -2500,7 +2500,7 @@
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1505.951556380128</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2520,7 +2520,7 @@
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>1505.951556380128</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F48">
         <v>32.43243243243244</v>
@@ -2540,7 +2540,7 @@
         <v>3600</v>
       </c>
       <c r="E49">
-        <v>1589.284889713461</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F49">
         <v>32.14285714285715</v>
@@ -2560,7 +2560,7 @@
         <v>2400</v>
       </c>
       <c r="E50">
-        <v>1517.85631828489</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F50">
         <v>32</v>
@@ -2580,7 +2580,7 @@
         <v>1200</v>
       </c>
       <c r="E51">
-        <v>1517.85631828489</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F51">
         <v>32.43243243243244</v>
@@ -2600,7 +2600,7 @@
         <v>2400</v>
       </c>
       <c r="E52">
-        <v>1517.85631828489</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F52">
         <v>32</v>
@@ -2620,7 +2620,7 @@
         <v>1800</v>
       </c>
       <c r="E53">
-        <v>1494.046794475366</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F53">
         <v>32.14285714285715</v>
@@ -2640,7 +2640,7 @@
         <v>6000</v>
       </c>
       <c r="E54">
-        <v>1720.237270665842</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F54">
         <v>32.0855614973262</v>
@@ -2660,7 +2660,7 @@
         <v>3600</v>
       </c>
       <c r="E55">
-        <v>1542.85631828489</v>
+        <v>1471.427746856318</v>
       </c>
       <c r="F55">
         <v>32.14285714285715</v>
@@ -2680,7 +2680,7 @@
         <v>2400</v>
       </c>
       <c r="E56">
-        <v>1507.142032570604</v>
+        <v>1459.522984951556</v>
       </c>
       <c r="F56">
         <v>32</v>
@@ -2700,7 +2700,7 @@
         <v>3600</v>
       </c>
       <c r="E57">
-        <v>1554.761080189651</v>
+        <v>1483.33250876108</v>
       </c>
       <c r="F57">
         <v>32.14285714285715</v>
@@ -2720,7 +2720,7 @@
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>1505.951556380128</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F58">
         <v>32</v>
@@ -2740,7 +2740,7 @@
         <v>900</v>
       </c>
       <c r="E59">
-        <v>357.1428571428571</v>
+        <v>314.2857142857143</v>
       </c>
       <c r="F59">
         <v>32.14285714285715</v>
@@ -2760,7 +2760,7 @@
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>417.1428571428571</v>
+        <v>302.8571428571428</v>
       </c>
       <c r="F60">
         <v>32</v>
@@ -2780,7 +2780,7 @@
         <v>2400</v>
       </c>
       <c r="E61">
-        <v>1507.142032570604</v>
+        <v>1459.522984951556</v>
       </c>
       <c r="F61">
         <v>32</v>
@@ -2800,7 +2800,7 @@
         <v>3600</v>
       </c>
       <c r="E62">
-        <v>1601.189651618223</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F62">
         <v>32.14285714285715</v>
@@ -2820,7 +2820,7 @@
         <v>2400</v>
       </c>
       <c r="E63">
-        <v>1553.570603999176</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F63">
         <v>32</v>
@@ -2840,7 +2840,7 @@
         <v>2400</v>
       </c>
       <c r="E64">
-        <v>1553.570603999176</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F64">
         <v>32</v>
@@ -2860,7 +2860,7 @@
         <v>2400</v>
       </c>
       <c r="E65">
-        <v>1553.570603999176</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F65">
         <v>32</v>
@@ -2880,7 +2880,7 @@
         <v>3600</v>
       </c>
       <c r="E66">
-        <v>1614.284889713461</v>
+        <v>1542.85631828489</v>
       </c>
       <c r="F66">
         <v>32.14285714285715</v>
@@ -2900,7 +2900,7 @@
         <v>1200</v>
       </c>
       <c r="E67">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F67">
         <v>32.43243243243244</v>
@@ -2920,7 +2920,7 @@
         <v>1200</v>
       </c>
       <c r="E68">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F68">
         <v>32.43243243243244</v>
@@ -2940,7 +2940,7 @@
         <v>1800</v>
       </c>
       <c r="E69">
-        <v>428.5714285714286</v>
+        <v>342.8571428571428</v>
       </c>
       <c r="F69">
         <v>32.14285714285715</v>
@@ -2960,7 +2960,7 @@
         <v>3600</v>
       </c>
       <c r="E70">
-        <v>1613.094413522985</v>
+        <v>1541.665842094414</v>
       </c>
       <c r="F70">
         <v>32.14285714285715</v>
@@ -2980,7 +2980,7 @@
         <v>2400</v>
       </c>
       <c r="E71">
-        <v>1613.094413522985</v>
+        <v>1541.665842094414</v>
       </c>
       <c r="F71">
         <v>32</v>
@@ -3000,7 +3000,7 @@
         <v>6000</v>
       </c>
       <c r="E72">
-        <v>1839.284889713461</v>
+        <v>1720.237270665842</v>
       </c>
       <c r="F72">
         <v>32.0855614973262</v>
@@ -3020,7 +3020,7 @@
         <v>1200</v>
       </c>
       <c r="E73">
-        <v>1505.951556380128</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F73">
         <v>32.43243243243244</v>
@@ -3040,7 +3040,7 @@
         <v>3600</v>
       </c>
       <c r="E74">
-        <v>1601.189651618223</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F74">
         <v>32.14285714285715</v>
@@ -3060,7 +3060,7 @@
         <v>6000</v>
       </c>
       <c r="E75">
-        <v>1709.522984951556</v>
+        <v>1590.475365903937</v>
       </c>
       <c r="F75">
         <v>32.0855614973262</v>
@@ -3080,7 +3080,7 @@
         <v>5500</v>
       </c>
       <c r="E76">
-        <v>1819.443619872191</v>
+        <v>1710.316635745207</v>
       </c>
       <c r="F76">
         <v>32.16374269005848</v>
@@ -3100,7 +3100,7 @@
         <v>3600</v>
       </c>
       <c r="E77">
-        <v>1589.284889713461</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F77">
         <v>32.14285714285715</v>
@@ -3120,7 +3120,7 @@
         <v>3600</v>
       </c>
       <c r="E78">
-        <v>1602.380127808699</v>
+        <v>1530.951556380128</v>
       </c>
       <c r="F78">
         <v>32.14285714285715</v>
@@ -3140,7 +3140,7 @@
         <v>7200</v>
       </c>
       <c r="E79">
-        <v>1744.046794475366</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F79">
         <v>32</v>
@@ -3160,7 +3160,7 @@
         <v>7200</v>
       </c>
       <c r="E80">
-        <v>1709.522984951557</v>
+        <v>1566.665842094414</v>
       </c>
       <c r="F80">
         <v>32</v>
@@ -3180,7 +3180,7 @@
         <v>3600</v>
       </c>
       <c r="E81">
-        <v>1566.665842094413</v>
+        <v>1495.237270665842</v>
       </c>
       <c r="F81">
         <v>32.14285714285715</v>
@@ -3200,7 +3200,7 @@
         <v>2400</v>
       </c>
       <c r="E82">
-        <v>1495.237270665842</v>
+        <v>1447.618223046794</v>
       </c>
       <c r="F82">
         <v>32</v>
@@ -3220,7 +3220,7 @@
         <v>1800</v>
       </c>
       <c r="E83">
-        <v>1530.951556380128</v>
+        <v>1495.237270665842</v>
       </c>
       <c r="F83">
         <v>32.14285714285715</v>
@@ -3240,7 +3240,7 @@
         <v>3600</v>
       </c>
       <c r="E84">
-        <v>1589.284889713461</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F84">
         <v>32.14285714285715</v>
@@ -3260,7 +3260,7 @@
         <v>4800</v>
       </c>
       <c r="E85">
-        <v>1696.427746856318</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F85">
         <v>32</v>
@@ -3280,7 +3280,7 @@
         <v>3600</v>
       </c>
       <c r="E86">
-        <v>1696.427746856318</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F86">
         <v>32.14285714285715</v>
@@ -3300,7 +3300,7 @@
         <v>3600</v>
       </c>
       <c r="E87">
-        <v>1541.665842094413</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F87">
         <v>32.14285714285715</v>
@@ -3320,7 +3320,7 @@
         <v>1200</v>
       </c>
       <c r="E88">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F88">
         <v>32.43243243243244</v>
@@ -3340,7 +3340,7 @@
         <v>3600</v>
       </c>
       <c r="E89">
-        <v>300</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3360,7 +3360,7 @@
         <v>3600</v>
       </c>
       <c r="E90">
-        <v>1744.046794475366</v>
+        <v>1672.618223046794</v>
       </c>
       <c r="F90">
         <v>32.14285714285715</v>
@@ -3380,7 +3380,7 @@
         <v>2400</v>
       </c>
       <c r="E91">
-        <v>1577.380127808699</v>
+        <v>1529.761080189652</v>
       </c>
       <c r="F91">
         <v>32</v>
@@ -3400,7 +3400,7 @@
         <v>2400</v>
       </c>
       <c r="E92">
-        <v>1553.570603999176</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F92">
         <v>32</v>
@@ -3420,7 +3420,7 @@
         <v>5400</v>
       </c>
       <c r="E93">
-        <v>1744.046794475366</v>
+        <v>1636.903937332509</v>
       </c>
       <c r="F93">
         <v>32.14285714285715</v>
@@ -3440,7 +3440,7 @@
         <v>2400</v>
       </c>
       <c r="E94">
-        <v>442.8571428571428</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F94">
         <v>32</v>
@@ -3460,7 +3460,7 @@
         <v>7200</v>
       </c>
       <c r="E95">
-        <v>1876.189651618223</v>
+        <v>1733.33250876108</v>
       </c>
       <c r="F95">
         <v>32</v>
@@ -3480,7 +3480,7 @@
         <v>3600</v>
       </c>
       <c r="E96">
-        <v>1638.094413522985</v>
+        <v>1566.665842094414</v>
       </c>
       <c r="F96">
         <v>32.14285714285715</v>
@@ -3500,7 +3500,7 @@
         <v>7200</v>
       </c>
       <c r="E97">
-        <v>1744.046794475366</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F97">
         <v>32</v>
@@ -3520,7 +3520,7 @@
         <v>6000</v>
       </c>
       <c r="E98">
-        <v>1769.046794475366</v>
+        <v>1649.999175427747</v>
       </c>
       <c r="F98">
         <v>32.0855614973262</v>
@@ -3540,7 +3540,7 @@
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1578.570603999175</v>
+        <v>1483.33250876108</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3560,7 +3560,7 @@
         <v>7200</v>
       </c>
       <c r="E100">
-        <v>1660.713461142033</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F100">
         <v>32</v>
@@ -3580,7 +3580,7 @@
         <v>9200</v>
       </c>
       <c r="E101">
-        <v>1966.269016697588</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F101">
         <v>32.05574912891986</v>
@@ -3600,7 +3600,7 @@
         <v>9200</v>
       </c>
       <c r="E102">
-        <v>1860.316635745207</v>
+        <v>1677.776953205524</v>
       </c>
       <c r="F102">
         <v>32.05574912891986</v>
@@ -3620,7 +3620,7 @@
         <v>4800</v>
       </c>
       <c r="E103">
-        <v>1685.713461142032</v>
+        <v>1590.475365903937</v>
       </c>
       <c r="F103">
         <v>32</v>
@@ -3640,7 +3640,7 @@
         <v>3600</v>
       </c>
       <c r="E104">
-        <v>1685.713461142032</v>
+        <v>1590.475365903937</v>
       </c>
       <c r="F104">
         <v>32.14285714285715</v>
@@ -3660,7 +3660,7 @@
         <v>3600</v>
       </c>
       <c r="E105">
-        <v>1638.094413522985</v>
+        <v>1566.665842094414</v>
       </c>
       <c r="F105">
         <v>32.14285714285715</v>
@@ -3680,7 +3680,7 @@
         <v>9600</v>
       </c>
       <c r="E106">
-        <v>1982.142032570604</v>
+        <v>1791.665842094413</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3700,7 +3700,7 @@
         <v>3600</v>
       </c>
       <c r="E107">
-        <v>1660.713461142032</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F107">
         <v>32.14285714285715</v>
@@ -3720,7 +3720,7 @@
         <v>3600</v>
       </c>
       <c r="E108">
-        <v>1708.33250876108</v>
+        <v>1636.903937332509</v>
       </c>
       <c r="F108">
         <v>32.14285714285715</v>
@@ -3740,7 +3740,7 @@
         <v>3200</v>
       </c>
       <c r="E109">
-        <v>1610.316635745207</v>
+        <v>1546.824572253144</v>
       </c>
       <c r="F109">
         <v>32</v>
@@ -3760,7 +3760,7 @@
         <v>4000</v>
       </c>
       <c r="E110">
-        <v>1676.586477015048</v>
+        <v>1597.221397649969</v>
       </c>
       <c r="F110">
         <v>32</v>
@@ -3780,7 +3780,7 @@
         <v>1500</v>
       </c>
       <c r="E111">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F111">
         <v>32.60869565217391</v>
@@ -3800,7 +3800,7 @@
         <v>4800</v>
       </c>
       <c r="E112">
-        <v>1673.808699237271</v>
+        <v>1578.570603999176</v>
       </c>
       <c r="F112">
         <v>32</v>
@@ -3820,7 +3820,7 @@
         <v>1500</v>
       </c>
       <c r="E113">
-        <v>342.8571428571429</v>
+        <v>235.7142857142857</v>
       </c>
       <c r="F113">
         <v>32.60869565217391</v>
@@ -3840,7 +3840,7 @@
         <v>9200</v>
       </c>
       <c r="E114">
-        <v>1847.221397649969</v>
+        <v>1664.681715110286</v>
       </c>
       <c r="F114">
         <v>32.05574912891986</v>
@@ -3860,7 +3860,7 @@
         <v>4800</v>
       </c>
       <c r="E115">
-        <v>1847.221397649969</v>
+        <v>1664.681715110286</v>
       </c>
       <c r="F115">
         <v>32</v>
@@ -3880,7 +3880,7 @@
         <v>4800</v>
       </c>
       <c r="E116">
-        <v>1863.094413522985</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3900,7 +3900,7 @@
         <v>4000</v>
       </c>
       <c r="E117">
-        <v>1628.967429396001</v>
+        <v>1549.602350030922</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3920,7 +3920,7 @@
         <v>4800</v>
       </c>
       <c r="E118">
-        <v>1827.380127808699</v>
+        <v>1732.142032570604</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3940,7 +3940,7 @@
         <v>8400</v>
       </c>
       <c r="E119">
-        <v>2066.665842094413</v>
+        <v>1899.999175427747</v>
       </c>
       <c r="F119">
         <v>32.06106870229008</v>
@@ -3960,7 +3960,7 @@
         <v>4800</v>
       </c>
       <c r="E120">
-        <v>1757.142032570604</v>
+        <v>1661.903937332509</v>
       </c>
       <c r="F120">
         <v>32</v>
@@ -3980,7 +3980,7 @@
         <v>7200</v>
       </c>
       <c r="E121">
-        <v>1769.046794475366</v>
+        <v>1626.189651618223</v>
       </c>
       <c r="F121">
         <v>32</v>
@@ -4000,7 +4000,7 @@
         <v>9200</v>
       </c>
       <c r="E122">
-        <v>1966.269016697588</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F122">
         <v>32.05574912891986</v>
@@ -4020,7 +4020,7 @@
         <v>7200</v>
       </c>
       <c r="E123">
-        <v>1935.713461142032</v>
+        <v>1792.85631828489</v>
       </c>
       <c r="F123">
         <v>32</v>
@@ -4040,7 +4040,7 @@
         <v>4000</v>
       </c>
       <c r="E124">
-        <v>1808.729334157905</v>
+        <v>1729.364254792826</v>
       </c>
       <c r="F124">
         <v>32</v>
@@ -4060,7 +4060,7 @@
         <v>11200</v>
       </c>
       <c r="E125">
-        <v>2228.17377860235</v>
+        <v>2005.951556380128</v>
       </c>
       <c r="F125">
         <v>32</v>
@@ -4080,7 +4080,7 @@
         <v>6000</v>
       </c>
       <c r="E126">
-        <v>1666.665842094413</v>
+        <v>1547.618223046794</v>
       </c>
       <c r="F126">
         <v>32.0855614973262</v>
@@ -4100,7 +4100,7 @@
         <v>11200</v>
       </c>
       <c r="E127">
-        <v>2122.221397649969</v>
+        <v>1899.999175427747</v>
       </c>
       <c r="F127">
         <v>32</v>
@@ -4120,7 +4120,7 @@
         <v>6800</v>
       </c>
       <c r="E128">
-        <v>1860.316635745207</v>
+        <v>1725.396000824572</v>
       </c>
       <c r="F128">
         <v>32.0754716981132</v>
@@ -4140,7 +4140,7 @@
         <v>7200</v>
       </c>
       <c r="E129">
-        <v>1852.380127808699</v>
+        <v>1709.522984951556</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -4160,7 +4160,7 @@
         <v>7200</v>
       </c>
       <c r="E130">
-        <v>1744.046794475366</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F130">
         <v>32</v>
@@ -4180,7 +4180,7 @@
         <v>4800</v>
       </c>
       <c r="E131">
-        <v>1779.761080189651</v>
+        <v>1684.522984951556</v>
       </c>
       <c r="F131">
         <v>32</v>
@@ -4200,7 +4200,7 @@
         <v>4800</v>
       </c>
       <c r="E132">
-        <v>1779.761080189651</v>
+        <v>1684.522984951556</v>
       </c>
       <c r="F132">
         <v>32</v>
@@ -4220,7 +4220,7 @@
         <v>6000</v>
       </c>
       <c r="E133">
-        <v>1827.380127808699</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F133">
         <v>32.0855614973262</v>
@@ -4240,7 +4240,7 @@
         <v>4800</v>
       </c>
       <c r="E134">
-        <v>1827.380127808699</v>
+        <v>1732.142032570604</v>
       </c>
       <c r="F134">
         <v>32</v>
@@ -4260,7 +4260,7 @@
         <v>5600</v>
       </c>
       <c r="E135">
-        <v>1787.697588126159</v>
+        <v>1676.586477015048</v>
       </c>
       <c r="F135">
         <v>32</v>
@@ -4280,7 +4280,7 @@
         <v>4800</v>
       </c>
       <c r="E136">
-        <v>1816.665842094413</v>
+        <v>1721.427746856318</v>
       </c>
       <c r="F136">
         <v>32</v>
@@ -4300,7 +4300,7 @@
         <v>3600</v>
       </c>
       <c r="E137">
-        <v>1541.665842094413</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F137">
         <v>32.14285714285715</v>
@@ -4320,7 +4320,7 @@
         <v>1800</v>
       </c>
       <c r="E138">
-        <v>1779.761080189652</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F138">
         <v>32.14285714285715</v>
@@ -4340,7 +4340,7 @@
         <v>30000</v>
       </c>
       <c r="E139">
-        <v>2816.665842094413</v>
+        <v>2221.427746856318</v>
       </c>
       <c r="F139">
         <v>66.66666666666667</v>
@@ -4360,7 +4360,7 @@
         <v>6000</v>
       </c>
       <c r="E140">
-        <v>1624.999175427747</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F140">
         <v>32.0855614973262</v>
@@ -4380,7 +4380,7 @@
         <v>6000</v>
       </c>
       <c r="E141">
-        <v>1624.999175427747</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F141">
         <v>32.0855614973262</v>
@@ -4400,7 +4400,7 @@
         <v>6000</v>
       </c>
       <c r="E142">
-        <v>1708.33250876108</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F142">
         <v>32.0855614973262</v>
@@ -4420,7 +4420,7 @@
         <v>6000</v>
       </c>
       <c r="E143">
-        <v>2005.951556380128</v>
+        <v>1886.903937332509</v>
       </c>
       <c r="F143">
         <v>32.0855614973262</v>
@@ -4440,7 +4440,7 @@
         <v>4800</v>
       </c>
       <c r="E144">
-        <v>1553.570603999175</v>
+        <v>1458.33250876108</v>
       </c>
       <c r="F144">
         <v>32</v>
@@ -4460,7 +4460,7 @@
         <v>1800</v>
       </c>
       <c r="E145">
-        <v>385.7142857142858</v>
+        <v>257.1428571428572</v>
       </c>
       <c r="F145">
         <v>32.14285714285715</v>
@@ -4480,7 +4480,7 @@
         <v>7000</v>
       </c>
       <c r="E146">
-        <v>2009.919810348382</v>
+        <v>1871.030921459493</v>
       </c>
       <c r="F146">
         <v>32.11009174311926</v>
@@ -4500,7 +4500,7 @@
         <v>7000</v>
       </c>
       <c r="E147">
-        <v>1783.729334157905</v>
+        <v>1644.840445269017</v>
       </c>
       <c r="F147">
         <v>32.11009174311926</v>
@@ -4520,7 +4520,7 @@
         <v>7600</v>
       </c>
       <c r="E148">
-        <v>1938.49123891981</v>
+        <v>1787.697588126159</v>
       </c>
       <c r="F148">
         <v>32.06751054852321</v>
@@ -4540,7 +4540,7 @@
         <v>7200</v>
       </c>
       <c r="E149">
-        <v>1852.380127808699</v>
+        <v>1709.522984951556</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4560,7 +4560,7 @@
         <v>4800</v>
       </c>
       <c r="E150">
-        <v>1708.33250876108</v>
+        <v>1613.094413522985</v>
       </c>
       <c r="F150">
         <v>32</v>
@@ -4580,7 +4580,7 @@
         <v>8400</v>
       </c>
       <c r="E151">
-        <v>2126.189651618223</v>
+        <v>1959.522984951556</v>
       </c>
       <c r="F151">
         <v>32.06106870229008</v>
@@ -4600,7 +4600,7 @@
         <v>6000</v>
       </c>
       <c r="E152">
-        <v>1902.776953205524</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F152">
         <v>32.0855614973262</v>
@@ -4620,7 +4620,7 @@
         <v>8800</v>
       </c>
       <c r="E153">
-        <v>1783.729334157905</v>
+        <v>1609.126159554731</v>
       </c>
       <c r="F153">
         <v>32</v>
@@ -4640,7 +4640,7 @@
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>1705.554730983302</v>
+        <v>1546.824572253144</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4660,7 +4660,7 @@
         <v>8000</v>
       </c>
       <c r="E155">
-        <v>1865.078540507112</v>
+        <v>1706.348381776953</v>
       </c>
       <c r="F155">
         <v>32</v>
@@ -4680,7 +4680,7 @@
         <v>13200</v>
       </c>
       <c r="E156">
-        <v>2423.808699237271</v>
+        <v>2161.903937332509</v>
       </c>
       <c r="F156">
         <v>32.03883495145631</v>
@@ -4700,7 +4700,7 @@
         <v>7200</v>
       </c>
       <c r="E157">
-        <v>1733.33250876108</v>
+        <v>1590.475365903937</v>
       </c>
       <c r="F157">
         <v>32</v>
@@ -4720,7 +4720,7 @@
         <v>7200</v>
       </c>
       <c r="E158">
-        <v>1851.189651618223</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F158">
         <v>32</v>
@@ -4740,7 +4740,7 @@
         <v>9200</v>
       </c>
       <c r="E159">
-        <v>1966.269016697588</v>
+        <v>1783.729334157905</v>
       </c>
       <c r="F159">
         <v>32.05574912891986</v>
@@ -4760,7 +4760,7 @@
         <v>3600</v>
       </c>
       <c r="E160">
-        <v>1660.713461142032</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F160">
         <v>32.14285714285715</v>
@@ -4780,7 +4780,7 @@
         <v>1800</v>
       </c>
       <c r="E161">
-        <v>1780.951556380128</v>
+        <v>1745.237270665842</v>
       </c>
       <c r="F161">
         <v>32.14285714285715</v>
@@ -4800,7 +4800,7 @@
         <v>4800</v>
       </c>
       <c r="E162">
-        <v>1684.522984951556</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F162">
         <v>32</v>
@@ -4820,7 +4820,7 @@
         <v>6000</v>
       </c>
       <c r="E163">
-        <v>1922.618223046794</v>
+        <v>1803.570603999175</v>
       </c>
       <c r="F163">
         <v>32.0855614973262</v>
@@ -4840,7 +4840,7 @@
         <v>6000</v>
       </c>
       <c r="E164">
-        <v>1970.237270665842</v>
+        <v>1851.189651618223</v>
       </c>
       <c r="F164">
         <v>32.0855614973262</v>
@@ -4860,7 +4860,7 @@
         <v>4000</v>
       </c>
       <c r="E165">
-        <v>1642.062667491239</v>
+        <v>1562.69758812616</v>
       </c>
       <c r="F165">
         <v>32</v>
@@ -4880,7 +4880,7 @@
         <v>7600</v>
       </c>
       <c r="E166">
-        <v>1978.17377860235</v>
+        <v>1827.380127808699</v>
       </c>
       <c r="F166">
         <v>32.06751054852321</v>
@@ -4900,7 +4900,7 @@
         <v>2400</v>
       </c>
       <c r="E167">
-        <v>1565.475365903937</v>
+        <v>1517.85631828489</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4920,7 +4920,7 @@
         <v>4800</v>
       </c>
       <c r="E168">
-        <v>1780.951556380128</v>
+        <v>1685.713461142032</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4940,7 +4940,7 @@
         <v>4800</v>
       </c>
       <c r="E169">
-        <v>1737.300762729334</v>
+        <v>1642.062667491239</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4960,7 +4960,7 @@
         <v>2400</v>
       </c>
       <c r="E170">
-        <v>1535.713461142033</v>
+        <v>1488.094413522985</v>
       </c>
       <c r="F170">
         <v>32</v>
@@ -4980,7 +4980,7 @@
         <v>6000</v>
       </c>
       <c r="E171">
-        <v>1696.427746856318</v>
+        <v>1577.380127808699</v>
       </c>
       <c r="F171">
         <v>32.0855614973262</v>
@@ -5000,7 +5000,7 @@
         <v>6000</v>
       </c>
       <c r="E172">
-        <v>1744.046794475366</v>
+        <v>1624.999175427747</v>
       </c>
       <c r="F172">
         <v>32.0855614973262</v>
@@ -5020,7 +5020,7 @@
         <v>8000</v>
       </c>
       <c r="E173">
-        <v>1744.046794475366</v>
+        <v>1624.999175427747</v>
       </c>
       <c r="F173">
         <v>32</v>
@@ -5040,7 +5040,7 @@
         <v>8000</v>
       </c>
       <c r="E174">
-        <v>2204.364254792826</v>
+        <v>2045.634096062667</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -5060,7 +5060,7 @@
         <v>4800</v>
       </c>
       <c r="E175">
-        <v>1601.189651618223</v>
+        <v>1505.951556380128</v>
       </c>
       <c r="F175">
         <v>32</v>
@@ -5080,7 +5080,7 @@
         <v>600</v>
       </c>
       <c r="E176">
-        <v>1482.142032570604</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F176">
         <v>33.33333333333334</v>
@@ -5100,7 +5100,7 @@
         <v>2000</v>
       </c>
       <c r="E177">
-        <v>1490.078540507112</v>
+        <v>1450.396000824572</v>
       </c>
       <c r="F177">
         <v>32.25806451612903</v>
@@ -5120,7 +5120,7 @@
         <v>3600</v>
       </c>
       <c r="E178">
-        <v>1553.570603999175</v>
+        <v>1482.142032570604</v>
       </c>
       <c r="F178">
         <v>32.14285714285715</v>
@@ -5140,7 +5140,7 @@
         <v>7200</v>
       </c>
       <c r="E179">
-        <v>1642.85631828489</v>
+        <v>1499.999175427747</v>
       </c>
       <c r="F179">
         <v>32</v>
@@ -5160,7 +5160,7 @@
         <v>9000</v>
       </c>
       <c r="E180">
-        <v>2228.17377860235</v>
+        <v>2049.602350030921</v>
       </c>
       <c r="F180">
         <v>32.02846975088968</v>
@@ -5180,7 +5180,7 @@
         <v>6000</v>
       </c>
       <c r="E181">
-        <v>2025.792826221397</v>
+        <v>1906.745207173778</v>
       </c>
       <c r="F181">
         <v>32.0855614973262</v>
@@ -5200,7 +5200,7 @@
         <v>3600</v>
       </c>
       <c r="E182">
-        <v>1672.618223046794</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F182">
         <v>32.14285714285715</v>
@@ -5220,7 +5220,7 @@
         <v>9000</v>
       </c>
       <c r="E183">
-        <v>2001.983302411874</v>
+        <v>1823.411873840445</v>
       </c>
       <c r="F183">
         <v>32.02846975088968</v>
@@ -5240,7 +5240,7 @@
         <v>9600</v>
       </c>
       <c r="E184">
-        <v>2168.64996907854</v>
+        <v>1978.17377860235</v>
       </c>
       <c r="F184">
         <v>32</v>
@@ -5260,7 +5260,7 @@
         <v>6000</v>
       </c>
       <c r="E185">
-        <v>1828.570603999175</v>
+        <v>1709.522984951556</v>
       </c>
       <c r="F185">
         <v>32.0855614973262</v>
@@ -5280,7 +5280,7 @@
         <v>9200</v>
       </c>
       <c r="E186">
-        <v>2074.602350030921</v>
+        <v>1892.062667491239</v>
       </c>
       <c r="F186">
         <v>32.05574912891986</v>
@@ -5300,7 +5300,7 @@
         <v>7200</v>
       </c>
       <c r="E187">
-        <v>1995.237270665842</v>
+        <v>1852.380127808699</v>
       </c>
       <c r="F187">
         <v>32</v>
@@ -5320,7 +5320,7 @@
         <v>9600</v>
       </c>
       <c r="E188">
-        <v>2340.475365903937</v>
+        <v>2149.999175427747</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -5340,7 +5340,7 @@
         <v>8000</v>
       </c>
       <c r="E189">
-        <v>2101.189651618223</v>
+        <v>1942.459492888064</v>
       </c>
       <c r="F189">
         <v>32</v>
@@ -5360,7 +5360,7 @@
         <v>9600</v>
       </c>
       <c r="E190">
-        <v>1927.776953205524</v>
+        <v>1737.300762729334</v>
       </c>
       <c r="F190">
         <v>32</v>
@@ -5380,7 +5380,7 @@
         <v>9000</v>
       </c>
       <c r="E191">
-        <v>1767.85631828489</v>
+        <v>1589.284889713461</v>
       </c>
       <c r="F191">
         <v>32.02846975088968</v>
@@ -5400,7 +5400,7 @@
         <v>11200</v>
       </c>
       <c r="E192">
-        <v>2228.17377860235</v>
+        <v>2005.951556380128</v>
       </c>
       <c r="F192">
         <v>32</v>
@@ -5420,7 +5420,7 @@
         <v>6000</v>
       </c>
       <c r="E193">
-        <v>1839.284889713461</v>
+        <v>1720.237270665842</v>
       </c>
       <c r="F193">
         <v>32.0855614973262</v>
@@ -5440,7 +5440,7 @@
         <v>7200</v>
       </c>
       <c r="E194">
-        <v>2089.284889713461</v>
+        <v>1946.427746856318</v>
       </c>
       <c r="F194">
         <v>32</v>
@@ -5460,7 +5460,7 @@
         <v>6000</v>
       </c>
       <c r="E195">
-        <v>1827.380127808699</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F195">
         <v>32.0855614973262</v>
@@ -5480,7 +5480,7 @@
         <v>4000</v>
       </c>
       <c r="E196">
-        <v>1642.062667491239</v>
+        <v>1562.69758812616</v>
       </c>
       <c r="F196">
         <v>32</v>
@@ -5500,7 +5500,7 @@
         <v>9600</v>
       </c>
       <c r="E197">
-        <v>2208.33250876108</v>
+        <v>2017.85631828489</v>
       </c>
       <c r="F197">
         <v>32</v>
@@ -5520,7 +5520,7 @@
         <v>6000</v>
       </c>
       <c r="E198">
-        <v>1780.951556380128</v>
+        <v>1661.903937332509</v>
       </c>
       <c r="F198">
         <v>32.0855614973262</v>
@@ -5540,7 +5540,7 @@
         <v>6400</v>
       </c>
       <c r="E199">
-        <v>1831.348381776953</v>
+        <v>1704.364254792826</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5560,7 +5560,7 @@
         <v>4800</v>
       </c>
       <c r="E200">
-        <v>1779.761080189651</v>
+        <v>1684.522984951556</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5580,7 +5580,7 @@
         <v>4800</v>
       </c>
       <c r="E201">
-        <v>1780.951556380128</v>
+        <v>1685.713461142032</v>
       </c>
       <c r="F201">
         <v>32</v>
@@ -5600,7 +5600,7 @@
         <v>8000</v>
       </c>
       <c r="E202">
-        <v>1894.840445269017</v>
+        <v>1736.110286538858</v>
       </c>
       <c r="F202">
         <v>32</v>
@@ -5620,7 +5620,7 @@
         <v>6000</v>
       </c>
       <c r="E203">
-        <v>1894.840445269017</v>
+        <v>1736.110286538858</v>
       </c>
       <c r="F203">
         <v>32.0855614973262</v>
@@ -5640,7 +5640,7 @@
         <v>6000</v>
       </c>
       <c r="E204">
-        <v>1863.094413522985</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F204">
         <v>32.0855614973262</v>
@@ -5660,7 +5660,7 @@
         <v>10000</v>
       </c>
       <c r="E205">
-        <v>1863.094413522985</v>
+        <v>1744.046794475366</v>
       </c>
       <c r="F205">
         <v>32.05128205128205</v>
@@ -5680,7 +5680,7 @@
         <v>10000</v>
       </c>
       <c r="E206">
-        <v>1855.157905586477</v>
+        <v>1656.745207173778</v>
       </c>
       <c r="F206">
         <v>32.05128205128205</v>
@@ -5700,7 +5700,7 @@
         <v>3600</v>
       </c>
       <c r="E207">
-        <v>1541.665842094413</v>
+        <v>1470.237270665842</v>
       </c>
       <c r="F207">
         <v>32.14285714285715</v>
@@ -5720,7 +5720,7 @@
         <v>8400</v>
       </c>
       <c r="E208">
-        <v>1815.475365903937</v>
+        <v>1648.808699237271</v>
       </c>
       <c r="F208">
         <v>32.06106870229008</v>
@@ -5740,7 +5740,7 @@
         <v>7200</v>
       </c>
       <c r="E209">
-        <v>1684.522984951557</v>
+        <v>1541.665842094414</v>
       </c>
       <c r="F209">
         <v>32</v>
@@ -5760,7 +5760,7 @@
         <v>7200</v>
       </c>
       <c r="E210">
-        <v>1744.046794475366</v>
+        <v>1601.189651618223</v>
       </c>
       <c r="F210">
         <v>32</v>
@@ -5780,7 +5780,7 @@
         <v>11000</v>
       </c>
       <c r="E211">
-        <v>2259.919810348381</v>
+        <v>2041.665842094413</v>
       </c>
       <c r="F211">
         <v>32.06997084548105</v>
@@ -5800,7 +5800,7 @@
         <v>11600</v>
       </c>
       <c r="E212">
-        <v>2438.49123891981</v>
+        <v>2208.33250876108</v>
       </c>
       <c r="F212">
         <v>32.04419889502763</v>
@@ -5820,7 +5820,7 @@
         <v>9600</v>
       </c>
       <c r="E213">
-        <v>2280.951556380127</v>
+        <v>2090.475365903937</v>
       </c>
       <c r="F213">
         <v>32</v>
@@ -5840,7 +5840,7 @@
         <v>6000</v>
       </c>
       <c r="E214">
-        <v>1899.999175427747</v>
+        <v>1780.951556380128</v>
       </c>
       <c r="F214">
         <v>32.0855614973262</v>
@@ -5860,7 +5860,7 @@
         <v>11200</v>
       </c>
       <c r="E215">
-        <v>2336.507111935683</v>
+        <v>2114.284889713461</v>
       </c>
       <c r="F215">
         <v>32</v>
@@ -5880,7 +5880,7 @@
         <v>10800</v>
       </c>
       <c r="E216">
-        <v>2578.570603999175</v>
+        <v>2364.284889713461</v>
       </c>
       <c r="F216">
         <v>32.04747774480713</v>
@@ -5900,7 +5900,7 @@
         <v>10000</v>
       </c>
       <c r="E217">
-        <v>2339.284889713461</v>
+        <v>2140.872191300763</v>
       </c>
       <c r="F217">
         <v>32.05128205128205</v>
@@ -5920,7 +5920,7 @@
         <v>7200</v>
       </c>
       <c r="E218">
-        <v>1874.999175427747</v>
+        <v>1732.142032570604</v>
       </c>
       <c r="F218">
         <v>32</v>
@@ -5940,7 +5940,7 @@
         <v>6000</v>
       </c>
       <c r="E219">
-        <v>1827.380127808699</v>
+        <v>1708.33250876108</v>
       </c>
       <c r="F219">
         <v>32.0855614973262</v>
@@ -5960,7 +5960,7 @@
         <v>13200</v>
       </c>
       <c r="E220">
-        <v>2529.761080189651</v>
+        <v>2267.856318284889</v>
       </c>
       <c r="F220">
         <v>32.03883495145631</v>
@@ -5980,7 +5980,7 @@
         <v>8000</v>
       </c>
       <c r="E221">
-        <v>2037.697588126159</v>
+        <v>1878.967429396001</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -6000,7 +6000,7 @@
         <v>12000</v>
       </c>
       <c r="E222">
-        <v>1959.522984951556</v>
+        <v>1721.427746856318</v>
       </c>
       <c r="F222">
         <v>32</v>
@@ -6020,7 +6020,7 @@
         <v>8400</v>
       </c>
       <c r="E223">
-        <v>2279.761080189651</v>
+        <v>2113.094413522985</v>
       </c>
       <c r="F223">
         <v>32.06106870229008</v>
@@ -6040,7 +6040,7 @@
         <v>7200</v>
       </c>
       <c r="E224">
-        <v>1791.665842094413</v>
+        <v>1648.808699237271</v>
       </c>
       <c r="F224">
         <v>32</v>
@@ -6060,7 +6060,7 @@
         <v>10000</v>
       </c>
       <c r="E225">
-        <v>2105.157905586477</v>
+        <v>1906.745207173778</v>
       </c>
       <c r="F225">
         <v>32.05128205128205</v>
@@ -6080,7 +6080,7 @@
         <v>7200</v>
       </c>
       <c r="E226">
-        <v>1946.427746856318</v>
+        <v>1803.570603999175</v>
       </c>
       <c r="F226">
         <v>32</v>
@@ -6100,7 +6100,7 @@
         <v>5000</v>
       </c>
       <c r="E227">
-        <v>1621.030921459493</v>
+        <v>1521.824572253144</v>
       </c>
       <c r="F227">
         <v>11.11111111111111</v>
@@ -6120,7 +6120,7 @@
         <v>8000</v>
       </c>
       <c r="E228">
-        <v>2168.64996907854</v>
+        <v>2009.919810348382</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6140,7 +6140,7 @@
         <v>4000</v>
       </c>
       <c r="E229">
-        <v>1705.554730983302</v>
+        <v>1626.189651618223</v>
       </c>
       <c r="F229">
         <v>32</v>
@@ -6160,7 +6160,7 @@
         <v>5000</v>
       </c>
       <c r="E230">
-        <v>1874.999175427747</v>
+        <v>1775.792826221397</v>
       </c>
       <c r="F230">
         <v>32.05128205128205</v>
@@ -6180,7 +6180,7 @@
         <v>11600</v>
       </c>
       <c r="E231">
-        <v>2478.17377860235</v>
+        <v>2248.01504844362</v>
       </c>
       <c r="F231">
         <v>32.04419889502763</v>
@@ -6200,7 +6200,7 @@
         <v>4800</v>
       </c>
       <c r="E232">
-        <v>2097.221397649969</v>
+        <v>2001.983302411874</v>
       </c>
       <c r="F232">
         <v>32</v>
@@ -6220,7 +6220,7 @@
         <v>4800</v>
       </c>
       <c r="E233">
-        <v>2097.221397649969</v>
+        <v>2001.983302411874</v>
       </c>
       <c r="F233">
         <v>32</v>
@@ -6240,7 +6240,7 @@
         <v>14400</v>
       </c>
       <c r="E234">
-        <v>2292.856318284889</v>
+        <v>2007.142032570604</v>
       </c>
       <c r="F234">
         <v>32</v>
@@ -6260,7 +6260,7 @@
         <v>8400</v>
       </c>
       <c r="E235">
-        <v>2069.443619872191</v>
+        <v>1902.776953205524</v>
       </c>
       <c r="F235">
         <v>32.06106870229008</v>
@@ -6280,7 +6280,7 @@
         <v>5000</v>
       </c>
       <c r="E236">
-        <v>2105.157905586477</v>
+        <v>2005.951556380128</v>
       </c>
       <c r="F236">
         <v>32.05128205128205</v>
@@ -6300,7 +6300,7 @@
         <v>30000</v>
       </c>
       <c r="E237">
-        <v>2852.380127808699</v>
+        <v>2257.142032570604</v>
       </c>
       <c r="F237">
         <v>66.66666666666667</v>
@@ -6320,7 +6320,7 @@
         <v>10000</v>
       </c>
       <c r="E238">
-        <v>2132.935683364255</v>
+        <v>1934.522984951556</v>
       </c>
       <c r="F238">
         <v>32.05128205128205</v>
@@ -6340,7 +6340,7 @@
         <v>8000</v>
       </c>
       <c r="E239">
-        <v>1978.17377860235</v>
+        <v>1819.443619872191</v>
       </c>
       <c r="F239">
         <v>32</v>
@@ -6360,7 +6360,7 @@
         <v>9000</v>
       </c>
       <c r="E240">
-        <v>2101.189651618223</v>
+        <v>1922.618223046794</v>
       </c>
       <c r="F240">
         <v>32.02846975088968</v>
@@ -6380,7 +6380,7 @@
         <v>12000</v>
       </c>
       <c r="E241">
-        <v>2101.189651618223</v>
+        <v>1922.618223046794</v>
       </c>
       <c r="F241">
         <v>32</v>
@@ -6400,7 +6400,7 @@
         <v>12000</v>
       </c>
       <c r="E242">
-        <v>2132.935683364255</v>
+        <v>1894.840445269017</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6420,7 +6420,7 @@
         <v>7200</v>
       </c>
       <c r="E243">
-        <v>1767.85631828489</v>
+        <v>1624.999175427747</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6440,7 +6440,7 @@
         <v>14400</v>
       </c>
       <c r="E244">
-        <v>1928.570603999176</v>
+        <v>1642.85631828489</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6460,7 +6460,7 @@
         <v>7200</v>
       </c>
       <c r="E245">
-        <v>1684.522984951557</v>
+        <v>1541.665842094414</v>
       </c>
       <c r="F245">
         <v>32</v>
@@ -6480,7 +6480,7 @@
         <v>11000</v>
       </c>
       <c r="E246">
-        <v>2486.110286538858</v>
+        <v>2267.856318284889</v>
       </c>
       <c r="F246">
         <v>32.06997084548105</v>
@@ -6500,7 +6500,7 @@
         <v>8400</v>
       </c>
       <c r="E247">
-        <v>1839.284889713461</v>
+        <v>1672.618223046794</v>
       </c>
       <c r="F247">
         <v>32.06106870229008</v>
@@ -6520,7 +6520,7 @@
         <v>13600</v>
       </c>
       <c r="E248">
-        <v>2635.072435501007</v>
+        <v>2385.988186416758</v>
       </c>
       <c r="F248">
         <v>32</v>
@@ -6540,7 +6540,7 @@
         <v>6000</v>
       </c>
       <c r="E249">
-        <v>1709.522984951556</v>
+        <v>1590.475365903937</v>
       </c>
       <c r="F249">
         <v>32.0855614973262</v>
@@ -6560,7 +6560,7 @@
         <v>10800</v>
       </c>
       <c r="E250">
-        <v>2519.046794475365</v>
+        <v>2304.761080189651</v>
       </c>
       <c r="F250">
         <v>32.04747774480713</v>
@@ -6580,7 +6580,7 @@
         <v>8000</v>
       </c>
       <c r="E251">
-        <v>2098.411873840445</v>
+        <v>1939.681715110286</v>
       </c>
       <c r="F251">
         <v>32</v>
@@ -6600,7 +6600,7 @@
         <v>12000</v>
       </c>
       <c r="E252">
-        <v>2786.354486783058</v>
+        <v>2566.574267002838</v>
       </c>
       <c r="F252">
         <v>32</v>
@@ -6620,7 +6620,7 @@
         <v>12000</v>
       </c>
       <c r="E253">
-        <v>2580.127380555952</v>
+        <v>2360.347160775732</v>
       </c>
       <c r="F253">
         <v>32</v>
@@ -6640,7 +6640,7 @@
         <v>9200</v>
       </c>
       <c r="E254">
-        <v>2025.792826221397</v>
+        <v>1843.253143681715</v>
       </c>
       <c r="F254">
         <v>32.05574912891986</v>
@@ -6660,7 +6660,7 @@
         <v>8000</v>
       </c>
       <c r="E255">
-        <v>2025.792826221397</v>
+        <v>1867.062667491239</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6680,7 +6680,7 @@
         <v>14400</v>
       </c>
       <c r="E256">
-        <v>2053.570603999175</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F256">
         <v>32</v>
@@ -6700,7 +6700,7 @@
         <v>15200</v>
       </c>
       <c r="E257">
-        <v>2693.680494109065</v>
+        <v>2415.292215720787</v>
       </c>
       <c r="F257">
         <v>33.77777777777778</v>
@@ -6720,7 +6720,7 @@
         <v>15000</v>
       </c>
       <c r="E258">
-        <v>2185.713461142032</v>
+        <v>1888.094413522985</v>
       </c>
       <c r="F258">
         <v>33.33333333333334</v>
@@ -6740,7 +6740,7 @@
         <v>14400</v>
       </c>
       <c r="E259">
-        <v>2374.999175427747</v>
+        <v>2089.284889713461</v>
       </c>
       <c r="F259">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>10000</v>
       </c>
       <c r="E260">
-        <v>2275.792826221397</v>
+        <v>2077.380127808699</v>
       </c>
       <c r="F260">
         <v>32.05128205128205</v>
@@ -6780,7 +6780,7 @@
         <v>10000</v>
       </c>
       <c r="E261">
-        <v>1998.01504844362</v>
+        <v>1799.602350030921</v>
       </c>
       <c r="F261">
         <v>32.05128205128205</v>
@@ -6800,7 +6800,7 @@
         <v>7200</v>
       </c>
       <c r="E262">
-        <v>1998.01504844362</v>
+        <v>1799.602350030921</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6820,7 +6820,7 @@
         <v>14400</v>
       </c>
       <c r="E263">
-        <v>2054.761080189652</v>
+        <v>1769.046794475366</v>
       </c>
       <c r="F263">
         <v>32</v>
@@ -6840,7 +6840,7 @@
         <v>9600</v>
       </c>
       <c r="E264">
-        <v>2494.046794475365</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F264">
         <v>32</v>
@@ -6860,7 +6860,7 @@
         <v>10000</v>
       </c>
       <c r="E265">
-        <v>2406.745207173778</v>
+        <v>2208.33250876108</v>
       </c>
       <c r="F265">
         <v>32.05128205128205</v>
@@ -6880,7 +6880,7 @@
         <v>5000</v>
       </c>
       <c r="E266">
-        <v>1874.999175427747</v>
+        <v>1775.792826221397</v>
       </c>
       <c r="F266">
         <v>32.05128205128205</v>
@@ -6900,7 +6900,7 @@
         <v>13600</v>
       </c>
       <c r="E267">
-        <v>2737.63653806511</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F267">
         <v>32</v>
@@ -6920,7 +6920,7 @@
         <v>7200</v>
       </c>
       <c r="E268">
-        <v>2374.999175427747</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6940,7 +6940,7 @@
         <v>7200</v>
       </c>
       <c r="E269">
-        <v>2054.761080189651</v>
+        <v>1911.903937332509</v>
       </c>
       <c r="F269">
         <v>32</v>
@@ -6960,7 +6960,7 @@
         <v>4000</v>
       </c>
       <c r="E270">
-        <v>1819.443619872191</v>
+        <v>1740.078540507112</v>
       </c>
       <c r="F270">
         <v>32</v>
@@ -6980,7 +6980,7 @@
         <v>14400</v>
       </c>
       <c r="E271">
-        <v>2339.284889713461</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F271">
         <v>32</v>
@@ -7000,7 +7000,7 @@
         <v>4800</v>
       </c>
       <c r="E272">
-        <v>1990.078540507112</v>
+        <v>1894.840445269017</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -7020,7 +7020,7 @@
         <v>12000</v>
       </c>
       <c r="E273">
-        <v>2212.300762729334</v>
+        <v>1974.205524634096</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -7040,7 +7040,7 @@
         <v>7200</v>
       </c>
       <c r="E274">
-        <v>2374.999175427747</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F274">
         <v>32</v>
@@ -7060,7 +7060,7 @@
         <v>15000</v>
       </c>
       <c r="E275">
-        <v>2483.33250876108</v>
+        <v>2185.713461142032</v>
       </c>
       <c r="F275">
         <v>33.33333333333334</v>
@@ -7080,7 +7080,7 @@
         <v>10000</v>
       </c>
       <c r="E276">
-        <v>2216.269016697588</v>
+        <v>2017.85631828489</v>
       </c>
       <c r="F276">
         <v>32.05128205128205</v>
@@ -7100,7 +7100,7 @@
         <v>12000</v>
       </c>
       <c r="E277">
-        <v>2398.808699237271</v>
+        <v>2160.713461142032</v>
       </c>
       <c r="F277">
         <v>32</v>
@@ -7120,7 +7120,7 @@
         <v>14000</v>
       </c>
       <c r="E278">
-        <v>2398.808699237271</v>
+        <v>2160.713461142032</v>
       </c>
       <c r="F278">
         <v>32.03661327231121</v>
@@ -7140,7 +7140,7 @@
         <v>14000</v>
       </c>
       <c r="E279">
-        <v>2450.396000824572</v>
+        <v>2172.618223046794</v>
       </c>
       <c r="F279">
         <v>32.03661327231121</v>
@@ -7180,7 +7180,7 @@
         <v>9600</v>
       </c>
       <c r="E281">
-        <v>1839.284889713461</v>
+        <v>1648.808699237271</v>
       </c>
       <c r="F281">
         <v>32</v>
@@ -7200,7 +7200,7 @@
         <v>16400</v>
       </c>
       <c r="E282">
-        <v>2049.602350030921</v>
+        <v>1724.205524634096</v>
       </c>
       <c r="F282">
         <v>36.44444444444444</v>
@@ -7220,7 +7220,7 @@
         <v>13000</v>
       </c>
       <c r="E283">
-        <v>2733.973534402106</v>
+        <v>2495.878296306867</v>
       </c>
       <c r="F283">
         <v>32.01970443349754</v>
@@ -7240,7 +7240,7 @@
         <v>14400</v>
       </c>
       <c r="E284">
-        <v>2394.840445269017</v>
+        <v>2109.126159554731</v>
       </c>
       <c r="F284">
         <v>32</v>
@@ -7260,7 +7260,7 @@
         <v>13000</v>
       </c>
       <c r="E285">
-        <v>2117.062667491239</v>
+        <v>1859.126159554731</v>
       </c>
       <c r="F285">
         <v>32.01970443349754</v>
@@ -7300,7 +7300,7 @@
         <v>7200</v>
       </c>
       <c r="E287">
-        <v>1876.189651618223</v>
+        <v>1733.33250876108</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7320,7 +7320,7 @@
         <v>12000</v>
       </c>
       <c r="E288">
-        <v>2731.409431838003</v>
+        <v>2511.629212057783</v>
       </c>
       <c r="F288">
         <v>32</v>
@@ -7340,7 +7340,7 @@
         <v>10000</v>
       </c>
       <c r="E289">
-        <v>2336.507111935683</v>
+        <v>2138.094413522985</v>
       </c>
       <c r="F289">
         <v>32.05128205128205</v>
@@ -7360,7 +7360,7 @@
         <v>20000</v>
       </c>
       <c r="E290">
-        <v>2454.364254792826</v>
+        <v>2057.538857967429</v>
       </c>
       <c r="F290">
         <v>44.44444444444444</v>
@@ -7400,7 +7400,7 @@
         <v>14400</v>
       </c>
       <c r="E292">
-        <v>2339.284889713461</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F292">
         <v>32</v>
@@ -7420,7 +7420,7 @@
         <v>13200</v>
       </c>
       <c r="E293">
-        <v>2184.522984951556</v>
+        <v>1922.618223046794</v>
       </c>
       <c r="F293">
         <v>32.03883495145631</v>
@@ -7440,7 +7440,7 @@
         <v>11200</v>
       </c>
       <c r="E294">
-        <v>2287.697588126159</v>
+        <v>2065.475365903937</v>
       </c>
       <c r="F294">
         <v>32</v>
@@ -7460,7 +7460,7 @@
         <v>10000</v>
       </c>
       <c r="E295">
-        <v>2263.888064316635</v>
+        <v>2065.475365903937</v>
       </c>
       <c r="F295">
         <v>32.05128205128205</v>
@@ -7480,7 +7480,7 @@
         <v>10000</v>
       </c>
       <c r="E296">
-        <v>1986.110286538858</v>
+        <v>1787.697588126159</v>
       </c>
       <c r="F296">
         <v>32.05128205128205</v>
@@ -7500,7 +7500,7 @@
         <v>28800</v>
       </c>
       <c r="E297">
-        <v>2767.856318284889</v>
+        <v>2196.427746856318</v>
       </c>
       <c r="F297">
         <v>64</v>
@@ -7520,7 +7520,7 @@
         <v>14400</v>
       </c>
       <c r="E298">
-        <v>2077.380127808699</v>
+        <v>1791.665842094413</v>
       </c>
       <c r="F298">
         <v>32</v>
@@ -7540,7 +7540,7 @@
         <v>14400</v>
       </c>
       <c r="E299">
-        <v>2053.570603999175</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7560,7 +7560,7 @@
         <v>14400</v>
       </c>
       <c r="E300">
-        <v>2053.570603999175</v>
+        <v>1767.85631828489</v>
       </c>
       <c r="F300">
         <v>32</v>
@@ -7580,7 +7580,7 @@
         <v>9200</v>
       </c>
       <c r="E301">
-        <v>2073.411873840445</v>
+        <v>1890.872191300763</v>
       </c>
       <c r="F301">
         <v>32.05574912891986</v>
@@ -7600,7 +7600,7 @@
         <v>14400</v>
       </c>
       <c r="E302">
-        <v>2340.475365903937</v>
+        <v>2054.761080189651</v>
       </c>
       <c r="F302">
         <v>32</v>
@@ -7620,7 +7620,7 @@
         <v>10800</v>
       </c>
       <c r="E303">
-        <v>2686.354486783058</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F303">
         <v>32.04747774480713</v>
@@ -7640,7 +7640,7 @@
         <v>12000</v>
       </c>
       <c r="E304">
-        <v>2642.398442827014</v>
+        <v>2422.618223046794</v>
       </c>
       <c r="F304">
         <v>32</v>
@@ -7660,7 +7660,7 @@
         <v>5000</v>
       </c>
       <c r="E305">
-        <v>2394.840445269017</v>
+        <v>2295.634096062667</v>
       </c>
       <c r="F305">
         <v>32.05128205128205</v>
@@ -7700,7 +7700,7 @@
         <v>6000</v>
       </c>
       <c r="E307">
-        <v>1922.618223046794</v>
+        <v>1803.570603999175</v>
       </c>
       <c r="F307">
         <v>32.0855614973262</v>
@@ -7720,7 +7720,7 @@
         <v>14400</v>
       </c>
       <c r="E308">
-        <v>2363.094413522985</v>
+        <v>2077.380127808699</v>
       </c>
       <c r="F308">
         <v>32</v>
@@ -7740,7 +7740,7 @@
         <v>14400</v>
       </c>
       <c r="E309">
-        <v>2719.321519750091</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F309">
         <v>32</v>
@@ -7760,7 +7760,7 @@
         <v>14400</v>
       </c>
       <c r="E310">
-        <v>2339.284889713461</v>
+        <v>2053.570603999175</v>
       </c>
       <c r="F310">
         <v>32</v>
@@ -7780,7 +7780,7 @@
         <v>14400</v>
       </c>
       <c r="E311">
-        <v>2719.321519750091</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7800,7 +7800,7 @@
         <v>12000</v>
       </c>
       <c r="E312">
-        <v>2124.999175427747</v>
+        <v>1886.903937332509</v>
       </c>
       <c r="F312">
         <v>32</v>
@@ -7820,7 +7820,7 @@
         <v>15200</v>
       </c>
       <c r="E313">
-        <v>2251.983302411874</v>
+        <v>1950.396000824572</v>
       </c>
       <c r="F313">
         <v>33.77777777777778</v>
@@ -7840,7 +7840,7 @@
         <v>12000</v>
       </c>
       <c r="E314">
-        <v>2598.44239887097</v>
+        <v>2378.66217909075</v>
       </c>
       <c r="F314">
         <v>32</v>
@@ -7860,7 +7860,7 @@
         <v>10000</v>
       </c>
       <c r="E315">
-        <v>1986.110286538858</v>
+        <v>1787.697588126159</v>
       </c>
       <c r="F315">
         <v>32.05128205128205</v>
@@ -7880,7 +7880,7 @@
         <v>14400</v>
       </c>
       <c r="E316">
-        <v>2214.284889713461</v>
+        <v>1928.570603999175</v>
       </c>
       <c r="F316">
         <v>32</v>
@@ -7900,7 +7900,7 @@
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>2785.713461142032</v>
+        <v>2214.284889713461</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7920,7 +7920,7 @@
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>2214.284889713461</v>
+        <v>1928.570603999175</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7960,7 +7960,7 @@
         <v>28800</v>
       </c>
       <c r="E320">
-        <v>3103.936904365476</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F320">
         <v>64</v>
@@ -8000,7 +8000,7 @@
         <v>8400</v>
       </c>
       <c r="E322">
-        <v>2066.665842094413</v>
+        <v>1899.999175427747</v>
       </c>
       <c r="F322">
         <v>32.06106870229008</v>
@@ -8020,7 +8020,7 @@
         <v>12000</v>
       </c>
       <c r="E323">
-        <v>2577.563277991849</v>
+        <v>2357.783058211629</v>
       </c>
       <c r="F323">
         <v>32</v>
@@ -8040,7 +8040,7 @@
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2624.999175427747</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -8060,7 +8060,7 @@
         <v>15200</v>
       </c>
       <c r="E325">
-        <v>2525.792826221398</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F325">
         <v>33.77777777777778</v>
@@ -8080,7 +8080,7 @@
         <v>12000</v>
       </c>
       <c r="E326">
-        <v>1994.046794475366</v>
+        <v>1755.951556380128</v>
       </c>
       <c r="F326">
         <v>32</v>
@@ -8100,7 +8100,7 @@
         <v>6000</v>
       </c>
       <c r="E327">
-        <v>2025.792826221397</v>
+        <v>1906.745207173778</v>
       </c>
       <c r="F327">
         <v>32.0855614973262</v>
@@ -8120,7 +8120,7 @@
         <v>12000</v>
       </c>
       <c r="E328">
-        <v>2263.888064316635</v>
+        <v>2025.792826221397</v>
       </c>
       <c r="F328">
         <v>32</v>
@@ -8180,7 +8180,7 @@
         <v>14400</v>
       </c>
       <c r="E331">
-        <v>2626.189651618223</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F331">
         <v>32</v>
@@ -8200,7 +8200,7 @@
         <v>28800</v>
       </c>
       <c r="E332">
-        <v>3116.024816453388</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F332">
         <v>64</v>
@@ -8260,7 +8260,7 @@
         <v>5000</v>
       </c>
       <c r="E335">
-        <v>2224.205524634096</v>
+        <v>2124.999175427747</v>
       </c>
       <c r="F335">
         <v>32.05128205128205</v>
@@ -8280,7 +8280,7 @@
         <v>30000</v>
       </c>
       <c r="E336">
-        <v>3005.035805464377</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F336">
         <v>66.66666666666667</v>
@@ -8300,7 +8300,7 @@
         <v>14000</v>
       </c>
       <c r="E337">
-        <v>2442.459492888064</v>
+        <v>2164.681715110286</v>
       </c>
       <c r="F337">
         <v>32.03661327231121</v>
@@ -8320,7 +8320,7 @@
         <v>19200</v>
       </c>
       <c r="E338">
-        <v>2712.300762729334</v>
+        <v>2331.348381776953</v>
       </c>
       <c r="F338">
         <v>42.66666666666666</v>
@@ -8340,7 +8340,7 @@
         <v>12000</v>
       </c>
       <c r="E339">
-        <v>2363.094413522985</v>
+        <v>2124.999175427747</v>
       </c>
       <c r="F339">
         <v>32</v>
@@ -8360,7 +8360,7 @@
         <v>7200</v>
       </c>
       <c r="E340">
-        <v>1684.522984951557</v>
+        <v>1541.665842094414</v>
       </c>
       <c r="F340">
         <v>32</v>
@@ -8420,7 +8420,7 @@
         <v>15000</v>
       </c>
       <c r="E343">
-        <v>2454.364254792826</v>
+        <v>2156.745207173778</v>
       </c>
       <c r="F343">
         <v>33.33333333333334</v>
@@ -8440,7 +8440,7 @@
         <v>28800</v>
       </c>
       <c r="E344">
-        <v>2999.541299969871</v>
+        <v>2472.068772497344</v>
       </c>
       <c r="F344">
         <v>64</v>
@@ -8480,7 +8480,7 @@
         <v>14400</v>
       </c>
       <c r="E346">
-        <v>2851.189651618223</v>
+        <v>2587.453387881959</v>
       </c>
       <c r="F346">
         <v>32</v>
@@ -8500,7 +8500,7 @@
         <v>17200</v>
       </c>
       <c r="E347">
-        <v>2847.526647955219</v>
+        <v>2532.508332936904</v>
       </c>
       <c r="F347">
         <v>38.22222222222222</v>
@@ -8520,7 +8520,7 @@
         <v>10000</v>
       </c>
       <c r="E348">
-        <v>2422.618223046794</v>
+        <v>2224.205524634096</v>
       </c>
       <c r="F348">
         <v>32.05128205128205</v>
@@ -8540,7 +8540,7 @@
         <v>8000</v>
       </c>
       <c r="E349">
-        <v>2224.205524634096</v>
+        <v>2065.475365903937</v>
       </c>
       <c r="F349">
         <v>32</v>
@@ -8660,7 +8660,7 @@
         <v>14400</v>
       </c>
       <c r="E355">
-        <v>2852.288552717124</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F355">
         <v>32</v>
@@ -8680,7 +8680,7 @@
         <v>28800</v>
       </c>
       <c r="E356">
-        <v>2911.903937332509</v>
+        <v>2340.475365903937</v>
       </c>
       <c r="F356">
         <v>64</v>
@@ -8720,7 +8720,7 @@
         <v>5500</v>
       </c>
       <c r="E358">
-        <v>2526.281226709798</v>
+        <v>2425.548625977197</v>
       </c>
       <c r="F358">
         <v>32.16374269005848</v>
@@ -8780,7 +8780,7 @@
         <v>10000</v>
       </c>
       <c r="E361">
-        <v>2691.116391544963</v>
+        <v>2507.96620839478</v>
       </c>
       <c r="F361">
         <v>32.05128205128205</v>
@@ -8800,7 +8800,7 @@
         <v>14400</v>
       </c>
       <c r="E362">
-        <v>2852.288552717124</v>
+        <v>2588.55228898086</v>
       </c>
       <c r="F362">
         <v>32</v>
@@ -8820,7 +8820,7 @@
         <v>16000</v>
       </c>
       <c r="E363">
-        <v>2748.62554905412</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F363">
         <v>35.55555555555556</v>
@@ -8840,7 +8840,7 @@
         <v>14000</v>
       </c>
       <c r="E364">
-        <v>2638.735439164011</v>
+        <v>2382.325182753754</v>
       </c>
       <c r="F364">
         <v>32.03661327231121</v>
@@ -8880,7 +8880,7 @@
         <v>17000</v>
       </c>
       <c r="E366">
-        <v>2777.929578358149</v>
+        <v>2466.574267002838</v>
       </c>
       <c r="F366">
         <v>37.77777777777778</v>
@@ -8920,7 +8920,7 @@
         <v>25000</v>
       </c>
       <c r="E368">
-        <v>2775.792826221397</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F368">
         <v>55.55555555555556</v>
@@ -8980,7 +8980,7 @@
         <v>12000</v>
       </c>
       <c r="E371">
-        <v>2657.050457479029</v>
+        <v>2437.270237698809</v>
       </c>
       <c r="F371">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>10000</v>
       </c>
       <c r="E372">
-        <v>2462.300762729334</v>
+        <v>2263.888064316635</v>
       </c>
       <c r="F372">
         <v>32.05128205128205</v>
@@ -9020,7 +9020,7 @@
         <v>28800</v>
       </c>
       <c r="E373">
-        <v>2791.665842094413</v>
+        <v>2220.237270665842</v>
       </c>
       <c r="F373">
         <v>64</v>
@@ -9320,7 +9320,7 @@
         <v>12000</v>
       </c>
       <c r="E388">
-        <v>2693.680494109065</v>
+        <v>2473.900274328846</v>
       </c>
       <c r="F388">
         <v>32</v>
@@ -9340,7 +9340,7 @@
         <v>28800</v>
       </c>
       <c r="E389">
-        <v>2910.713461142032</v>
+        <v>2339.284889713461</v>
       </c>
       <c r="F389">
         <v>64</v>
@@ -9500,7 +9500,7 @@
         <v>30000</v>
       </c>
       <c r="E397">
-        <v>3005.035805464377</v>
+        <v>2455.585256013827</v>
       </c>
       <c r="F397">
         <v>66.66666666666667</v>

--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -1931,7 +1931,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1860</v>
+        <v>3000</v>
       </c>
       <c r="C19">
         <v>85.71428571428571</v>
@@ -1940,7 +1940,7 @@
         <v>1200</v>
       </c>
       <c r="E19">
-        <v>132.8571428571429</v>
+        <v>214.2857142857143</v>
       </c>
       <c r="F19">
         <v>32.43243243243244</v>
@@ -2171,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>3300</v>
+        <v>3960</v>
       </c>
       <c r="C31">
         <v>107.1428571428571</v>
@@ -2180,7 +2180,7 @@
         <v>1500</v>
       </c>
       <c r="E31">
-        <v>235.7142857142857</v>
+        <v>282.8571428571428</v>
       </c>
       <c r="F31">
         <v>32.60869565217391</v>
@@ -2191,16 +2191,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="C32">
-        <v>107.1428571428571</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D32">
         <v>2400</v>
       </c>
       <c r="E32">
-        <v>235.7142857142857</v>
+        <v>1401.952380952381</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -2211,7 +2211,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>3300</v>
+        <v>3960</v>
       </c>
       <c r="C33">
         <v>107.1428571428571</v>
@@ -2220,7 +2220,7 @@
         <v>1500</v>
       </c>
       <c r="E33">
-        <v>235.7142857142857</v>
+        <v>282.8571428571428</v>
       </c>
       <c r="F33">
         <v>32.60869565217391</v>
@@ -2240,7 +2240,7 @@
         <v>2400</v>
       </c>
       <c r="E34">
-        <v>235.7142857142857</v>
+        <v>282.8571428571428</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -2251,16 +2251,16 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="C35">
-        <v>107.1428571428571</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D35">
         <v>2400</v>
       </c>
       <c r="E35">
-        <v>235.7142857142857</v>
+        <v>1401.952380952381</v>
       </c>
       <c r="F35">
         <v>32</v>
@@ -2274,13 +2274,13 @@
         <v>4200</v>
       </c>
       <c r="C36">
-        <v>107.1428571428571</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D36">
         <v>1200</v>
       </c>
       <c r="E36">
-        <v>235.7142857142857</v>
+        <v>1401.952380952381</v>
       </c>
       <c r="F36">
         <v>32.43243243243244</v>
@@ -2294,13 +2294,13 @@
         <v>4200</v>
       </c>
       <c r="C37">
-        <v>107.1428571428571</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D37">
         <v>1200</v>
       </c>
       <c r="E37">
-        <v>235.7142857142857</v>
+        <v>1401.952380952381</v>
       </c>
       <c r="F37">
         <v>32.43243243243244</v>
@@ -2411,16 +2411,16 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="C43">
-        <v>57.14285714285715</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="D43">
         <v>1200</v>
       </c>
       <c r="E43">
-        <v>357.1428571428572</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F43">
         <v>32.43243243243244</v>
@@ -2451,16 +2451,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="C45">
-        <v>122.4489795918367</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D45">
         <v>2400</v>
       </c>
       <c r="E45">
-        <v>1510.795918367347</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F45">
         <v>32</v>
@@ -2491,16 +2491,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>4200</v>
+        <v>8400</v>
       </c>
       <c r="C47">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D47">
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2514,13 +2514,13 @@
         <v>5400</v>
       </c>
       <c r="C48">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D48">
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F48">
         <v>32.43243243243244</v>
@@ -2531,7 +2531,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>6600</v>
+        <v>7200</v>
       </c>
       <c r="C49">
         <v>47.61904761904762</v>
@@ -2551,16 +2551,16 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="C50">
-        <v>71.42857142857143</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="D50">
         <v>1800</v>
       </c>
       <c r="E50">
-        <v>1378.142857142857</v>
+        <v>1354.333333333333</v>
       </c>
       <c r="F50">
         <v>32.14285714285715</v>
@@ -2571,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>8400</v>
+        <v>9600</v>
       </c>
       <c r="C51">
         <v>122.4489795918367</v>
@@ -2631,16 +2631,16 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>7260</v>
+        <v>9600</v>
       </c>
       <c r="C54">
-        <v>142.8571428571429</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D54">
         <v>3600</v>
       </c>
       <c r="E54">
-        <v>1449.571428571428</v>
+        <v>1510.795918367347</v>
       </c>
       <c r="F54">
         <v>32.14285714285715</v>
@@ -2691,16 +2691,16 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>4260</v>
+        <v>5460</v>
       </c>
       <c r="C57">
-        <v>114.2857142857143</v>
+        <v>95.23809523809524</v>
       </c>
       <c r="D57">
         <v>2400</v>
       </c>
       <c r="E57">
-        <v>414.2857142857143</v>
+        <v>1401.952380952381</v>
       </c>
       <c r="F57">
         <v>32</v>
@@ -2711,16 +2711,16 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>6060</v>
+        <v>8400</v>
       </c>
       <c r="C58">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D58">
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F58">
         <v>32</v>
@@ -2751,16 +2751,16 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>7800</v>
+        <v>9600</v>
       </c>
       <c r="C60">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D60">
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F60">
         <v>32</v>
@@ -2791,16 +2791,16 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>3000</v>
+        <v>9600</v>
       </c>
       <c r="C62">
-        <v>85.71428571428571</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D62">
         <v>1200</v>
       </c>
       <c r="E62">
-        <v>214.2857142857143</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F62">
         <v>32.43243243243244</v>
@@ -2811,16 +2811,16 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>5100</v>
+        <v>11400</v>
       </c>
       <c r="C63">
-        <v>85.71428571428571</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D63">
         <v>1800</v>
       </c>
       <c r="E63">
-        <v>385.7142857142857</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F63">
         <v>32.14285714285715</v>
@@ -2871,16 +2871,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>6600</v>
+        <v>10800</v>
       </c>
       <c r="C66">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D66">
         <v>2400</v>
       </c>
       <c r="E66">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F66">
         <v>32</v>
@@ -2891,16 +2891,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="C67">
-        <v>47.61904761904762</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D67">
         <v>1200</v>
       </c>
       <c r="E67">
-        <v>1354.333333333333</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F67">
         <v>32.43243243243244</v>
@@ -2911,16 +2911,16 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>9600</v>
+        <v>11400</v>
       </c>
       <c r="C68">
-        <v>122.4489795918367</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D68">
         <v>3600</v>
       </c>
       <c r="E68">
-        <v>1510.795918367347</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F68">
         <v>32.14285714285715</v>
@@ -2931,7 +2931,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>13800</v>
+        <v>15600</v>
       </c>
       <c r="C69">
         <v>178.5714285714286</v>
@@ -2971,7 +2971,7 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>9000</v>
+        <v>9660</v>
       </c>
       <c r="C71">
         <v>122.4489795918367</v>
@@ -3031,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>11460</v>
+        <v>12660</v>
       </c>
       <c r="C74">
         <v>214.2857142857143</v>
@@ -3051,16 +3051,16 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>7860</v>
+        <v>12000</v>
       </c>
       <c r="C75">
-        <v>122.4489795918367</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D75">
         <v>3600</v>
       </c>
       <c r="E75">
-        <v>1510.795918367347</v>
+        <v>1602.632653061224</v>
       </c>
       <c r="F75">
         <v>32.14285714285715</v>
@@ -3071,16 +3071,16 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>5460</v>
+        <v>7860</v>
       </c>
       <c r="C76">
-        <v>95.23809523809524</v>
+        <v>81.63265306122449</v>
       </c>
       <c r="D76">
         <v>2400</v>
       </c>
       <c r="E76">
-        <v>1401.952380952381</v>
+        <v>1469.979591836735</v>
       </c>
       <c r="F76">
         <v>32</v>
@@ -3091,7 +3091,7 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>7860</v>
+        <v>10200</v>
       </c>
       <c r="C77">
         <v>61.22448979591837</v>
@@ -3111,7 +3111,7 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="C78">
         <v>122.4489795918367</v>
@@ -3151,7 +3151,7 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>9600</v>
+        <v>10800</v>
       </c>
       <c r="C80">
         <v>81.63265306122449</v>
@@ -3191,16 +3191,16 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="C82">
-        <v>81.63265306122449</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D82">
         <v>3600</v>
       </c>
       <c r="E82">
-        <v>1469.979591836735</v>
+        <v>1602.632653061224</v>
       </c>
       <c r="F82">
         <v>32.14285714285715</v>
@@ -3211,16 +3211,16 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>3000</v>
+        <v>10800</v>
       </c>
       <c r="C83">
-        <v>85.71428571428571</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D83">
         <v>1200</v>
       </c>
       <c r="E83">
-        <v>214.2857142857143</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F83">
         <v>32.43243243243244</v>
@@ -3231,16 +3231,16 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>3000</v>
+        <v>9060</v>
       </c>
       <c r="C84">
-        <v>85.71428571428571</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D84">
         <v>1200</v>
       </c>
       <c r="E84">
-        <v>214.2857142857143</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F84">
         <v>32.43243243243244</v>
@@ -3254,13 +3254,13 @@
         <v>11400</v>
       </c>
       <c r="C85">
-        <v>85.71428571428571</v>
+        <v>40.81632653061224</v>
       </c>
       <c r="D85">
         <v>3600</v>
       </c>
       <c r="E85">
-        <v>214.2857142857143</v>
+        <v>1429.163265306122</v>
       </c>
       <c r="F85">
         <v>32.14285714285715</v>
@@ -3271,7 +3271,7 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>19800</v>
+        <v>21600</v>
       </c>
       <c r="C86">
         <v>158.7301587301587</v>
@@ -3291,16 +3291,16 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>9600</v>
+        <v>13800</v>
       </c>
       <c r="C87">
-        <v>81.63265306122449</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="D87">
         <v>2400</v>
       </c>
       <c r="E87">
-        <v>1469.979591836735</v>
+        <v>1566.918367346939</v>
       </c>
       <c r="F87">
         <v>32</v>
@@ -3311,16 +3311,16 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="C88">
-        <v>81.63265306122449</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="D88">
         <v>2400</v>
       </c>
       <c r="E88">
-        <v>1469.979591836735</v>
+        <v>1566.918367346939</v>
       </c>
       <c r="F88">
         <v>32</v>
@@ -3331,16 +3331,16 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>15000</v>
+        <v>16800</v>
       </c>
       <c r="C89">
-        <v>160.7142857142857</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D89">
         <v>5400</v>
       </c>
       <c r="E89">
-        <v>1656.204081632653</v>
+        <v>1765.331065759637</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3351,16 +3351,16 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>4800</v>
+        <v>13800</v>
       </c>
       <c r="C90">
-        <v>114.2857142857143</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="D90">
         <v>2400</v>
       </c>
       <c r="E90">
-        <v>414.2857142857143</v>
+        <v>1566.918367346939</v>
       </c>
       <c r="F90">
         <v>32</v>
@@ -3391,16 +3391,16 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>11460</v>
+        <v>16260</v>
       </c>
       <c r="C92">
-        <v>107.1428571428571</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D92">
         <v>3600</v>
       </c>
       <c r="E92">
-        <v>1602.632653061224</v>
+        <v>1717.712018140589</v>
       </c>
       <c r="F92">
         <v>32.14285714285715</v>
@@ -3411,7 +3411,7 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>19300</v>
+        <v>21100</v>
       </c>
       <c r="C93">
         <v>145.5026455026455</v>
@@ -3451,16 +3451,16 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>7260</v>
+        <v>14460</v>
       </c>
       <c r="C95">
-        <v>190.4761904761905</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D95">
         <v>4800</v>
       </c>
       <c r="E95">
-        <v>1497.190476190476</v>
+        <v>1638.34693877551</v>
       </c>
       <c r="F95">
         <v>32</v>
@@ -3471,16 +3471,16 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>9000</v>
+        <v>20400</v>
       </c>
       <c r="C96">
-        <v>244.8979591836735</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D96">
         <v>7200</v>
       </c>
       <c r="E96">
-        <v>1633.244897959184</v>
+        <v>1812.950113378685</v>
       </c>
       <c r="F96">
         <v>32</v>
@@ -3511,7 +3511,7 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>17060</v>
+        <v>21860</v>
       </c>
       <c r="C98">
         <v>243.3862433862434</v>
@@ -3531,16 +3531,16 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>12660</v>
+        <v>16800</v>
       </c>
       <c r="C99">
-        <v>142.8571428571429</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D99">
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1638.34693877551</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3551,16 +3551,16 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="C100">
-        <v>142.8571428571429</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="D100">
         <v>3600</v>
       </c>
       <c r="E100">
-        <v>1638.34693877551</v>
+        <v>1602.632653061224</v>
       </c>
       <c r="F100">
         <v>32.14285714285715</v>
@@ -3571,7 +3571,7 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>11460</v>
+        <v>13800</v>
       </c>
       <c r="C101">
         <v>107.1428571428571</v>
@@ -3591,7 +3591,7 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>14400</v>
+        <v>15600</v>
       </c>
       <c r="C102">
         <v>142.8571428571429</v>
@@ -3611,7 +3611,7 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="C103">
         <v>107.1428571428571</v>
@@ -3631,16 +3631,16 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>15000</v>
+        <v>16800</v>
       </c>
       <c r="C104">
-        <v>107.1428571428571</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D104">
         <v>3600</v>
       </c>
       <c r="E104">
-        <v>1602.632653061224</v>
+        <v>1717.712018140589</v>
       </c>
       <c r="F104">
         <v>32.14285714285715</v>
@@ -3651,16 +3651,16 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>6600</v>
+        <v>25200</v>
       </c>
       <c r="C105">
-        <v>142.8571428571429</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D105">
         <v>3600</v>
       </c>
       <c r="E105">
-        <v>1449.571428571428</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F105">
         <v>32.14285714285715</v>
@@ -3671,16 +3671,16 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>10460</v>
+        <v>17660</v>
       </c>
       <c r="C106">
-        <v>108.843537414966</v>
+        <v>84.65608465608464</v>
       </c>
       <c r="D106">
         <v>3200</v>
       </c>
       <c r="E106">
-        <v>1497.190476190476</v>
+        <v>1707.130007558579</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3691,16 +3691,16 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>13000</v>
+        <v>24400</v>
       </c>
       <c r="C107">
-        <v>119.047619047619</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D107">
         <v>4000</v>
       </c>
       <c r="E107">
-        <v>1614.537414965986</v>
+        <v>1860.569160997732</v>
       </c>
       <c r="F107">
         <v>32</v>
@@ -3711,16 +3711,16 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>3300</v>
+        <v>15900</v>
       </c>
       <c r="C108">
-        <v>107.1428571428571</v>
+        <v>44.64285714285714</v>
       </c>
       <c r="D108">
         <v>1500</v>
       </c>
       <c r="E108">
-        <v>235.7142857142857</v>
+        <v>1540.132653061224</v>
       </c>
       <c r="F108">
         <v>32.60869565217391</v>
@@ -3731,16 +3731,16 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>12060</v>
+        <v>19260</v>
       </c>
       <c r="C109">
-        <v>142.8571428571429</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D109">
         <v>4800</v>
       </c>
       <c r="E109">
-        <v>1638.34693877551</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F109">
         <v>32</v>
@@ -3751,16 +3751,16 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>3300</v>
+        <v>15900</v>
       </c>
       <c r="C110">
-        <v>107.1428571428571</v>
+        <v>44.64285714285714</v>
       </c>
       <c r="D110">
         <v>1500</v>
       </c>
       <c r="E110">
-        <v>235.7142857142857</v>
+        <v>1540.132653061224</v>
       </c>
       <c r="F110">
         <v>32.60869565217391</v>
@@ -3771,7 +3771,7 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>17000</v>
+        <v>20600</v>
       </c>
       <c r="C111">
         <v>243.3862433862434</v>
@@ -3811,16 +3811,16 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>17400</v>
+        <v>25200</v>
       </c>
       <c r="C113">
-        <v>95.23809523809523</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D113">
         <v>3600</v>
       </c>
       <c r="E113">
-        <v>1717.712018140589</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F113">
         <v>32.14285714285715</v>
@@ -3831,7 +3831,7 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>19800</v>
+        <v>21600</v>
       </c>
       <c r="C114">
         <v>126.984126984127</v>
@@ -3871,7 +3871,7 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>16260</v>
+        <v>21060</v>
       </c>
       <c r="C116">
         <v>126.984126984127</v>
@@ -3891,16 +3891,16 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>14460</v>
+        <v>21660</v>
       </c>
       <c r="C117">
-        <v>214.2857142857143</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D117">
         <v>7200</v>
       </c>
       <c r="E117">
-        <v>1709.775510204081</v>
+        <v>1812.950113378685</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3911,16 +3911,16 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>13200</v>
+        <v>28300</v>
       </c>
       <c r="C118">
-        <v>214.2857142857143</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D118">
         <v>7200</v>
       </c>
       <c r="E118">
-        <v>1709.775510204081</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3991,16 +3991,16 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>10500</v>
+        <v>26400</v>
       </c>
       <c r="C122">
-        <v>204.0816326530612</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D122">
         <v>6000</v>
       </c>
       <c r="E122">
-        <v>1592.428571428571</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F122">
         <v>32.0855614973262</v>
@@ -4011,16 +4011,16 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>28260</v>
+        <v>33060</v>
       </c>
       <c r="C123">
-        <v>266.6666666666666</v>
+        <v>242.4242424242424</v>
       </c>
       <c r="D123">
         <v>11200</v>
       </c>
       <c r="E123">
-        <v>2031.997732426304</v>
+        <v>2180.915481344053</v>
       </c>
       <c r="F123">
         <v>32</v>
@@ -4031,16 +4031,16 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>19460</v>
+        <v>23600</v>
       </c>
       <c r="C124">
-        <v>179.8941798941799</v>
+        <v>161.9047619047619</v>
       </c>
       <c r="D124">
         <v>6800</v>
       </c>
       <c r="E124">
-        <v>1802.368102796674</v>
+        <v>1927.235827664399</v>
       </c>
       <c r="F124">
         <v>32.0754716981132</v>
@@ -4051,7 +4051,7 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>18660</v>
+        <v>21000</v>
       </c>
       <c r="C125">
         <v>190.4761904761905</v>
@@ -4071,16 +4071,16 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>13200</v>
+        <v>21000</v>
       </c>
       <c r="C126">
-        <v>214.2857142857143</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D126">
         <v>7200</v>
       </c>
       <c r="E126">
-        <v>1709.775510204081</v>
+        <v>1812.950113378685</v>
       </c>
       <c r="F126">
         <v>32</v>
@@ -4091,7 +4091,7 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>17400</v>
+        <v>19200</v>
       </c>
       <c r="C127">
         <v>126.984126984127</v>
@@ -4111,7 +4111,7 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>24000</v>
+        <v>25200</v>
       </c>
       <c r="C128">
         <v>228.5714285714285</v>
@@ -4131,16 +4131,16 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>16200</v>
+        <v>19200</v>
       </c>
       <c r="C129">
-        <v>228.5714285714285</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D129">
         <v>4800</v>
       </c>
       <c r="E129">
-        <v>1993.902494331066</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -4151,7 +4151,7 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>18600</v>
+        <v>20400</v>
       </c>
       <c r="C130">
         <v>158.7301587301587</v>
@@ -4171,7 +4171,7 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>19800</v>
+        <v>21600</v>
       </c>
       <c r="C131">
         <v>126.984126984127</v>
@@ -4191,7 +4191,7 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>17000</v>
+        <v>21800</v>
       </c>
       <c r="C132">
         <v>148.1481481481481</v>
@@ -4211,16 +4211,16 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>19260</v>
+        <v>26460</v>
       </c>
       <c r="C133">
-        <v>126.984126984127</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D133">
         <v>4800</v>
       </c>
       <c r="E133">
-        <v>1749.458049886621</v>
+        <v>1879.616780045351</v>
       </c>
       <c r="F133">
         <v>32</v>
@@ -4231,16 +4231,16 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>6600</v>
+        <v>24600</v>
       </c>
       <c r="C134">
-        <v>142.8571428571429</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D134">
         <v>3600</v>
       </c>
       <c r="E134">
-        <v>1449.571428571428</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F134">
         <v>32.14285714285715</v>
@@ -4251,16 +4251,16 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>20400</v>
+        <v>22200</v>
       </c>
       <c r="C135">
-        <v>47.61904761904761</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D135">
         <v>1800</v>
       </c>
       <c r="E135">
-        <v>1670.092970521542</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F135">
         <v>32.14285714285715</v>
@@ -4271,7 +4271,7 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>44460</v>
+        <v>51660</v>
       </c>
       <c r="C136">
         <v>595.2380952380951</v>
@@ -4291,16 +4291,16 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>9600</v>
+        <v>22200</v>
       </c>
       <c r="C137">
-        <v>204.0816326530612</v>
+        <v>595.2380952380951</v>
       </c>
       <c r="D137">
         <v>6000</v>
       </c>
       <c r="E137">
-        <v>1592.428571428571</v>
+        <v>2732.142032570604</v>
       </c>
       <c r="F137">
         <v>32.0855614973262</v>
@@ -4314,13 +4314,13 @@
         <v>22200</v>
       </c>
       <c r="C138">
-        <v>204.0816326530612</v>
+        <v>595.2380952380951</v>
       </c>
       <c r="D138">
         <v>6000</v>
       </c>
       <c r="E138">
-        <v>1592.428571428571</v>
+        <v>2732.142032570604</v>
       </c>
       <c r="F138">
         <v>32.0855614973262</v>
@@ -4331,16 +4331,16 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>12600</v>
+        <v>26600</v>
       </c>
       <c r="C139">
-        <v>178.5714285714286</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D139">
         <v>6000</v>
       </c>
       <c r="E139">
-        <v>1674.061224489796</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F139">
         <v>32.0855614973262</v>
@@ -4351,16 +4351,16 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>22200</v>
+        <v>30000</v>
       </c>
       <c r="C140">
-        <v>178.5714285714286</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D140">
         <v>4800</v>
       </c>
       <c r="E140">
-        <v>1674.061224489796</v>
+        <v>1879.616780045351</v>
       </c>
       <c r="F140">
         <v>32</v>
@@ -4371,16 +4371,16 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>10600</v>
+        <v>29200</v>
       </c>
       <c r="C141">
-        <v>136.0544217687075</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D141">
         <v>4000</v>
       </c>
       <c r="E141">
-        <v>1524.401360544218</v>
+        <v>1860.569160997732</v>
       </c>
       <c r="F141">
         <v>32</v>
@@ -4391,16 +4391,16 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="C142">
-        <v>190.4761904761905</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D142">
         <v>4800</v>
       </c>
       <c r="E142">
-        <v>1497.190476190476</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F142">
         <v>32</v>
@@ -4411,16 +4411,16 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="C143">
-        <v>128.5714285714286</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D143">
         <v>1800</v>
       </c>
       <c r="E143">
-        <v>257.1428571428572</v>
+        <v>1670.092970521542</v>
       </c>
       <c r="F143">
         <v>32.14285714285715</v>
@@ -4431,7 +4431,7 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>26800</v>
+        <v>28600</v>
       </c>
       <c r="C144">
         <v>166.6666666666666</v>
@@ -4451,16 +4451,16 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>16600</v>
+        <v>23200</v>
       </c>
       <c r="C145">
-        <v>185.1851851851852</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D145">
         <v>7000</v>
       </c>
       <c r="E145">
-        <v>1807.659108087679</v>
+        <v>1931.997732426304</v>
       </c>
       <c r="F145">
         <v>32.11009174311926</v>
@@ -4471,7 +4471,7 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>22600</v>
+        <v>24400</v>
       </c>
       <c r="C146">
         <v>180.9523809523809</v>
@@ -4491,16 +4491,16 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>18660</v>
+        <v>28300</v>
       </c>
       <c r="C147">
-        <v>190.4761904761905</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D147">
         <v>7200</v>
       </c>
       <c r="E147">
-        <v>1812.950113378685</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F147">
         <v>32</v>
@@ -4511,16 +4511,16 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>22400</v>
+        <v>37500</v>
       </c>
       <c r="C148">
-        <v>219.047619047619</v>
+        <v>199.1341991341991</v>
       </c>
       <c r="D148">
         <v>9200</v>
       </c>
       <c r="E148">
-        <v>1984.378684807256</v>
+        <v>2137.625438054009</v>
       </c>
       <c r="F148">
         <v>32.05574912891986</v>
@@ -4531,16 +4531,16 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>13800</v>
+        <v>21000</v>
       </c>
       <c r="C149">
-        <v>142.8571428571429</v>
+        <v>126.984126984127</v>
       </c>
       <c r="D149">
         <v>4800</v>
       </c>
       <c r="E149">
-        <v>1638.34693877551</v>
+        <v>1749.458049886621</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4571,7 +4571,7 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>23000</v>
+        <v>26600</v>
       </c>
       <c r="C151">
         <v>142.8571428571428</v>
@@ -4591,16 +4591,16 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>14200</v>
+        <v>31660</v>
       </c>
       <c r="C152">
-        <v>261.9047619047619</v>
+        <v>190.4761904761904</v>
       </c>
       <c r="D152">
         <v>8800</v>
       </c>
       <c r="E152">
-        <v>1757.394557823129</v>
+        <v>2128.967429396001</v>
       </c>
       <c r="F152">
         <v>32</v>
@@ -4611,16 +4611,16 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>10460</v>
+        <v>27660</v>
       </c>
       <c r="C153">
-        <v>272.108843537415</v>
+        <v>190.4761904761905</v>
       </c>
       <c r="D153">
         <v>8000</v>
       </c>
       <c r="E153">
-        <v>1660.455782312925</v>
+        <v>1955.807256235827</v>
       </c>
       <c r="F153">
         <v>32</v>
@@ -4631,16 +4631,16 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>18500</v>
+        <v>34400</v>
       </c>
       <c r="C154">
-        <v>211.6402116402116</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D154">
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>1834.114134542706</v>
+        <v>2111.651412079983</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4651,7 +4651,7 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>41460</v>
+        <v>46260</v>
       </c>
       <c r="C155">
         <v>261.9047619047618</v>
@@ -4671,16 +4671,16 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>12660</v>
+        <v>30800</v>
       </c>
       <c r="C156">
-        <v>214.2857142857143</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D156">
         <v>7200</v>
       </c>
       <c r="E156">
-        <v>1709.775510204081</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F156">
         <v>32</v>
@@ -4691,16 +4691,16 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>18600</v>
+        <v>23400</v>
       </c>
       <c r="C157">
-        <v>190.4761904761905</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D157">
         <v>7200</v>
       </c>
       <c r="E157">
-        <v>1812.950113378685</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F157">
         <v>32</v>
@@ -4711,16 +4711,16 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>22400</v>
+        <v>30200</v>
       </c>
       <c r="C158">
-        <v>219.047619047619</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D158">
         <v>9200</v>
       </c>
       <c r="E158">
-        <v>1984.378684807256</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F158">
         <v>32.05574912891986</v>
@@ -4731,16 +4731,16 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>12600</v>
+        <v>24600</v>
       </c>
       <c r="C159">
-        <v>107.1428571428571</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D159">
         <v>3600</v>
       </c>
       <c r="E159">
-        <v>1602.632653061224</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F159">
         <v>32.14285714285715</v>
@@ -4751,16 +4751,16 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>20460</v>
+        <v>22800</v>
       </c>
       <c r="C160">
-        <v>47.61904761904761</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D160">
         <v>1800</v>
       </c>
       <c r="E160">
-        <v>1670.092970521542</v>
+        <v>1808.18820861678</v>
       </c>
       <c r="F160">
         <v>32.14285714285715</v>
@@ -4771,16 +4771,16 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>12600</v>
+        <v>24000</v>
       </c>
       <c r="C161">
-        <v>142.8571428571429</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D161">
         <v>4800</v>
       </c>
       <c r="E161">
-        <v>1638.34693877551</v>
+        <v>1879.616780045351</v>
       </c>
       <c r="F161">
         <v>32</v>
@@ -4791,7 +4791,7 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>23400</v>
+        <v>25200</v>
       </c>
       <c r="C162">
         <v>142.8571428571428</v>
@@ -4811,7 +4811,7 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>25800</v>
+        <v>27600</v>
       </c>
       <c r="C163">
         <v>142.8571428571428</v>
@@ -4831,16 +4831,16 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>11260</v>
+        <v>25800</v>
       </c>
       <c r="C164">
-        <v>136.0544217687075</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D164">
         <v>4000</v>
       </c>
       <c r="E164">
-        <v>1524.401360544218</v>
+        <v>1860.569160997732</v>
       </c>
       <c r="F164">
         <v>32</v>
@@ -4851,7 +4851,7 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>24600</v>
+        <v>29400</v>
       </c>
       <c r="C165">
         <v>180.9523809523809</v>
@@ -4871,16 +4871,16 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="C166">
-        <v>81.63265306122449</v>
+        <v>57.14285714285713</v>
       </c>
       <c r="D166">
         <v>2400</v>
       </c>
       <c r="E166">
-        <v>1469.979591836735</v>
+        <v>1822.473922902494</v>
       </c>
       <c r="F166">
         <v>32</v>
@@ -4891,16 +4891,16 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>17460</v>
+        <v>35600</v>
       </c>
       <c r="C167">
-        <v>126.984126984127</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D167">
         <v>4800</v>
       </c>
       <c r="E167">
-        <v>1749.458049886621</v>
+        <v>2042.387342815914</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4911,16 +4911,16 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>15260</v>
+        <v>32460</v>
       </c>
       <c r="C168">
-        <v>142.8571428571429</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D168">
         <v>4800</v>
       </c>
       <c r="E168">
-        <v>1638.34693877551</v>
+        <v>2042.387342815914</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4931,16 +4931,16 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>7500</v>
+        <v>34060</v>
       </c>
       <c r="C169">
-        <v>95.23809523809524</v>
+        <v>51.94805194805193</v>
       </c>
       <c r="D169">
         <v>2400</v>
       </c>
       <c r="E169">
-        <v>1401.952380952381</v>
+        <v>1990.439290867862</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4951,16 +4951,16 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="C170">
-        <v>178.5714285714286</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D170">
         <v>6000</v>
       </c>
       <c r="E170">
-        <v>1674.061224489796</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F170">
         <v>32.0855614973262</v>
@@ -4971,16 +4971,16 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>15600</v>
+        <v>28200</v>
       </c>
       <c r="C171">
-        <v>178.5714285714286</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D171">
         <v>6000</v>
       </c>
       <c r="E171">
-        <v>1674.061224489796</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F171">
         <v>32.0855614973262</v>
@@ -4994,13 +4994,13 @@
         <v>30200</v>
       </c>
       <c r="C172">
-        <v>178.5714285714286</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D172">
         <v>8000</v>
       </c>
       <c r="E172">
-        <v>1674.061224489796</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F172">
         <v>32</v>
@@ -5011,16 +5011,16 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>28200</v>
+        <v>36000</v>
       </c>
       <c r="C173">
-        <v>142.8571428571428</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D173">
         <v>6000</v>
       </c>
       <c r="E173">
-        <v>1908.18820861678</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F173">
         <v>32.0855614973262</v>
@@ -5031,16 +5031,16 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>8400</v>
+        <v>22800</v>
       </c>
       <c r="C174">
-        <v>163.265306122449</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D174">
         <v>4800</v>
       </c>
       <c r="E174">
-        <v>1551.612244897959</v>
+        <v>1879.616780045351</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -5051,16 +5051,16 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>6600</v>
+        <v>21600</v>
       </c>
       <c r="C175">
-        <v>23.80952380952381</v>
+        <v>15.87301587301587</v>
       </c>
       <c r="D175">
         <v>600</v>
       </c>
       <c r="E175">
-        <v>1330.523809523809</v>
+        <v>1638.34693877551</v>
       </c>
       <c r="F175">
         <v>33.33333333333334</v>
@@ -5071,16 +5071,16 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>5600</v>
+        <v>20000</v>
       </c>
       <c r="C176">
-        <v>79.36507936507937</v>
+        <v>52.9100529100529</v>
       </c>
       <c r="D176">
         <v>2000</v>
       </c>
       <c r="E176">
-        <v>1386.079365079365</v>
+        <v>1675.383975812547</v>
       </c>
       <c r="F176">
         <v>32.25806451612903</v>
@@ -5091,16 +5091,16 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>7200</v>
+        <v>25800</v>
       </c>
       <c r="C177">
-        <v>142.8571428571429</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D177">
         <v>3600</v>
       </c>
       <c r="E177">
-        <v>1449.571428571428</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F177">
         <v>32.14285714285715</v>
@@ -5111,16 +5111,16 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>8100</v>
+        <v>32400</v>
       </c>
       <c r="C178">
-        <v>244.8979591836735</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D178">
         <v>7200</v>
       </c>
       <c r="E178">
-        <v>1633.244897959184</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F178">
         <v>32</v>
@@ -5131,7 +5131,7 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>35800</v>
+        <v>37600</v>
       </c>
       <c r="C179">
         <v>194.8051948051948</v>
@@ -5151,16 +5151,16 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>28600</v>
+        <v>30400</v>
       </c>
       <c r="C180">
-        <v>142.8571428571428</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D180">
         <v>6000</v>
       </c>
       <c r="E180">
-        <v>1908.18820861678</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F180">
         <v>32.0855614973262</v>
@@ -5171,16 +5171,16 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>13200</v>
+        <v>26800</v>
       </c>
       <c r="C181">
-        <v>107.1428571428571</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D181">
         <v>3600</v>
       </c>
       <c r="E181">
-        <v>1602.632653061224</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F181">
         <v>32.14285714285715</v>
@@ -5191,16 +5191,16 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>25600</v>
+        <v>32200</v>
       </c>
       <c r="C182">
-        <v>214.2857142857142</v>
+        <v>194.8051948051948</v>
       </c>
       <c r="D182">
         <v>9000</v>
       </c>
       <c r="E182">
-        <v>1979.616780045351</v>
+        <v>2133.296433725005</v>
       </c>
       <c r="F182">
         <v>32.02846975088968</v>
@@ -5211,7 +5211,7 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>32200</v>
+        <v>34000</v>
       </c>
       <c r="C183">
         <v>207.7922077922077</v>
@@ -5231,16 +5231,16 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>18660</v>
+        <v>36800</v>
       </c>
       <c r="C184">
-        <v>158.7301587301587</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D184">
         <v>6000</v>
       </c>
       <c r="E184">
-        <v>1781.204081632653</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F184">
         <v>32.0855614973262</v>
@@ -5251,16 +5251,16 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>27860</v>
+        <v>37500</v>
       </c>
       <c r="C185">
-        <v>219.047619047619</v>
+        <v>199.1341991341991</v>
       </c>
       <c r="D185">
         <v>9200</v>
       </c>
       <c r="E185">
-        <v>1984.378684807256</v>
+        <v>2137.625438054009</v>
       </c>
       <c r="F185">
         <v>32.05574912891986</v>
@@ -5271,16 +5271,16 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>25860</v>
+        <v>35500</v>
       </c>
       <c r="C186">
-        <v>171.4285714285714</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D186">
         <v>7200</v>
       </c>
       <c r="E186">
-        <v>1936.759637188208</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F186">
         <v>32</v>
@@ -5311,7 +5311,7 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>31000</v>
+        <v>34600</v>
       </c>
       <c r="C188">
         <v>173.1601731601731</v>
@@ -5331,16 +5331,16 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>20060</v>
+        <v>37260</v>
       </c>
       <c r="C189">
-        <v>253.9682539682539</v>
+        <v>207.7922077922077</v>
       </c>
       <c r="D189">
         <v>9600</v>
       </c>
       <c r="E189">
-        <v>1876.442176870748</v>
+        <v>2146.283446712018</v>
       </c>
       <c r="F189">
         <v>32</v>
@@ -5351,16 +5351,16 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>12600</v>
+        <v>39200</v>
       </c>
       <c r="C190">
-        <v>267.8571428571428</v>
+        <v>194.8051948051948</v>
       </c>
       <c r="D190">
         <v>9000</v>
       </c>
       <c r="E190">
-        <v>1763.34693877551</v>
+        <v>2133.296433725005</v>
       </c>
       <c r="F190">
         <v>32.02846975088968</v>
@@ -5371,16 +5371,16 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>33600</v>
+        <v>41400</v>
       </c>
       <c r="C191">
-        <v>242.4242424242424</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="D191">
         <v>11200</v>
       </c>
       <c r="E191">
-        <v>2180.915481344053</v>
+        <v>2359.126159554731</v>
       </c>
       <c r="F191">
         <v>32</v>
@@ -5391,16 +5391,16 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>19200</v>
+        <v>28800</v>
       </c>
       <c r="C192">
-        <v>158.7301587301587</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D192">
         <v>6000</v>
       </c>
       <c r="E192">
-        <v>1781.204081632653</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F192">
         <v>32.0855614973262</v>
@@ -5411,7 +5411,7 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>30600</v>
+        <v>32400</v>
       </c>
       <c r="C193">
         <v>155.8441558441558</v>
@@ -5431,16 +5431,16 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>18600</v>
+        <v>30000</v>
       </c>
       <c r="C194">
-        <v>158.7301587301587</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D194">
         <v>6000</v>
       </c>
       <c r="E194">
-        <v>1781.204081632653</v>
+        <v>1908.18820861678</v>
       </c>
       <c r="F194">
         <v>32.0855614973262</v>
@@ -5451,16 +5451,16 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>11260</v>
+        <v>29800</v>
       </c>
       <c r="C195">
-        <v>136.0544217687075</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="D195">
         <v>4000</v>
       </c>
       <c r="E195">
-        <v>1524.401360544218</v>
+        <v>1860.569160997732</v>
       </c>
       <c r="F195">
         <v>32</v>
@@ -5471,7 +5471,7 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>34200</v>
+        <v>39000</v>
       </c>
       <c r="C196">
         <v>207.7922077922077</v>
@@ -5491,16 +5491,16 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>16260</v>
+        <v>42800</v>
       </c>
       <c r="C197">
-        <v>158.7301587301587</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D197">
         <v>6000</v>
       </c>
       <c r="E197">
-        <v>1781.204081632653</v>
+        <v>2255.951556380127</v>
       </c>
       <c r="F197">
         <v>32.0855614973262</v>
@@ -5511,16 +5511,16 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>18400</v>
+        <v>43660</v>
       </c>
       <c r="C198">
-        <v>169.3121693121693</v>
+        <v>126.9841269841269</v>
       </c>
       <c r="D198">
         <v>6400</v>
       </c>
       <c r="E198">
-        <v>1791.786092214664</v>
+        <v>2263.888064316635</v>
       </c>
       <c r="F198">
         <v>32</v>
@@ -5531,16 +5531,16 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>17400</v>
+        <v>44000</v>
       </c>
       <c r="C199">
-        <v>126.984126984127</v>
+        <v>95.23809523809521</v>
       </c>
       <c r="D199">
         <v>4800</v>
       </c>
       <c r="E199">
-        <v>1749.458049886621</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5551,16 +5551,16 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>17460</v>
+        <v>40400</v>
       </c>
       <c r="C200">
-        <v>126.984126984127</v>
+        <v>95.23809523809521</v>
       </c>
       <c r="D200">
         <v>4800</v>
       </c>
       <c r="E200">
-        <v>1749.458049886621</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5571,16 +5571,16 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="C201">
-        <v>211.6402116402116</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D201">
         <v>8000</v>
       </c>
       <c r="E201">
-        <v>1834.114134542706</v>
+        <v>2111.651412079983</v>
       </c>
       <c r="F201">
         <v>32</v>
@@ -5591,16 +5591,16 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>16200</v>
+        <v>33000</v>
       </c>
       <c r="C202">
-        <v>211.6402116402116</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D202">
         <v>6000</v>
       </c>
       <c r="E202">
-        <v>1834.114134542706</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F202">
         <v>32.0855614973262</v>
@@ -5611,16 +5611,16 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>21600</v>
+        <v>34200</v>
       </c>
       <c r="C203">
-        <v>158.7301587301587</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D203">
         <v>6000</v>
       </c>
       <c r="E203">
-        <v>1781.204081632653</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F203">
         <v>32.0855614973262</v>
@@ -5634,13 +5634,13 @@
         <v>40200</v>
       </c>
       <c r="C204">
-        <v>158.7301587301587</v>
+        <v>129.8701298701298</v>
       </c>
       <c r="D204">
         <v>10000</v>
       </c>
       <c r="E204">
-        <v>1781.204081632653</v>
+        <v>2068.36136878994</v>
       </c>
       <c r="F204">
         <v>32.05128205128205</v>
@@ -5651,16 +5651,16 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>36200</v>
+        <v>44000</v>
       </c>
       <c r="C205">
-        <v>173.1601731601731</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D205">
         <v>8000</v>
       </c>
       <c r="E205">
-        <v>2111.651412079983</v>
+        <v>2295.634096062667</v>
       </c>
       <c r="F205">
         <v>32</v>
@@ -5671,16 +5671,16 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>6600</v>
+        <v>26400</v>
       </c>
       <c r="C206">
-        <v>142.8571428571429</v>
+        <v>85.71428571428569</v>
       </c>
       <c r="D206">
         <v>3600</v>
       </c>
       <c r="E206">
-        <v>1449.571428571428</v>
+        <v>1851.045351473923</v>
       </c>
       <c r="F206">
         <v>32.14285714285715</v>
@@ -5691,16 +5691,16 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>15600</v>
+        <v>40800</v>
       </c>
       <c r="C207">
-        <v>250</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D207">
         <v>8400</v>
       </c>
       <c r="E207">
-        <v>1745.489795918367</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F207">
         <v>32.06106870229008</v>
@@ -5711,16 +5711,16 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>10200</v>
+        <v>39600</v>
       </c>
       <c r="C208">
-        <v>244.8979591836735</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D208">
         <v>7200</v>
       </c>
       <c r="E208">
-        <v>1633.244897959184</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F208">
         <v>32</v>
@@ -5731,16 +5731,16 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>13800</v>
+        <v>37600</v>
       </c>
       <c r="C209">
-        <v>214.2857142857143</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D209">
         <v>7200</v>
       </c>
       <c r="E209">
-        <v>1709.775510204081</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F209">
         <v>32</v>
@@ -5751,16 +5751,16 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>36600</v>
+        <v>43200</v>
       </c>
       <c r="C210">
-        <v>238.095238095238</v>
+        <v>218.2539682539682</v>
       </c>
       <c r="D210">
         <v>11000</v>
       </c>
       <c r="E210">
-        <v>2176.586477015048</v>
+        <v>2355.157905586477</v>
       </c>
       <c r="F210">
         <v>32.06997084548105</v>
@@ -5771,7 +5771,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>43800</v>
+        <v>45600</v>
       </c>
       <c r="C211">
         <v>230.1587301587301</v>
@@ -5791,16 +5791,16 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>37860</v>
+        <v>50460</v>
       </c>
       <c r="C212">
-        <v>207.7922077922077</v>
+        <v>190.4761904761904</v>
       </c>
       <c r="D212">
         <v>9600</v>
       </c>
       <c r="E212">
-        <v>2146.283446712018</v>
+        <v>2327.380127808699</v>
       </c>
       <c r="F212">
         <v>32</v>
@@ -5811,16 +5811,16 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>22260</v>
+        <v>42800</v>
       </c>
       <c r="C213">
-        <v>142.8571428571428</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D213">
         <v>6000</v>
       </c>
       <c r="E213">
-        <v>1908.18820861678</v>
+        <v>2255.951556380127</v>
       </c>
       <c r="F213">
         <v>32.0855614973262</v>
@@ -5831,16 +5831,16 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>39060</v>
+        <v>48700</v>
       </c>
       <c r="C214">
-        <v>242.4242424242424</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="D214">
         <v>11200</v>
       </c>
       <c r="E214">
-        <v>2180.915481344053</v>
+        <v>2359.126159554731</v>
       </c>
       <c r="F214">
         <v>32</v>
@@ -5871,7 +5871,7 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>41000</v>
+        <v>50860</v>
       </c>
       <c r="C216">
         <v>198.4126984126984</v>
@@ -5891,16 +5891,16 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>19800</v>
+        <v>46400</v>
       </c>
       <c r="C217">
-        <v>190.4761904761905</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D217">
         <v>7200</v>
       </c>
       <c r="E217">
-        <v>1812.950113378685</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F217">
         <v>32</v>
@@ -5911,16 +5911,16 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>18600</v>
+        <v>45200</v>
       </c>
       <c r="C218">
-        <v>158.7301587301587</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D218">
         <v>6000</v>
       </c>
       <c r="E218">
-        <v>1781.204081632653</v>
+        <v>2255.951556380127</v>
       </c>
       <c r="F218">
         <v>32.0855614973262</v>
@@ -5931,16 +5931,16 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>46800</v>
+        <v>54600</v>
       </c>
       <c r="C219">
-        <v>261.9047619047618</v>
+        <v>241.7582417582417</v>
       </c>
       <c r="D219">
         <v>13200</v>
       </c>
       <c r="E219">
-        <v>2398.808699237271</v>
+        <v>2598.44239887097</v>
       </c>
       <c r="F219">
         <v>32.03883495145631</v>
@@ -5951,16 +5951,16 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>27200</v>
+        <v>36800</v>
       </c>
       <c r="C220">
-        <v>190.4761904761905</v>
+        <v>173.1601731601731</v>
       </c>
       <c r="D220">
         <v>8000</v>
       </c>
       <c r="E220">
-        <v>1955.807256235827</v>
+        <v>2111.651412079983</v>
       </c>
       <c r="F220">
         <v>32</v>
@@ -5971,16 +5971,16 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>19260</v>
+        <v>42200</v>
       </c>
       <c r="C221">
-        <v>317.4603174603174</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D221">
         <v>12000</v>
       </c>
       <c r="E221">
-        <v>1939.934240362812</v>
+        <v>2374.999175427747</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -5991,16 +5991,16 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>39000</v>
+        <v>40800</v>
       </c>
       <c r="C222">
-        <v>181.8181818181818</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D222">
         <v>8400</v>
       </c>
       <c r="E222">
-        <v>2120.309420737992</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F222">
         <v>32.06106870229008</v>
@@ -6011,16 +6011,16 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>15600</v>
+        <v>30000</v>
       </c>
       <c r="C223">
-        <v>214.2857142857143</v>
+        <v>171.4285714285714</v>
       </c>
       <c r="D223">
         <v>7200</v>
       </c>
       <c r="E223">
-        <v>1709.775510204081</v>
+        <v>1936.759637188208</v>
       </c>
       <c r="F223">
         <v>32</v>
@@ -6031,16 +6031,16 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>28600</v>
+        <v>42400</v>
       </c>
       <c r="C224">
-        <v>238.095238095238</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D224">
         <v>10000</v>
       </c>
       <c r="E224">
-        <v>2003.426303854875</v>
+        <v>2335.316635745207</v>
       </c>
       <c r="F224">
         <v>32.05128205128205</v>
@@ -6051,16 +6051,16 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>23400</v>
+        <v>37200</v>
       </c>
       <c r="C225">
-        <v>171.4285714285714</v>
+        <v>155.8441558441558</v>
       </c>
       <c r="D225">
         <v>7200</v>
       </c>
       <c r="E225">
-        <v>1936.759637188208</v>
+        <v>2094.335394763966</v>
       </c>
       <c r="F225">
         <v>32</v>
@@ -6071,16 +6071,16 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>9200</v>
+        <v>45200</v>
       </c>
       <c r="C226">
-        <v>170.0680272108844</v>
+        <v>99.20634920634919</v>
       </c>
       <c r="D226">
         <v>5000</v>
       </c>
       <c r="E226">
-        <v>1558.414965986394</v>
+        <v>2236.110286538858</v>
       </c>
       <c r="F226">
         <v>11.11111111111111</v>
@@ -6091,16 +6091,16 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>33800</v>
+        <v>47000</v>
       </c>
       <c r="C227">
-        <v>173.1601731601731</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D227">
         <v>8000</v>
       </c>
       <c r="E227">
-        <v>2111.651412079983</v>
+        <v>2295.634096062667</v>
       </c>
       <c r="F227">
         <v>32</v>
@@ -6111,16 +6111,16 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>14460</v>
+        <v>33800</v>
       </c>
       <c r="C228">
-        <v>119.047619047619</v>
+        <v>86.58008658008656</v>
       </c>
       <c r="D228">
         <v>4000</v>
       </c>
       <c r="E228">
-        <v>1614.537414965986</v>
+        <v>2025.071325499897</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6131,16 +6131,16 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>22000</v>
+        <v>47400</v>
       </c>
       <c r="C229">
-        <v>132.2751322751323</v>
+        <v>99.20634920634919</v>
       </c>
       <c r="D229">
         <v>5000</v>
       </c>
       <c r="E229">
-        <v>1754.749055177626</v>
+        <v>2236.110286538858</v>
       </c>
       <c r="F229">
         <v>32.05128205128205</v>
@@ -6151,7 +6151,7 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>45800</v>
+        <v>50600</v>
       </c>
       <c r="C230">
         <v>230.1587301587301</v>
@@ -6171,16 +6171,16 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>33400</v>
+        <v>47200</v>
       </c>
       <c r="C231">
-        <v>103.8961038961039</v>
+        <v>95.23809523809521</v>
       </c>
       <c r="D231">
         <v>4800</v>
       </c>
       <c r="E231">
-        <v>2042.387342815914</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F231">
         <v>32</v>
@@ -6191,7 +6191,7 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>7800</v>
+        <v>34800</v>
       </c>
       <c r="C232">
         <v>103.8961038961039</v>
@@ -6211,16 +6211,16 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>33660</v>
+        <v>56600</v>
       </c>
       <c r="C233">
-        <v>311.6883116883116</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D233">
         <v>14400</v>
       </c>
       <c r="E233">
-        <v>2250.179550608122</v>
+        <v>2620.420420848992</v>
       </c>
       <c r="F233">
         <v>32</v>
@@ -6231,16 +6231,16 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>28400</v>
+        <v>43400</v>
       </c>
       <c r="C234">
-        <v>200</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D234">
         <v>8400</v>
       </c>
       <c r="E234">
-        <v>1965.331065759637</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F234">
         <v>32.06106870229008</v>
@@ -6251,16 +6251,16 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>33600</v>
+        <v>47400</v>
       </c>
       <c r="C235">
-        <v>108.2251082251082</v>
+        <v>99.20634920634919</v>
       </c>
       <c r="D235">
         <v>5000</v>
       </c>
       <c r="E235">
-        <v>2046.716347144918</v>
+        <v>2236.110286538858</v>
       </c>
       <c r="F235">
         <v>32.05128205128205</v>
@@ -6271,16 +6271,16 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>46260</v>
+        <v>72800</v>
       </c>
       <c r="C236">
-        <v>595.2380952380951</v>
+        <v>510.2040816326529</v>
       </c>
       <c r="D236">
         <v>30000</v>
       </c>
       <c r="E236">
-        <v>2732.142032570604</v>
+        <v>3104.983476840619</v>
       </c>
       <c r="F236">
         <v>66.66666666666667</v>
@@ -6291,16 +6291,16 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="C237">
-        <v>238.095238095238</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D237">
         <v>10000</v>
       </c>
       <c r="E237">
-        <v>2003.426303854875</v>
+        <v>2335.316635745207</v>
       </c>
       <c r="F237">
         <v>32.05128205128205</v>
@@ -6311,16 +6311,16 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>24200</v>
+        <v>41000</v>
       </c>
       <c r="C238">
-        <v>190.4761904761905</v>
+        <v>158.7301587301587</v>
       </c>
       <c r="D238">
         <v>8000</v>
       </c>
       <c r="E238">
-        <v>1955.807256235827</v>
+        <v>2295.634096062667</v>
       </c>
       <c r="F238">
         <v>32</v>
@@ -6331,16 +6331,16 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>30600</v>
+        <v>49200</v>
       </c>
       <c r="C239">
-        <v>194.8051948051948</v>
+        <v>178.5714285714285</v>
       </c>
       <c r="D239">
         <v>9000</v>
       </c>
       <c r="E239">
-        <v>2133.296433725005</v>
+        <v>2315.475365903937</v>
       </c>
       <c r="F239">
         <v>32.02846975088968</v>
@@ -6354,13 +6354,13 @@
         <v>52200</v>
       </c>
       <c r="C240">
-        <v>194.8051948051948</v>
+        <v>178.5714285714285</v>
       </c>
       <c r="D240">
         <v>12000</v>
       </c>
       <c r="E240">
-        <v>2133.296433725005</v>
+        <v>2315.475365903937</v>
       </c>
       <c r="F240">
         <v>32</v>
@@ -6371,16 +6371,16 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>16000</v>
+        <v>54000</v>
       </c>
       <c r="C241">
-        <v>297.6190476190476</v>
+        <v>183.1501831501831</v>
       </c>
       <c r="D241">
         <v>10000</v>
       </c>
       <c r="E241">
-        <v>1793.108843537415</v>
+        <v>2539.834340262912</v>
       </c>
       <c r="F241">
         <v>32.05128205128205</v>
@@ -6391,16 +6391,16 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>14400</v>
+        <v>47400</v>
       </c>
       <c r="C242">
-        <v>214.2857142857143</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D242">
         <v>7200</v>
       </c>
       <c r="E242">
-        <v>1709.775510204081</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6411,16 +6411,16 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>15300</v>
+        <v>55200</v>
       </c>
       <c r="C243">
-        <v>428.5714285714286</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D243">
         <v>14400</v>
       </c>
       <c r="E243">
-        <v>1924.061224489796</v>
+        <v>2620.420420848992</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6431,16 +6431,16 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>10200</v>
+        <v>48000</v>
       </c>
       <c r="C244">
-        <v>244.8979591836735</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D244">
         <v>7200</v>
       </c>
       <c r="E244">
-        <v>1633.244897959184</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6451,16 +6451,16 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>46800</v>
+        <v>56600</v>
       </c>
       <c r="C245">
-        <v>218.2539682539682</v>
+        <v>201.4652014652014</v>
       </c>
       <c r="D245">
         <v>11000</v>
       </c>
       <c r="E245">
-        <v>2355.157905586477</v>
+        <v>2558.14935857793</v>
       </c>
       <c r="F245">
         <v>32.06997084548105</v>
@@ -6471,16 +6471,16 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>17400</v>
+        <v>46000</v>
       </c>
       <c r="C246">
-        <v>222.2222222222222</v>
+        <v>166.6666666666666</v>
       </c>
       <c r="D246">
         <v>8400</v>
       </c>
       <c r="E246">
-        <v>1844.696145124716</v>
+        <v>2303.570603999175</v>
       </c>
       <c r="F246">
         <v>32.06106870229008</v>
@@ -6491,7 +6491,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>53800</v>
+        <v>59200</v>
       </c>
       <c r="C247">
         <v>249.084249084249</v>
@@ -6511,16 +6511,16 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>12660</v>
+        <v>43200</v>
       </c>
       <c r="C248">
-        <v>178.5714285714286</v>
+        <v>119.047619047619</v>
       </c>
       <c r="D248">
         <v>6000</v>
       </c>
       <c r="E248">
-        <v>1674.061224489796</v>
+        <v>2255.951556380127</v>
       </c>
       <c r="F248">
         <v>32.0855614973262</v>
@@ -6531,16 +6531,16 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>48660</v>
+        <v>61260</v>
       </c>
       <c r="C249">
-        <v>214.2857142857142</v>
+        <v>197.8021978021978</v>
       </c>
       <c r="D249">
         <v>10800</v>
       </c>
       <c r="E249">
-        <v>2351.189651618223</v>
+        <v>2554.486354914926</v>
       </c>
       <c r="F249">
         <v>32.04747774480713</v>
@@ -6551,16 +6551,16 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>30260</v>
+        <v>58860</v>
       </c>
       <c r="C250">
-        <v>173.1601731601731</v>
+        <v>146.5201465201465</v>
       </c>
       <c r="D250">
         <v>8000</v>
       </c>
       <c r="E250">
-        <v>2111.651412079983</v>
+        <v>2503.204303632875</v>
       </c>
       <c r="F250">
         <v>32</v>
@@ -6591,7 +6591,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>53000</v>
+        <v>62860</v>
       </c>
       <c r="C252">
         <v>219.7802197802197</v>
@@ -6611,16 +6611,16 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>25400</v>
+        <v>55600</v>
       </c>
       <c r="C253">
-        <v>219.047619047619</v>
+        <v>168.4981684981684</v>
       </c>
       <c r="D253">
         <v>9200</v>
       </c>
       <c r="E253">
-        <v>1984.378684807256</v>
+        <v>2525.182325610897</v>
       </c>
       <c r="F253">
         <v>32.05574912891986</v>
@@ -6631,16 +6631,16 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>26600</v>
+        <v>53200</v>
       </c>
       <c r="C254">
-        <v>190.4761904761905</v>
+        <v>146.5201465201465</v>
       </c>
       <c r="D254">
         <v>8000</v>
       </c>
       <c r="E254">
-        <v>1955.807256235827</v>
+        <v>2503.204303632875</v>
       </c>
       <c r="F254">
         <v>32</v>
@@ -6651,16 +6651,16 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>21600</v>
+        <v>54600</v>
       </c>
       <c r="C255">
-        <v>380.9523809523809</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D255">
         <v>14400</v>
       </c>
       <c r="E255">
-        <v>2003.426303854875</v>
+        <v>2620.420420848992</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6671,7 +6671,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>55400</v>
+        <v>61460</v>
       </c>
       <c r="C256">
         <v>278.3882783882783</v>
@@ -6691,16 +6691,16 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>27660</v>
+        <v>55200</v>
       </c>
       <c r="C257">
-        <v>357.1428571428571</v>
+        <v>274.7252747252746</v>
       </c>
       <c r="D257">
         <v>15000</v>
       </c>
       <c r="E257">
-        <v>2122.473922902494</v>
+        <v>2631.409431838003</v>
       </c>
       <c r="F257">
         <v>33.33333333333334</v>
@@ -6711,16 +6711,16 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>37800</v>
+        <v>56800</v>
       </c>
       <c r="C258">
-        <v>311.6883116883116</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D258">
         <v>14400</v>
       </c>
       <c r="E258">
-        <v>2250.179550608122</v>
+        <v>2620.420420848992</v>
       </c>
       <c r="F258">
         <v>32</v>
@@ -6731,16 +6731,16 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>37200</v>
+        <v>46800</v>
       </c>
       <c r="C259">
-        <v>216.4502164502164</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D259">
         <v>10000</v>
       </c>
       <c r="E259">
-        <v>2154.941455370027</v>
+        <v>2335.316635745207</v>
       </c>
       <c r="F259">
         <v>32.05128205128205</v>
@@ -6751,16 +6751,16 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>23200</v>
+        <v>46800</v>
       </c>
       <c r="C260">
-        <v>238.095238095238</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D260">
         <v>10000</v>
       </c>
       <c r="E260">
-        <v>2003.426303854875</v>
+        <v>2335.316635745207</v>
       </c>
       <c r="F260">
         <v>32.05128205128205</v>
@@ -6771,16 +6771,16 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>16200</v>
+        <v>47400</v>
       </c>
       <c r="C261">
-        <v>238.095238095238</v>
+        <v>142.8571428571428</v>
       </c>
       <c r="D261">
         <v>7200</v>
       </c>
       <c r="E261">
-        <v>2003.426303854875</v>
+        <v>2279.761080189651</v>
       </c>
       <c r="F261">
         <v>32</v>
@@ -6791,16 +6791,16 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>21660</v>
+        <v>55260</v>
       </c>
       <c r="C262">
-        <v>380.9523809523809</v>
+        <v>263.7362637362637</v>
       </c>
       <c r="D262">
         <v>14400</v>
       </c>
       <c r="E262">
-        <v>2003.426303854875</v>
+        <v>2620.420420848992</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6811,7 +6811,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>48600</v>
+        <v>50400</v>
       </c>
       <c r="C263">
         <v>190.4761904761904</v>
@@ -6831,16 +6831,16 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>43800</v>
+        <v>57000</v>
       </c>
       <c r="C264">
-        <v>198.4126984126984</v>
+        <v>183.1501831501831</v>
       </c>
       <c r="D264">
         <v>10000</v>
       </c>
       <c r="E264">
-        <v>2335.316635745207</v>
+        <v>2539.834340262912</v>
       </c>
       <c r="F264">
         <v>32.05128205128205</v>
@@ -6851,16 +6851,16 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>22000</v>
+        <v>61800</v>
       </c>
       <c r="C265">
-        <v>132.2751322751323</v>
+        <v>91.57509157509155</v>
       </c>
       <c r="D265">
         <v>5000</v>
       </c>
       <c r="E265">
-        <v>1754.749055177626</v>
+        <v>2448.25924868782</v>
       </c>
       <c r="F265">
         <v>32.05128205128205</v>
@@ -6871,7 +6871,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>59400</v>
+        <v>64200</v>
       </c>
       <c r="C266">
         <v>249.084249084249</v>
@@ -6891,16 +6891,16 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>45000</v>
+        <v>64000</v>
       </c>
       <c r="C267">
-        <v>142.8571428571428</v>
+        <v>131.8681318681318</v>
       </c>
       <c r="D267">
         <v>7200</v>
       </c>
       <c r="E267">
-        <v>2279.761080189651</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F267">
         <v>32</v>
@@ -6911,16 +6911,16 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>28860</v>
+        <v>62460</v>
       </c>
       <c r="C268">
-        <v>171.4285714285714</v>
+        <v>131.8681318681318</v>
       </c>
       <c r="D268">
         <v>7200</v>
       </c>
       <c r="E268">
-        <v>1936.759637188208</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6931,16 +6931,16 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>20200</v>
+        <v>51400</v>
       </c>
       <c r="C269">
-        <v>105.8201058201058</v>
+        <v>79.36507936507934</v>
       </c>
       <c r="D269">
         <v>4000</v>
       </c>
       <c r="E269">
-        <v>1728.2940287226</v>
+        <v>2216.269016697588</v>
       </c>
       <c r="F269">
         <v>32</v>
@@ -6951,16 +6951,16 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>36000</v>
+        <v>69000</v>
       </c>
       <c r="C270">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D270">
         <v>14400</v>
       </c>
       <c r="E270">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F270">
         <v>32</v>
@@ -6971,16 +6971,16 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>28000</v>
+        <v>51600</v>
       </c>
       <c r="C271">
-        <v>114.2857142857143</v>
+        <v>95.23809523809521</v>
       </c>
       <c r="D271">
         <v>4800</v>
       </c>
       <c r="E271">
-        <v>1879.616780045351</v>
+        <v>2232.142032570604</v>
       </c>
       <c r="F271">
         <v>32</v>
@@ -6991,16 +6991,16 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>32000</v>
+        <v>62400</v>
       </c>
       <c r="C272">
-        <v>259.7402597402597</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D272">
         <v>12000</v>
       </c>
       <c r="E272">
-        <v>2198.23149866007</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -7011,16 +7011,16 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>45000</v>
+        <v>64000</v>
       </c>
       <c r="C273">
-        <v>142.8571428571428</v>
+        <v>131.8681318681318</v>
       </c>
       <c r="D273">
         <v>7200</v>
       </c>
       <c r="E273">
-        <v>2279.761080189651</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -7031,16 +7031,16 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>42660</v>
+        <v>70200</v>
       </c>
       <c r="C274">
-        <v>297.6190476190475</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="D274">
         <v>15000</v>
       </c>
       <c r="E274">
-        <v>2434.522984951556</v>
+        <v>2849.881436024293</v>
       </c>
       <c r="F274">
         <v>33.33333333333334</v>
@@ -7051,16 +7051,16 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>34200</v>
+        <v>51000</v>
       </c>
       <c r="C275">
-        <v>216.4502164502164</v>
+        <v>198.4126984126984</v>
       </c>
       <c r="D275">
         <v>10000</v>
       </c>
       <c r="E275">
-        <v>2154.941455370027</v>
+        <v>2335.316635745207</v>
       </c>
       <c r="F275">
         <v>32.05128205128205</v>
@@ -7071,16 +7071,16 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>42600</v>
+        <v>61200</v>
       </c>
       <c r="C276">
-        <v>238.095238095238</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D276">
         <v>12000</v>
       </c>
       <c r="E276">
-        <v>2374.999175427747</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F276">
         <v>32</v>
@@ -7094,13 +7094,13 @@
         <v>66200</v>
       </c>
       <c r="C277">
-        <v>238.095238095238</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D277">
         <v>14000</v>
       </c>
       <c r="E277">
-        <v>2374.999175427747</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F277">
         <v>32.03661327231121</v>
@@ -7111,16 +7111,16 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>28000</v>
+        <v>66000</v>
       </c>
       <c r="C278">
-        <v>285.7142857142857</v>
+        <v>219.7802197802197</v>
       </c>
       <c r="D278">
         <v>12000</v>
       </c>
       <c r="E278">
-        <v>2051.045351473923</v>
+        <v>2576.464376892948</v>
       </c>
       <c r="F278">
         <v>32</v>
@@ -7151,16 +7151,16 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>15600</v>
+        <v>61800</v>
       </c>
       <c r="C280">
-        <v>285.7142857142857</v>
+        <v>175.8241758241758</v>
       </c>
       <c r="D280">
         <v>9600</v>
       </c>
       <c r="E280">
-        <v>1781.204081632653</v>
+        <v>2532.508332936904</v>
       </c>
       <c r="F280">
         <v>32</v>
@@ -7171,16 +7171,16 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>19400</v>
+        <v>71600</v>
       </c>
       <c r="C281">
-        <v>433.8624338624338</v>
+        <v>278.9115646258502</v>
       </c>
       <c r="D281">
         <v>16400</v>
       </c>
       <c r="E281">
-        <v>2056.336356764928</v>
+        <v>2873.690959833817</v>
       </c>
       <c r="F281">
         <v>36.44444444444444</v>
@@ -7191,16 +7191,16 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>59800</v>
+        <v>69600</v>
       </c>
       <c r="C282">
-        <v>238.095238095238</v>
+        <v>221.0884353741496</v>
       </c>
       <c r="D282">
         <v>13000</v>
       </c>
       <c r="E282">
-        <v>2594.779395207966</v>
+        <v>2815.867830582116</v>
       </c>
       <c r="F282">
         <v>32.01970443349754</v>
@@ -7211,16 +7211,16 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>40000</v>
+        <v>73600</v>
       </c>
       <c r="C283">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D283">
         <v>14400</v>
       </c>
       <c r="E283">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F283">
         <v>32</v>
@@ -7231,16 +7231,16 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>26800</v>
+        <v>72200</v>
       </c>
       <c r="C284">
-        <v>309.5238095238095</v>
+        <v>221.0884353741496</v>
       </c>
       <c r="D284">
         <v>13000</v>
       </c>
       <c r="E284">
-        <v>2074.854875283447</v>
+        <v>2815.867830582116</v>
       </c>
       <c r="F284">
         <v>32.01970443349754</v>
@@ -7251,7 +7251,7 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>69400</v>
+        <v>74800</v>
       </c>
       <c r="C285">
         <v>265.3061224489795</v>
@@ -7271,16 +7271,16 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>19860</v>
+        <v>53600</v>
       </c>
       <c r="C286">
-        <v>190.4761904761905</v>
+        <v>131.8681318681318</v>
       </c>
       <c r="D286">
         <v>7200</v>
       </c>
       <c r="E286">
-        <v>1812.950113378685</v>
+        <v>2488.55228898086</v>
       </c>
       <c r="F286">
         <v>32</v>
@@ -7291,16 +7291,16 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>60660</v>
+        <v>73260</v>
       </c>
       <c r="C287">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D287">
         <v>12000</v>
       </c>
       <c r="E287">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7311,16 +7311,16 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>40260</v>
+        <v>68860</v>
       </c>
       <c r="C288">
-        <v>198.4126984126984</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D288">
         <v>10000</v>
       </c>
       <c r="E288">
-        <v>2335.316635745207</v>
+        <v>2764.847422418851</v>
       </c>
       <c r="F288">
         <v>32.05128205128205</v>
@@ -7331,16 +7331,16 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>36200</v>
+        <v>67400</v>
       </c>
       <c r="C289">
-        <v>432.9004329004328</v>
+        <v>340.1360544217686</v>
       </c>
       <c r="D289">
         <v>20000</v>
       </c>
       <c r="E289">
-        <v>2371.391671820243</v>
+        <v>2934.915449629735</v>
       </c>
       <c r="F289">
         <v>44.44444444444444</v>
@@ -7351,7 +7351,7 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>67000</v>
+        <v>76860</v>
       </c>
       <c r="C290">
         <v>238.095238095238</v>
@@ -7371,16 +7371,16 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>36000</v>
+        <v>69000</v>
       </c>
       <c r="C291">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D291">
         <v>14400</v>
       </c>
       <c r="E291">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F291">
         <v>32</v>
@@ -7391,16 +7391,16 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>29400</v>
+        <v>60600</v>
       </c>
       <c r="C292">
-        <v>314.2857142857142</v>
+        <v>241.7582417582417</v>
       </c>
       <c r="D292">
         <v>13200</v>
       </c>
       <c r="E292">
-        <v>2079.616780045351</v>
+        <v>2598.44239887097</v>
       </c>
       <c r="F292">
         <v>32.03883495145631</v>
@@ -7411,16 +7411,16 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>36600</v>
+        <v>66800</v>
       </c>
       <c r="C293">
-        <v>242.4242424242424</v>
+        <v>190.4761904761904</v>
       </c>
       <c r="D293">
         <v>11200</v>
       </c>
       <c r="E293">
-        <v>2180.915481344053</v>
+        <v>2785.255585684157</v>
       </c>
       <c r="F293">
         <v>32</v>
@@ -7431,16 +7431,16 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>36600</v>
+        <v>63200</v>
       </c>
       <c r="C294">
-        <v>216.4502164502164</v>
+        <v>183.1501831501831</v>
       </c>
       <c r="D294">
         <v>10000</v>
       </c>
       <c r="E294">
-        <v>2154.941455370027</v>
+        <v>2539.834340262912</v>
       </c>
       <c r="F294">
         <v>32.05128205128205</v>
@@ -7451,16 +7451,16 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>22600</v>
+        <v>63200</v>
       </c>
       <c r="C295">
-        <v>238.095238095238</v>
+        <v>183.1501831501831</v>
       </c>
       <c r="D295">
         <v>10000</v>
       </c>
       <c r="E295">
-        <v>2003.426303854875</v>
+        <v>2539.834340262912</v>
       </c>
       <c r="F295">
         <v>32.05128205128205</v>
@@ -7471,16 +7471,16 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>43200</v>
+        <v>83400</v>
       </c>
       <c r="C296">
-        <v>571.4285714285713</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D296">
         <v>28800</v>
       </c>
       <c r="E296">
-        <v>2708.33250876108</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F296">
         <v>64</v>
@@ -7491,16 +7491,16 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>24000</v>
+        <v>71200</v>
       </c>
       <c r="C297">
-        <v>342.8571428571428</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D297">
         <v>14400</v>
       </c>
       <c r="E297">
-        <v>2108.18820861678</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F297">
         <v>32</v>
@@ -7511,16 +7511,16 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>21600</v>
+        <v>71200</v>
       </c>
       <c r="C298">
-        <v>380.9523809523809</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D298">
         <v>14400</v>
       </c>
       <c r="E298">
-        <v>2003.426303854875</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F298">
         <v>32</v>
@@ -7531,16 +7531,16 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>52200</v>
+        <v>71200</v>
       </c>
       <c r="C299">
-        <v>380.9523809523809</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D299">
         <v>14400</v>
       </c>
       <c r="E299">
-        <v>2003.426303854875</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7551,16 +7551,16 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>27800</v>
+        <v>61400</v>
       </c>
       <c r="C300">
-        <v>219.047619047619</v>
+        <v>168.4981684981684</v>
       </c>
       <c r="D300">
         <v>9200</v>
       </c>
       <c r="E300">
-        <v>1984.378684807256</v>
+        <v>2525.182325610897</v>
       </c>
       <c r="F300">
         <v>32.05574912891986</v>
@@ -7571,16 +7571,16 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>36060</v>
+        <v>69660</v>
       </c>
       <c r="C301">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D301">
         <v>14400</v>
       </c>
       <c r="E301">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F301">
         <v>32</v>
@@ -7591,7 +7591,7 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>59400</v>
+        <v>61200</v>
       </c>
       <c r="C302">
         <v>197.8021978021978</v>
@@ -7611,16 +7611,16 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>55800</v>
+        <v>69000</v>
       </c>
       <c r="C303">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D303">
         <v>12000</v>
       </c>
       <c r="E303">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F303">
         <v>32</v>
@@ -7631,16 +7631,16 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>48200</v>
+        <v>88400</v>
       </c>
       <c r="C304">
-        <v>99.20634920634919</v>
+        <v>85.03401360544215</v>
       </c>
       <c r="D304">
         <v>5000</v>
       </c>
       <c r="E304">
-        <v>2236.110286538858</v>
+        <v>2679.813408813408</v>
       </c>
       <c r="F304">
         <v>32.05128205128205</v>
@@ -7651,7 +7651,7 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>75000</v>
+        <v>79800</v>
       </c>
       <c r="C305">
         <v>265.3061224489795</v>
@@ -7671,16 +7671,16 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>23400</v>
+        <v>69200</v>
       </c>
       <c r="C306">
-        <v>142.8571428571428</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="D306">
         <v>6000</v>
       </c>
       <c r="E306">
-        <v>1908.18820861678</v>
+        <v>2696.820211534497</v>
       </c>
       <c r="F306">
         <v>32.0855614973262</v>
@@ -7691,16 +7691,16 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>38400</v>
+        <v>85600</v>
       </c>
       <c r="C307">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D307">
         <v>14400</v>
       </c>
       <c r="E307">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F307">
         <v>32</v>
@@ -7711,16 +7711,16 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>57600</v>
+        <v>97800</v>
       </c>
       <c r="C308">
-        <v>263.7362637362637</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D308">
         <v>14400</v>
       </c>
       <c r="E308">
-        <v>2620.420420848992</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F308">
         <v>32</v>
@@ -7731,16 +7731,16 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>36000</v>
+        <v>85600</v>
       </c>
       <c r="C309">
-        <v>311.6883116883116</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D309">
         <v>14400</v>
       </c>
       <c r="E309">
-        <v>2250.179550608122</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F309">
         <v>32</v>
@@ -7751,16 +7751,16 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>57600</v>
+        <v>97800</v>
       </c>
       <c r="C310">
-        <v>263.7362637362637</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D310">
         <v>14400</v>
       </c>
       <c r="E310">
-        <v>2620.420420848992</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F310">
         <v>32</v>
@@ -7771,16 +7771,16 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>27600</v>
+        <v>73800</v>
       </c>
       <c r="C311">
-        <v>285.7142857142857</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D311">
         <v>12000</v>
       </c>
       <c r="E311">
-        <v>2051.045351473923</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7791,16 +7791,16 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>30800</v>
+        <v>77000</v>
       </c>
       <c r="C312">
-        <v>329.004329004329</v>
+        <v>258.5034013605442</v>
       </c>
       <c r="D312">
         <v>15200</v>
       </c>
       <c r="E312">
-        <v>2267.495567924139</v>
+        <v>2853.282796568511</v>
       </c>
       <c r="F312">
         <v>33.77777777777778</v>
@@ -7811,16 +7811,16 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>54600</v>
+        <v>73200</v>
       </c>
       <c r="C313">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D313">
         <v>12000</v>
       </c>
       <c r="E313">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F313">
         <v>32</v>
@@ -7831,16 +7831,16 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>22600</v>
+        <v>71800</v>
       </c>
       <c r="C314">
-        <v>238.095238095238</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D314">
         <v>10000</v>
       </c>
       <c r="E314">
-        <v>2003.426303854875</v>
+        <v>2764.847422418851</v>
       </c>
       <c r="F314">
         <v>32.05128205128205</v>
@@ -7851,16 +7851,16 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>42000</v>
+        <v>80000</v>
       </c>
       <c r="C315">
-        <v>277.7777777777777</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D315">
         <v>14000</v>
       </c>
       <c r="E315">
-        <v>2414.681715110286</v>
+        <v>2832.874633303205</v>
       </c>
       <c r="F315">
         <v>32.03661327231121</v>
@@ -7871,16 +7871,16 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>29700</v>
+        <v>76200</v>
       </c>
       <c r="C316">
-        <v>342.8571428571428</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D316">
         <v>14400</v>
       </c>
       <c r="E316">
-        <v>2108.18820861678</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F316">
         <v>32</v>
@@ -7891,16 +7891,16 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>44100</v>
+        <v>90600</v>
       </c>
       <c r="C317">
-        <v>571.4285714285713</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D317">
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>2708.33250876108</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7911,16 +7911,16 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>29700</v>
+        <v>76200</v>
       </c>
       <c r="C318">
-        <v>342.8571428571428</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D318">
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>2108.18820861678</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7931,7 +7931,7 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>74800</v>
+        <v>84600</v>
       </c>
       <c r="C319">
         <v>255.1020408163265</v>
@@ -7951,16 +7951,16 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>65400</v>
+        <v>103600</v>
       </c>
       <c r="C320">
-        <v>527.4725274725273</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D320">
         <v>28800</v>
       </c>
       <c r="E320">
-        <v>2884.156684585256</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F320">
         <v>64</v>
@@ -7971,7 +7971,7 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>87000</v>
+        <v>92400</v>
       </c>
       <c r="C321">
         <v>299.3197278911564</v>
@@ -7991,16 +7991,16 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>28260</v>
+        <v>62000</v>
       </c>
       <c r="C322">
-        <v>200</v>
+        <v>153.8461538461538</v>
       </c>
       <c r="D322">
         <v>8400</v>
       </c>
       <c r="E322">
-        <v>1965.331065759637</v>
+        <v>2510.530310958882</v>
       </c>
       <c r="F322">
         <v>32.06106870229008</v>
@@ -8011,16 +8011,16 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>52260</v>
+        <v>80860</v>
       </c>
       <c r="C323">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D323">
         <v>12000</v>
       </c>
       <c r="E323">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F323">
         <v>32</v>
@@ -8031,16 +8031,16 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>50400</v>
+        <v>83400</v>
       </c>
       <c r="C324">
-        <v>285.7142857142857</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D324">
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2422.618223046794</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -8051,16 +8051,16 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>44600</v>
+        <v>75800</v>
       </c>
       <c r="C325">
-        <v>301.5873015873015</v>
+        <v>258.5034013605442</v>
       </c>
       <c r="D325">
         <v>15200</v>
       </c>
       <c r="E325">
-        <v>2438.49123891981</v>
+        <v>2853.282796568511</v>
       </c>
       <c r="F325">
         <v>33.77777777777778</v>
@@ -8071,16 +8071,16 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>21000</v>
+        <v>75200</v>
       </c>
       <c r="C326">
-        <v>317.4603174603174</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D326">
         <v>12000</v>
       </c>
       <c r="E326">
-        <v>1939.934240362812</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F326">
         <v>32</v>
@@ -8091,16 +8091,16 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>28600</v>
+        <v>69200</v>
       </c>
       <c r="C327">
-        <v>142.8571428571428</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="D327">
         <v>6000</v>
       </c>
       <c r="E327">
-        <v>1908.18820861678</v>
+        <v>2696.820211534497</v>
       </c>
       <c r="F327">
         <v>32.0855614973262</v>
@@ -8111,16 +8111,16 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>34600</v>
+        <v>75200</v>
       </c>
       <c r="C328">
-        <v>259.7402597402597</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D328">
         <v>12000</v>
       </c>
       <c r="E328">
-        <v>2198.23149866007</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F328">
         <v>32</v>
@@ -8131,7 +8131,7 @@
         <v>333</v>
       </c>
       <c r="B329">
-        <v>66600</v>
+        <v>85600</v>
       </c>
       <c r="C329">
         <v>244.8979591836734</v>
@@ -8151,7 +8151,7 @@
         <v>334</v>
       </c>
       <c r="B330">
-        <v>81000</v>
+        <v>100000</v>
       </c>
       <c r="C330">
         <v>489.7959183673468</v>
@@ -8171,16 +8171,16 @@
         <v>335</v>
       </c>
       <c r="B331">
-        <v>50460</v>
+        <v>84060</v>
       </c>
       <c r="C331">
-        <v>285.7142857142857</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D331">
         <v>14400</v>
       </c>
       <c r="E331">
-        <v>2422.618223046794</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F331">
         <v>32</v>
@@ -8191,16 +8191,16 @@
         <v>336</v>
       </c>
       <c r="B332">
-        <v>64860</v>
+        <v>98460</v>
       </c>
       <c r="C332">
-        <v>527.4725274725273</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D332">
         <v>28800</v>
       </c>
       <c r="E332">
-        <v>2884.156684585256</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F332">
         <v>64</v>
@@ -8211,7 +8211,7 @@
         <v>337</v>
       </c>
       <c r="B333">
-        <v>69800</v>
+        <v>83000</v>
       </c>
       <c r="C333">
         <v>238.095238095238</v>
@@ -8231,16 +8231,16 @@
         <v>338</v>
       </c>
       <c r="B334">
-        <v>22200</v>
+        <v>80000</v>
       </c>
       <c r="C334">
-        <v>238.095238095238</v>
+        <v>81.63265306122446</v>
       </c>
       <c r="D334">
         <v>4800</v>
       </c>
       <c r="E334">
-        <v>2832.874633303205</v>
+        <v>2676.412048269191</v>
       </c>
       <c r="F334">
         <v>32</v>
@@ -8251,16 +8251,16 @@
         <v>339</v>
       </c>
       <c r="B335">
-        <v>39600</v>
+        <v>80200</v>
       </c>
       <c r="C335">
-        <v>108.2251082251082</v>
+        <v>85.03401360544215</v>
       </c>
       <c r="D335">
         <v>5000</v>
       </c>
       <c r="E335">
-        <v>2046.716347144918</v>
+        <v>2679.813408813408</v>
       </c>
       <c r="F335">
         <v>32.05128205128205</v>
@@ -8271,16 +8271,16 @@
         <v>340</v>
       </c>
       <c r="B336">
-        <v>57600</v>
+        <v>115600</v>
       </c>
       <c r="C336">
-        <v>549.4505494505493</v>
+        <v>510.2040816326529</v>
       </c>
       <c r="D336">
         <v>30000</v>
       </c>
       <c r="E336">
-        <v>2906.134706563278</v>
+        <v>3104.983476840619</v>
       </c>
       <c r="F336">
         <v>66.66666666666667</v>
@@ -8291,16 +8291,16 @@
         <v>341</v>
       </c>
       <c r="B337">
-        <v>41600</v>
+        <v>87800</v>
       </c>
       <c r="C337">
-        <v>277.7777777777777</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D337">
         <v>14000</v>
       </c>
       <c r="E337">
-        <v>2414.681715110286</v>
+        <v>2832.874633303205</v>
       </c>
       <c r="F337">
         <v>32.03661327231121</v>
@@ -8311,16 +8311,16 @@
         <v>342</v>
       </c>
       <c r="B338">
-        <v>50000</v>
+        <v>96200</v>
       </c>
       <c r="C338">
-        <v>380.9523809523808</v>
+        <v>326.5306122448978</v>
       </c>
       <c r="D338">
         <v>19200</v>
       </c>
       <c r="E338">
-        <v>2517.856318284889</v>
+        <v>2921.310007452864</v>
       </c>
       <c r="F338">
         <v>42.66666666666666</v>
@@ -8331,16 +8331,16 @@
         <v>343</v>
       </c>
       <c r="B339">
-        <v>39600</v>
+        <v>85800</v>
       </c>
       <c r="C339">
-        <v>259.7402597402597</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D339">
         <v>12000</v>
       </c>
       <c r="E339">
-        <v>2198.23149866007</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F339">
         <v>32</v>
@@ -8351,16 +8351,16 @@
         <v>344</v>
       </c>
       <c r="B340">
-        <v>10200</v>
+        <v>83400</v>
       </c>
       <c r="C340">
-        <v>244.8979591836735</v>
+        <v>122.4489795918367</v>
       </c>
       <c r="D340">
         <v>7200</v>
       </c>
       <c r="E340">
-        <v>1633.244897959184</v>
+        <v>2717.228374799803</v>
       </c>
       <c r="F340">
         <v>32</v>
@@ -8371,7 +8371,7 @@
         <v>345</v>
       </c>
       <c r="B341">
-        <v>91800</v>
+        <v>101600</v>
       </c>
       <c r="C341">
         <v>289.1156462585033</v>
@@ -8391,7 +8391,7 @@
         <v>346</v>
       </c>
       <c r="B342">
-        <v>70000</v>
+        <v>146800</v>
       </c>
       <c r="C342">
         <v>734.6938775510201</v>
@@ -8411,16 +8411,16 @@
         <v>347</v>
       </c>
       <c r="B343">
-        <v>41800</v>
+        <v>118600</v>
       </c>
       <c r="C343">
-        <v>297.6190476190475</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="D343">
         <v>15000</v>
       </c>
       <c r="E343">
-        <v>2434.522984951556</v>
+        <v>2849.881436024293</v>
       </c>
       <c r="F343">
         <v>33.33333333333334</v>
@@ -8431,16 +8431,16 @@
         <v>348</v>
       </c>
       <c r="B344">
-        <v>58500</v>
+        <v>105000</v>
       </c>
       <c r="C344">
-        <v>527.4725274725273</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D344">
         <v>28800</v>
       </c>
       <c r="E344">
-        <v>2884.156684585256</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F344">
         <v>64</v>
@@ -8451,7 +8451,7 @@
         <v>349</v>
       </c>
       <c r="B345">
-        <v>79200</v>
+        <v>112200</v>
       </c>
       <c r="C345">
         <v>489.7959183673468</v>
@@ -8471,16 +8471,16 @@
         <v>350</v>
       </c>
       <c r="B346">
-        <v>64800</v>
+        <v>97800</v>
       </c>
       <c r="C346">
-        <v>263.7362637362637</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D346">
         <v>14400</v>
       </c>
       <c r="E346">
-        <v>2620.420420848992</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F346">
         <v>32</v>
@@ -8491,16 +8491,16 @@
         <v>351</v>
       </c>
       <c r="B347">
-        <v>61800</v>
+        <v>93000</v>
       </c>
       <c r="C347">
-        <v>315.0183150183149</v>
+        <v>292.517006802721</v>
       </c>
       <c r="D347">
         <v>17200</v>
       </c>
       <c r="E347">
-        <v>2671.702472131043</v>
+        <v>2887.296402010687</v>
       </c>
       <c r="F347">
         <v>38.22222222222222</v>
@@ -8511,16 +8511,16 @@
         <v>352</v>
       </c>
       <c r="B348">
-        <v>44600</v>
+        <v>85200</v>
       </c>
       <c r="C348">
-        <v>198.4126984126984</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D348">
         <v>10000</v>
       </c>
       <c r="E348">
-        <v>2335.316635745207</v>
+        <v>2764.847422418851</v>
       </c>
       <c r="F348">
         <v>32.05128205128205</v>
@@ -8531,16 +8531,16 @@
         <v>353</v>
       </c>
       <c r="B349">
-        <v>36600</v>
+        <v>77200</v>
       </c>
       <c r="C349">
-        <v>173.1601731601731</v>
+        <v>136.0544217687074</v>
       </c>
       <c r="D349">
         <v>8000</v>
       </c>
       <c r="E349">
-        <v>2111.651412079983</v>
+        <v>2730.833816976674</v>
       </c>
       <c r="F349">
         <v>32</v>
@@ -8551,7 +8551,7 @@
         <v>354</v>
       </c>
       <c r="B350">
-        <v>86400</v>
+        <v>119400</v>
       </c>
       <c r="C350">
         <v>612.2448979591835</v>
@@ -8571,7 +8571,7 @@
         <v>355</v>
       </c>
       <c r="B351">
-        <v>100700</v>
+        <v>147200</v>
       </c>
       <c r="C351">
         <v>962.5850340136052</v>
@@ -8591,7 +8591,7 @@
         <v>356</v>
       </c>
       <c r="B352">
-        <v>81000</v>
+        <v>100000</v>
       </c>
       <c r="C352">
         <v>244.8979591836734</v>
@@ -8611,7 +8611,7 @@
         <v>357</v>
       </c>
       <c r="B353">
-        <v>95400</v>
+        <v>114400</v>
       </c>
       <c r="C353">
         <v>489.7959183673468</v>
@@ -8631,7 +8631,7 @@
         <v>358</v>
       </c>
       <c r="B354">
-        <v>124200</v>
+        <v>143200</v>
       </c>
       <c r="C354">
         <v>734.6938775510201</v>
@@ -8651,16 +8651,16 @@
         <v>359</v>
       </c>
       <c r="B355">
-        <v>64860</v>
+        <v>98460</v>
       </c>
       <c r="C355">
-        <v>263.7362637362637</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D355">
         <v>14400</v>
       </c>
       <c r="E355">
-        <v>2620.420420848992</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F355">
         <v>32</v>
@@ -8671,16 +8671,16 @@
         <v>360</v>
       </c>
       <c r="B356">
-        <v>50460</v>
+        <v>127260</v>
       </c>
       <c r="C356">
-        <v>571.4285714285713</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D356">
         <v>28800</v>
       </c>
       <c r="E356">
-        <v>2708.33250876108</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F356">
         <v>64</v>
@@ -8691,7 +8691,7 @@
         <v>361</v>
       </c>
       <c r="B357">
-        <v>85800</v>
+        <v>99000</v>
       </c>
       <c r="C357">
         <v>272.1088435374149</v>
@@ -8711,16 +8711,16 @@
         <v>362</v>
       </c>
       <c r="B358">
-        <v>55960</v>
+        <v>132760</v>
       </c>
       <c r="C358">
-        <v>100.7326007326007</v>
+        <v>93.53741496598637</v>
       </c>
       <c r="D358">
         <v>5500</v>
       </c>
       <c r="E358">
-        <v>2457.416757845329</v>
+        <v>2688.316810173953</v>
       </c>
       <c r="F358">
         <v>32.16374269005848</v>
@@ -8731,7 +8731,7 @@
         <v>363</v>
       </c>
       <c r="B359">
-        <v>87300</v>
+        <v>133800</v>
       </c>
       <c r="C359">
         <v>489.7959183673468</v>
@@ -8751,7 +8751,7 @@
         <v>364</v>
       </c>
       <c r="B360">
-        <v>106800</v>
+        <v>139800</v>
       </c>
       <c r="C360">
         <v>346.938775510204</v>
@@ -8771,16 +8771,16 @@
         <v>365</v>
       </c>
       <c r="B361">
-        <v>60460</v>
+        <v>137260</v>
       </c>
       <c r="C361">
-        <v>183.1501831501831</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D361">
         <v>10000</v>
       </c>
       <c r="E361">
-        <v>2539.834340262912</v>
+        <v>2764.847422418851</v>
       </c>
       <c r="F361">
         <v>32.05128205128205</v>
@@ -8791,16 +8791,16 @@
         <v>366</v>
       </c>
       <c r="B362">
-        <v>64860</v>
+        <v>141660</v>
       </c>
       <c r="C362">
-        <v>263.7362637362637</v>
+        <v>244.8979591836734</v>
       </c>
       <c r="D362">
         <v>14400</v>
       </c>
       <c r="E362">
-        <v>2620.420420848992</v>
+        <v>2839.67735439164</v>
       </c>
       <c r="F362">
         <v>32</v>
@@ -8811,16 +8811,16 @@
         <v>367</v>
       </c>
       <c r="B363">
-        <v>57600</v>
+        <v>103800</v>
       </c>
       <c r="C363">
-        <v>293.040293040293</v>
+        <v>272.1088435374149</v>
       </c>
       <c r="D363">
         <v>16000</v>
       </c>
       <c r="E363">
-        <v>2649.724450153021</v>
+        <v>2866.888238745381</v>
       </c>
       <c r="F363">
         <v>35.55555555555556</v>
@@ -8831,16 +8831,16 @@
         <v>368</v>
       </c>
       <c r="B364">
-        <v>53600</v>
+        <v>99800</v>
       </c>
       <c r="C364">
-        <v>256.4102564102564</v>
+        <v>238.095238095238</v>
       </c>
       <c r="D364">
         <v>14000</v>
       </c>
       <c r="E364">
-        <v>2613.094413522985</v>
+        <v>2832.874633303205</v>
       </c>
       <c r="F364">
         <v>32.03661327231121</v>
@@ -8851,7 +8851,7 @@
         <v>369</v>
       </c>
       <c r="B365">
-        <v>110800</v>
+        <v>120600</v>
       </c>
       <c r="C365">
         <v>323.1292517006802</v>
@@ -8871,16 +8871,16 @@
         <v>370</v>
       </c>
       <c r="B366">
-        <v>58800</v>
+        <v>163800</v>
       </c>
       <c r="C366">
-        <v>311.3553113553112</v>
+        <v>289.1156462585033</v>
       </c>
       <c r="D366">
         <v>17000</v>
       </c>
       <c r="E366">
-        <v>2668.03946846804</v>
+        <v>2883.89504146647</v>
       </c>
       <c r="F366">
         <v>37.77777777777778</v>
@@ -8891,7 +8891,7 @@
         <v>371</v>
       </c>
       <c r="B367">
-        <v>93600</v>
+        <v>126600</v>
       </c>
       <c r="C367">
         <v>489.7959183673468</v>
@@ -8911,16 +8911,16 @@
         <v>372</v>
       </c>
       <c r="B368">
-        <v>47400</v>
+        <v>130000</v>
       </c>
       <c r="C368">
-        <v>496.0317460317459</v>
+        <v>425.1700680272107</v>
       </c>
       <c r="D368">
         <v>25000</v>
       </c>
       <c r="E368">
-        <v>2632.935683364255</v>
+        <v>3019.949463235177</v>
       </c>
       <c r="F368">
         <v>55.55555555555556</v>
@@ -8931,7 +8931,7 @@
         <v>373</v>
       </c>
       <c r="B369">
-        <v>122400</v>
+        <v>155400</v>
       </c>
       <c r="C369">
         <v>734.6938775510201</v>
@@ -8951,7 +8951,7 @@
         <v>374</v>
       </c>
       <c r="B370">
-        <v>93600</v>
+        <v>126600</v>
       </c>
       <c r="C370">
         <v>489.7959183673468</v>
@@ -8971,16 +8971,16 @@
         <v>375</v>
       </c>
       <c r="B371">
-        <v>56600</v>
+        <v>97200</v>
       </c>
       <c r="C371">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D371">
         <v>12000</v>
       </c>
       <c r="E371">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F371">
         <v>32</v>
@@ -8991,16 +8991,16 @@
         <v>376</v>
       </c>
       <c r="B372">
-        <v>46600</v>
+        <v>87200</v>
       </c>
       <c r="C372">
-        <v>198.4126984126984</v>
+        <v>170.0680272108843</v>
       </c>
       <c r="D372">
         <v>10000</v>
       </c>
       <c r="E372">
-        <v>2335.316635745207</v>
+        <v>2764.847422418851</v>
       </c>
       <c r="F372">
         <v>32.05128205128205</v>
@@ -9011,16 +9011,16 @@
         <v>377</v>
       </c>
       <c r="B373">
-        <v>44400</v>
+        <v>143200</v>
       </c>
       <c r="C373">
-        <v>571.4285714285713</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D373">
         <v>28800</v>
       </c>
       <c r="E373">
-        <v>2708.33250876108</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F373">
         <v>64</v>
@@ -9031,7 +9031,7 @@
         <v>378</v>
       </c>
       <c r="B374">
-        <v>109800</v>
+        <v>128800</v>
       </c>
       <c r="C374">
         <v>489.7959183673468</v>
@@ -9051,7 +9051,7 @@
         <v>379</v>
       </c>
       <c r="B375">
-        <v>138600</v>
+        <v>157600</v>
       </c>
       <c r="C375">
         <v>734.6938775510201</v>
@@ -9071,7 +9071,7 @@
         <v>380</v>
       </c>
       <c r="B376">
-        <v>93660</v>
+        <v>170460</v>
       </c>
       <c r="C376">
         <v>734.6938775510201</v>
@@ -9091,7 +9091,7 @@
         <v>381</v>
       </c>
       <c r="B377">
-        <v>93660</v>
+        <v>127260</v>
       </c>
       <c r="C377">
         <v>489.7959183673468</v>
@@ -9111,7 +9111,7 @@
         <v>382</v>
       </c>
       <c r="B378">
-        <v>103800</v>
+        <v>117000</v>
       </c>
       <c r="C378">
         <v>306.1224489795918</v>
@@ -9131,7 +9131,7 @@
         <v>383</v>
       </c>
       <c r="B379">
-        <v>108000</v>
+        <v>141000</v>
       </c>
       <c r="C379">
         <v>244.8979591836734</v>
@@ -9151,7 +9151,7 @@
         <v>384</v>
       </c>
       <c r="B380">
-        <v>116100</v>
+        <v>162600</v>
       </c>
       <c r="C380">
         <v>489.7959183673468</v>
@@ -9171,7 +9171,7 @@
         <v>385</v>
       </c>
       <c r="B381">
-        <v>73200</v>
+        <v>172000</v>
       </c>
       <c r="C381">
         <v>489.7959183673468</v>
@@ -9191,7 +9191,7 @@
         <v>386</v>
       </c>
       <c r="B382">
-        <v>75600</v>
+        <v>121800</v>
       </c>
       <c r="C382">
         <v>306.1224489795918</v>
@@ -9211,7 +9211,7 @@
         <v>387</v>
       </c>
       <c r="B383">
-        <v>69600</v>
+        <v>115800</v>
       </c>
       <c r="C383">
         <v>272.1088435374149</v>
@@ -9231,7 +9231,7 @@
         <v>388</v>
       </c>
       <c r="B384">
-        <v>131800</v>
+        <v>141600</v>
       </c>
       <c r="C384">
         <v>357.1428571428571</v>
@@ -9251,7 +9251,7 @@
         <v>389</v>
       </c>
       <c r="B385">
-        <v>108800</v>
+        <v>213800</v>
       </c>
       <c r="C385">
         <v>850.3401360544215</v>
@@ -9271,7 +9271,7 @@
         <v>390</v>
       </c>
       <c r="B386">
-        <v>136800</v>
+        <v>169800</v>
       </c>
       <c r="C386">
         <v>734.6938775510201</v>
@@ -9291,7 +9291,7 @@
         <v>391</v>
       </c>
       <c r="B387">
-        <v>70600</v>
+        <v>111200</v>
       </c>
       <c r="C387">
         <v>238.095238095238</v>
@@ -9311,16 +9311,16 @@
         <v>392</v>
       </c>
       <c r="B388">
-        <v>58600</v>
+        <v>99200</v>
       </c>
       <c r="C388">
-        <v>219.7802197802197</v>
+        <v>204.0816326530611</v>
       </c>
       <c r="D388">
         <v>12000</v>
       </c>
       <c r="E388">
-        <v>2576.464376892948</v>
+        <v>2798.861027861028</v>
       </c>
       <c r="F388">
         <v>32</v>
@@ -9331,16 +9331,16 @@
         <v>393</v>
       </c>
       <c r="B389">
-        <v>50400</v>
+        <v>186400</v>
       </c>
       <c r="C389">
-        <v>571.4285714285713</v>
+        <v>489.7959183673468</v>
       </c>
       <c r="D389">
         <v>28800</v>
       </c>
       <c r="E389">
-        <v>2708.33250876108</v>
+        <v>3084.575313575313</v>
       </c>
       <c r="F389">
         <v>64</v>
@@ -9351,7 +9351,7 @@
         <v>394</v>
       </c>
       <c r="B390">
-        <v>136860</v>
+        <v>170460</v>
       </c>
       <c r="C390">
         <v>734.6938775510201</v>
@@ -9371,7 +9371,7 @@
         <v>395</v>
       </c>
       <c r="B391">
-        <v>93660</v>
+        <v>213660</v>
       </c>
       <c r="C391">
         <v>734.6938775510201</v>
@@ -9391,7 +9391,7 @@
         <v>396</v>
       </c>
       <c r="B392">
-        <v>125600</v>
+        <v>263660</v>
       </c>
       <c r="C392">
         <v>850.3401360544215</v>
@@ -9411,7 +9411,7 @@
         <v>397</v>
       </c>
       <c r="B393">
-        <v>103660</v>
+        <v>223660</v>
       </c>
       <c r="C393">
         <v>170.0680272108843</v>
@@ -9431,7 +9431,7 @@
         <v>398</v>
       </c>
       <c r="B394">
-        <v>79200</v>
+        <v>215200</v>
       </c>
       <c r="C394">
         <v>489.7959183673468</v>
@@ -9451,7 +9451,7 @@
         <v>399</v>
       </c>
       <c r="B395">
-        <v>87800</v>
+        <v>193200</v>
       </c>
       <c r="C395">
         <v>850.3401360544215</v>
@@ -9471,7 +9471,7 @@
         <v>400</v>
       </c>
       <c r="B396">
-        <v>108060</v>
+        <v>228060</v>
       </c>
       <c r="C396">
         <v>244.8979591836734</v>
@@ -9491,16 +9491,16 @@
         <v>401</v>
       </c>
       <c r="B397">
-        <v>57600</v>
+        <v>216400</v>
       </c>
       <c r="C397">
-        <v>549.4505494505493</v>
+        <v>510.2040816326529</v>
       </c>
       <c r="D397">
         <v>30000</v>
       </c>
       <c r="E397">
-        <v>2906.134706563278</v>
+        <v>3104.983476840619</v>
       </c>
       <c r="F397">
         <v>66.66666666666667</v>
@@ -9511,7 +9511,7 @@
         <v>402</v>
       </c>
       <c r="B398">
-        <v>97600</v>
+        <v>143800</v>
       </c>
       <c r="C398">
         <v>374.1496598639455</v>
@@ -9531,7 +9531,7 @@
         <v>403</v>
       </c>
       <c r="B399">
-        <v>113800</v>
+        <v>268800</v>
       </c>
       <c r="C399">
         <v>935.3741496598636</v>
@@ -9551,7 +9551,7 @@
         <v>404</v>
       </c>
       <c r="B400">
-        <v>121600</v>
+        <v>167800</v>
       </c>
       <c r="C400">
         <v>408.1632653061223</v>

--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -2054,13 +2054,13 @@
         <v>4800</v>
       </c>
       <c r="C25">
-        <v>114.2857142857143</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="D25">
         <v>2400</v>
       </c>
       <c r="E25">
-        <v>414.2857142857143</v>
+        <v>323.0769230769231</v>
       </c>
       <c r="F25">
         <v>32</v>
@@ -2194,13 +2194,13 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D32">
         <v>2400</v>
       </c>
       <c r="E32">
-        <v>1401.952380952381</v>
+        <v>1330.290137107474</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -2254,13 +2254,13 @@
         <v>6000</v>
       </c>
       <c r="C35">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D35">
         <v>2400</v>
       </c>
       <c r="E35">
-        <v>1401.952380952381</v>
+        <v>1330.290137107474</v>
       </c>
       <c r="F35">
         <v>32</v>
@@ -2274,13 +2274,13 @@
         <v>4200</v>
       </c>
       <c r="C36">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D36">
         <v>1200</v>
       </c>
       <c r="E36">
-        <v>1401.952380952381</v>
+        <v>1330.290137107474</v>
       </c>
       <c r="F36">
         <v>32.43243243243244</v>
@@ -2294,13 +2294,13 @@
         <v>4200</v>
       </c>
       <c r="C37">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D37">
         <v>1200</v>
       </c>
       <c r="E37">
-        <v>1401.952380952381</v>
+        <v>1330.290137107474</v>
       </c>
       <c r="F37">
         <v>32.43243243243244</v>
@@ -2314,13 +2314,13 @@
         <v>9600</v>
       </c>
       <c r="C38">
-        <v>163.265306122449</v>
+        <v>131.5068493150685</v>
       </c>
       <c r="D38">
         <v>4800</v>
       </c>
       <c r="E38">
-        <v>1551.612244897959</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F38">
         <v>32</v>
@@ -2394,13 +2394,13 @@
         <v>4800</v>
       </c>
       <c r="C42">
-        <v>57.14285714285715</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="D42">
         <v>1200</v>
       </c>
       <c r="E42">
-        <v>357.1428571428572</v>
+        <v>323.0769230769231</v>
       </c>
       <c r="F42">
         <v>32.43243243243244</v>
@@ -2414,13 +2414,13 @@
         <v>7200</v>
       </c>
       <c r="C43">
-        <v>47.61904761904762</v>
+        <v>37.15170278637771</v>
       </c>
       <c r="D43">
         <v>1200</v>
       </c>
       <c r="E43">
-        <v>1354.333333333333</v>
+        <v>1367.441839893852</v>
       </c>
       <c r="F43">
         <v>32.43243243243244</v>
@@ -2434,13 +2434,13 @@
         <v>9000</v>
       </c>
       <c r="C44">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D44">
         <v>3600</v>
       </c>
       <c r="E44">
-        <v>1510.795918367347</v>
+        <v>1410.344422700587</v>
       </c>
       <c r="F44">
         <v>32.14285714285715</v>
@@ -2454,13 +2454,13 @@
         <v>8400</v>
       </c>
       <c r="C45">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D45">
         <v>2400</v>
       </c>
       <c r="E45">
-        <v>1469.979591836735</v>
+        <v>1393.906066536203</v>
       </c>
       <c r="F45">
         <v>32</v>
@@ -2474,13 +2474,13 @@
         <v>6600</v>
       </c>
       <c r="C46">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D46">
         <v>2400</v>
       </c>
       <c r="E46">
-        <v>1401.952380952381</v>
+        <v>1348.865988500663</v>
       </c>
       <c r="F46">
         <v>32</v>
@@ -2494,13 +2494,13 @@
         <v>8400</v>
       </c>
       <c r="C47">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D47">
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1469.979591836735</v>
+        <v>1393.906066536203</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2514,13 +2514,13 @@
         <v>5400</v>
       </c>
       <c r="C48">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D48">
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>1469.979591836735</v>
+        <v>1393.906066536203</v>
       </c>
       <c r="F48">
         <v>32.43243243243244</v>
@@ -2534,13 +2534,13 @@
         <v>7200</v>
       </c>
       <c r="C49">
-        <v>47.61904761904762</v>
+        <v>37.15170278637771</v>
       </c>
       <c r="D49">
         <v>1200</v>
       </c>
       <c r="E49">
-        <v>1354.333333333333</v>
+        <v>1367.441839893852</v>
       </c>
       <c r="F49">
         <v>32.43243243243244</v>
@@ -2554,13 +2554,13 @@
         <v>7800</v>
       </c>
       <c r="C50">
-        <v>47.61904761904762</v>
+        <v>37.15170278637771</v>
       </c>
       <c r="D50">
         <v>1800</v>
       </c>
       <c r="E50">
-        <v>1354.333333333333</v>
+        <v>1367.441839893852</v>
       </c>
       <c r="F50">
         <v>32.14285714285715</v>
@@ -2574,13 +2574,13 @@
         <v>9600</v>
       </c>
       <c r="C51">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D51">
         <v>3600</v>
       </c>
       <c r="E51">
-        <v>1510.795918367347</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F51">
         <v>32.14285714285715</v>
@@ -2594,13 +2594,13 @@
         <v>6660</v>
       </c>
       <c r="C52">
-        <v>142.8571428571429</v>
+        <v>111.4551083591331</v>
       </c>
       <c r="D52">
         <v>3600</v>
       </c>
       <c r="E52">
-        <v>1449.571428571428</v>
+        <v>1350.723573639982</v>
       </c>
       <c r="F52">
         <v>32.14285714285715</v>
@@ -2614,13 +2614,13 @@
         <v>6060</v>
       </c>
       <c r="C53">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D53">
         <v>2400</v>
       </c>
       <c r="E53">
-        <v>1401.952380952381</v>
+        <v>1332.147722246793</v>
       </c>
       <c r="F53">
         <v>32</v>
@@ -2634,13 +2634,13 @@
         <v>9600</v>
       </c>
       <c r="C54">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D54">
         <v>3600</v>
       </c>
       <c r="E54">
-        <v>1510.795918367347</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F54">
         <v>32.14285714285715</v>
@@ -2654,13 +2654,13 @@
         <v>6000</v>
       </c>
       <c r="C55">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D55">
         <v>2400</v>
       </c>
       <c r="E55">
-        <v>1401.952380952381</v>
+        <v>1330.290137107474</v>
       </c>
       <c r="F55">
         <v>32</v>
@@ -2674,13 +2674,13 @@
         <v>4500</v>
       </c>
       <c r="C56">
-        <v>42.85714285714285</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="D56">
         <v>900</v>
       </c>
       <c r="E56">
-        <v>342.8571428571428</v>
+        <v>311.5384615384615</v>
       </c>
       <c r="F56">
         <v>32.14285714285715</v>
@@ -2694,13 +2694,13 @@
         <v>5460</v>
       </c>
       <c r="C57">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D57">
         <v>2400</v>
       </c>
       <c r="E57">
-        <v>1401.952380952381</v>
+        <v>1313.571870853604</v>
       </c>
       <c r="F57">
         <v>32</v>
@@ -2714,13 +2714,13 @@
         <v>8400</v>
       </c>
       <c r="C58">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D58">
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>1469.979591836735</v>
+        <v>1393.906066536203</v>
       </c>
       <c r="F58">
         <v>32</v>
@@ -2734,13 +2734,13 @@
         <v>7200</v>
       </c>
       <c r="C59">
-        <v>95.23809523809524</v>
+        <v>74.30340557275542</v>
       </c>
       <c r="D59">
         <v>2400</v>
       </c>
       <c r="E59">
-        <v>1401.952380952381</v>
+        <v>1367.441839893852</v>
       </c>
       <c r="F59">
         <v>32</v>
@@ -2754,13 +2754,13 @@
         <v>9600</v>
       </c>
       <c r="C60">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D60">
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>1469.979591836735</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F60">
         <v>32</v>
@@ -2774,13 +2774,13 @@
         <v>10260</v>
       </c>
       <c r="C61">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D61">
         <v>3600</v>
       </c>
       <c r="E61">
-        <v>1510.795918367347</v>
+        <v>1444.864970645792</v>
       </c>
       <c r="F61">
         <v>32.14285714285715</v>
@@ -2794,13 +2794,13 @@
         <v>9600</v>
       </c>
       <c r="C62">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D62">
         <v>1200</v>
       </c>
       <c r="E62">
-        <v>1429.163265306122</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F62">
         <v>32.43243243243244</v>
@@ -2814,13 +2814,13 @@
         <v>11400</v>
       </c>
       <c r="C63">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D63">
         <v>1800</v>
       </c>
       <c r="E63">
-        <v>1429.163265306122</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F63">
         <v>32.14285714285715</v>
@@ -2834,13 +2834,13 @@
         <v>10200</v>
       </c>
       <c r="C64">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D64">
         <v>3600</v>
       </c>
       <c r="E64">
-        <v>1510.795918367347</v>
+        <v>1443.221135029354</v>
       </c>
       <c r="F64">
         <v>32.14285714285715</v>
@@ -2854,13 +2854,13 @@
         <v>7800</v>
       </c>
       <c r="C65">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D65">
         <v>2400</v>
       </c>
       <c r="E65">
-        <v>1510.795918367347</v>
+        <v>1443.221135029354</v>
       </c>
       <c r="F65">
         <v>32</v>
@@ -2874,13 +2874,13 @@
         <v>10800</v>
       </c>
       <c r="C66">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D66">
         <v>2400</v>
       </c>
       <c r="E66">
-        <v>1469.979591836735</v>
+        <v>1459.659491193737</v>
       </c>
       <c r="F66">
         <v>32</v>
@@ -2894,13 +2894,13 @@
         <v>9000</v>
       </c>
       <c r="C67">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D67">
         <v>1200</v>
       </c>
       <c r="E67">
-        <v>1429.163265306122</v>
+        <v>1410.344422700587</v>
       </c>
       <c r="F67">
         <v>32.43243243243244</v>
@@ -2914,13 +2914,13 @@
         <v>11400</v>
       </c>
       <c r="C68">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D68">
         <v>3600</v>
       </c>
       <c r="E68">
-        <v>1429.163265306122</v>
+        <v>1410.344422700587</v>
       </c>
       <c r="F68">
         <v>32.14285714285715</v>
@@ -2934,13 +2934,13 @@
         <v>15600</v>
       </c>
       <c r="C69">
-        <v>178.5714285714286</v>
+        <v>147.4201474201474</v>
       </c>
       <c r="D69">
         <v>6000</v>
       </c>
       <c r="E69">
-        <v>1674.061224489796</v>
+        <v>1569.113902018011</v>
       </c>
       <c r="F69">
         <v>32.0855614973262</v>
@@ -2954,13 +2954,13 @@
         <v>12660</v>
       </c>
       <c r="C70">
-        <v>178.5714285714286</v>
+        <v>147.4201474201474</v>
       </c>
       <c r="D70">
         <v>6000</v>
       </c>
       <c r="E70">
-        <v>1674.061224489796</v>
+        <v>1496.878029782139</v>
       </c>
       <c r="F70">
         <v>32.0855614973262</v>
@@ -2974,13 +2974,13 @@
         <v>9660</v>
       </c>
       <c r="C71">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D71">
         <v>3600</v>
       </c>
       <c r="E71">
-        <v>1510.795918367347</v>
+        <v>1428.426614481409</v>
       </c>
       <c r="F71">
         <v>32.14285714285715</v>
@@ -2994,13 +2994,13 @@
         <v>9660</v>
       </c>
       <c r="C72">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D72">
         <v>3600</v>
       </c>
       <c r="E72">
-        <v>1510.795918367347</v>
+        <v>1428.426614481409</v>
       </c>
       <c r="F72">
         <v>32.14285714285715</v>
@@ -3014,13 +3014,13 @@
         <v>13200</v>
       </c>
       <c r="C73">
-        <v>214.2857142857143</v>
+        <v>176.9041769041769</v>
       </c>
       <c r="D73">
         <v>7200</v>
       </c>
       <c r="E73">
-        <v>1709.775510204081</v>
+        <v>1510.145843049952</v>
       </c>
       <c r="F73">
         <v>32</v>
@@ -3034,13 +3034,13 @@
         <v>12660</v>
       </c>
       <c r="C74">
-        <v>214.2857142857143</v>
+        <v>176.9041769041769</v>
       </c>
       <c r="D74">
         <v>7200</v>
       </c>
       <c r="E74">
-        <v>1709.775510204081</v>
+        <v>1496.878029782139</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>107.1428571428571</v>
+        <v>88.45208845208845</v>
       </c>
       <c r="D75">
         <v>3600</v>
       </c>
       <c r="E75">
-        <v>1602.632653061224</v>
+        <v>1480.661813565923</v>
       </c>
       <c r="F75">
         <v>32.14285714285715</v>
@@ -3074,13 +3074,13 @@
         <v>7860</v>
       </c>
       <c r="C76">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D76">
         <v>2400</v>
       </c>
       <c r="E76">
-        <v>1469.979591836735</v>
+        <v>1379.111545988258</v>
       </c>
       <c r="F76">
         <v>32</v>
@@ -3094,13 +3094,13 @@
         <v>10200</v>
       </c>
       <c r="C77">
-        <v>61.22448979591837</v>
+        <v>49.31506849315068</v>
       </c>
       <c r="D77">
         <v>1800</v>
       </c>
       <c r="E77">
-        <v>1449.571428571428</v>
+        <v>1443.221135029354</v>
       </c>
       <c r="F77">
         <v>32.14285714285715</v>
@@ -3114,13 +3114,13 @@
         <v>10800</v>
       </c>
       <c r="C78">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D78">
         <v>3600</v>
       </c>
       <c r="E78">
-        <v>1510.795918367347</v>
+        <v>1459.659491193737</v>
       </c>
       <c r="F78">
         <v>32.14285714285715</v>
@@ -3134,13 +3134,13 @@
         <v>10800</v>
       </c>
       <c r="C79">
-        <v>122.4489795918367</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="D79">
         <v>3600</v>
       </c>
       <c r="E79">
-        <v>1510.795918367347</v>
+        <v>1459.659491193737</v>
       </c>
       <c r="F79">
         <v>32.14285714285715</v>
@@ -3154,13 +3154,13 @@
         <v>10800</v>
       </c>
       <c r="C80">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D80">
         <v>2400</v>
       </c>
       <c r="E80">
-        <v>1469.979591836735</v>
+        <v>1459.659491193737</v>
       </c>
       <c r="F80">
         <v>32</v>
@@ -3174,13 +3174,13 @@
         <v>9600</v>
       </c>
       <c r="C81">
-        <v>81.63265306122449</v>
+        <v>65.75342465753425</v>
       </c>
       <c r="D81">
         <v>2400</v>
       </c>
       <c r="E81">
-        <v>1469.979591836735</v>
+        <v>1426.78277886497</v>
       </c>
       <c r="F81">
         <v>32</v>
@@ -3194,13 +3194,13 @@
         <v>13200</v>
       </c>
       <c r="C82">
-        <v>107.1428571428571</v>
+        <v>88.45208845208845</v>
       </c>
       <c r="D82">
         <v>3600</v>
       </c>
       <c r="E82">
-        <v>1602.632653061224</v>
+        <v>1510.145843049952</v>
       </c>
       <c r="F82">
         <v>32.14285714285715</v>
@@ -3214,13 +3214,13 @@
         <v>10800</v>
       </c>
       <c r="C83">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D83">
         <v>1200</v>
       </c>
       <c r="E83">
-        <v>1429.163265306122</v>
+        <v>1459.659491193737</v>
       </c>
       <c r="F83">
         <v>32.43243243243244</v>
@@ -3234,13 +3234,13 @@
         <v>9060</v>
       </c>
       <c r="C84">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D84">
         <v>1200</v>
       </c>
       <c r="E84">
-        <v>1429.163265306122</v>
+        <v>1411.988258317025</v>
       </c>
       <c r="F84">
         <v>32.43243243243244</v>
@@ -3254,13 +3254,13 @@
         <v>11400</v>
       </c>
       <c r="C85">
-        <v>40.81632653061224</v>
+        <v>32.87671232876713</v>
       </c>
       <c r="D85">
         <v>3600</v>
       </c>
       <c r="E85">
-        <v>1429.163265306122</v>
+        <v>1411.988258317025</v>
       </c>
       <c r="F85">
         <v>32.14285714285715</v>
@@ -3274,13 +3274,13 @@
         <v>21600</v>
       </c>
       <c r="C86">
-        <v>158.7301587301587</v>
+        <v>133.630289532294</v>
       </c>
       <c r="D86">
         <v>6000</v>
       </c>
       <c r="E86">
-        <v>1781.204081632653</v>
+        <v>1693.091291028808</v>
       </c>
       <c r="F86">
         <v>32.0855614973262</v>
@@ -3294,13 +3294,13 @@
         <v>13800</v>
       </c>
       <c r="C87">
-        <v>71.42857142857143</v>
+        <v>58.96805896805896</v>
       </c>
       <c r="D87">
         <v>2400</v>
       </c>
       <c r="E87">
-        <v>1566.918367346939</v>
+        <v>1524.887857791967</v>
       </c>
       <c r="F87">
         <v>32</v>
@@ -3314,13 +3314,13 @@
         <v>13800</v>
       </c>
       <c r="C88">
-        <v>71.42857142857143</v>
+        <v>58.96805896805896</v>
       </c>
       <c r="D88">
         <v>2400</v>
       </c>
       <c r="E88">
-        <v>1566.918367346939</v>
+        <v>1524.887857791967</v>
       </c>
       <c r="F88">
         <v>32</v>
@@ -3334,13 +3334,13 @@
         <v>16800</v>
       </c>
       <c r="C89">
-        <v>142.8571428571428</v>
+        <v>120.2672605790646</v>
       </c>
       <c r="D89">
         <v>5400</v>
       </c>
       <c r="E89">
-        <v>1765.331065759637</v>
+        <v>1586.187059402973</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3354,13 +3354,13 @@
         <v>13800</v>
       </c>
       <c r="C90">
-        <v>71.42857142857143</v>
+        <v>58.96805896805896</v>
       </c>
       <c r="D90">
         <v>2400</v>
       </c>
       <c r="E90">
-        <v>1566.918367346939</v>
+        <v>1524.887857791967</v>
       </c>
       <c r="F90">
         <v>32</v>
@@ -3374,13 +3374,13 @@
         <v>19860</v>
       </c>
       <c r="C91">
-        <v>190.4761904761905</v>
+        <v>160.3563474387528</v>
       </c>
       <c r="D91">
         <v>7200</v>
       </c>
       <c r="E91">
-        <v>1812.950113378685</v>
+        <v>1654.338507064443</v>
       </c>
       <c r="F91">
         <v>32</v>
@@ -3394,13 +3394,13 @@
         <v>16260</v>
       </c>
       <c r="C92">
-        <v>95.23809523809523</v>
+        <v>80.17817371937639</v>
       </c>
       <c r="D92">
         <v>3600</v>
       </c>
       <c r="E92">
-        <v>1717.712018140589</v>
+        <v>1574.160333345066</v>
       </c>
       <c r="F92">
         <v>32.14285714285715</v>
@@ -3414,13 +3414,13 @@
         <v>21100</v>
       </c>
       <c r="C93">
-        <v>145.5026455026455</v>
+        <v>122.4944320712695</v>
       </c>
       <c r="D93">
         <v>5500</v>
       </c>
       <c r="E93">
-        <v>1767.97656840514</v>
+        <v>1681.955433567783</v>
       </c>
       <c r="F93">
         <v>32.16374269005848</v>
@@ -3434,13 +3434,13 @@
         <v>15660</v>
       </c>
       <c r="C94">
-        <v>178.5714285714286</v>
+        <v>147.4201474201474</v>
       </c>
       <c r="D94">
         <v>6000</v>
       </c>
       <c r="E94">
-        <v>1674.061224489796</v>
+        <v>1570.588103492213</v>
       </c>
       <c r="F94">
         <v>32.0855614973262</v>
@@ -3454,13 +3454,13 @@
         <v>14460</v>
       </c>
       <c r="C95">
-        <v>142.8571428571429</v>
+        <v>117.9361179361179</v>
       </c>
       <c r="D95">
         <v>4800</v>
       </c>
       <c r="E95">
-        <v>1638.34693877551</v>
+        <v>1541.104074008183</v>
       </c>
       <c r="F95">
         <v>32</v>
@@ -3474,13 +3474,13 @@
         <v>20400</v>
       </c>
       <c r="C96">
-        <v>190.4761904761905</v>
+        <v>160.3563474387528</v>
       </c>
       <c r="D96">
         <v>7200</v>
       </c>
       <c r="E96">
-        <v>1812.950113378685</v>
+        <v>1666.365233122349</v>
       </c>
       <c r="F96">
         <v>32</v>
@@ -3494,13 +3494,13 @@
         <v>22400</v>
       </c>
       <c r="C97">
-        <v>219.047619047619</v>
+        <v>187.3727087576374</v>
       </c>
       <c r="D97">
         <v>9200</v>
       </c>
       <c r="E97">
-        <v>1984.378684807256</v>
+        <v>1699.096942873369</v>
       </c>
       <c r="F97">
         <v>32.05574912891986</v>
@@ -3514,13 +3514,13 @@
         <v>21860</v>
       </c>
       <c r="C98">
-        <v>243.3862433862434</v>
+        <v>204.8997772828507</v>
       </c>
       <c r="D98">
         <v>9200</v>
       </c>
       <c r="E98">
-        <v>1865.860166288738</v>
+        <v>1698.881936908541</v>
       </c>
       <c r="F98">
         <v>32.05574912891986</v>
@@ -3534,13 +3534,13 @@
         <v>16800</v>
       </c>
       <c r="C99">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D99">
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1749.458049886621</v>
+        <v>1586.187059402973</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3554,13 +3554,13 @@
         <v>13800</v>
       </c>
       <c r="C100">
-        <v>107.1428571428571</v>
+        <v>88.45208845208845</v>
       </c>
       <c r="D100">
         <v>3600</v>
       </c>
       <c r="E100">
-        <v>1602.632653061224</v>
+        <v>1524.887857791967</v>
       </c>
       <c r="F100">
         <v>32.14285714285715</v>
@@ -3574,13 +3574,13 @@
         <v>13800</v>
       </c>
       <c r="C101">
-        <v>107.1428571428571</v>
+        <v>88.45208845208845</v>
       </c>
       <c r="D101">
         <v>3600</v>
       </c>
       <c r="E101">
-        <v>1602.632653061224</v>
+        <v>1524.887857791967</v>
       </c>
       <c r="F101">
         <v>32.14285714285715</v>
@@ -3594,13 +3594,13 @@
         <v>15600</v>
       </c>
       <c r="C102">
-        <v>142.8571428571429</v>
+        <v>117.9361179361179</v>
       </c>
       <c r="D102">
         <v>4800</v>
       </c>
       <c r="E102">
-        <v>1638.34693877551</v>
+        <v>1569.113902018011</v>
       </c>
       <c r="F102">
         <v>32</v>
@@ -3614,13 +3614,13 @@
         <v>14400</v>
       </c>
       <c r="C103">
-        <v>107.1428571428571</v>
+        <v>88.45208845208845</v>
       </c>
       <c r="D103">
         <v>3600</v>
       </c>
       <c r="E103">
-        <v>1602.632653061224</v>
+        <v>1539.629872533982</v>
       </c>
       <c r="F103">
         <v>32.14285714285715</v>
@@ -3634,13 +3634,13 @@
         <v>16800</v>
       </c>
       <c r="C104">
-        <v>95.23809523809523</v>
+        <v>80.17817371937639</v>
       </c>
       <c r="D104">
         <v>3600</v>
       </c>
       <c r="E104">
-        <v>1717.712018140589</v>
+        <v>1586.187059402973</v>
       </c>
       <c r="F104">
         <v>32.14285714285715</v>
@@ -3654,13 +3654,13 @@
         <v>25200</v>
       </c>
       <c r="C105">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D105">
         <v>3600</v>
       </c>
       <c r="E105">
-        <v>1851.045351473923</v>
+        <v>1756.12341945178</v>
       </c>
       <c r="F105">
         <v>32.14285714285715</v>
@@ -3674,13 +3674,13 @@
         <v>17660</v>
       </c>
       <c r="C106">
-        <v>84.65608465608464</v>
+        <v>71.26948775055678</v>
       </c>
       <c r="D106">
         <v>3200</v>
       </c>
       <c r="E106">
-        <v>1707.130007558579</v>
+        <v>1605.340734235935</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3694,13 +3694,13 @@
         <v>24400</v>
       </c>
       <c r="C107">
-        <v>95.23809523809523</v>
+        <v>81.46639511201627</v>
       </c>
       <c r="D107">
         <v>4000</v>
       </c>
       <c r="E107">
-        <v>1860.569160997732</v>
+        <v>1739.830140429377</v>
       </c>
       <c r="F107">
         <v>32</v>
@@ -3714,13 +3714,13 @@
         <v>15900</v>
       </c>
       <c r="C108">
-        <v>44.64285714285714</v>
+        <v>36.85503685503685</v>
       </c>
       <c r="D108">
         <v>1500</v>
       </c>
       <c r="E108">
-        <v>1540.132653061224</v>
+        <v>1576.484909389019</v>
       </c>
       <c r="F108">
         <v>32.60869565217391</v>
@@ -3734,13 +3734,13 @@
         <v>19260</v>
       </c>
       <c r="C109">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D109">
         <v>4800</v>
       </c>
       <c r="E109">
-        <v>1749.458049886621</v>
+        <v>1640.975478111213</v>
       </c>
       <c r="F109">
         <v>32</v>
@@ -3754,13 +3754,13 @@
         <v>15900</v>
       </c>
       <c r="C110">
-        <v>44.64285714285714</v>
+        <v>36.85503685503685</v>
       </c>
       <c r="D110">
         <v>1500</v>
       </c>
       <c r="E110">
-        <v>1540.132653061224</v>
+        <v>1576.484909389019</v>
       </c>
       <c r="F110">
         <v>32.60869565217391</v>
@@ -3774,13 +3774,13 @@
         <v>20600</v>
       </c>
       <c r="C111">
-        <v>243.3862433862434</v>
+        <v>204.8997772828507</v>
       </c>
       <c r="D111">
         <v>9200</v>
       </c>
       <c r="E111">
-        <v>1865.860166288738</v>
+        <v>1670.819576106759</v>
       </c>
       <c r="F111">
         <v>32.05574912891986</v>
@@ -3794,13 +3794,13 @@
         <v>16200</v>
       </c>
       <c r="C112">
-        <v>243.3862433862434</v>
+        <v>204.8997772828507</v>
       </c>
       <c r="D112">
         <v>4800</v>
       </c>
       <c r="E112">
-        <v>1865.860166288738</v>
+        <v>1670.819576106759</v>
       </c>
       <c r="F112">
         <v>32</v>
@@ -3814,13 +3814,13 @@
         <v>25200</v>
       </c>
       <c r="C113">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D113">
         <v>3600</v>
       </c>
       <c r="E113">
-        <v>1851.045351473923</v>
+        <v>1756.12341945178</v>
       </c>
       <c r="F113">
         <v>32.14285714285715</v>
@@ -3834,13 +3834,13 @@
         <v>21600</v>
       </c>
       <c r="C114">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D114">
         <v>4800</v>
       </c>
       <c r="E114">
-        <v>1749.458049886621</v>
+        <v>1693.091291028808</v>
       </c>
       <c r="F114">
         <v>32</v>
@@ -3854,13 +3854,13 @@
         <v>28260</v>
       </c>
       <c r="C115">
-        <v>200</v>
+        <v>171.0794297352342</v>
       </c>
       <c r="D115">
         <v>8400</v>
       </c>
       <c r="E115">
-        <v>1965.331065759637</v>
+        <v>1818.445211712472</v>
       </c>
       <c r="F115">
         <v>32.06106870229008</v>
@@ -3874,13 +3874,13 @@
         <v>21060</v>
       </c>
       <c r="C116">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D116">
         <v>4800</v>
       </c>
       <c r="E116">
-        <v>1749.458049886621</v>
+        <v>1681.064564970901</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3894,13 +3894,13 @@
         <v>21660</v>
       </c>
       <c r="C117">
-        <v>190.4761904761905</v>
+        <v>160.3563474387528</v>
       </c>
       <c r="D117">
         <v>7200</v>
       </c>
       <c r="E117">
-        <v>1812.950113378685</v>
+        <v>1694.427593924131</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3914,13 +3914,13 @@
         <v>28300</v>
       </c>
       <c r="C118">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D118">
         <v>7200</v>
       </c>
       <c r="E118">
-        <v>1936.759637188208</v>
+        <v>1819.259875663593</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3934,13 +3934,13 @@
         <v>22860</v>
       </c>
       <c r="C119">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D119">
         <v>7200</v>
       </c>
       <c r="E119">
-        <v>1936.759637188208</v>
+        <v>1708.465578311251</v>
       </c>
       <c r="F119">
         <v>32</v>
@@ -3954,13 +3954,13 @@
         <v>19660</v>
       </c>
       <c r="C120">
-        <v>105.8201058201058</v>
+        <v>89.08685968819599</v>
       </c>
       <c r="D120">
         <v>4000</v>
       </c>
       <c r="E120">
-        <v>1728.2940287226</v>
+        <v>1649.884164080033</v>
       </c>
       <c r="F120">
         <v>32</v>
@@ -3974,13 +3974,13 @@
         <v>33600</v>
       </c>
       <c r="C121">
-        <v>242.4242424242424</v>
+        <v>210.1313320825516</v>
       </c>
       <c r="D121">
         <v>11200</v>
       </c>
       <c r="E121">
-        <v>2180.915481344053</v>
+        <v>1908.907300416079</v>
       </c>
       <c r="F121">
         <v>32</v>
@@ -3994,13 +3994,13 @@
         <v>26400</v>
       </c>
       <c r="C122">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D122">
         <v>6000</v>
       </c>
       <c r="E122">
-        <v>1908.18820861678</v>
+        <v>1780.563337985385</v>
       </c>
       <c r="F122">
         <v>32.0855614973262</v>
@@ -4014,13 +4014,13 @@
         <v>33060</v>
       </c>
       <c r="C123">
-        <v>242.4242424242424</v>
+        <v>210.1313320825516</v>
       </c>
       <c r="D123">
         <v>11200</v>
       </c>
       <c r="E123">
-        <v>2180.915481344053</v>
+        <v>1898.775968333528</v>
       </c>
       <c r="F123">
         <v>32</v>
@@ -4034,13 +4034,13 @@
         <v>23600</v>
       </c>
       <c r="C124">
-        <v>161.9047619047619</v>
+        <v>138.4928716904277</v>
       </c>
       <c r="D124">
         <v>6800</v>
       </c>
       <c r="E124">
-        <v>1927.235827664399</v>
+        <v>1723.536861406973</v>
       </c>
       <c r="F124">
         <v>32.0754716981132</v>
@@ -4054,13 +4054,13 @@
         <v>21000</v>
       </c>
       <c r="C125">
-        <v>190.4761904761905</v>
+        <v>160.3563474387528</v>
       </c>
       <c r="D125">
         <v>7200</v>
       </c>
       <c r="E125">
-        <v>1812.950113378685</v>
+        <v>1679.728262075578</v>
       </c>
       <c r="F125">
         <v>32</v>
@@ -4074,13 +4074,13 @@
         <v>21000</v>
       </c>
       <c r="C126">
-        <v>190.4761904761905</v>
+        <v>160.3563474387528</v>
       </c>
       <c r="D126">
         <v>7200</v>
       </c>
       <c r="E126">
-        <v>1812.950113378685</v>
+        <v>1679.728262075578</v>
       </c>
       <c r="F126">
         <v>32</v>
@@ -4094,13 +4094,13 @@
         <v>19200</v>
       </c>
       <c r="C127">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D127">
         <v>4800</v>
       </c>
       <c r="E127">
-        <v>1749.458049886621</v>
+        <v>1639.63917521589</v>
       </c>
       <c r="F127">
         <v>32</v>
@@ -4114,13 +4114,13 @@
         <v>25200</v>
       </c>
       <c r="C128">
-        <v>228.5714285714285</v>
+        <v>195.5193482688391</v>
       </c>
       <c r="D128">
         <v>9600</v>
       </c>
       <c r="E128">
-        <v>1993.902494331066</v>
+        <v>1756.12341945178</v>
       </c>
       <c r="F128">
         <v>32</v>
@@ -4134,13 +4134,13 @@
         <v>19200</v>
       </c>
       <c r="C129">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D129">
         <v>4800</v>
       </c>
       <c r="E129">
-        <v>1749.458049886621</v>
+        <v>1639.63917521589</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -4154,13 +4154,13 @@
         <v>20400</v>
       </c>
       <c r="C130">
-        <v>158.7301587301587</v>
+        <v>133.630289532294</v>
       </c>
       <c r="D130">
         <v>6000</v>
       </c>
       <c r="E130">
-        <v>1781.204081632653</v>
+        <v>1666.365233122349</v>
       </c>
       <c r="F130">
         <v>32.0855614973262</v>
@@ -4174,13 +4174,13 @@
         <v>21600</v>
       </c>
       <c r="C131">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D131">
         <v>4800</v>
       </c>
       <c r="E131">
-        <v>1749.458049886621</v>
+        <v>1693.091291028808</v>
       </c>
       <c r="F131">
         <v>32</v>
@@ -4194,13 +4194,13 @@
         <v>21800</v>
       </c>
       <c r="C132">
-        <v>148.1481481481481</v>
+        <v>124.7216035634744</v>
       </c>
       <c r="D132">
         <v>5600</v>
       </c>
       <c r="E132">
-        <v>1770.622071050642</v>
+        <v>1697.545634013218</v>
       </c>
       <c r="F132">
         <v>32</v>
@@ -4214,13 +4214,13 @@
         <v>26460</v>
       </c>
       <c r="C133">
-        <v>114.2857142857143</v>
+        <v>97.75967413441954</v>
       </c>
       <c r="D133">
         <v>4800</v>
       </c>
       <c r="E133">
-        <v>1879.616780045351</v>
+        <v>1781.785333912065</v>
       </c>
       <c r="F133">
         <v>32</v>
@@ -4234,13 +4234,13 @@
         <v>24600</v>
       </c>
       <c r="C134">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D134">
         <v>3600</v>
       </c>
       <c r="E134">
-        <v>1851.045351473923</v>
+        <v>1743.903460184978</v>
       </c>
       <c r="F134">
         <v>32.14285714285715</v>
@@ -4254,13 +4254,13 @@
         <v>22200</v>
       </c>
       <c r="C135">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D135">
         <v>1800</v>
       </c>
       <c r="E135">
-        <v>1851.045351473923</v>
+        <v>1743.903460184978</v>
       </c>
       <c r="F135">
         <v>32.14285714285715</v>
@@ -4274,13 +4274,13 @@
         <v>51660</v>
       </c>
       <c r="C136">
-        <v>595.2380952380951</v>
+        <v>521.7391304347825</v>
       </c>
       <c r="D136">
         <v>30000</v>
       </c>
       <c r="E136">
-        <v>2732.142032570604</v>
+        <v>2218.334823052509</v>
       </c>
       <c r="F136">
         <v>66.66666666666667</v>
@@ -4294,13 +4294,13 @@
         <v>22200</v>
       </c>
       <c r="C137">
-        <v>595.2380952380951</v>
+        <v>521.7391304347825</v>
       </c>
       <c r="D137">
         <v>6000</v>
       </c>
       <c r="E137">
-        <v>2732.142032570604</v>
+        <v>2218.334823052509</v>
       </c>
       <c r="F137">
         <v>32.0855614973262</v>
@@ -4314,13 +4314,13 @@
         <v>22200</v>
       </c>
       <c r="C138">
-        <v>595.2380952380951</v>
+        <v>521.7391304347825</v>
       </c>
       <c r="D138">
         <v>6000</v>
       </c>
       <c r="E138">
-        <v>2732.142032570604</v>
+        <v>2218.334823052509</v>
       </c>
       <c r="F138">
         <v>32.0855614973262</v>
@@ -4334,13 +4334,13 @@
         <v>26600</v>
       </c>
       <c r="C139">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D139">
         <v>6000</v>
       </c>
       <c r="E139">
-        <v>1908.18820861678</v>
+        <v>1784.636657740986</v>
       </c>
       <c r="F139">
         <v>32.0855614973262</v>
@@ -4354,13 +4354,13 @@
         <v>30000</v>
       </c>
       <c r="C140">
-        <v>114.2857142857143</v>
+        <v>97.75967413441954</v>
       </c>
       <c r="D140">
         <v>4800</v>
       </c>
       <c r="E140">
-        <v>1879.616780045351</v>
+        <v>1853.883093586199</v>
       </c>
       <c r="F140">
         <v>32</v>
@@ -4374,13 +4374,13 @@
         <v>29200</v>
       </c>
       <c r="C141">
-        <v>95.23809523809523</v>
+        <v>81.46639511201627</v>
       </c>
       <c r="D141">
         <v>4000</v>
       </c>
       <c r="E141">
-        <v>1860.569160997732</v>
+        <v>1837.589814563796</v>
       </c>
       <c r="F141">
         <v>32</v>
@@ -4394,13 +4394,13 @@
         <v>21000</v>
       </c>
       <c r="C142">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D142">
         <v>4800</v>
       </c>
       <c r="E142">
-        <v>1749.458049886621</v>
+        <v>1679.728262075578</v>
       </c>
       <c r="F142">
         <v>32</v>
@@ -4414,13 +4414,13 @@
         <v>18000</v>
       </c>
       <c r="C143">
-        <v>47.61904761904761</v>
+        <v>40.08908685968819</v>
       </c>
       <c r="D143">
         <v>1800</v>
       </c>
       <c r="E143">
-        <v>1670.092970521542</v>
+        <v>1612.913117309432</v>
       </c>
       <c r="F143">
         <v>32.14285714285715</v>
@@ -4434,13 +4434,13 @@
         <v>28600</v>
       </c>
       <c r="C144">
-        <v>166.6666666666666</v>
+        <v>142.5661914460285</v>
       </c>
       <c r="D144">
         <v>7000</v>
       </c>
       <c r="E144">
-        <v>1931.997732426304</v>
+        <v>1825.369855296994</v>
       </c>
       <c r="F144">
         <v>32.11009174311926</v>
@@ -4454,13 +4454,13 @@
         <v>23200</v>
       </c>
       <c r="C145">
-        <v>166.6666666666666</v>
+        <v>142.5661914460285</v>
       </c>
       <c r="D145">
         <v>7000</v>
       </c>
       <c r="E145">
-        <v>1931.997732426304</v>
+        <v>1715.390221895772</v>
       </c>
       <c r="F145">
         <v>32.11009174311926</v>
@@ -4474,13 +4474,13 @@
         <v>24400</v>
       </c>
       <c r="C146">
-        <v>180.9523809523809</v>
+        <v>154.7861507128309</v>
       </c>
       <c r="D146">
         <v>7600</v>
       </c>
       <c r="E146">
-        <v>1946.283446712018</v>
+        <v>1739.830140429377</v>
       </c>
       <c r="F146">
         <v>32.06751054852321</v>
@@ -4494,13 +4494,13 @@
         <v>28300</v>
       </c>
       <c r="C147">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D147">
         <v>7200</v>
       </c>
       <c r="E147">
-        <v>1936.759637188208</v>
+        <v>1819.259875663593</v>
       </c>
       <c r="F147">
         <v>32</v>
@@ -4514,13 +4514,13 @@
         <v>37500</v>
       </c>
       <c r="C148">
-        <v>199.1341991341991</v>
+        <v>172.6078799249531</v>
       </c>
       <c r="D148">
         <v>9200</v>
       </c>
       <c r="E148">
-        <v>2137.625438054009</v>
+        <v>1982.078032123396</v>
       </c>
       <c r="F148">
         <v>32.05574912891986</v>
@@ -4534,13 +4534,13 @@
         <v>21000</v>
       </c>
       <c r="C149">
-        <v>126.984126984127</v>
+        <v>106.9042316258352</v>
       </c>
       <c r="D149">
         <v>4800</v>
       </c>
       <c r="E149">
-        <v>1749.458049886621</v>
+        <v>1679.728262075578</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4554,13 +4554,13 @@
         <v>31260</v>
       </c>
       <c r="C150">
-        <v>181.8181818181818</v>
+        <v>157.5984990619137</v>
       </c>
       <c r="D150">
         <v>8400</v>
       </c>
       <c r="E150">
-        <v>2120.309420737992</v>
+        <v>1865.004861391689</v>
       </c>
       <c r="F150">
         <v>32.06106870229008</v>
@@ -4574,13 +4574,13 @@
         <v>26600</v>
       </c>
       <c r="C151">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D151">
         <v>6000</v>
       </c>
       <c r="E151">
-        <v>1908.18820861678</v>
+        <v>1784.636657740986</v>
       </c>
       <c r="F151">
         <v>32.0855614973262</v>
@@ -4594,13 +4594,13 @@
         <v>31660</v>
       </c>
       <c r="C152">
-        <v>190.4761904761904</v>
+        <v>165.1031894934333</v>
       </c>
       <c r="D152">
         <v>8800</v>
       </c>
       <c r="E152">
-        <v>2128.967429396001</v>
+        <v>1872.509551823209</v>
       </c>
       <c r="F152">
         <v>32</v>
@@ -4614,13 +4614,13 @@
         <v>27660</v>
       </c>
       <c r="C153">
-        <v>190.4761904761905</v>
+        <v>162.9327902240325</v>
       </c>
       <c r="D153">
         <v>8000</v>
       </c>
       <c r="E153">
-        <v>1955.807256235827</v>
+        <v>1806.22525244567</v>
       </c>
       <c r="F153">
         <v>32</v>
@@ -4634,13 +4634,13 @@
         <v>34400</v>
       </c>
       <c r="C154">
-        <v>173.1601731601731</v>
+        <v>150.093808630394</v>
       </c>
       <c r="D154">
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>2111.651412079983</v>
+        <v>1923.916681279119</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4654,13 +4654,13 @@
         <v>46260</v>
       </c>
       <c r="C155">
-        <v>261.9047619047618</v>
+        <v>229.5652173913043</v>
       </c>
       <c r="D155">
         <v>13200</v>
       </c>
       <c r="E155">
-        <v>2398.808699237271</v>
+        <v>2124.421779574249</v>
       </c>
       <c r="F155">
         <v>32.03883495145631</v>
@@ -4674,13 +4674,13 @@
         <v>30800</v>
       </c>
       <c r="C156">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D156">
         <v>7200</v>
       </c>
       <c r="E156">
-        <v>2094.335394763966</v>
+        <v>1856.374467395441</v>
       </c>
       <c r="F156">
         <v>32</v>
@@ -4694,13 +4694,13 @@
         <v>23400</v>
       </c>
       <c r="C157">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D157">
         <v>7200</v>
       </c>
       <c r="E157">
-        <v>1936.759637188208</v>
+        <v>1719.463541651373</v>
       </c>
       <c r="F157">
         <v>32</v>
@@ -4714,13 +4714,13 @@
         <v>30200</v>
       </c>
       <c r="C158">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D158">
         <v>9200</v>
       </c>
       <c r="E158">
-        <v>1936.759637188208</v>
+        <v>1719.463541651373</v>
       </c>
       <c r="F158">
         <v>32.05574912891986</v>
@@ -4734,13 +4734,13 @@
         <v>24600</v>
       </c>
       <c r="C159">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D159">
         <v>3600</v>
       </c>
       <c r="E159">
-        <v>1851.045351473923</v>
+        <v>1743.903460184978</v>
       </c>
       <c r="F159">
         <v>32.14285714285715</v>
@@ -4754,13 +4754,13 @@
         <v>22800</v>
       </c>
       <c r="C160">
-        <v>42.85714285714285</v>
+        <v>36.65987780040732</v>
       </c>
       <c r="D160">
         <v>1800</v>
       </c>
       <c r="E160">
-        <v>1808.18820861678</v>
+        <v>1707.24358238457</v>
       </c>
       <c r="F160">
         <v>32.14285714285715</v>
@@ -4774,13 +4774,13 @@
         <v>24000</v>
       </c>
       <c r="C161">
-        <v>114.2857142857143</v>
+        <v>97.75967413441954</v>
       </c>
       <c r="D161">
         <v>4800</v>
       </c>
       <c r="E161">
-        <v>1879.616780045351</v>
+        <v>1731.683500918175</v>
       </c>
       <c r="F161">
         <v>32</v>
@@ -4794,13 +4794,13 @@
         <v>25200</v>
       </c>
       <c r="C162">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D162">
         <v>6000</v>
       </c>
       <c r="E162">
-        <v>1908.18820861678</v>
+        <v>1756.12341945178</v>
       </c>
       <c r="F162">
         <v>32.0855614973262</v>
@@ -4814,13 +4814,13 @@
         <v>27600</v>
       </c>
       <c r="C163">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D163">
         <v>6000</v>
       </c>
       <c r="E163">
-        <v>1908.18820861678</v>
+        <v>1805.00325651899</v>
       </c>
       <c r="F163">
         <v>32.0855614973262</v>
@@ -4834,13 +4834,13 @@
         <v>25800</v>
       </c>
       <c r="C164">
-        <v>95.23809523809523</v>
+        <v>81.46639511201627</v>
       </c>
       <c r="D164">
         <v>4000</v>
       </c>
       <c r="E164">
-        <v>1860.569160997732</v>
+        <v>1768.343378718582</v>
       </c>
       <c r="F164">
         <v>32</v>
@@ -4854,13 +4854,13 @@
         <v>29400</v>
       </c>
       <c r="C165">
-        <v>180.9523809523809</v>
+        <v>154.7861507128309</v>
       </c>
       <c r="D165">
         <v>7600</v>
       </c>
       <c r="E165">
-        <v>1946.283446712018</v>
+        <v>1841.663134319397</v>
       </c>
       <c r="F165">
         <v>32.06751054852321</v>
@@ -4874,13 +4874,13 @@
         <v>27000</v>
       </c>
       <c r="C166">
-        <v>57.14285714285713</v>
+        <v>48.87983706720977</v>
       </c>
       <c r="D166">
         <v>2400</v>
       </c>
       <c r="E166">
-        <v>1822.473922902494</v>
+        <v>1792.783297252187</v>
       </c>
       <c r="F166">
         <v>32</v>
@@ -4894,13 +4894,13 @@
         <v>35600</v>
       </c>
       <c r="C167">
-        <v>103.8961038961039</v>
+        <v>90.05628517823638</v>
       </c>
       <c r="D167">
         <v>4800</v>
       </c>
       <c r="E167">
-        <v>2042.387342815914</v>
+        <v>1946.430752573678</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4914,13 +4914,13 @@
         <v>32460</v>
       </c>
       <c r="C168">
-        <v>103.8961038961039</v>
+        <v>90.05628517823638</v>
       </c>
       <c r="D168">
         <v>4800</v>
       </c>
       <c r="E168">
-        <v>2042.387342815914</v>
+        <v>1887.518932686248</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4934,13 +4934,13 @@
         <v>34060</v>
       </c>
       <c r="C169">
-        <v>51.94805194805193</v>
+        <v>45.02814258911819</v>
       </c>
       <c r="D169">
         <v>2400</v>
       </c>
       <c r="E169">
-        <v>1990.439290867862</v>
+        <v>1917.537694412327</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4954,13 +4954,13 @@
         <v>27000</v>
       </c>
       <c r="C170">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D170">
         <v>6000</v>
       </c>
       <c r="E170">
-        <v>1908.18820861678</v>
+        <v>1792.783297252187</v>
       </c>
       <c r="F170">
         <v>32.0855614973262</v>
@@ -4974,13 +4974,13 @@
         <v>28200</v>
       </c>
       <c r="C171">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D171">
         <v>6000</v>
       </c>
       <c r="E171">
-        <v>1908.18820861678</v>
+        <v>1817.223215785792</v>
       </c>
       <c r="F171">
         <v>32.0855614973262</v>
@@ -4994,13 +4994,13 @@
         <v>30200</v>
       </c>
       <c r="C172">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D172">
         <v>8000</v>
       </c>
       <c r="E172">
-        <v>1908.18820861678</v>
+        <v>1817.223215785792</v>
       </c>
       <c r="F172">
         <v>32</v>
@@ -5014,13 +5014,13 @@
         <v>36000</v>
       </c>
       <c r="C173">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D173">
         <v>6000</v>
       </c>
       <c r="E173">
-        <v>2068.36136878994</v>
+        <v>1953.935443005197</v>
       </c>
       <c r="F173">
         <v>32.0855614973262</v>
@@ -5034,13 +5034,13 @@
         <v>22800</v>
       </c>
       <c r="C174">
-        <v>114.2857142857143</v>
+        <v>97.75967413441954</v>
       </c>
       <c r="D174">
         <v>4800</v>
       </c>
       <c r="E174">
-        <v>1879.616780045351</v>
+        <v>1707.24358238457</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -5054,13 +5054,13 @@
         <v>21600</v>
       </c>
       <c r="C175">
-        <v>15.87301587301587</v>
+        <v>13.3630289532294</v>
       </c>
       <c r="D175">
         <v>600</v>
       </c>
       <c r="E175">
-        <v>1638.34693877551</v>
+        <v>1693.091291028808</v>
       </c>
       <c r="F175">
         <v>33.33333333333334</v>
@@ -5074,13 +5074,13 @@
         <v>20000</v>
       </c>
       <c r="C176">
-        <v>52.9100529100529</v>
+        <v>44.54342984409799</v>
       </c>
       <c r="D176">
         <v>2000</v>
       </c>
       <c r="E176">
-        <v>1675.383975812547</v>
+        <v>1657.45654715353</v>
       </c>
       <c r="F176">
         <v>32.25806451612903</v>
@@ -5094,13 +5094,13 @@
         <v>25800</v>
       </c>
       <c r="C177">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D177">
         <v>3600</v>
       </c>
       <c r="E177">
-        <v>1851.045351473923</v>
+        <v>1768.343378718582</v>
       </c>
       <c r="F177">
         <v>32.14285714285715</v>
@@ -5114,13 +5114,13 @@
         <v>32400</v>
       </c>
       <c r="C178">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D178">
         <v>7200</v>
       </c>
       <c r="E178">
-        <v>2094.335394763966</v>
+        <v>1886.39322912152</v>
       </c>
       <c r="F178">
         <v>32</v>
@@ -5134,13 +5134,13 @@
         <v>37600</v>
       </c>
       <c r="C179">
-        <v>194.8051948051948</v>
+        <v>168.8555347091932</v>
       </c>
       <c r="D179">
         <v>9000</v>
       </c>
       <c r="E179">
-        <v>2133.296433725005</v>
+        <v>1983.954204731276</v>
       </c>
       <c r="F179">
         <v>32.02846975088968</v>
@@ -5154,13 +5154,13 @@
         <v>30400</v>
       </c>
       <c r="C180">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D180">
         <v>6000</v>
       </c>
       <c r="E180">
-        <v>2068.36136878994</v>
+        <v>1848.869776963922</v>
       </c>
       <c r="F180">
         <v>32.0855614973262</v>
@@ -5174,13 +5174,13 @@
         <v>26800</v>
       </c>
       <c r="C181">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D181">
         <v>3600</v>
       </c>
       <c r="E181">
-        <v>1851.045351473923</v>
+        <v>1788.709977496587</v>
       </c>
       <c r="F181">
         <v>32.14285714285715</v>
@@ -5194,13 +5194,13 @@
         <v>32200</v>
       </c>
       <c r="C182">
-        <v>194.8051948051948</v>
+        <v>168.8555347091932</v>
       </c>
       <c r="D182">
         <v>9000</v>
       </c>
       <c r="E182">
-        <v>2133.296433725005</v>
+        <v>1882.64088390576</v>
       </c>
       <c r="F182">
         <v>32.02846975088968</v>
@@ -5214,13 +5214,13 @@
         <v>34000</v>
       </c>
       <c r="C183">
-        <v>207.7922077922077</v>
+        <v>180.1125703564728</v>
       </c>
       <c r="D183">
         <v>9600</v>
       </c>
       <c r="E183">
-        <v>2146.283446712018</v>
+        <v>1916.411990847599</v>
       </c>
       <c r="F183">
         <v>32</v>
@@ -5234,13 +5234,13 @@
         <v>36800</v>
       </c>
       <c r="C184">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D184">
         <v>6000</v>
       </c>
       <c r="E184">
-        <v>2068.36136878994</v>
+        <v>1968.944823868237</v>
       </c>
       <c r="F184">
         <v>32.0855614973262</v>
@@ -5254,13 +5254,13 @@
         <v>37500</v>
       </c>
       <c r="C185">
-        <v>199.1341991341991</v>
+        <v>172.6078799249531</v>
       </c>
       <c r="D185">
         <v>9200</v>
       </c>
       <c r="E185">
-        <v>2137.625438054009</v>
+        <v>1982.078032123396</v>
       </c>
       <c r="F185">
         <v>32.05574912891986</v>
@@ -5274,13 +5274,13 @@
         <v>35500</v>
       </c>
       <c r="C186">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D186">
         <v>7200</v>
       </c>
       <c r="E186">
-        <v>2094.335394763966</v>
+        <v>1944.554579965798</v>
       </c>
       <c r="F186">
         <v>32</v>
@@ -5294,13 +5294,13 @@
         <v>40860</v>
       </c>
       <c r="C187">
-        <v>190.4761904761904</v>
+        <v>166.9565217391304</v>
       </c>
       <c r="D187">
         <v>9600</v>
       </c>
       <c r="E187">
-        <v>2327.380127808699</v>
+        <v>2030.508736095988</v>
       </c>
       <c r="F187">
         <v>32</v>
@@ -5314,13 +5314,13 @@
         <v>34600</v>
       </c>
       <c r="C188">
-        <v>173.1601731601731</v>
+        <v>150.093808630394</v>
       </c>
       <c r="D188">
         <v>8000</v>
       </c>
       <c r="E188">
-        <v>2111.651412079983</v>
+        <v>1927.669026494879</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -5334,13 +5334,13 @@
         <v>37260</v>
       </c>
       <c r="C189">
-        <v>207.7922077922077</v>
+        <v>180.1125703564728</v>
       </c>
       <c r="D189">
         <v>9600</v>
       </c>
       <c r="E189">
-        <v>2146.283446712018</v>
+        <v>1977.575217864485</v>
       </c>
       <c r="F189">
         <v>32</v>
@@ -5354,13 +5354,13 @@
         <v>39200</v>
       </c>
       <c r="C190">
-        <v>194.8051948051948</v>
+        <v>168.8555347091932</v>
       </c>
       <c r="D190">
         <v>9000</v>
       </c>
       <c r="E190">
-        <v>2133.296433725005</v>
+        <v>2013.972966457355</v>
       </c>
       <c r="F190">
         <v>32.02846975088968</v>
@@ -5374,13 +5374,13 @@
         <v>41400</v>
       </c>
       <c r="C191">
-        <v>222.2222222222222</v>
+        <v>194.7826086956521</v>
       </c>
       <c r="D191">
         <v>11200</v>
       </c>
       <c r="E191">
-        <v>2359.126159554731</v>
+        <v>2039.900040443814</v>
       </c>
       <c r="F191">
         <v>32</v>
@@ -5394,13 +5394,13 @@
         <v>28800</v>
       </c>
       <c r="C192">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D192">
         <v>6000</v>
       </c>
       <c r="E192">
-        <v>1908.18820861678</v>
+        <v>1829.443175052595</v>
       </c>
       <c r="F192">
         <v>32.0855614973262</v>
@@ -5414,13 +5414,13 @@
         <v>32400</v>
       </c>
       <c r="C193">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D193">
         <v>7200</v>
       </c>
       <c r="E193">
-        <v>2094.335394763966</v>
+        <v>1886.39322912152</v>
       </c>
       <c r="F193">
         <v>32</v>
@@ -5434,13 +5434,13 @@
         <v>30000</v>
       </c>
       <c r="C194">
-        <v>142.8571428571428</v>
+        <v>122.1995926680244</v>
       </c>
       <c r="D194">
         <v>6000</v>
       </c>
       <c r="E194">
-        <v>1908.18820861678</v>
+        <v>1853.883093586199</v>
       </c>
       <c r="F194">
         <v>32.0855614973262</v>
@@ -5454,13 +5454,13 @@
         <v>29800</v>
       </c>
       <c r="C195">
-        <v>95.23809523809523</v>
+        <v>81.46639511201627</v>
       </c>
       <c r="D195">
         <v>4000</v>
       </c>
       <c r="E195">
-        <v>1860.569160997732</v>
+        <v>1849.809773830599</v>
       </c>
       <c r="F195">
         <v>32</v>
@@ -5474,13 +5474,13 @@
         <v>39000</v>
       </c>
       <c r="C196">
-        <v>207.7922077922077</v>
+        <v>180.1125703564728</v>
       </c>
       <c r="D196">
         <v>9600</v>
       </c>
       <c r="E196">
-        <v>2146.283446712018</v>
+        <v>2010.220621241595</v>
       </c>
       <c r="F196">
         <v>32</v>
@@ -5494,13 +5494,13 @@
         <v>42800</v>
       </c>
       <c r="C197">
-        <v>119.047619047619</v>
+        <v>104.3478260869565</v>
       </c>
       <c r="D197">
         <v>6000</v>
       </c>
       <c r="E197">
-        <v>2255.951556380127</v>
+        <v>2064.24786653077</v>
       </c>
       <c r="F197">
         <v>32.0855614973262</v>
@@ -5514,13 +5514,13 @@
         <v>43660</v>
       </c>
       <c r="C198">
-        <v>126.9841269841269</v>
+        <v>111.3043478260869</v>
       </c>
       <c r="D198">
         <v>6400</v>
       </c>
       <c r="E198">
-        <v>2263.888064316635</v>
+        <v>2079.204388269901</v>
       </c>
       <c r="F198">
         <v>32</v>
@@ -5534,13 +5534,13 @@
         <v>44000</v>
       </c>
       <c r="C199">
-        <v>95.23809523809521</v>
+        <v>83.47826086956519</v>
       </c>
       <c r="D199">
         <v>4800</v>
       </c>
       <c r="E199">
-        <v>2232.142032570604</v>
+        <v>2085.117431748162</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5554,13 +5554,13 @@
         <v>40400</v>
       </c>
       <c r="C200">
-        <v>95.23809523809521</v>
+        <v>83.47826086956519</v>
       </c>
       <c r="D200">
         <v>4800</v>
       </c>
       <c r="E200">
-        <v>2232.142032570604</v>
+        <v>2022.508736095988</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5574,13 +5574,13 @@
         <v>35000</v>
       </c>
       <c r="C201">
-        <v>173.1601731601731</v>
+        <v>150.093808630394</v>
       </c>
       <c r="D201">
         <v>8000</v>
       </c>
       <c r="E201">
-        <v>2111.651412079983</v>
+        <v>1935.173716926398</v>
       </c>
       <c r="F201">
         <v>32</v>
@@ -5594,13 +5594,13 @@
         <v>33000</v>
       </c>
       <c r="C202">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D202">
         <v>6000</v>
       </c>
       <c r="E202">
-        <v>2068.36136878994</v>
+        <v>1897.6502647688</v>
       </c>
       <c r="F202">
         <v>32.0855614973262</v>
@@ -5614,13 +5614,13 @@
         <v>34200</v>
       </c>
       <c r="C203">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D203">
         <v>6000</v>
       </c>
       <c r="E203">
-        <v>2068.36136878994</v>
+        <v>1920.164336063359</v>
       </c>
       <c r="F203">
         <v>32.0855614973262</v>
@@ -5634,13 +5634,13 @@
         <v>40200</v>
       </c>
       <c r="C204">
-        <v>129.8701298701298</v>
+        <v>112.5703564727955</v>
       </c>
       <c r="D204">
         <v>10000</v>
       </c>
       <c r="E204">
-        <v>2068.36136878994</v>
+        <v>1920.164336063359</v>
       </c>
       <c r="F204">
         <v>32.05128205128205</v>
@@ -5654,13 +5654,13 @@
         <v>44000</v>
       </c>
       <c r="C205">
-        <v>158.7301587301587</v>
+        <v>139.1304347826087</v>
       </c>
       <c r="D205">
         <v>8000</v>
       </c>
       <c r="E205">
-        <v>2295.634096062667</v>
+        <v>2085.117431748162</v>
       </c>
       <c r="F205">
         <v>32</v>
@@ -5674,13 +5674,13 @@
         <v>26400</v>
       </c>
       <c r="C206">
-        <v>85.71428571428569</v>
+        <v>73.31975560081464</v>
       </c>
       <c r="D206">
         <v>3600</v>
       </c>
       <c r="E206">
-        <v>1851.045351473923</v>
+        <v>1780.563337985385</v>
       </c>
       <c r="F206">
         <v>32.14285714285715</v>
@@ -5694,13 +5694,13 @@
         <v>40800</v>
       </c>
       <c r="C207">
-        <v>166.6666666666666</v>
+        <v>146.0869565217391</v>
       </c>
       <c r="D207">
         <v>8400</v>
       </c>
       <c r="E207">
-        <v>2303.570603999175</v>
+        <v>2029.465257835118</v>
       </c>
       <c r="F207">
         <v>32.06106870229008</v>
@@ -5714,13 +5714,13 @@
         <v>39600</v>
       </c>
       <c r="C208">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D208">
         <v>7200</v>
       </c>
       <c r="E208">
-        <v>2094.335394763966</v>
+        <v>2021.477656888875</v>
       </c>
       <c r="F208">
         <v>32</v>
@@ -5734,13 +5734,13 @@
         <v>37600</v>
       </c>
       <c r="C209">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D209">
         <v>7200</v>
       </c>
       <c r="E209">
-        <v>2094.335394763966</v>
+        <v>1983.954204731276</v>
       </c>
       <c r="F209">
         <v>32</v>
@@ -5754,13 +5754,13 @@
         <v>43200</v>
       </c>
       <c r="C210">
-        <v>218.2539682539682</v>
+        <v>191.3043478260869</v>
       </c>
       <c r="D210">
         <v>11000</v>
       </c>
       <c r="E210">
-        <v>2355.157905586477</v>
+        <v>2071.204388269901</v>
       </c>
       <c r="F210">
         <v>32.06997084548105</v>
@@ -5774,13 +5774,13 @@
         <v>45600</v>
       </c>
       <c r="C211">
-        <v>230.1587301587301</v>
+        <v>201.7391304347826</v>
       </c>
       <c r="D211">
         <v>11600</v>
       </c>
       <c r="E211">
-        <v>2367.062667491239</v>
+        <v>2112.943518704683</v>
       </c>
       <c r="F211">
         <v>32.04419889502763</v>
@@ -5794,13 +5794,13 @@
         <v>50460</v>
       </c>
       <c r="C212">
-        <v>190.4761904761904</v>
+        <v>166.9565217391304</v>
       </c>
       <c r="D212">
         <v>9600</v>
       </c>
       <c r="E212">
-        <v>2327.380127808699</v>
+        <v>2197.465257835118</v>
       </c>
       <c r="F212">
         <v>32</v>
@@ -5814,13 +5814,13 @@
         <v>42800</v>
       </c>
       <c r="C213">
-        <v>119.047619047619</v>
+        <v>104.3478260869565</v>
       </c>
       <c r="D213">
         <v>6000</v>
       </c>
       <c r="E213">
-        <v>2255.951556380127</v>
+        <v>2064.24786653077</v>
       </c>
       <c r="F213">
         <v>32.0855614973262</v>
@@ -5834,13 +5834,13 @@
         <v>48700</v>
       </c>
       <c r="C214">
-        <v>222.2222222222222</v>
+        <v>194.7826086956521</v>
       </c>
       <c r="D214">
         <v>11200</v>
       </c>
       <c r="E214">
-        <v>2359.126159554731</v>
+        <v>2166.856562182944</v>
       </c>
       <c r="F214">
         <v>32</v>
@@ -5854,13 +5854,13 @@
         <v>51660</v>
       </c>
       <c r="C215">
-        <v>214.2857142857142</v>
+        <v>187.8260869565217</v>
       </c>
       <c r="D215">
         <v>10800</v>
       </c>
       <c r="E215">
-        <v>2351.189651618223</v>
+        <v>2218.334823052509</v>
       </c>
       <c r="F215">
         <v>32.04747774480713</v>
@@ -5874,13 +5874,13 @@
         <v>50860</v>
       </c>
       <c r="C216">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D216">
         <v>10000</v>
       </c>
       <c r="E216">
-        <v>2335.316635745207</v>
+        <v>2204.421779574249</v>
       </c>
       <c r="F216">
         <v>32.05128205128205</v>
@@ -5894,13 +5894,13 @@
         <v>46400</v>
       </c>
       <c r="C217">
-        <v>142.8571428571428</v>
+        <v>125.2173913043478</v>
       </c>
       <c r="D217">
         <v>7200</v>
       </c>
       <c r="E217">
-        <v>2279.761080189651</v>
+        <v>2126.856562182944</v>
       </c>
       <c r="F217">
         <v>32</v>
@@ -5914,13 +5914,13 @@
         <v>45200</v>
       </c>
       <c r="C218">
-        <v>119.047619047619</v>
+        <v>104.3478260869565</v>
       </c>
       <c r="D218">
         <v>6000</v>
       </c>
       <c r="E218">
-        <v>2255.951556380127</v>
+        <v>2105.986996965553</v>
       </c>
       <c r="F218">
         <v>32.0855614973262</v>
@@ -5934,13 +5934,13 @@
         <v>54600</v>
       </c>
       <c r="C219">
-        <v>241.7582417582417</v>
+        <v>213.9384116693678</v>
       </c>
       <c r="D219">
         <v>13200</v>
       </c>
       <c r="E219">
-        <v>2598.44239887097</v>
+        <v>2252.417833411188</v>
       </c>
       <c r="F219">
         <v>32.03883495145631</v>
@@ -5954,13 +5954,13 @@
         <v>36800</v>
       </c>
       <c r="C220">
-        <v>173.1601731601731</v>
+        <v>150.093808630394</v>
       </c>
       <c r="D220">
         <v>8000</v>
       </c>
       <c r="E220">
-        <v>2111.651412079983</v>
+        <v>1968.944823868237</v>
       </c>
       <c r="F220">
         <v>32</v>
@@ -5974,13 +5974,13 @@
         <v>42200</v>
       </c>
       <c r="C221">
-        <v>238.095238095238</v>
+        <v>208.695652173913</v>
       </c>
       <c r="D221">
         <v>12000</v>
       </c>
       <c r="E221">
-        <v>2374.999175427747</v>
+        <v>2053.813083922075</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -5994,13 +5994,13 @@
         <v>40800</v>
       </c>
       <c r="C222">
-        <v>166.6666666666666</v>
+        <v>146.0869565217391</v>
       </c>
       <c r="D222">
         <v>8400</v>
       </c>
       <c r="E222">
-        <v>2303.570603999175</v>
+        <v>2029.465257835118</v>
       </c>
       <c r="F222">
         <v>32.06106870229008</v>
@@ -6014,13 +6014,13 @@
         <v>30000</v>
       </c>
       <c r="C223">
-        <v>171.4285714285714</v>
+        <v>146.6395112016293</v>
       </c>
       <c r="D223">
         <v>7200</v>
       </c>
       <c r="E223">
-        <v>1936.759637188208</v>
+        <v>1853.883093586199</v>
       </c>
       <c r="F223">
         <v>32</v>
@@ -6034,13 +6034,13 @@
         <v>42400</v>
       </c>
       <c r="C224">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D224">
         <v>10000</v>
       </c>
       <c r="E224">
-        <v>2335.316635745207</v>
+        <v>2057.29134479164</v>
       </c>
       <c r="F224">
         <v>32.05128205128205</v>
@@ -6054,13 +6054,13 @@
         <v>37200</v>
       </c>
       <c r="C225">
-        <v>155.8441558441558</v>
+        <v>135.0844277673546</v>
       </c>
       <c r="D225">
         <v>7200</v>
       </c>
       <c r="E225">
-        <v>2094.335394763966</v>
+        <v>1976.449514299757</v>
       </c>
       <c r="F225">
         <v>32</v>
@@ -6074,13 +6074,13 @@
         <v>45200</v>
       </c>
       <c r="C226">
-        <v>99.20634920634919</v>
+        <v>86.95652173913041</v>
       </c>
       <c r="D226">
         <v>5000</v>
       </c>
       <c r="E226">
-        <v>2236.110286538858</v>
+        <v>2105.986996965553</v>
       </c>
       <c r="F226">
         <v>11.11111111111111</v>
@@ -6094,13 +6094,13 @@
         <v>47000</v>
       </c>
       <c r="C227">
-        <v>158.7301587301587</v>
+        <v>139.1304347826087</v>
       </c>
       <c r="D227">
         <v>8000</v>
       </c>
       <c r="E227">
-        <v>2295.634096062667</v>
+        <v>2137.29134479164</v>
       </c>
       <c r="F227">
         <v>32</v>
@@ -6114,13 +6114,13 @@
         <v>33800</v>
       </c>
       <c r="C228">
-        <v>86.58008658008656</v>
+        <v>75.04690431519698</v>
       </c>
       <c r="D228">
         <v>4000</v>
       </c>
       <c r="E228">
-        <v>2025.071325499897</v>
+        <v>1912.659645631839</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6134,13 +6134,13 @@
         <v>47400</v>
       </c>
       <c r="C229">
-        <v>99.20634920634919</v>
+        <v>86.95652173913041</v>
       </c>
       <c r="D229">
         <v>5000</v>
       </c>
       <c r="E229">
-        <v>2236.110286538858</v>
+        <v>2144.24786653077</v>
       </c>
       <c r="F229">
         <v>32.05128205128205</v>
@@ -6154,13 +6154,13 @@
         <v>50600</v>
       </c>
       <c r="C230">
-        <v>230.1587301587301</v>
+        <v>201.7391304347826</v>
       </c>
       <c r="D230">
         <v>11600</v>
       </c>
       <c r="E230">
-        <v>2367.062667491239</v>
+        <v>2199.900040443814</v>
       </c>
       <c r="F230">
         <v>32.04419889502763</v>
@@ -6174,13 +6174,13 @@
         <v>47200</v>
       </c>
       <c r="C231">
-        <v>95.23809523809521</v>
+        <v>83.47826086956519</v>
       </c>
       <c r="D231">
         <v>4800</v>
       </c>
       <c r="E231">
-        <v>2232.142032570604</v>
+        <v>2140.769605661205</v>
       </c>
       <c r="F231">
         <v>32</v>
@@ -6194,13 +6194,13 @@
         <v>34800</v>
       </c>
       <c r="C232">
-        <v>103.8961038961039</v>
+        <v>90.05628517823638</v>
       </c>
       <c r="D232">
         <v>4800</v>
       </c>
       <c r="E232">
-        <v>2042.387342815914</v>
+        <v>1931.421371710638</v>
       </c>
       <c r="F232">
         <v>32</v>
@@ -6214,13 +6214,13 @@
         <v>56600</v>
       </c>
       <c r="C233">
-        <v>263.7362637362637</v>
+        <v>233.3873581847649</v>
       </c>
       <c r="D233">
         <v>14400</v>
       </c>
       <c r="E233">
-        <v>2620.420420848992</v>
+        <v>2284.832744270183</v>
       </c>
       <c r="F233">
         <v>32</v>
@@ -6234,13 +6234,13 @@
         <v>43400</v>
       </c>
       <c r="C234">
-        <v>166.6666666666666</v>
+        <v>146.0869565217391</v>
       </c>
       <c r="D234">
         <v>8400</v>
       </c>
       <c r="E234">
-        <v>2303.570603999175</v>
+        <v>2074.682649139466</v>
       </c>
       <c r="F234">
         <v>32.06106870229008</v>
@@ -6254,13 +6254,13 @@
         <v>47400</v>
       </c>
       <c r="C235">
-        <v>99.20634920634919</v>
+        <v>86.95652173913041</v>
       </c>
       <c r="D235">
         <v>5000</v>
       </c>
       <c r="E235">
-        <v>2236.110286538858</v>
+        <v>2144.24786653077</v>
       </c>
       <c r="F235">
         <v>32.05128205128205</v>
@@ -6274,13 +6274,13 @@
         <v>72800</v>
       </c>
       <c r="C236">
-        <v>510.2040816326529</v>
+        <v>455.235204855842</v>
       </c>
       <c r="D236">
         <v>30000</v>
       </c>
       <c r="E236">
-        <v>3104.983476840619</v>
+        <v>2526.114781048072</v>
       </c>
       <c r="F236">
         <v>66.66666666666667</v>
@@ -6294,13 +6294,13 @@
         <v>45000</v>
       </c>
       <c r="C237">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D237">
         <v>10000</v>
       </c>
       <c r="E237">
-        <v>2335.316635745207</v>
+        <v>2102.508736095988</v>
       </c>
       <c r="F237">
         <v>32.05128205128205</v>
@@ -6314,13 +6314,13 @@
         <v>41000</v>
       </c>
       <c r="C238">
-        <v>158.7301587301587</v>
+        <v>139.1304347826087</v>
       </c>
       <c r="D238">
         <v>8000</v>
       </c>
       <c r="E238">
-        <v>2295.634096062667</v>
+        <v>2032.943518704683</v>
       </c>
       <c r="F238">
         <v>32</v>
@@ -6334,13 +6334,13 @@
         <v>49200</v>
       </c>
       <c r="C239">
-        <v>178.5714285714285</v>
+        <v>156.5217391304348</v>
       </c>
       <c r="D239">
         <v>9000</v>
       </c>
       <c r="E239">
-        <v>2315.475365903937</v>
+        <v>2175.552214356857</v>
       </c>
       <c r="F239">
         <v>32.02846975088968</v>
@@ -6354,13 +6354,13 @@
         <v>52200</v>
       </c>
       <c r="C240">
-        <v>178.5714285714285</v>
+        <v>156.5217391304348</v>
       </c>
       <c r="D240">
         <v>12000</v>
       </c>
       <c r="E240">
-        <v>2315.475365903937</v>
+        <v>2175.552214356857</v>
       </c>
       <c r="F240">
         <v>32</v>
@@ -6374,13 +6374,13 @@
         <v>54000</v>
       </c>
       <c r="C241">
-        <v>183.1501831501831</v>
+        <v>162.0745542949757</v>
       </c>
       <c r="D241">
         <v>10000</v>
       </c>
       <c r="E241">
-        <v>2539.834340262912</v>
+        <v>2242.693360153489</v>
       </c>
       <c r="F241">
         <v>32.05128205128205</v>
@@ -6394,13 +6394,13 @@
         <v>47400</v>
       </c>
       <c r="C242">
-        <v>142.8571428571428</v>
+        <v>125.2173913043478</v>
       </c>
       <c r="D242">
         <v>7200</v>
       </c>
       <c r="E242">
-        <v>2279.761080189651</v>
+        <v>2144.24786653077</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6414,13 +6414,13 @@
         <v>55200</v>
       </c>
       <c r="C243">
-        <v>263.7362637362637</v>
+        <v>233.3873581847649</v>
       </c>
       <c r="D243">
         <v>14400</v>
       </c>
       <c r="E243">
-        <v>2620.420420848992</v>
+        <v>2262.142306668886</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6434,13 +6434,13 @@
         <v>48000</v>
       </c>
       <c r="C244">
-        <v>142.8571428571428</v>
+        <v>125.2173913043478</v>
       </c>
       <c r="D244">
         <v>7200</v>
       </c>
       <c r="E244">
-        <v>2279.761080189651</v>
+        <v>2154.682649139466</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6454,13 +6454,13 @@
         <v>56600</v>
       </c>
       <c r="C245">
-        <v>201.4652014652014</v>
+        <v>178.2820097244732</v>
       </c>
       <c r="D245">
         <v>11000</v>
       </c>
       <c r="E245">
-        <v>2558.14935857793</v>
+        <v>2284.832744270183</v>
       </c>
       <c r="F245">
         <v>32.06997084548105</v>
@@ -6474,13 +6474,13 @@
         <v>46000</v>
       </c>
       <c r="C246">
-        <v>166.6666666666666</v>
+        <v>146.0869565217391</v>
       </c>
       <c r="D246">
         <v>8400</v>
       </c>
       <c r="E246">
-        <v>2303.570603999175</v>
+        <v>2119.900040443814</v>
       </c>
       <c r="F246">
         <v>32.06106870229008</v>
@@ -6494,13 +6494,13 @@
         <v>59200</v>
       </c>
       <c r="C247">
-        <v>249.084249084249</v>
+        <v>220.4213938411669</v>
       </c>
       <c r="D247">
         <v>13600</v>
       </c>
       <c r="E247">
-        <v>2605.768406196978</v>
+        <v>2326.972128386877</v>
       </c>
       <c r="F247">
         <v>32</v>
@@ -6514,13 +6514,13 @@
         <v>43200</v>
       </c>
       <c r="C248">
-        <v>119.047619047619</v>
+        <v>104.3478260869565</v>
       </c>
       <c r="D248">
         <v>6000</v>
       </c>
       <c r="E248">
-        <v>2255.951556380127</v>
+        <v>2071.204388269901</v>
       </c>
       <c r="F248">
         <v>32.0855614973262</v>
@@ -6534,13 +6534,13 @@
         <v>61260</v>
       </c>
       <c r="C249">
-        <v>197.8021978021978</v>
+        <v>175.0405186385737</v>
       </c>
       <c r="D249">
         <v>10800</v>
       </c>
       <c r="E249">
-        <v>2554.486354914926</v>
+        <v>2360.359486571641</v>
       </c>
       <c r="F249">
         <v>32.04747774480713</v>
@@ -6554,13 +6554,13 @@
         <v>58860</v>
       </c>
       <c r="C250">
-        <v>146.5201465201465</v>
+        <v>129.6596434359805</v>
       </c>
       <c r="D250">
         <v>8000</v>
       </c>
       <c r="E250">
-        <v>2503.204303632875</v>
+        <v>2321.461593540847</v>
       </c>
       <c r="F250">
         <v>32</v>
@@ -6574,13 +6574,13 @@
         <v>63660</v>
       </c>
       <c r="C251">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D251">
         <v>12000</v>
       </c>
       <c r="E251">
-        <v>2576.464376892948</v>
+        <v>2399.257379602436</v>
       </c>
       <c r="F251">
         <v>32</v>
@@ -6594,13 +6594,13 @@
         <v>62860</v>
       </c>
       <c r="C252">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D252">
         <v>12000</v>
       </c>
       <c r="E252">
-        <v>2576.464376892948</v>
+        <v>2386.291415258838</v>
       </c>
       <c r="F252">
         <v>32</v>
@@ -6614,13 +6614,13 @@
         <v>55600</v>
       </c>
       <c r="C253">
-        <v>168.4981684981684</v>
+        <v>149.1085899513776</v>
       </c>
       <c r="D253">
         <v>9200</v>
       </c>
       <c r="E253">
-        <v>2525.182325610897</v>
+        <v>2268.625288840685</v>
       </c>
       <c r="F253">
         <v>32.05574912891986</v>
@@ -6634,13 +6634,13 @@
         <v>53200</v>
       </c>
       <c r="C254">
-        <v>146.5201465201465</v>
+        <v>129.6596434359805</v>
       </c>
       <c r="D254">
         <v>8000</v>
       </c>
       <c r="E254">
-        <v>2503.204303632875</v>
+        <v>2229.727395809891</v>
       </c>
       <c r="F254">
         <v>32</v>
@@ -6654,13 +6654,13 @@
         <v>54600</v>
       </c>
       <c r="C255">
-        <v>263.7362637362637</v>
+        <v>233.3873581847649</v>
       </c>
       <c r="D255">
         <v>14400</v>
       </c>
       <c r="E255">
-        <v>2620.420420848992</v>
+        <v>2252.417833411188</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6674,13 +6674,13 @@
         <v>61460</v>
       </c>
       <c r="C256">
-        <v>278.3882783882783</v>
+        <v>246.353322528363</v>
       </c>
       <c r="D256">
         <v>15200</v>
       </c>
       <c r="E256">
-        <v>2635.072435501007</v>
+        <v>2363.600977657541</v>
       </c>
       <c r="F256">
         <v>33.77777777777778</v>
@@ -6694,13 +6694,13 @@
         <v>55200</v>
       </c>
       <c r="C257">
-        <v>274.7252747252746</v>
+        <v>243.1118314424635</v>
       </c>
       <c r="D257">
         <v>15000</v>
       </c>
       <c r="E257">
-        <v>2631.409431838003</v>
+        <v>2262.142306668886</v>
       </c>
       <c r="F257">
         <v>33.33333333333334</v>
@@ -6714,13 +6714,13 @@
         <v>56800</v>
       </c>
       <c r="C258">
-        <v>263.7362637362637</v>
+        <v>233.3873581847649</v>
       </c>
       <c r="D258">
         <v>14400</v>
       </c>
       <c r="E258">
-        <v>2620.420420848992</v>
+        <v>2288.074235356082</v>
       </c>
       <c r="F258">
         <v>32</v>
@@ -6734,13 +6734,13 @@
         <v>46800</v>
       </c>
       <c r="C259">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D259">
         <v>10000</v>
       </c>
       <c r="E259">
-        <v>2335.316635745207</v>
+        <v>2133.813083922075</v>
       </c>
       <c r="F259">
         <v>32.05128205128205</v>
@@ -6754,13 +6754,13 @@
         <v>46800</v>
       </c>
       <c r="C260">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D260">
         <v>10000</v>
       </c>
       <c r="E260">
-        <v>2335.316635745207</v>
+        <v>2133.813083922075</v>
       </c>
       <c r="F260">
         <v>32.05128205128205</v>
@@ -6774,13 +6774,13 @@
         <v>47400</v>
       </c>
       <c r="C261">
-        <v>142.8571428571428</v>
+        <v>125.2173913043478</v>
       </c>
       <c r="D261">
         <v>7200</v>
       </c>
       <c r="E261">
-        <v>2279.761080189651</v>
+        <v>2144.24786653077</v>
       </c>
       <c r="F261">
         <v>32</v>
@@ -6794,13 +6794,13 @@
         <v>55260</v>
       </c>
       <c r="C262">
-        <v>263.7362637362637</v>
+        <v>233.3873581847649</v>
       </c>
       <c r="D262">
         <v>14400</v>
       </c>
       <c r="E262">
-        <v>2620.420420848992</v>
+        <v>2263.114753994656</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6814,13 +6814,13 @@
         <v>50400</v>
       </c>
       <c r="C263">
-        <v>190.4761904761904</v>
+        <v>166.9565217391304</v>
       </c>
       <c r="D263">
         <v>9600</v>
       </c>
       <c r="E263">
-        <v>2327.380127808699</v>
+        <v>2196.421779574249</v>
       </c>
       <c r="F263">
         <v>32</v>
@@ -6834,13 +6834,13 @@
         <v>57000</v>
       </c>
       <c r="C264">
-        <v>183.1501831501831</v>
+        <v>162.0745542949757</v>
       </c>
       <c r="D264">
         <v>10000</v>
       </c>
       <c r="E264">
-        <v>2539.834340262912</v>
+        <v>2291.315726441982</v>
       </c>
       <c r="F264">
         <v>32.05128205128205</v>
@@ -6854,13 +6854,13 @@
         <v>61800</v>
       </c>
       <c r="C265">
-        <v>91.57509157509155</v>
+        <v>81.03727714748783</v>
       </c>
       <c r="D265">
         <v>5000</v>
       </c>
       <c r="E265">
-        <v>2448.25924868782</v>
+        <v>2369.11151250357</v>
       </c>
       <c r="F265">
         <v>32.05128205128205</v>
@@ -6874,13 +6874,13 @@
         <v>64200</v>
       </c>
       <c r="C266">
-        <v>249.084249084249</v>
+        <v>220.4213938411669</v>
       </c>
       <c r="D266">
         <v>13600</v>
       </c>
       <c r="E266">
-        <v>2605.768406196978</v>
+        <v>2408.009405534364</v>
       </c>
       <c r="F266">
         <v>32</v>
@@ -6894,13 +6894,13 @@
         <v>64000</v>
       </c>
       <c r="C267">
-        <v>131.8681318681318</v>
+        <v>116.6936790923825</v>
       </c>
       <c r="D267">
         <v>7200</v>
       </c>
       <c r="E267">
-        <v>2488.55228898086</v>
+        <v>2404.767914448465</v>
       </c>
       <c r="F267">
         <v>32</v>
@@ -6914,13 +6914,13 @@
         <v>62460</v>
       </c>
       <c r="C268">
-        <v>131.8681318681318</v>
+        <v>116.6936790923825</v>
       </c>
       <c r="D268">
         <v>7200</v>
       </c>
       <c r="E268">
-        <v>2488.55228898086</v>
+        <v>2379.808433087039</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6934,13 +6934,13 @@
         <v>51400</v>
       </c>
       <c r="C269">
-        <v>79.36507936507934</v>
+        <v>69.56521739130433</v>
       </c>
       <c r="D269">
         <v>4000</v>
       </c>
       <c r="E269">
-        <v>2216.269016697588</v>
+        <v>2213.813083922075</v>
       </c>
       <c r="F269">
         <v>32</v>
@@ -6954,13 +6954,13 @@
         <v>69000</v>
       </c>
       <c r="C270">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D270">
         <v>14400</v>
       </c>
       <c r="E270">
-        <v>2839.67735439164</v>
+        <v>2468.451655099665</v>
       </c>
       <c r="F270">
         <v>32</v>
@@ -6974,13 +6974,13 @@
         <v>51600</v>
       </c>
       <c r="C271">
-        <v>95.23809523809521</v>
+        <v>83.47826086956519</v>
       </c>
       <c r="D271">
         <v>4800</v>
       </c>
       <c r="E271">
-        <v>2232.142032570604</v>
+        <v>2217.29134479164</v>
       </c>
       <c r="F271">
         <v>32</v>
@@ -6994,13 +6994,13 @@
         <v>62400</v>
       </c>
       <c r="C272">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D272">
         <v>12000</v>
       </c>
       <c r="E272">
-        <v>2576.464376892948</v>
+        <v>2378.835985761269</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -7014,13 +7014,13 @@
         <v>64000</v>
       </c>
       <c r="C273">
-        <v>131.8681318681318</v>
+        <v>116.6936790923825</v>
       </c>
       <c r="D273">
         <v>7200</v>
       </c>
       <c r="E273">
-        <v>2488.55228898086</v>
+        <v>2404.767914448465</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -7034,13 +7034,13 @@
         <v>70200</v>
       </c>
       <c r="C274">
-        <v>255.1020408163265</v>
+        <v>227.617602427921</v>
       </c>
       <c r="D274">
         <v>15000</v>
       </c>
       <c r="E274">
-        <v>2849.881436024293</v>
+        <v>2486.661063293899</v>
       </c>
       <c r="F274">
         <v>33.33333333333334</v>
@@ -7054,13 +7054,13 @@
         <v>51000</v>
       </c>
       <c r="C275">
-        <v>198.4126984126984</v>
+        <v>173.9130434782608</v>
       </c>
       <c r="D275">
         <v>10000</v>
       </c>
       <c r="E275">
-        <v>2335.316635745207</v>
+        <v>2206.856562182944</v>
       </c>
       <c r="F275">
         <v>32.05128205128205</v>
@@ -7074,13 +7074,13 @@
         <v>61200</v>
       </c>
       <c r="C276">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D276">
         <v>12000</v>
       </c>
       <c r="E276">
-        <v>2576.464376892948</v>
+        <v>2359.387039245872</v>
       </c>
       <c r="F276">
         <v>32</v>
@@ -7094,13 +7094,13 @@
         <v>66200</v>
       </c>
       <c r="C277">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D277">
         <v>14000</v>
       </c>
       <c r="E277">
-        <v>2576.464376892948</v>
+        <v>2359.387039245872</v>
       </c>
       <c r="F277">
         <v>32.03661327231121</v>
@@ -7114,13 +7114,13 @@
         <v>66000</v>
       </c>
       <c r="C278">
-        <v>219.7802197802197</v>
+        <v>194.4894651539708</v>
       </c>
       <c r="D278">
         <v>12000</v>
       </c>
       <c r="E278">
-        <v>2576.464376892948</v>
+        <v>2437.18282530746</v>
       </c>
       <c r="F278">
         <v>32</v>
@@ -7134,13 +7134,13 @@
         <v>66600</v>
       </c>
       <c r="C279">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D279">
         <v>14400</v>
       </c>
       <c r="E279">
-        <v>2839.67735439164</v>
+        <v>2432.032838711198</v>
       </c>
       <c r="F279">
         <v>32</v>
@@ -7154,13 +7154,13 @@
         <v>61800</v>
       </c>
       <c r="C280">
-        <v>175.8241758241758</v>
+        <v>155.5915721231766</v>
       </c>
       <c r="D280">
         <v>9600</v>
       </c>
       <c r="E280">
-        <v>2532.508332936904</v>
+        <v>2369.11151250357</v>
       </c>
       <c r="F280">
         <v>32</v>
@@ -7174,13 +7174,13 @@
         <v>71600</v>
       </c>
       <c r="C281">
-        <v>278.9115646258502</v>
+        <v>248.8619119878603</v>
       </c>
       <c r="D281">
         <v>16400</v>
       </c>
       <c r="E281">
-        <v>2873.690959833817</v>
+        <v>2507.905372853838</v>
       </c>
       <c r="F281">
         <v>36.44444444444444</v>
@@ -7194,13 +7194,13 @@
         <v>69600</v>
       </c>
       <c r="C282">
-        <v>221.0884353741496</v>
+        <v>197.2685887708649</v>
       </c>
       <c r="D282">
         <v>13000</v>
       </c>
       <c r="E282">
-        <v>2815.867830582116</v>
+        <v>2477.556359196782</v>
       </c>
       <c r="F282">
         <v>32.01970443349754</v>
@@ -7214,13 +7214,13 @@
         <v>73600</v>
       </c>
       <c r="C283">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D283">
         <v>14400</v>
       </c>
       <c r="E283">
-        <v>2839.67735439164</v>
+        <v>2538.254386510894</v>
       </c>
       <c r="F283">
         <v>32</v>
@@ -7234,13 +7234,13 @@
         <v>72200</v>
       </c>
       <c r="C284">
-        <v>221.0884353741496</v>
+        <v>197.2685887708649</v>
       </c>
       <c r="D284">
         <v>13000</v>
       </c>
       <c r="E284">
-        <v>2815.867830582116</v>
+        <v>2517.010076950955</v>
       </c>
       <c r="F284">
         <v>32.01970443349754</v>
@@ -7254,13 +7254,13 @@
         <v>74800</v>
       </c>
       <c r="C285">
-        <v>265.3061224489795</v>
+        <v>236.7223065250379</v>
       </c>
       <c r="D285">
         <v>15600</v>
       </c>
       <c r="E285">
-        <v>2860.085517656946</v>
+        <v>2556.463794705128</v>
       </c>
       <c r="F285">
         <v>34.66666666666666</v>
@@ -7274,13 +7274,13 @@
         <v>53600</v>
       </c>
       <c r="C286">
-        <v>131.8681318681318</v>
+        <v>116.6936790923825</v>
       </c>
       <c r="D286">
         <v>7200</v>
       </c>
       <c r="E286">
-        <v>2488.55228898086</v>
+        <v>2236.21037798169</v>
       </c>
       <c r="F286">
         <v>32</v>
@@ -7294,13 +7294,13 @@
         <v>73260</v>
       </c>
       <c r="C287">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D287">
         <v>12000</v>
       </c>
       <c r="E287">
-        <v>2798.861027861028</v>
+        <v>2533.095054189195</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7314,13 +7314,13 @@
         <v>68860</v>
       </c>
       <c r="C288">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D288">
         <v>10000</v>
       </c>
       <c r="E288">
-        <v>2764.847422418851</v>
+        <v>2466.327224143671</v>
       </c>
       <c r="F288">
         <v>32.05128205128205</v>
@@ -7334,13 +7334,13 @@
         <v>67400</v>
       </c>
       <c r="C289">
-        <v>340.1360544217686</v>
+        <v>303.4901365705614</v>
       </c>
       <c r="D289">
         <v>20000</v>
       </c>
       <c r="E289">
-        <v>2934.915449629735</v>
+        <v>2444.17244417402</v>
       </c>
       <c r="F289">
         <v>44.44444444444444</v>
@@ -7354,13 +7354,13 @@
         <v>76860</v>
       </c>
       <c r="C290">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D290">
         <v>14000</v>
       </c>
       <c r="E290">
-        <v>2832.874633303205</v>
+        <v>2587.723278771896</v>
       </c>
       <c r="F290">
         <v>32.03661327231121</v>
@@ -7374,13 +7374,13 @@
         <v>69000</v>
       </c>
       <c r="C291">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D291">
         <v>14400</v>
       </c>
       <c r="E291">
-        <v>2839.67735439164</v>
+        <v>2468.451655099665</v>
       </c>
       <c r="F291">
         <v>32</v>
@@ -7394,13 +7394,13 @@
         <v>60600</v>
       </c>
       <c r="C292">
-        <v>241.7582417582417</v>
+        <v>213.9384116693678</v>
       </c>
       <c r="D292">
         <v>13200</v>
       </c>
       <c r="E292">
-        <v>2598.44239887097</v>
+        <v>2349.662565988173</v>
       </c>
       <c r="F292">
         <v>32.03883495145631</v>
@@ -7414,13 +7414,13 @@
         <v>66800</v>
       </c>
       <c r="C293">
-        <v>190.4761904761904</v>
+        <v>169.9544764795144</v>
       </c>
       <c r="D293">
         <v>11200</v>
       </c>
       <c r="E293">
-        <v>2785.255585684157</v>
+        <v>2435.067740076904</v>
       </c>
       <c r="F293">
         <v>32</v>
@@ -7434,13 +7434,13 @@
         <v>63200</v>
       </c>
       <c r="C294">
-        <v>183.1501831501831</v>
+        <v>162.0745542949757</v>
       </c>
       <c r="D294">
         <v>10000</v>
       </c>
       <c r="E294">
-        <v>2539.834340262912</v>
+        <v>2391.801950104867</v>
       </c>
       <c r="F294">
         <v>32.05128205128205</v>
@@ -7454,13 +7454,13 @@
         <v>63200</v>
       </c>
       <c r="C295">
-        <v>183.1501831501831</v>
+        <v>162.0745542949757</v>
       </c>
       <c r="D295">
         <v>10000</v>
       </c>
       <c r="E295">
-        <v>2539.834340262912</v>
+        <v>2391.801950104867</v>
       </c>
       <c r="F295">
         <v>32.05128205128205</v>
@@ -7474,13 +7474,13 @@
         <v>83400</v>
       </c>
       <c r="C296">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D296">
         <v>28800</v>
       </c>
       <c r="E296">
-        <v>3084.575313575313</v>
+        <v>2686.96455343047</v>
       </c>
       <c r="F296">
         <v>64</v>
@@ -7494,13 +7494,13 @@
         <v>71200</v>
       </c>
       <c r="C297">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D297">
         <v>14400</v>
       </c>
       <c r="E297">
-        <v>2839.67735439164</v>
+        <v>2501.835570122427</v>
       </c>
       <c r="F297">
         <v>32</v>
@@ -7514,13 +7514,13 @@
         <v>71200</v>
       </c>
       <c r="C298">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D298">
         <v>14400</v>
       </c>
       <c r="E298">
-        <v>2839.67735439164</v>
+        <v>2501.835570122427</v>
       </c>
       <c r="F298">
         <v>32</v>
@@ -7534,13 +7534,13 @@
         <v>71200</v>
       </c>
       <c r="C299">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D299">
         <v>14400</v>
       </c>
       <c r="E299">
-        <v>2839.67735439164</v>
+        <v>2501.835570122427</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7554,13 +7554,13 @@
         <v>61400</v>
       </c>
       <c r="C300">
-        <v>168.4981684981684</v>
+        <v>149.1085899513776</v>
       </c>
       <c r="D300">
         <v>9200</v>
       </c>
       <c r="E300">
-        <v>2525.182325610897</v>
+        <v>2362.628530331771</v>
       </c>
       <c r="F300">
         <v>32.05574912891986</v>
@@ -7574,13 +7574,13 @@
         <v>69660</v>
       </c>
       <c r="C301">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D301">
         <v>14400</v>
       </c>
       <c r="E301">
-        <v>2839.67735439164</v>
+        <v>2478.466829606494</v>
       </c>
       <c r="F301">
         <v>32</v>
@@ -7594,13 +7594,13 @@
         <v>61200</v>
       </c>
       <c r="C302">
-        <v>197.8021978021978</v>
+        <v>175.0405186385737</v>
       </c>
       <c r="D302">
         <v>10800</v>
       </c>
       <c r="E302">
-        <v>2554.486354914926</v>
+        <v>2359.387039245872</v>
       </c>
       <c r="F302">
         <v>32.04747774480713</v>
@@ -7614,13 +7614,13 @@
         <v>69000</v>
       </c>
       <c r="C303">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D303">
         <v>12000</v>
       </c>
       <c r="E303">
-        <v>2798.861027861028</v>
+        <v>2468.451655099665</v>
       </c>
       <c r="F303">
         <v>32</v>
@@ -7634,13 +7634,13 @@
         <v>88400</v>
       </c>
       <c r="C304">
-        <v>85.03401360544215</v>
+        <v>75.87253414264035</v>
       </c>
       <c r="D304">
         <v>5000</v>
       </c>
       <c r="E304">
-        <v>2679.813408813408</v>
+        <v>2762.83708757311</v>
       </c>
       <c r="F304">
         <v>32.05128205128205</v>
@@ -7654,13 +7654,13 @@
         <v>79800</v>
       </c>
       <c r="C305">
-        <v>265.3061224489795</v>
+        <v>236.7223065250379</v>
       </c>
       <c r="D305">
         <v>15600</v>
       </c>
       <c r="E305">
-        <v>2860.085517656946</v>
+        <v>2632.336328847769</v>
       </c>
       <c r="F305">
         <v>34.66666666666666</v>
@@ -7674,13 +7674,13 @@
         <v>69200</v>
       </c>
       <c r="C306">
-        <v>102.0408163265306</v>
+        <v>91.04704097116841</v>
       </c>
       <c r="D306">
         <v>6000</v>
       </c>
       <c r="E306">
-        <v>2696.820211534497</v>
+        <v>2471.486556465371</v>
       </c>
       <c r="F306">
         <v>32.0855614973262</v>
@@ -7694,13 +7694,13 @@
         <v>85600</v>
       </c>
       <c r="C307">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D307">
         <v>14400</v>
       </c>
       <c r="E307">
-        <v>2839.67735439164</v>
+        <v>2720.348468453231</v>
       </c>
       <c r="F307">
         <v>32</v>
@@ -7714,13 +7714,13 @@
         <v>97800</v>
       </c>
       <c r="C308">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D308">
         <v>14400</v>
       </c>
       <c r="E308">
-        <v>2839.67735439164</v>
+        <v>2905.477451761274</v>
       </c>
       <c r="F308">
         <v>32</v>
@@ -7734,13 +7734,13 @@
         <v>85600</v>
       </c>
       <c r="C309">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D309">
         <v>14400</v>
       </c>
       <c r="E309">
-        <v>2839.67735439164</v>
+        <v>2720.348468453231</v>
       </c>
       <c r="F309">
         <v>32</v>
@@ -7754,13 +7754,13 @@
         <v>97800</v>
       </c>
       <c r="C310">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D310">
         <v>14400</v>
       </c>
       <c r="E310">
-        <v>2839.67735439164</v>
+        <v>2905.477451761274</v>
       </c>
       <c r="F310">
         <v>32</v>
@@ -7774,13 +7774,13 @@
         <v>73800</v>
       </c>
       <c r="C311">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D311">
         <v>12000</v>
       </c>
       <c r="E311">
-        <v>2798.861027861028</v>
+        <v>2541.2892878766</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7794,13 +7794,13 @@
         <v>77000</v>
       </c>
       <c r="C312">
-        <v>258.5034013605442</v>
+        <v>230.6525037936266</v>
       </c>
       <c r="D312">
         <v>15200</v>
       </c>
       <c r="E312">
-        <v>2853.282796568511</v>
+        <v>2589.84770972789</v>
       </c>
       <c r="F312">
         <v>33.77777777777778</v>
@@ -7814,13 +7814,13 @@
         <v>73200</v>
       </c>
       <c r="C313">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D313">
         <v>12000</v>
       </c>
       <c r="E313">
-        <v>2798.861027861028</v>
+        <v>2532.184583779483</v>
       </c>
       <c r="F313">
         <v>32</v>
@@ -7834,13 +7834,13 @@
         <v>71800</v>
       </c>
       <c r="C314">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D314">
         <v>10000</v>
       </c>
       <c r="E314">
-        <v>2764.847422418851</v>
+        <v>2510.940274219544</v>
       </c>
       <c r="F314">
         <v>32.05128205128205</v>
@@ -7854,13 +7854,13 @@
         <v>80000</v>
       </c>
       <c r="C315">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D315">
         <v>14000</v>
       </c>
       <c r="E315">
-        <v>2832.874633303205</v>
+        <v>2635.371230213474</v>
       </c>
       <c r="F315">
         <v>32.03661327231121</v>
@@ -7874,13 +7874,13 @@
         <v>76200</v>
       </c>
       <c r="C316">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D316">
         <v>14400</v>
       </c>
       <c r="E316">
-        <v>2839.67735439164</v>
+        <v>2577.708104265067</v>
       </c>
       <c r="F316">
         <v>32</v>
@@ -7894,13 +7894,13 @@
         <v>90600</v>
       </c>
       <c r="C317">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D317">
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>3084.575313575313</v>
+        <v>2796.221002595872</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7914,13 +7914,13 @@
         <v>76200</v>
       </c>
       <c r="C318">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D318">
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>2839.67735439164</v>
+        <v>2577.708104265067</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7934,13 +7934,13 @@
         <v>84600</v>
       </c>
       <c r="C319">
-        <v>255.1020408163265</v>
+        <v>227.617602427921</v>
       </c>
       <c r="D319">
         <v>15000</v>
       </c>
       <c r="E319">
-        <v>2849.881436024293</v>
+        <v>2705.173961624703</v>
       </c>
       <c r="F319">
         <v>33.33333333333334</v>
@@ -7954,13 +7954,13 @@
         <v>103600</v>
       </c>
       <c r="C320">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D320">
         <v>28800</v>
       </c>
       <c r="E320">
-        <v>3084.575313575313</v>
+        <v>2993.489591366736</v>
       </c>
       <c r="F320">
         <v>64</v>
@@ -7974,13 +7974,13 @@
         <v>92400</v>
       </c>
       <c r="C321">
-        <v>299.3197278911564</v>
+        <v>267.071320182094</v>
       </c>
       <c r="D321">
         <v>17600</v>
       </c>
       <c r="E321">
-        <v>2894.099123099123</v>
+        <v>2823.535114887222</v>
       </c>
       <c r="F321">
         <v>39.11111111111111</v>
@@ -7994,13 +7994,13 @@
         <v>62000</v>
       </c>
       <c r="C322">
-        <v>153.8461538461538</v>
+        <v>136.1426256077795</v>
       </c>
       <c r="D322">
         <v>8400</v>
       </c>
       <c r="E322">
-        <v>2510.530310958882</v>
+        <v>2372.35300358947</v>
       </c>
       <c r="F322">
         <v>32.06106870229008</v>
@@ -8014,13 +8014,13 @@
         <v>80860</v>
       </c>
       <c r="C323">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D323">
         <v>12000</v>
       </c>
       <c r="E323">
-        <v>2798.861027861028</v>
+        <v>2648.421306086008</v>
       </c>
       <c r="F323">
         <v>32</v>
@@ -8034,13 +8034,13 @@
         <v>83400</v>
       </c>
       <c r="C324">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D324">
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2839.67735439164</v>
+        <v>2686.96455343047</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -8054,13 +8054,13 @@
         <v>75800</v>
       </c>
       <c r="C325">
-        <v>258.5034013605442</v>
+        <v>230.6525037936266</v>
       </c>
       <c r="D325">
         <v>15200</v>
       </c>
       <c r="E325">
-        <v>2853.282796568511</v>
+        <v>2571.638301533656</v>
       </c>
       <c r="F325">
         <v>33.77777777777778</v>
@@ -8074,13 +8074,13 @@
         <v>75200</v>
       </c>
       <c r="C326">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D326">
         <v>12000</v>
       </c>
       <c r="E326">
-        <v>2798.861027861028</v>
+        <v>2562.533597436539</v>
       </c>
       <c r="F326">
         <v>32</v>
@@ -8094,13 +8094,13 @@
         <v>69200</v>
       </c>
       <c r="C327">
-        <v>102.0408163265306</v>
+        <v>91.04704097116841</v>
       </c>
       <c r="D327">
         <v>6000</v>
       </c>
       <c r="E327">
-        <v>2696.820211534497</v>
+        <v>2471.486556465371</v>
       </c>
       <c r="F327">
         <v>32.0855614973262</v>
@@ -8114,13 +8114,13 @@
         <v>75200</v>
       </c>
       <c r="C328">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D328">
         <v>12000</v>
       </c>
       <c r="E328">
-        <v>2798.861027861028</v>
+        <v>2562.533597436539</v>
       </c>
       <c r="F328">
         <v>32</v>
@@ -8134,13 +8134,13 @@
         <v>85600</v>
       </c>
       <c r="C329">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D329">
         <v>14400</v>
       </c>
       <c r="E329">
-        <v>2839.67735439164</v>
+        <v>2720.348468453231</v>
       </c>
       <c r="F329">
         <v>32</v>
@@ -8154,13 +8154,13 @@
         <v>100000</v>
       </c>
       <c r="C330">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D330">
         <v>28800</v>
       </c>
       <c r="E330">
-        <v>3084.575313575313</v>
+        <v>2938.861366784035</v>
       </c>
       <c r="F330">
         <v>64</v>
@@ -8174,13 +8174,13 @@
         <v>84060</v>
       </c>
       <c r="C331">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D331">
         <v>14400</v>
       </c>
       <c r="E331">
-        <v>2839.67735439164</v>
+        <v>2696.979727937298</v>
       </c>
       <c r="F331">
         <v>32</v>
@@ -8194,13 +8194,13 @@
         <v>98460</v>
       </c>
       <c r="C332">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D332">
         <v>28800</v>
       </c>
       <c r="E332">
-        <v>3084.575313575313</v>
+        <v>2915.492626268102</v>
       </c>
       <c r="F332">
         <v>64</v>
@@ -8214,13 +8214,13 @@
         <v>83000</v>
       </c>
       <c r="C333">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D333">
         <v>14000</v>
       </c>
       <c r="E333">
-        <v>2832.874633303205</v>
+        <v>2680.894750699058</v>
       </c>
       <c r="F333">
         <v>32.03661327231121</v>
@@ -8234,13 +8234,13 @@
         <v>80000</v>
       </c>
       <c r="C334">
-        <v>81.63265306122446</v>
+        <v>72.83763277693473</v>
       </c>
       <c r="D334">
         <v>4800</v>
       </c>
       <c r="E334">
-        <v>2676.412048269191</v>
+        <v>2635.371230213474</v>
       </c>
       <c r="F334">
         <v>32</v>
@@ -8254,13 +8254,13 @@
         <v>80200</v>
       </c>
       <c r="C335">
-        <v>85.03401360544215</v>
+        <v>75.87253414264035</v>
       </c>
       <c r="D335">
         <v>5000</v>
       </c>
       <c r="E335">
-        <v>2679.813408813408</v>
+        <v>2638.40613157918</v>
       </c>
       <c r="F335">
         <v>32.05128205128205</v>
@@ -8274,13 +8274,13 @@
         <v>115600</v>
       </c>
       <c r="C336">
-        <v>510.2040816326529</v>
+        <v>455.235204855842</v>
       </c>
       <c r="D336">
         <v>30000</v>
       </c>
       <c r="E336">
-        <v>3104.983476840619</v>
+        <v>3175.583673309073</v>
       </c>
       <c r="F336">
         <v>66.66666666666667</v>
@@ -8294,13 +8294,13 @@
         <v>87800</v>
       </c>
       <c r="C337">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D337">
         <v>14000</v>
       </c>
       <c r="E337">
-        <v>2832.874633303205</v>
+        <v>2753.732383475993</v>
       </c>
       <c r="F337">
         <v>32.03661327231121</v>
@@ -8314,13 +8314,13 @@
         <v>96200</v>
       </c>
       <c r="C338">
-        <v>326.5306122448978</v>
+        <v>291.3505311077389</v>
       </c>
       <c r="D338">
         <v>19200</v>
       </c>
       <c r="E338">
-        <v>2921.310007452864</v>
+        <v>2881.198240835628</v>
       </c>
       <c r="F338">
         <v>42.66666666666666</v>
@@ -8334,13 +8334,13 @@
         <v>85800</v>
       </c>
       <c r="C339">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D339">
         <v>12000</v>
       </c>
       <c r="E339">
-        <v>2798.861027861028</v>
+        <v>2723.383369818937</v>
       </c>
       <c r="F339">
         <v>32</v>
@@ -8354,13 +8354,13 @@
         <v>83400</v>
       </c>
       <c r="C340">
-        <v>122.4489795918367</v>
+        <v>109.2564491654021</v>
       </c>
       <c r="D340">
         <v>7200</v>
       </c>
       <c r="E340">
-        <v>2717.228374799803</v>
+        <v>2686.96455343047</v>
       </c>
       <c r="F340">
         <v>32</v>
@@ -8374,13 +8374,13 @@
         <v>101600</v>
       </c>
       <c r="C341">
-        <v>289.1156462585033</v>
+        <v>257.9666160849771</v>
       </c>
       <c r="D341">
         <v>17000</v>
       </c>
       <c r="E341">
-        <v>2883.89504146647</v>
+        <v>2963.14057770968</v>
       </c>
       <c r="F341">
         <v>37.77777777777778</v>
@@ -8394,13 +8394,13 @@
         <v>146800</v>
       </c>
       <c r="C342">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D342">
         <v>43200</v>
       </c>
       <c r="E342">
-        <v>3329.473272758987</v>
+        <v>3649.028286359149</v>
       </c>
       <c r="F342">
         <v>96</v>
@@ -8414,13 +8414,13 @@
         <v>118600</v>
       </c>
       <c r="C343">
-        <v>255.1020408163265</v>
+        <v>227.617602427921</v>
       </c>
       <c r="D343">
         <v>15000</v>
       </c>
       <c r="E343">
-        <v>2849.881436024293</v>
+        <v>3221.107193794657</v>
       </c>
       <c r="F343">
         <v>33.33333333333334</v>
@@ -8434,13 +8434,13 @@
         <v>105000</v>
       </c>
       <c r="C344">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D344">
         <v>28800</v>
       </c>
       <c r="E344">
-        <v>3084.575313575313</v>
+        <v>3014.733900926676</v>
       </c>
       <c r="F344">
         <v>64</v>
@@ -8454,13 +8454,13 @@
         <v>112200</v>
       </c>
       <c r="C345">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D345">
         <v>28800</v>
       </c>
       <c r="E345">
-        <v>3084.575313575313</v>
+        <v>3123.990350092078</v>
       </c>
       <c r="F345">
         <v>64</v>
@@ -8474,13 +8474,13 @@
         <v>97800</v>
       </c>
       <c r="C346">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D346">
         <v>14400</v>
       </c>
       <c r="E346">
-        <v>2839.67735439164</v>
+        <v>2905.477451761274</v>
       </c>
       <c r="F346">
         <v>32</v>
@@ -8494,13 +8494,13 @@
         <v>93000</v>
       </c>
       <c r="C347">
-        <v>292.517006802721</v>
+        <v>261.0015174506828</v>
       </c>
       <c r="D347">
         <v>17200</v>
       </c>
       <c r="E347">
-        <v>2887.296402010687</v>
+        <v>2832.639818984339</v>
       </c>
       <c r="F347">
         <v>38.22222222222222</v>
@@ -8514,13 +8514,13 @@
         <v>85200</v>
       </c>
       <c r="C348">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D348">
         <v>10000</v>
       </c>
       <c r="E348">
-        <v>2764.847422418851</v>
+        <v>2714.27866572182</v>
       </c>
       <c r="F348">
         <v>32.05128205128205</v>
@@ -8534,13 +8534,13 @@
         <v>77200</v>
       </c>
       <c r="C349">
-        <v>136.0544217687074</v>
+        <v>121.3960546282245</v>
       </c>
       <c r="D349">
         <v>8000</v>
       </c>
       <c r="E349">
-        <v>2730.833816976674</v>
+        <v>2592.882611093595</v>
       </c>
       <c r="F349">
         <v>32</v>
@@ -8554,13 +8554,13 @@
         <v>119400</v>
       </c>
       <c r="C350">
-        <v>612.2448979591835</v>
+        <v>546.2822458270105</v>
       </c>
       <c r="D350">
         <v>36000</v>
       </c>
       <c r="E350">
-        <v>3207.02429316715</v>
+        <v>3233.24679925748</v>
       </c>
       <c r="F350">
         <v>80</v>
@@ -8574,13 +8574,13 @@
         <v>147200</v>
       </c>
       <c r="C351">
-        <v>962.5850340136052</v>
+        <v>858.8770864946887</v>
       </c>
       <c r="D351">
         <v>56600</v>
       </c>
       <c r="E351">
-        <v>3557.364429221572</v>
+        <v>3655.09808909056</v>
       </c>
       <c r="F351">
         <v>125.7777777777778</v>
@@ -8594,13 +8594,13 @@
         <v>100000</v>
       </c>
       <c r="C352">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D352">
         <v>14400</v>
       </c>
       <c r="E352">
-        <v>2839.67735439164</v>
+        <v>2938.861366784035</v>
       </c>
       <c r="F352">
         <v>32</v>
@@ -8614,13 +8614,13 @@
         <v>114400</v>
       </c>
       <c r="C353">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D353">
         <v>28800</v>
       </c>
       <c r="E353">
-        <v>3084.575313575313</v>
+        <v>3157.37426511484</v>
       </c>
       <c r="F353">
         <v>64</v>
@@ -8634,13 +8634,13 @@
         <v>143200</v>
       </c>
       <c r="C354">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D354">
         <v>43200</v>
       </c>
       <c r="E354">
-        <v>3329.473272758987</v>
+        <v>3594.400061776448</v>
       </c>
       <c r="F354">
         <v>96</v>
@@ -8654,13 +8654,13 @@
         <v>98460</v>
       </c>
       <c r="C355">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D355">
         <v>14400</v>
       </c>
       <c r="E355">
-        <v>2839.67735439164</v>
+        <v>2915.492626268102</v>
       </c>
       <c r="F355">
         <v>32</v>
@@ -8674,13 +8674,13 @@
         <v>127260</v>
       </c>
       <c r="C356">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D356">
         <v>28800</v>
       </c>
       <c r="E356">
-        <v>3084.575313575313</v>
+        <v>3352.518422929711</v>
       </c>
       <c r="F356">
         <v>64</v>
@@ -8694,13 +8694,13 @@
         <v>99000</v>
       </c>
       <c r="C357">
-        <v>272.1088435374149</v>
+        <v>242.7921092564491</v>
       </c>
       <c r="D357">
         <v>16000</v>
       </c>
       <c r="E357">
-        <v>2866.888238745381</v>
+        <v>2923.686859955507</v>
       </c>
       <c r="F357">
         <v>35.55555555555556</v>
@@ -8714,13 +8714,13 @@
         <v>132760</v>
       </c>
       <c r="C358">
-        <v>93.53741496598637</v>
+        <v>83.45978755690437</v>
       </c>
       <c r="D358">
         <v>5500</v>
       </c>
       <c r="E358">
-        <v>2688.316810173953</v>
+        <v>3435.978210486615</v>
       </c>
       <c r="F358">
         <v>32.16374269005848</v>
@@ -8734,13 +8734,13 @@
         <v>133800</v>
       </c>
       <c r="C359">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D359">
         <v>28800</v>
       </c>
       <c r="E359">
-        <v>3084.575313575313</v>
+        <v>3451.759697588284</v>
       </c>
       <c r="F359">
         <v>64</v>
@@ -8754,13 +8754,13 @@
         <v>139800</v>
       </c>
       <c r="C360">
-        <v>346.938775510204</v>
+        <v>309.5599393019726</v>
       </c>
       <c r="D360">
         <v>20400</v>
       </c>
       <c r="E360">
-        <v>2941.71817071817</v>
+        <v>3542.806738559452</v>
       </c>
       <c r="F360">
         <v>45.33333333333334</v>
@@ -8774,13 +8774,13 @@
         <v>137260</v>
       </c>
       <c r="C361">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D361">
         <v>10000</v>
       </c>
       <c r="E361">
-        <v>2764.847422418851</v>
+        <v>3504.263491214991</v>
       </c>
       <c r="F361">
         <v>32.05128205128205</v>
@@ -8794,13 +8794,13 @@
         <v>141660</v>
       </c>
       <c r="C362">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D362">
         <v>14400</v>
       </c>
       <c r="E362">
-        <v>2839.67735439164</v>
+        <v>3571.031321260515</v>
       </c>
       <c r="F362">
         <v>32</v>
@@ -8814,13 +8814,13 @@
         <v>103800</v>
       </c>
       <c r="C363">
-        <v>272.1088435374149</v>
+        <v>242.7921092564491</v>
       </c>
       <c r="D363">
         <v>16000</v>
       </c>
       <c r="E363">
-        <v>2866.888238745381</v>
+        <v>2996.524492732442</v>
       </c>
       <c r="F363">
         <v>35.55555555555556</v>
@@ -8834,13 +8834,13 @@
         <v>99800</v>
       </c>
       <c r="C364">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D364">
         <v>14000</v>
       </c>
       <c r="E364">
-        <v>2832.874633303205</v>
+        <v>2935.826465418329</v>
       </c>
       <c r="F364">
         <v>32.03661327231121</v>
@@ -8854,13 +8854,13 @@
         <v>120600</v>
       </c>
       <c r="C365">
-        <v>323.1292517006802</v>
+        <v>288.3156297420333</v>
       </c>
       <c r="D365">
         <v>19000</v>
       </c>
       <c r="E365">
-        <v>2917.908646908646</v>
+        <v>3251.456207451713</v>
       </c>
       <c r="F365">
         <v>42.22222222222222</v>
@@ -8874,13 +8874,13 @@
         <v>163800</v>
       </c>
       <c r="C366">
-        <v>289.1156462585033</v>
+        <v>257.9666160849771</v>
       </c>
       <c r="D366">
         <v>17000</v>
       </c>
       <c r="E366">
-        <v>2883.89504146647</v>
+        <v>3906.994902444126</v>
       </c>
       <c r="F366">
         <v>37.77777777777778</v>
@@ -8894,13 +8894,13 @@
         <v>126600</v>
       </c>
       <c r="C367">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D367">
         <v>28800</v>
       </c>
       <c r="E367">
-        <v>3084.575313575313</v>
+        <v>3342.503248422882</v>
       </c>
       <c r="F367">
         <v>64</v>
@@ -8914,13 +8914,13 @@
         <v>130000</v>
       </c>
       <c r="C368">
-        <v>425.1700680272107</v>
+        <v>379.3626707132017</v>
       </c>
       <c r="D368">
         <v>25000</v>
       </c>
       <c r="E368">
-        <v>3019.949463235177</v>
+        <v>3394.096571639877</v>
       </c>
       <c r="F368">
         <v>55.55555555555556</v>
@@ -8934,13 +8934,13 @@
         <v>155400</v>
       </c>
       <c r="C369">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D369">
         <v>43200</v>
       </c>
       <c r="E369">
-        <v>3329.473272758987</v>
+        <v>3779.52904508449</v>
       </c>
       <c r="F369">
         <v>96</v>
@@ -8954,13 +8954,13 @@
         <v>126600</v>
       </c>
       <c r="C370">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D370">
         <v>28800</v>
       </c>
       <c r="E370">
-        <v>3084.575313575313</v>
+        <v>3342.503248422882</v>
       </c>
       <c r="F370">
         <v>64</v>
@@ -8974,13 +8974,13 @@
         <v>97200</v>
       </c>
       <c r="C371">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D371">
         <v>12000</v>
       </c>
       <c r="E371">
-        <v>2798.861027861028</v>
+        <v>2896.372747664157</v>
       </c>
       <c r="F371">
         <v>32</v>
@@ -8994,13 +8994,13 @@
         <v>87200</v>
       </c>
       <c r="C372">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D372">
         <v>10000</v>
       </c>
       <c r="E372">
-        <v>2764.847422418851</v>
+        <v>2744.627679378876</v>
       </c>
       <c r="F372">
         <v>32.05128205128205</v>
@@ -9014,13 +9014,13 @@
         <v>143200</v>
       </c>
       <c r="C373">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D373">
         <v>28800</v>
       </c>
       <c r="E373">
-        <v>3084.575313575313</v>
+        <v>3594.400061776448</v>
       </c>
       <c r="F373">
         <v>64</v>
@@ -9034,13 +9034,13 @@
         <v>128800</v>
       </c>
       <c r="C374">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D374">
         <v>28800</v>
       </c>
       <c r="E374">
-        <v>3084.575313575313</v>
+        <v>3375.887163445644</v>
       </c>
       <c r="F374">
         <v>64</v>
@@ -9054,13 +9054,13 @@
         <v>157600</v>
       </c>
       <c r="C375">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D375">
         <v>43200</v>
       </c>
       <c r="E375">
-        <v>3329.473272758987</v>
+        <v>3812.912960107252</v>
       </c>
       <c r="F375">
         <v>96</v>
@@ -9074,13 +9074,13 @@
         <v>170460</v>
       </c>
       <c r="C376">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D376">
         <v>43200</v>
       </c>
       <c r="E376">
-        <v>3329.473272758987</v>
+        <v>4008.057117922123</v>
       </c>
       <c r="F376">
         <v>96</v>
@@ -9094,13 +9094,13 @@
         <v>127260</v>
       </c>
       <c r="C377">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D377">
         <v>28800</v>
       </c>
       <c r="E377">
-        <v>3084.575313575313</v>
+        <v>3352.518422929711</v>
       </c>
       <c r="F377">
         <v>64</v>
@@ -9114,13 +9114,13 @@
         <v>117000</v>
       </c>
       <c r="C378">
-        <v>306.1224489795918</v>
+        <v>273.1411229135052</v>
       </c>
       <c r="D378">
         <v>18000</v>
       </c>
       <c r="E378">
-        <v>2900.901844187558</v>
+        <v>3196.827982869012</v>
       </c>
       <c r="F378">
         <v>40</v>
@@ -9134,13 +9134,13 @@
         <v>141000</v>
       </c>
       <c r="C379">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D379">
         <v>14400</v>
       </c>
       <c r="E379">
-        <v>2839.67735439164</v>
+        <v>3561.016146753686</v>
       </c>
       <c r="F379">
         <v>32</v>
@@ -9154,13 +9154,13 @@
         <v>162600</v>
       </c>
       <c r="C380">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D380">
         <v>28800</v>
       </c>
       <c r="E380">
-        <v>3084.575313575313</v>
+        <v>3888.785494249893</v>
       </c>
       <c r="F380">
         <v>64</v>
@@ -9174,13 +9174,13 @@
         <v>172000</v>
       </c>
       <c r="C381">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D381">
         <v>28800</v>
       </c>
       <c r="E381">
-        <v>3084.575313575313</v>
+        <v>4031.425858438056</v>
       </c>
       <c r="F381">
         <v>64</v>
@@ -9194,13 +9194,13 @@
         <v>121800</v>
       </c>
       <c r="C382">
-        <v>306.1224489795918</v>
+        <v>273.1411229135052</v>
       </c>
       <c r="D382">
         <v>18000</v>
       </c>
       <c r="E382">
-        <v>2900.901844187558</v>
+        <v>3269.665615645947</v>
       </c>
       <c r="F382">
         <v>40</v>
@@ -9214,13 +9214,13 @@
         <v>115800</v>
       </c>
       <c r="C383">
-        <v>272.1088435374149</v>
+        <v>242.7921092564491</v>
       </c>
       <c r="D383">
         <v>16000</v>
       </c>
       <c r="E383">
-        <v>2866.888238745381</v>
+        <v>3178.618574674779</v>
       </c>
       <c r="F383">
         <v>35.55555555555556</v>
@@ -9234,13 +9234,13 @@
         <v>141600</v>
       </c>
       <c r="C384">
-        <v>357.1428571428571</v>
+        <v>318.6646433990894</v>
       </c>
       <c r="D384">
         <v>21000</v>
       </c>
       <c r="E384">
-        <v>2951.922252350823</v>
+        <v>3570.120850850803</v>
       </c>
       <c r="F384">
         <v>46.66666666666666</v>
@@ -9254,13 +9254,13 @@
         <v>213800</v>
       </c>
       <c r="C385">
-        <v>850.3401360544215</v>
+        <v>758.7253414264034</v>
       </c>
       <c r="D385">
         <v>50000</v>
       </c>
       <c r="E385">
-        <v>3445.119531262388</v>
+        <v>4665.72024387053</v>
       </c>
       <c r="F385">
         <v>111.1111111111111</v>
@@ -9274,13 +9274,13 @@
         <v>169800</v>
       </c>
       <c r="C386">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D386">
         <v>43200</v>
       </c>
       <c r="E386">
-        <v>3329.473272758987</v>
+        <v>3998.041943415295</v>
       </c>
       <c r="F386">
         <v>96</v>
@@ -9294,13 +9294,13 @@
         <v>111200</v>
       </c>
       <c r="C387">
-        <v>238.095238095238</v>
+        <v>212.443095599393</v>
       </c>
       <c r="D387">
         <v>14000</v>
       </c>
       <c r="E387">
-        <v>2832.874633303205</v>
+        <v>3108.81584326355</v>
       </c>
       <c r="F387">
         <v>32.03661327231121</v>
@@ -9314,13 +9314,13 @@
         <v>99200</v>
       </c>
       <c r="C388">
-        <v>204.0816326530611</v>
+        <v>182.0940819423368</v>
       </c>
       <c r="D388">
         <v>12000</v>
       </c>
       <c r="E388">
-        <v>2798.861027861028</v>
+        <v>2926.721761321213</v>
       </c>
       <c r="F388">
         <v>32</v>
@@ -9334,13 +9334,13 @@
         <v>186400</v>
       </c>
       <c r="C389">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D389">
         <v>28800</v>
       </c>
       <c r="E389">
-        <v>3084.575313575313</v>
+        <v>4249.938756768861</v>
       </c>
       <c r="F389">
         <v>64</v>
@@ -9354,13 +9354,13 @@
         <v>170460</v>
       </c>
       <c r="C390">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D390">
         <v>43200</v>
       </c>
       <c r="E390">
-        <v>3329.473272758987</v>
+        <v>4008.057117922123</v>
       </c>
       <c r="F390">
         <v>96</v>
@@ -9374,13 +9374,13 @@
         <v>213660</v>
       </c>
       <c r="C391">
-        <v>734.6938775510201</v>
+        <v>655.5386949924125</v>
       </c>
       <c r="D391">
         <v>43200</v>
       </c>
       <c r="E391">
-        <v>3329.473272758987</v>
+        <v>4663.595812914536</v>
       </c>
       <c r="F391">
         <v>96</v>
@@ -9394,13 +9394,13 @@
         <v>263660</v>
       </c>
       <c r="C392">
-        <v>850.3401360544215</v>
+        <v>758.7253414264034</v>
       </c>
       <c r="D392">
         <v>50000</v>
       </c>
       <c r="E392">
-        <v>3445.119531262388</v>
+        <v>5422.321154340939</v>
       </c>
       <c r="F392">
         <v>111.1111111111111</v>
@@ -9414,13 +9414,13 @@
         <v>223660</v>
       </c>
       <c r="C393">
-        <v>170.0680272108843</v>
+        <v>151.7450682852807</v>
       </c>
       <c r="D393">
         <v>10000</v>
       </c>
       <c r="E393">
-        <v>2764.847422418851</v>
+        <v>4815.340881199816</v>
       </c>
       <c r="F393">
         <v>32.05128205128205</v>
@@ -9434,13 +9434,13 @@
         <v>215200</v>
       </c>
       <c r="C394">
-        <v>489.7959183673468</v>
+        <v>437.0257966616084</v>
       </c>
       <c r="D394">
         <v>28800</v>
       </c>
       <c r="E394">
-        <v>3084.575313575313</v>
+        <v>4686.964553430469</v>
       </c>
       <c r="F394">
         <v>64</v>
@@ -9454,13 +9454,13 @@
         <v>193200</v>
       </c>
       <c r="C395">
-        <v>850.3401360544215</v>
+        <v>758.7253414264034</v>
       </c>
       <c r="D395">
         <v>50000</v>
       </c>
       <c r="E395">
-        <v>3445.119531262388</v>
+        <v>4353.125403202851</v>
       </c>
       <c r="F395">
         <v>111.1111111111111</v>
@@ -9474,13 +9474,13 @@
         <v>228060</v>
       </c>
       <c r="C396">
-        <v>244.8979591836734</v>
+        <v>218.5128983308042</v>
       </c>
       <c r="D396">
         <v>14400</v>
       </c>
       <c r="E396">
-        <v>2839.67735439164</v>
+        <v>4882.10871124534</v>
       </c>
       <c r="F396">
         <v>32</v>
@@ -9494,13 +9494,13 @@
         <v>216400</v>
       </c>
       <c r="C397">
-        <v>510.2040816326529</v>
+        <v>455.235204855842</v>
       </c>
       <c r="D397">
         <v>30000</v>
       </c>
       <c r="E397">
-        <v>3104.983476840619</v>
+        <v>4705.173961624702</v>
       </c>
       <c r="F397">
         <v>66.66666666666667</v>
@@ -9514,13 +9514,13 @@
         <v>143800</v>
       </c>
       <c r="C398">
-        <v>374.1496598639455</v>
+        <v>333.8391502276175</v>
       </c>
       <c r="D398">
         <v>22000</v>
       </c>
       <c r="E398">
-        <v>2968.929055071912</v>
+        <v>3603.504765873565</v>
       </c>
       <c r="F398">
         <v>48.88888888888889</v>
@@ -9534,13 +9534,13 @@
         <v>268800</v>
       </c>
       <c r="C399">
-        <v>935.3741496598636</v>
+        <v>834.5978755690437</v>
       </c>
       <c r="D399">
         <v>55000</v>
       </c>
       <c r="E399">
-        <v>3530.15354486783</v>
+        <v>5500.318119439573</v>
       </c>
       <c r="F399">
         <v>122.2222222222222</v>
@@ -9554,13 +9554,13 @@
         <v>167800</v>
       </c>
       <c r="C400">
-        <v>408.1632653061223</v>
+        <v>364.1881638846737</v>
       </c>
       <c r="D400">
         <v>24000</v>
       </c>
       <c r="E400">
-        <v>3002.942660514089</v>
+        <v>3967.692929758238</v>
       </c>
       <c r="F400">
         <v>53.33333333333334</v>

--- a/stats editor/tech_tree_test/results.xlsx
+++ b/stats editor/tech_tree_test/results.xlsx
@@ -2054,13 +2054,13 @@
         <v>4800</v>
       </c>
       <c r="C25">
-        <v>92.30769230769231</v>
+        <v>114.2857142857143</v>
       </c>
       <c r="D25">
         <v>2400</v>
       </c>
       <c r="E25">
-        <v>323.0769230769231</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F25">
         <v>32</v>
@@ -2194,13 +2194,13 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D32">
         <v>2400</v>
       </c>
       <c r="E32">
-        <v>1330.290137107474</v>
+        <v>1115.470046082949</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -2254,13 +2254,13 @@
         <v>6000</v>
       </c>
       <c r="C35">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D35">
         <v>2400</v>
       </c>
       <c r="E35">
-        <v>1330.290137107474</v>
+        <v>1115.470046082949</v>
       </c>
       <c r="F35">
         <v>32</v>
@@ -2274,13 +2274,13 @@
         <v>4200</v>
       </c>
       <c r="C36">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D36">
         <v>1200</v>
       </c>
       <c r="E36">
-        <v>1330.290137107474</v>
+        <v>1115.470046082949</v>
       </c>
       <c r="F36">
         <v>32.43243243243244</v>
@@ -2294,13 +2294,13 @@
         <v>4200</v>
       </c>
       <c r="C37">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D37">
         <v>1200</v>
       </c>
       <c r="E37">
-        <v>1330.290137107474</v>
+        <v>1115.470046082949</v>
       </c>
       <c r="F37">
         <v>32.43243243243244</v>
@@ -2314,13 +2314,13 @@
         <v>9600</v>
       </c>
       <c r="C38">
-        <v>131.5068493150685</v>
+        <v>154.4401544401545</v>
       </c>
       <c r="D38">
         <v>4800</v>
       </c>
       <c r="E38">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F38">
         <v>32</v>
@@ -2394,13 +2394,13 @@
         <v>4800</v>
       </c>
       <c r="C42">
-        <v>46.15384615384615</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="D42">
         <v>1200</v>
       </c>
       <c r="E42">
-        <v>323.0769230769231</v>
+        <v>328.5714285714286</v>
       </c>
       <c r="F42">
         <v>32.43243243243244</v>
@@ -2414,13 +2414,13 @@
         <v>7200</v>
       </c>
       <c r="C43">
-        <v>37.15170278637771</v>
+        <v>46.08294930875577</v>
       </c>
       <c r="D43">
         <v>1200</v>
       </c>
       <c r="E43">
-        <v>1367.441839893852</v>
+        <v>1161.552995391705</v>
       </c>
       <c r="F43">
         <v>32.43243243243244</v>
@@ -2434,13 +2434,13 @@
         <v>9000</v>
       </c>
       <c r="C44">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D44">
         <v>3600</v>
       </c>
       <c r="E44">
-        <v>1410.344422700587</v>
+        <v>1208.258687258687</v>
       </c>
       <c r="F44">
         <v>32.14285714285715</v>
@@ -2454,13 +2454,13 @@
         <v>8400</v>
       </c>
       <c r="C45">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D45">
         <v>2400</v>
       </c>
       <c r="E45">
-        <v>1393.906066536203</v>
+        <v>1188.953667953668</v>
       </c>
       <c r="F45">
         <v>32</v>
@@ -2474,13 +2474,13 @@
         <v>6600</v>
       </c>
       <c r="C46">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D46">
         <v>2400</v>
       </c>
       <c r="E46">
-        <v>1348.865988500663</v>
+        <v>1138.511520737327</v>
       </c>
       <c r="F46">
         <v>32</v>
@@ -2494,13 +2494,13 @@
         <v>8400</v>
       </c>
       <c r="C47">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D47">
         <v>2400</v>
       </c>
       <c r="E47">
-        <v>1393.906066536203</v>
+        <v>1188.953667953668</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -2514,13 +2514,13 @@
         <v>5400</v>
       </c>
       <c r="C48">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D48">
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>1393.906066536203</v>
+        <v>1188.953667953668</v>
       </c>
       <c r="F48">
         <v>32.43243243243244</v>
@@ -2534,13 +2534,13 @@
         <v>7200</v>
       </c>
       <c r="C49">
-        <v>37.15170278637771</v>
+        <v>46.08294930875577</v>
       </c>
       <c r="D49">
         <v>1200</v>
       </c>
       <c r="E49">
-        <v>1367.441839893852</v>
+        <v>1161.552995391705</v>
       </c>
       <c r="F49">
         <v>32.43243243243244</v>
@@ -2554,13 +2554,13 @@
         <v>7800</v>
       </c>
       <c r="C50">
-        <v>37.15170278637771</v>
+        <v>46.08294930875577</v>
       </c>
       <c r="D50">
         <v>1800</v>
       </c>
       <c r="E50">
-        <v>1367.441839893852</v>
+        <v>1161.552995391705</v>
       </c>
       <c r="F50">
         <v>32.14285714285715</v>
@@ -2574,13 +2574,13 @@
         <v>9600</v>
       </c>
       <c r="C51">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D51">
         <v>3600</v>
       </c>
       <c r="E51">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F51">
         <v>32.14285714285715</v>
@@ -2594,13 +2594,13 @@
         <v>6660</v>
       </c>
       <c r="C52">
-        <v>111.4551083591331</v>
+        <v>138.2488479262673</v>
       </c>
       <c r="D52">
         <v>3600</v>
       </c>
       <c r="E52">
-        <v>1350.723573639982</v>
+        <v>1140.815668202765</v>
       </c>
       <c r="F52">
         <v>32.14285714285715</v>
@@ -2614,13 +2614,13 @@
         <v>6060</v>
       </c>
       <c r="C53">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D53">
         <v>2400</v>
       </c>
       <c r="E53">
-        <v>1332.147722246793</v>
+        <v>1117.774193548387</v>
       </c>
       <c r="F53">
         <v>32</v>
@@ -2634,13 +2634,13 @@
         <v>9600</v>
       </c>
       <c r="C54">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D54">
         <v>3600</v>
       </c>
       <c r="E54">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F54">
         <v>32.14285714285715</v>
@@ -2654,13 +2654,13 @@
         <v>6000</v>
       </c>
       <c r="C55">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D55">
         <v>2400</v>
       </c>
       <c r="E55">
-        <v>1330.290137107474</v>
+        <v>1115.470046082949</v>
       </c>
       <c r="F55">
         <v>32</v>
@@ -2674,13 +2674,13 @@
         <v>4500</v>
       </c>
       <c r="C56">
-        <v>34.61538461538461</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D56">
         <v>900</v>
       </c>
       <c r="E56">
-        <v>311.5384615384615</v>
+        <v>314.2857142857143</v>
       </c>
       <c r="F56">
         <v>32.14285714285715</v>
@@ -2694,13 +2694,13 @@
         <v>5460</v>
       </c>
       <c r="C57">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D57">
         <v>2400</v>
       </c>
       <c r="E57">
-        <v>1313.571870853604</v>
+        <v>1094.732718894009</v>
       </c>
       <c r="F57">
         <v>32</v>
@@ -2714,13 +2714,13 @@
         <v>8400</v>
       </c>
       <c r="C58">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D58">
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>1393.906066536203</v>
+        <v>1188.953667953668</v>
       </c>
       <c r="F58">
         <v>32</v>
@@ -2734,13 +2734,13 @@
         <v>7200</v>
       </c>
       <c r="C59">
-        <v>74.30340557275542</v>
+        <v>92.16589861751153</v>
       </c>
       <c r="D59">
         <v>2400</v>
       </c>
       <c r="E59">
-        <v>1367.441839893852</v>
+        <v>1161.552995391705</v>
       </c>
       <c r="F59">
         <v>32</v>
@@ -2754,13 +2754,13 @@
         <v>9600</v>
       </c>
       <c r="C60">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D60">
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F60">
         <v>32</v>
@@ -2774,13 +2774,13 @@
         <v>10260</v>
       </c>
       <c r="C61">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D61">
         <v>3600</v>
       </c>
       <c r="E61">
-        <v>1444.864970645792</v>
+        <v>1248.799227799228</v>
       </c>
       <c r="F61">
         <v>32.14285714285715</v>
@@ -2794,13 +2794,13 @@
         <v>9600</v>
       </c>
       <c r="C62">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D62">
         <v>1200</v>
       </c>
       <c r="E62">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F62">
         <v>32.43243243243244</v>
@@ -2814,13 +2814,13 @@
         <v>11400</v>
       </c>
       <c r="C63">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D63">
         <v>1800</v>
       </c>
       <c r="E63">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F63">
         <v>32.14285714285715</v>
@@ -2834,13 +2834,13 @@
         <v>10200</v>
       </c>
       <c r="C64">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D64">
         <v>3600</v>
       </c>
       <c r="E64">
-        <v>1443.221135029354</v>
+        <v>1246.868725868726</v>
       </c>
       <c r="F64">
         <v>32.14285714285715</v>
@@ -2854,13 +2854,13 @@
         <v>7800</v>
       </c>
       <c r="C65">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D65">
         <v>2400</v>
       </c>
       <c r="E65">
-        <v>1443.221135029354</v>
+        <v>1246.868725868726</v>
       </c>
       <c r="F65">
         <v>32</v>
@@ -2874,13 +2874,13 @@
         <v>10800</v>
       </c>
       <c r="C66">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D66">
         <v>2400</v>
       </c>
       <c r="E66">
-        <v>1459.659491193737</v>
+        <v>1266.173745173745</v>
       </c>
       <c r="F66">
         <v>32</v>
@@ -2894,13 +2894,13 @@
         <v>9000</v>
       </c>
       <c r="C67">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D67">
         <v>1200</v>
       </c>
       <c r="E67">
-        <v>1410.344422700587</v>
+        <v>1208.258687258687</v>
       </c>
       <c r="F67">
         <v>32.43243243243244</v>
@@ -2914,13 +2914,13 @@
         <v>11400</v>
       </c>
       <c r="C68">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D68">
         <v>3600</v>
       </c>
       <c r="E68">
-        <v>1410.344422700587</v>
+        <v>1208.258687258687</v>
       </c>
       <c r="F68">
         <v>32.14285714285715</v>
@@ -2934,13 +2934,13 @@
         <v>15600</v>
       </c>
       <c r="C69">
-        <v>147.4201474201474</v>
+        <v>166.1129568106312</v>
       </c>
       <c r="D69">
         <v>6000</v>
       </c>
       <c r="E69">
-        <v>1569.113902018011</v>
+        <v>1385.595492502469</v>
       </c>
       <c r="F69">
         <v>32.0855614973262</v>
@@ -2954,13 +2954,13 @@
         <v>12660</v>
       </c>
       <c r="C70">
-        <v>147.4201474201474</v>
+        <v>166.1129568106312</v>
       </c>
       <c r="D70">
         <v>6000</v>
       </c>
       <c r="E70">
-        <v>1496.878029782139</v>
+        <v>1304.20014366526</v>
       </c>
       <c r="F70">
         <v>32.0855614973262</v>
@@ -2974,13 +2974,13 @@
         <v>9660</v>
       </c>
       <c r="C71">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D71">
         <v>3600</v>
       </c>
       <c r="E71">
-        <v>1428.426614481409</v>
+        <v>1229.494208494208</v>
       </c>
       <c r="F71">
         <v>32.14285714285715</v>
@@ -2994,13 +2994,13 @@
         <v>9660</v>
       </c>
       <c r="C72">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D72">
         <v>3600</v>
       </c>
       <c r="E72">
-        <v>1428.426614481409</v>
+        <v>1229.494208494208</v>
       </c>
       <c r="F72">
         <v>32.14285714285715</v>
@@ -3014,13 +3014,13 @@
         <v>13200</v>
       </c>
       <c r="C73">
-        <v>176.9041769041769</v>
+        <v>199.3355481727575</v>
       </c>
       <c r="D73">
         <v>7200</v>
       </c>
       <c r="E73">
-        <v>1510.145843049952</v>
+        <v>1319.150309778217</v>
       </c>
       <c r="F73">
         <v>32</v>
@@ -3034,13 +3034,13 @@
         <v>12660</v>
       </c>
       <c r="C74">
-        <v>176.9041769041769</v>
+        <v>199.3355481727575</v>
       </c>
       <c r="D74">
         <v>7200</v>
       </c>
       <c r="E74">
-        <v>1496.878029782139</v>
+        <v>1304.20014366526</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>88.45208845208845</v>
+        <v>99.66777408637874</v>
       </c>
       <c r="D75">
         <v>3600</v>
       </c>
       <c r="E75">
-        <v>1480.661813565923</v>
+        <v>1285.927718416091</v>
       </c>
       <c r="F75">
         <v>32.14285714285715</v>
@@ -3074,13 +3074,13 @@
         <v>7860</v>
       </c>
       <c r="C76">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D76">
         <v>2400</v>
       </c>
       <c r="E76">
-        <v>1379.111545988258</v>
+        <v>1171.579150579151</v>
       </c>
       <c r="F76">
         <v>32</v>
@@ -3094,13 +3094,13 @@
         <v>10200</v>
       </c>
       <c r="C77">
-        <v>49.31506849315068</v>
+        <v>57.91505791505791</v>
       </c>
       <c r="D77">
         <v>1800</v>
       </c>
       <c r="E77">
-        <v>1443.221135029354</v>
+        <v>1246.868725868726</v>
       </c>
       <c r="F77">
         <v>32.14285714285715</v>
@@ -3114,13 +3114,13 @@
         <v>10800</v>
       </c>
       <c r="C78">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D78">
         <v>3600</v>
       </c>
       <c r="E78">
-        <v>1459.659491193737</v>
+        <v>1266.173745173745</v>
       </c>
       <c r="F78">
         <v>32.14285714285715</v>
@@ -3134,13 +3134,13 @@
         <v>10800</v>
       </c>
       <c r="C79">
-        <v>98.63013698630137</v>
+        <v>115.8301158301158</v>
       </c>
       <c r="D79">
         <v>3600</v>
       </c>
       <c r="E79">
-        <v>1459.659491193737</v>
+        <v>1266.173745173745</v>
       </c>
       <c r="F79">
         <v>32.14285714285715</v>
@@ -3154,13 +3154,13 @@
         <v>10800</v>
       </c>
       <c r="C80">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D80">
         <v>2400</v>
       </c>
       <c r="E80">
-        <v>1459.659491193737</v>
+        <v>1266.173745173745</v>
       </c>
       <c r="F80">
         <v>32</v>
@@ -3174,13 +3174,13 @@
         <v>9600</v>
       </c>
       <c r="C81">
-        <v>65.75342465753425</v>
+        <v>77.22007722007723</v>
       </c>
       <c r="D81">
         <v>2400</v>
       </c>
       <c r="E81">
-        <v>1426.78277886497</v>
+        <v>1227.563706563707</v>
       </c>
       <c r="F81">
         <v>32</v>
@@ -3194,13 +3194,13 @@
         <v>13200</v>
       </c>
       <c r="C82">
-        <v>88.45208845208845</v>
+        <v>99.66777408637874</v>
       </c>
       <c r="D82">
         <v>3600</v>
       </c>
       <c r="E82">
-        <v>1510.145843049952</v>
+        <v>1319.150309778217</v>
       </c>
       <c r="F82">
         <v>32.14285714285715</v>
@@ -3214,13 +3214,13 @@
         <v>10800</v>
       </c>
       <c r="C83">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D83">
         <v>1200</v>
       </c>
       <c r="E83">
-        <v>1459.659491193737</v>
+        <v>1266.173745173745</v>
       </c>
       <c r="F83">
         <v>32.43243243243244</v>
@@ -3234,13 +3234,13 @@
         <v>9060</v>
       </c>
       <c r="C84">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D84">
         <v>1200</v>
       </c>
       <c r="E84">
-        <v>1411.988258317025</v>
+        <v>1210.189189189189</v>
       </c>
       <c r="F84">
         <v>32.43243243243244</v>
@@ -3254,13 +3254,13 @@
         <v>11400</v>
       </c>
       <c r="C85">
-        <v>32.87671232876713</v>
+        <v>38.61003861003861</v>
       </c>
       <c r="D85">
         <v>3600</v>
       </c>
       <c r="E85">
-        <v>1411.988258317025</v>
+        <v>1210.189189189189</v>
       </c>
       <c r="F85">
         <v>32.14285714285715</v>
@@ -3274,13 +3274,13 @@
         <v>21600</v>
       </c>
       <c r="C86">
-        <v>133.630289532294</v>
+        <v>145.7725947521866</v>
       </c>
       <c r="D86">
         <v>6000</v>
       </c>
       <c r="E86">
-        <v>1693.091291028808</v>
+        <v>1517.129833813744</v>
       </c>
       <c r="F86">
         <v>32.0855614973262</v>
@@ -3294,13 +3294,13 @@
         <v>13800</v>
       </c>
       <c r="C87">
-        <v>58.96805896805896</v>
+        <v>66.44518272425249</v>
       </c>
       <c r="D87">
         <v>2400</v>
       </c>
       <c r="E87">
-        <v>1524.887857791967</v>
+        <v>1335.76160545928</v>
       </c>
       <c r="F87">
         <v>32</v>
@@ -3314,13 +3314,13 @@
         <v>13800</v>
       </c>
       <c r="C88">
-        <v>58.96805896805896</v>
+        <v>66.44518272425249</v>
       </c>
       <c r="D88">
         <v>2400</v>
       </c>
       <c r="E88">
-        <v>1524.887857791967</v>
+        <v>1335.76160545928</v>
       </c>
       <c r="F88">
         <v>32</v>
@@ -3334,13 +3334,13 @@
         <v>16800</v>
       </c>
       <c r="C89">
-        <v>120.2672605790646</v>
+        <v>131.1953352769679</v>
       </c>
       <c r="D89">
         <v>5400</v>
       </c>
       <c r="E89">
-        <v>1586.187059402973</v>
+        <v>1400.511758011995</v>
       </c>
       <c r="F89">
         <v>32.14285714285715</v>
@@ -3354,13 +3354,13 @@
         <v>13800</v>
       </c>
       <c r="C90">
-        <v>58.96805896805896</v>
+        <v>66.44518272425249</v>
       </c>
       <c r="D90">
         <v>2400</v>
       </c>
       <c r="E90">
-        <v>1524.887857791967</v>
+        <v>1335.76160545928</v>
       </c>
       <c r="F90">
         <v>32</v>
@@ -3374,13 +3374,13 @@
         <v>19860</v>
       </c>
       <c r="C91">
-        <v>160.3563474387528</v>
+        <v>174.9271137026239</v>
       </c>
       <c r="D91">
         <v>7200</v>
       </c>
       <c r="E91">
-        <v>1654.338507064443</v>
+        <v>1474.85578133561</v>
       </c>
       <c r="F91">
         <v>32</v>
@@ -3394,13 +3394,13 @@
         <v>16260</v>
       </c>
       <c r="C92">
-        <v>80.17817371937639</v>
+        <v>87.46355685131196</v>
       </c>
       <c r="D92">
         <v>3600</v>
       </c>
       <c r="E92">
-        <v>1574.160333345066</v>
+        <v>1387.392224484298</v>
       </c>
       <c r="F92">
         <v>32.14285714285715</v>
@@ -3414,13 +3414,13 @@
         <v>21100</v>
       </c>
       <c r="C93">
-        <v>122.4944320712695</v>
+        <v>133.6248785228377</v>
       </c>
       <c r="D93">
         <v>5500</v>
       </c>
       <c r="E93">
-        <v>1681.955433567783</v>
+        <v>1504.982117584396</v>
       </c>
       <c r="F93">
         <v>32.16374269005848</v>
@@ -3434,13 +3434,13 @@
         <v>15660</v>
       </c>
       <c r="C94">
-        <v>147.4201474201474</v>
+        <v>166.1129568106312</v>
       </c>
       <c r="D94">
         <v>6000</v>
       </c>
       <c r="E94">
-        <v>1570.588103492213</v>
+        <v>1387.256622070576</v>
       </c>
       <c r="F94">
         <v>32.0855614973262</v>
@@ -3454,13 +3454,13 @@
         <v>14460</v>
       </c>
       <c r="C95">
-        <v>117.9361179361179</v>
+        <v>132.890365448505</v>
       </c>
       <c r="D95">
         <v>4800</v>
       </c>
       <c r="E95">
-        <v>1541.104074008183</v>
+        <v>1354.034030708449</v>
       </c>
       <c r="F95">
         <v>32</v>
@@ -3474,13 +3474,13 @@
         <v>20400</v>
       </c>
       <c r="C96">
-        <v>160.3563474387528</v>
+        <v>174.9271137026239</v>
       </c>
       <c r="D96">
         <v>7200</v>
       </c>
       <c r="E96">
-        <v>1666.365233122349</v>
+        <v>1487.975314863307</v>
       </c>
       <c r="F96">
         <v>32</v>
@@ -3494,13 +3494,13 @@
         <v>22400</v>
       </c>
       <c r="C97">
-        <v>187.3727087576374</v>
+        <v>199.1341991341992</v>
       </c>
       <c r="D97">
         <v>9200</v>
       </c>
       <c r="E97">
-        <v>1699.096942873369</v>
+        <v>1520.133632735911</v>
       </c>
       <c r="F97">
         <v>32.05574912891986</v>
@@ -3514,13 +3514,13 @@
         <v>21860</v>
       </c>
       <c r="C98">
-        <v>204.8997772828507</v>
+        <v>223.5179786200194</v>
       </c>
       <c r="D98">
         <v>9200</v>
       </c>
       <c r="E98">
-        <v>1698.881936908541</v>
+        <v>1523.446646253006</v>
       </c>
       <c r="F98">
         <v>32.05574912891986</v>
@@ -3534,13 +3534,13 @@
         <v>16800</v>
       </c>
       <c r="C99">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D99">
         <v>4800</v>
       </c>
       <c r="E99">
-        <v>1586.187059402973</v>
+        <v>1400.511758011995</v>
       </c>
       <c r="F99">
         <v>32</v>
@@ -3554,13 +3554,13 @@
         <v>13800</v>
       </c>
       <c r="C100">
-        <v>88.45208845208845</v>
+        <v>99.66777408637874</v>
       </c>
       <c r="D100">
         <v>3600</v>
       </c>
       <c r="E100">
-        <v>1524.887857791967</v>
+        <v>1335.76160545928</v>
       </c>
       <c r="F100">
         <v>32.14285714285715</v>
@@ -3574,13 +3574,13 @@
         <v>13800</v>
       </c>
       <c r="C101">
-        <v>88.45208845208845</v>
+        <v>99.66777408637874</v>
       </c>
       <c r="D101">
         <v>3600</v>
       </c>
       <c r="E101">
-        <v>1524.887857791967</v>
+        <v>1335.76160545928</v>
       </c>
       <c r="F101">
         <v>32.14285714285715</v>
@@ -3594,13 +3594,13 @@
         <v>15600</v>
       </c>
       <c r="C102">
-        <v>117.9361179361179</v>
+        <v>132.890365448505</v>
       </c>
       <c r="D102">
         <v>4800</v>
       </c>
       <c r="E102">
-        <v>1569.113902018011</v>
+        <v>1385.595492502469</v>
       </c>
       <c r="F102">
         <v>32</v>
@@ -3614,13 +3614,13 @@
         <v>14400</v>
       </c>
       <c r="C103">
-        <v>88.45208845208845</v>
+        <v>99.66777408637874</v>
       </c>
       <c r="D103">
         <v>3600</v>
       </c>
       <c r="E103">
-        <v>1539.629872533982</v>
+        <v>1352.372901140343</v>
       </c>
       <c r="F103">
         <v>32.14285714285715</v>
@@ -3634,13 +3634,13 @@
         <v>16800</v>
       </c>
       <c r="C104">
-        <v>80.17817371937639</v>
+        <v>87.46355685131196</v>
       </c>
       <c r="D104">
         <v>3600</v>
       </c>
       <c r="E104">
-        <v>1586.187059402973</v>
+        <v>1400.511758011995</v>
       </c>
       <c r="F104">
         <v>32.14285714285715</v>
@@ -3654,13 +3654,13 @@
         <v>25200</v>
       </c>
       <c r="C105">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D105">
         <v>3600</v>
       </c>
       <c r="E105">
-        <v>1756.12341945178</v>
+        <v>1580.739693341971</v>
       </c>
       <c r="F105">
         <v>32.14285714285715</v>
@@ -3674,13 +3674,13 @@
         <v>17660</v>
       </c>
       <c r="C106">
-        <v>71.26948775055678</v>
+        <v>77.74538386783286</v>
       </c>
       <c r="D106">
         <v>3200</v>
       </c>
       <c r="E106">
-        <v>1605.340734235935</v>
+        <v>1421.405829926475</v>
       </c>
       <c r="F106">
         <v>32</v>
@@ -3694,13 +3694,13 @@
         <v>24400</v>
       </c>
       <c r="C107">
-        <v>81.46639511201627</v>
+        <v>86.58008658008659</v>
       </c>
       <c r="D107">
         <v>4000</v>
       </c>
       <c r="E107">
-        <v>1739.830140429377</v>
+        <v>1563.423676025954</v>
       </c>
       <c r="F107">
         <v>32</v>
@@ -3714,13 +3714,13 @@
         <v>15900</v>
       </c>
       <c r="C108">
-        <v>36.85503685503685</v>
+        <v>41.52823920265781</v>
       </c>
       <c r="D108">
         <v>1500</v>
       </c>
       <c r="E108">
-        <v>1576.484909389019</v>
+        <v>1393.901140343001</v>
       </c>
       <c r="F108">
         <v>32.60869565217391</v>
@@ -3734,13 +3734,13 @@
         <v>19260</v>
       </c>
       <c r="C109">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D109">
         <v>4800</v>
       </c>
       <c r="E109">
-        <v>1640.975478111213</v>
+        <v>1460.278521860392</v>
       </c>
       <c r="F109">
         <v>32</v>
@@ -3754,13 +3754,13 @@
         <v>15900</v>
       </c>
       <c r="C110">
-        <v>36.85503685503685</v>
+        <v>41.52823920265781</v>
       </c>
       <c r="D110">
         <v>1500</v>
       </c>
       <c r="E110">
-        <v>1576.484909389019</v>
+        <v>1393.901140343001</v>
       </c>
       <c r="F110">
         <v>32.60869565217391</v>
@@ -3774,13 +3774,13 @@
         <v>20600</v>
       </c>
       <c r="C111">
-        <v>204.8997772828507</v>
+        <v>223.5179786200194</v>
       </c>
       <c r="D111">
         <v>9200</v>
       </c>
       <c r="E111">
-        <v>1670.819576106759</v>
+        <v>1492.834401355047</v>
       </c>
       <c r="F111">
         <v>32.05574912891986</v>
@@ -3794,13 +3794,13 @@
         <v>16200</v>
       </c>
       <c r="C112">
-        <v>204.8997772828507</v>
+        <v>223.5179786200194</v>
       </c>
       <c r="D112">
         <v>4800</v>
       </c>
       <c r="E112">
-        <v>1670.819576106759</v>
+        <v>1492.834401355047</v>
       </c>
       <c r="F112">
         <v>32</v>
@@ -3814,13 +3814,13 @@
         <v>25200</v>
       </c>
       <c r="C113">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D113">
         <v>3600</v>
       </c>
       <c r="E113">
-        <v>1756.12341945178</v>
+        <v>1580.739693341971</v>
       </c>
       <c r="F113">
         <v>32.14285714285715</v>
@@ -3834,13 +3834,13 @@
         <v>21600</v>
       </c>
       <c r="C114">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D114">
         <v>4800</v>
       </c>
       <c r="E114">
-        <v>1693.091291028808</v>
+        <v>1517.129833813744</v>
       </c>
       <c r="F114">
         <v>32</v>
@@ -3854,13 +3854,13 @@
         <v>28260</v>
       </c>
       <c r="C115">
-        <v>171.0794297352342</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="D115">
         <v>8400</v>
       </c>
       <c r="E115">
-        <v>1818.445211712472</v>
+        <v>1646.973459575738</v>
       </c>
       <c r="F115">
         <v>32.06106870229008</v>
@@ -3874,13 +3874,13 @@
         <v>21060</v>
       </c>
       <c r="C116">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D116">
         <v>4800</v>
       </c>
       <c r="E116">
-        <v>1681.064564970901</v>
+        <v>1504.010300286048</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3894,13 +3894,13 @@
         <v>21660</v>
       </c>
       <c r="C117">
-        <v>160.3563474387528</v>
+        <v>174.9271137026239</v>
       </c>
       <c r="D117">
         <v>7200</v>
       </c>
       <c r="E117">
-        <v>1694.427593924131</v>
+        <v>1518.587559761266</v>
       </c>
       <c r="F117">
         <v>32</v>
@@ -3914,13 +3914,13 @@
         <v>28300</v>
       </c>
       <c r="C118">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D118">
         <v>7200</v>
       </c>
       <c r="E118">
-        <v>1819.259875663593</v>
+        <v>1647.839260441538</v>
       </c>
       <c r="F118">
         <v>32</v>
@@ -3934,13 +3934,13 @@
         <v>22860</v>
       </c>
       <c r="C119">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D119">
         <v>7200</v>
       </c>
       <c r="E119">
-        <v>1708.465578311251</v>
+        <v>1530.090342692621</v>
       </c>
       <c r="F119">
         <v>32</v>
@@ -3954,13 +3954,13 @@
         <v>19660</v>
       </c>
       <c r="C120">
-        <v>89.08685968819599</v>
+        <v>97.18172983479107</v>
       </c>
       <c r="D120">
         <v>4000</v>
       </c>
       <c r="E120">
-        <v>1649.884164080033</v>
+        <v>1469.996694843871</v>
       </c>
       <c r="F120">
         <v>32</v>
@@ -3974,13 +3974,13 @@
         <v>33600</v>
       </c>
       <c r="C121">
-        <v>210.1313320825516</v>
+        <v>218.5792349726776</v>
       </c>
       <c r="D121">
         <v>11200</v>
       </c>
       <c r="E121">
-        <v>1908.907300416079</v>
+        <v>1738.287064004096</v>
       </c>
       <c r="F121">
         <v>32</v>
@@ -3994,13 +3994,13 @@
         <v>26400</v>
       </c>
       <c r="C122">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D122">
         <v>6000</v>
       </c>
       <c r="E122">
-        <v>1780.563337985385</v>
+        <v>1606.713719315997</v>
       </c>
       <c r="F122">
         <v>32.0855614973262</v>
@@ -4014,13 +4014,13 @@
         <v>33060</v>
       </c>
       <c r="C123">
-        <v>210.1313320825516</v>
+        <v>218.5792349726776</v>
       </c>
       <c r="D123">
         <v>11200</v>
       </c>
       <c r="E123">
-        <v>1898.775968333528</v>
+        <v>1727.748422317914</v>
       </c>
       <c r="F123">
         <v>32</v>
@@ -4034,13 +4034,13 @@
         <v>23600</v>
       </c>
       <c r="C124">
-        <v>138.4928716904277</v>
+        <v>147.1861471861472</v>
       </c>
       <c r="D124">
         <v>6800</v>
       </c>
       <c r="E124">
-        <v>1723.536861406973</v>
+        <v>1546.107658709937</v>
       </c>
       <c r="F124">
         <v>32.0754716981132</v>
@@ -4054,13 +4054,13 @@
         <v>21000</v>
       </c>
       <c r="C125">
-        <v>160.3563474387528</v>
+        <v>174.9271137026239</v>
       </c>
       <c r="D125">
         <v>7200</v>
       </c>
       <c r="E125">
-        <v>1679.728262075578</v>
+        <v>1502.552574338526</v>
       </c>
       <c r="F125">
         <v>32</v>
@@ -4074,13 +4074,13 @@
         <v>21000</v>
       </c>
       <c r="C126">
-        <v>160.3563474387528</v>
+        <v>174.9271137026239</v>
       </c>
       <c r="D126">
         <v>7200</v>
       </c>
       <c r="E126">
-        <v>1679.728262075578</v>
+        <v>1502.552574338526</v>
       </c>
       <c r="F126">
         <v>32</v>
@@ -4094,13 +4094,13 @@
         <v>19200</v>
       </c>
       <c r="C127">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D127">
         <v>4800</v>
       </c>
       <c r="E127">
-        <v>1639.63917521589</v>
+        <v>1458.82079591287</v>
       </c>
       <c r="F127">
         <v>32</v>
@@ -4114,13 +4114,13 @@
         <v>25200</v>
       </c>
       <c r="C128">
-        <v>195.5193482688391</v>
+        <v>207.7922077922078</v>
       </c>
       <c r="D128">
         <v>9600</v>
       </c>
       <c r="E128">
-        <v>1756.12341945178</v>
+        <v>1580.739693341971</v>
       </c>
       <c r="F128">
         <v>32</v>
@@ -4134,13 +4134,13 @@
         <v>19200</v>
       </c>
       <c r="C129">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D129">
         <v>4800</v>
       </c>
       <c r="E129">
-        <v>1639.63917521589</v>
+        <v>1458.82079591287</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -4154,13 +4154,13 @@
         <v>20400</v>
       </c>
       <c r="C130">
-        <v>133.630289532294</v>
+        <v>145.7725947521866</v>
       </c>
       <c r="D130">
         <v>6000</v>
       </c>
       <c r="E130">
-        <v>1666.365233122349</v>
+        <v>1487.975314863307</v>
       </c>
       <c r="F130">
         <v>32.0855614973262</v>
@@ -4174,13 +4174,13 @@
         <v>21600</v>
       </c>
       <c r="C131">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D131">
         <v>4800</v>
       </c>
       <c r="E131">
-        <v>1693.091291028808</v>
+        <v>1517.129833813744</v>
       </c>
       <c r="F131">
         <v>32</v>
@@ -4194,13 +4194,13 @@
         <v>21800</v>
       </c>
       <c r="C132">
-        <v>124.7216035634744</v>
+        <v>136.0544217687075</v>
       </c>
       <c r="D132">
         <v>5600</v>
       </c>
       <c r="E132">
-        <v>1697.545634013218</v>
+        <v>1521.988920305484</v>
       </c>
       <c r="F132">
         <v>32</v>
@@ -4214,13 +4214,13 @@
         <v>26460</v>
       </c>
       <c r="C133">
-        <v>97.75967413441954</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D133">
         <v>4800</v>
       </c>
       <c r="E133">
-        <v>1781.785333912065</v>
+        <v>1608.012420614699</v>
       </c>
       <c r="F133">
         <v>32</v>
@@ -4234,13 +4234,13 @@
         <v>24600</v>
       </c>
       <c r="C134">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D134">
         <v>3600</v>
       </c>
       <c r="E134">
-        <v>1743.903460184978</v>
+        <v>1567.752680354958</v>
       </c>
       <c r="F134">
         <v>32.14285714285715</v>
@@ -4254,13 +4254,13 @@
         <v>22200</v>
       </c>
       <c r="C135">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D135">
         <v>1800</v>
       </c>
       <c r="E135">
-        <v>1743.903460184978</v>
+        <v>1567.752680354958</v>
       </c>
       <c r="F135">
         <v>32.14285714285715</v>
@@ -4274,13 +4274,13 @@
         <v>51660</v>
       </c>
       <c r="C136">
-        <v>521.7391304347825</v>
+        <v>533.0490405117272</v>
       </c>
       <c r="D136">
         <v>30000</v>
       </c>
       <c r="E136">
-        <v>2218.334823052509</v>
+        <v>2053.240400366779</v>
       </c>
       <c r="F136">
         <v>66.66666666666667</v>
@@ -4294,13 +4294,13 @@
         <v>22200</v>
       </c>
       <c r="C137">
-        <v>521.7391304347825</v>
+        <v>533.0490405117272</v>
       </c>
       <c r="D137">
         <v>6000</v>
       </c>
       <c r="E137">
-        <v>2218.334823052509</v>
+        <v>2053.240400366779</v>
       </c>
       <c r="F137">
         <v>32.0855614973262</v>
@@ -4314,13 +4314,13 @@
         <v>22200</v>
       </c>
       <c r="C138">
-        <v>521.7391304347825</v>
+        <v>533.0490405117272</v>
       </c>
       <c r="D138">
         <v>6000</v>
       </c>
       <c r="E138">
-        <v>2218.334823052509</v>
+        <v>2053.240400366779</v>
       </c>
       <c r="F138">
         <v>32.0855614973262</v>
@@ -4334,13 +4334,13 @@
         <v>26600</v>
       </c>
       <c r="C139">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D139">
         <v>6000</v>
       </c>
       <c r="E139">
-        <v>1784.636657740986</v>
+        <v>1611.042723645002</v>
       </c>
       <c r="F139">
         <v>32.0855614973262</v>
@@ -4354,13 +4354,13 @@
         <v>30000</v>
       </c>
       <c r="C140">
-        <v>97.75967413441954</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D140">
         <v>4800</v>
       </c>
       <c r="E140">
-        <v>1853.883093586199</v>
+        <v>1684.635797238075</v>
       </c>
       <c r="F140">
         <v>32</v>
@@ -4374,13 +4374,13 @@
         <v>29200</v>
       </c>
       <c r="C141">
-        <v>81.46639511201627</v>
+        <v>86.58008658008659</v>
       </c>
       <c r="D141">
         <v>4000</v>
       </c>
       <c r="E141">
-        <v>1837.589814563796</v>
+        <v>1667.319779922058</v>
       </c>
       <c r="F141">
         <v>32</v>
@@ -4394,13 +4394,13 @@
         <v>21000</v>
       </c>
       <c r="C142">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D142">
         <v>4800</v>
       </c>
       <c r="E142">
-        <v>1679.728262075578</v>
+        <v>1502.552574338526</v>
       </c>
       <c r="F142">
         <v>32</v>
@@ -4414,13 +4414,13 @@
         <v>18000</v>
       </c>
       <c r="C143">
-        <v>40.08908685968819</v>
+        <v>43.73177842565598</v>
       </c>
       <c r="D143">
         <v>1800</v>
       </c>
       <c r="E143">
-        <v>1612.913117309432</v>
+        <v>1429.666276962432</v>
       </c>
       <c r="F143">
         <v>32.14285714285715</v>
@@ -4434,13 +4434,13 @@
         <v>28600</v>
       </c>
       <c r="C144">
-        <v>142.5661914460285</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="D144">
         <v>7000</v>
       </c>
       <c r="E144">
-        <v>1825.369855296994</v>
+        <v>1654.332766935045</v>
       </c>
       <c r="F144">
         <v>32.11009174311926</v>
@@ -4454,13 +4454,13 @@
         <v>23200</v>
       </c>
       <c r="C145">
-        <v>142.5661914460285</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="D145">
         <v>7000</v>
       </c>
       <c r="E145">
-        <v>1715.390221895772</v>
+        <v>1537.449650051928</v>
       </c>
       <c r="F145">
         <v>32.11009174311926</v>
@@ -4474,13 +4474,13 @@
         <v>24400</v>
       </c>
       <c r="C146">
-        <v>154.7861507128309</v>
+        <v>164.5021645021645</v>
       </c>
       <c r="D146">
         <v>7600</v>
       </c>
       <c r="E146">
-        <v>1739.830140429377</v>
+        <v>1563.423676025954</v>
       </c>
       <c r="F146">
         <v>32.06751054852321</v>
@@ -4494,13 +4494,13 @@
         <v>28300</v>
       </c>
       <c r="C147">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D147">
         <v>7200</v>
       </c>
       <c r="E147">
-        <v>1819.259875663593</v>
+        <v>1647.839260441538</v>
       </c>
       <c r="F147">
         <v>32</v>
@@ -4514,13 +4514,13 @@
         <v>37500</v>
       </c>
       <c r="C148">
-        <v>172.6078799249531</v>
+        <v>179.5472287275566</v>
       </c>
       <c r="D148">
         <v>9200</v>
       </c>
       <c r="E148">
-        <v>1982.078032123396</v>
+        <v>1814.399476182082</v>
       </c>
       <c r="F148">
         <v>32.05574912891986</v>
@@ -4534,13 +4534,13 @@
         <v>21000</v>
       </c>
       <c r="C149">
-        <v>106.9042316258352</v>
+        <v>116.6180758017493</v>
       </c>
       <c r="D149">
         <v>4800</v>
       </c>
       <c r="E149">
-        <v>1679.728262075578</v>
+        <v>1502.552574338526</v>
       </c>
       <c r="F149">
         <v>32</v>
@@ -4554,13 +4554,13 @@
         <v>31260</v>
       </c>
       <c r="C150">
-        <v>157.5984990619137</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="D150">
         <v>8400</v>
       </c>
       <c r="E150">
-        <v>1865.004861391689</v>
+        <v>1692.619616697305</v>
       </c>
       <c r="F150">
         <v>32.06106870229008</v>
@@ -4574,13 +4574,13 @@
         <v>26600</v>
       </c>
       <c r="C151">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D151">
         <v>6000</v>
       </c>
       <c r="E151">
-        <v>1784.636657740986</v>
+        <v>1611.042723645002</v>
       </c>
       <c r="F151">
         <v>32.0855614973262</v>
@@ -4594,13 +4594,13 @@
         <v>31660</v>
       </c>
       <c r="C152">
-        <v>165.1031894934333</v>
+        <v>171.7408274785324</v>
       </c>
       <c r="D152">
         <v>8800</v>
       </c>
       <c r="E152">
-        <v>1872.509551823209</v>
+        <v>1700.426017946329</v>
       </c>
       <c r="F152">
         <v>32</v>
@@ -4614,13 +4614,13 @@
         <v>27660</v>
       </c>
       <c r="C153">
-        <v>162.9327902240325</v>
+        <v>173.1601731601732</v>
       </c>
       <c r="D153">
         <v>8000</v>
       </c>
       <c r="E153">
-        <v>1806.22525244567</v>
+        <v>1633.986446588725</v>
       </c>
       <c r="F153">
         <v>32</v>
@@ -4634,13 +4634,13 @@
         <v>34400</v>
       </c>
       <c r="C154">
-        <v>150.093808630394</v>
+        <v>156.128024980484</v>
       </c>
       <c r="D154">
         <v>8000</v>
       </c>
       <c r="E154">
-        <v>1923.916681279119</v>
+        <v>1753.899866502145</v>
       </c>
       <c r="F154">
         <v>32</v>
@@ -4654,13 +4654,13 @@
         <v>46260</v>
       </c>
       <c r="C155">
-        <v>229.5652173913043</v>
+        <v>234.5415778251599</v>
       </c>
       <c r="D155">
         <v>13200</v>
       </c>
       <c r="E155">
-        <v>2124.421779574249</v>
+        <v>1957.291573074668</v>
       </c>
       <c r="F155">
         <v>32.03883495145631</v>
@@ -4674,13 +4674,13 @@
         <v>30800</v>
       </c>
       <c r="C156">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D156">
         <v>7200</v>
       </c>
       <c r="E156">
-        <v>1856.374467395441</v>
+        <v>1683.642255260927</v>
       </c>
       <c r="F156">
         <v>32</v>
@@ -4694,13 +4694,13 @@
         <v>23400</v>
       </c>
       <c r="C157">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D157">
         <v>7200</v>
       </c>
       <c r="E157">
-        <v>1719.463541651373</v>
+        <v>1541.778654380932</v>
       </c>
       <c r="F157">
         <v>32</v>
@@ -4714,13 +4714,13 @@
         <v>30200</v>
       </c>
       <c r="C158">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D158">
         <v>9200</v>
       </c>
       <c r="E158">
-        <v>1719.463541651373</v>
+        <v>1541.778654380932</v>
       </c>
       <c r="F158">
         <v>32.05574912891986</v>
@@ -4734,13 +4734,13 @@
         <v>24600</v>
       </c>
       <c r="C159">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D159">
         <v>3600</v>
       </c>
       <c r="E159">
-        <v>1743.903460184978</v>
+        <v>1567.752680354958</v>
       </c>
       <c r="F159">
         <v>32.14285714285715</v>
@@ -4754,13 +4754,13 @@
         <v>22800</v>
       </c>
       <c r="C160">
-        <v>36.65987780040732</v>
+        <v>38.96103896103897</v>
       </c>
       <c r="D160">
         <v>1800</v>
       </c>
       <c r="E160">
-        <v>1707.24358238457</v>
+        <v>1528.791641393919</v>
       </c>
       <c r="F160">
         <v>32.14285714285715</v>
@@ -4774,13 +4774,13 @@
         <v>24000</v>
       </c>
       <c r="C161">
-        <v>97.75967413441954</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D161">
         <v>4800</v>
       </c>
       <c r="E161">
-        <v>1731.683500918175</v>
+        <v>1554.765667367945</v>
       </c>
       <c r="F161">
         <v>32</v>
@@ -4794,13 +4794,13 @@
         <v>25200</v>
       </c>
       <c r="C162">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D162">
         <v>6000</v>
       </c>
       <c r="E162">
-        <v>1756.12341945178</v>
+        <v>1580.739693341971</v>
       </c>
       <c r="F162">
         <v>32.0855614973262</v>
@@ -4814,13 +4814,13 @@
         <v>27600</v>
       </c>
       <c r="C163">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D163">
         <v>6000</v>
       </c>
       <c r="E163">
-        <v>1805.00325651899</v>
+        <v>1632.687745290023</v>
       </c>
       <c r="F163">
         <v>32.0855614973262</v>
@@ -4834,13 +4834,13 @@
         <v>25800</v>
       </c>
       <c r="C164">
-        <v>81.46639511201627</v>
+        <v>86.58008658008659</v>
       </c>
       <c r="D164">
         <v>4000</v>
       </c>
       <c r="E164">
-        <v>1768.343378718582</v>
+        <v>1593.726706328984</v>
       </c>
       <c r="F164">
         <v>32</v>
@@ -4854,13 +4854,13 @@
         <v>29400</v>
       </c>
       <c r="C165">
-        <v>154.7861507128309</v>
+        <v>164.5021645021645</v>
       </c>
       <c r="D165">
         <v>7600</v>
       </c>
       <c r="E165">
-        <v>1841.663134319397</v>
+        <v>1671.648784251062</v>
       </c>
       <c r="F165">
         <v>32.06751054852321</v>
@@ -4874,13 +4874,13 @@
         <v>27000</v>
       </c>
       <c r="C166">
-        <v>48.87983706720977</v>
+        <v>51.94805194805195</v>
       </c>
       <c r="D166">
         <v>2400</v>
       </c>
       <c r="E166">
-        <v>1792.783297252187</v>
+        <v>1619.70073230301</v>
       </c>
       <c r="F166">
         <v>32</v>
@@ -4894,13 +4894,13 @@
         <v>35600</v>
       </c>
       <c r="C167">
-        <v>90.05628517823638</v>
+        <v>93.6768149882904</v>
       </c>
       <c r="D167">
         <v>4800</v>
       </c>
       <c r="E167">
-        <v>1946.430752573678</v>
+        <v>1777.319070249217</v>
       </c>
       <c r="F167">
         <v>32</v>
@@ -4914,13 +4914,13 @@
         <v>32460</v>
       </c>
       <c r="C168">
-        <v>90.05628517823638</v>
+        <v>93.6768149882904</v>
       </c>
       <c r="D168">
         <v>4800</v>
       </c>
       <c r="E168">
-        <v>1887.518932686248</v>
+        <v>1716.038820444377</v>
       </c>
       <c r="F168">
         <v>32</v>
@@ -4934,13 +4934,13 @@
         <v>34060</v>
       </c>
       <c r="C169">
-        <v>45.02814258911819</v>
+        <v>46.8384074941452</v>
       </c>
       <c r="D169">
         <v>2400</v>
       </c>
       <c r="E169">
-        <v>1917.537694412327</v>
+        <v>1747.264425440474</v>
       </c>
       <c r="F169">
         <v>32</v>
@@ -4954,13 +4954,13 @@
         <v>27000</v>
       </c>
       <c r="C170">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D170">
         <v>6000</v>
       </c>
       <c r="E170">
-        <v>1792.783297252187</v>
+        <v>1619.70073230301</v>
       </c>
       <c r="F170">
         <v>32.0855614973262</v>
@@ -4974,13 +4974,13 @@
         <v>28200</v>
       </c>
       <c r="C171">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D171">
         <v>6000</v>
       </c>
       <c r="E171">
-        <v>1817.223215785792</v>
+        <v>1645.674758277036</v>
       </c>
       <c r="F171">
         <v>32.0855614973262</v>
@@ -4994,13 +4994,13 @@
         <v>30200</v>
       </c>
       <c r="C172">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D172">
         <v>8000</v>
       </c>
       <c r="E172">
-        <v>1817.223215785792</v>
+        <v>1645.674758277036</v>
       </c>
       <c r="F172">
         <v>32</v>
@@ -5014,13 +5014,13 @@
         <v>36000</v>
       </c>
       <c r="C173">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D173">
         <v>6000</v>
       </c>
       <c r="E173">
-        <v>1953.935443005197</v>
+        <v>1785.125471498241</v>
       </c>
       <c r="F173">
         <v>32.0855614973262</v>
@@ -5034,13 +5034,13 @@
         <v>22800</v>
       </c>
       <c r="C174">
-        <v>97.75967413441954</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="D174">
         <v>4800</v>
       </c>
       <c r="E174">
-        <v>1707.24358238457</v>
+        <v>1528.791641393919</v>
       </c>
       <c r="F174">
         <v>32</v>
@@ -5054,13 +5054,13 @@
         <v>21600</v>
       </c>
       <c r="C175">
-        <v>13.3630289532294</v>
+        <v>14.57725947521866</v>
       </c>
       <c r="D175">
         <v>600</v>
       </c>
       <c r="E175">
-        <v>1693.091291028808</v>
+        <v>1517.129833813744</v>
       </c>
       <c r="F175">
         <v>33.33333333333334</v>
@@ -5074,13 +5074,13 @@
         <v>20000</v>
       </c>
       <c r="C176">
-        <v>44.54342984409799</v>
+        <v>48.59086491739554</v>
       </c>
       <c r="D176">
         <v>2000</v>
       </c>
       <c r="E176">
-        <v>1657.45654715353</v>
+        <v>1478.257141879828</v>
       </c>
       <c r="F176">
         <v>32.25806451612903</v>
@@ -5094,13 +5094,13 @@
         <v>25800</v>
       </c>
       <c r="C177">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D177">
         <v>3600</v>
       </c>
       <c r="E177">
-        <v>1768.343378718582</v>
+        <v>1593.726706328984</v>
       </c>
       <c r="F177">
         <v>32.14285714285715</v>
@@ -5114,13 +5114,13 @@
         <v>32400</v>
       </c>
       <c r="C178">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D178">
         <v>7200</v>
       </c>
       <c r="E178">
-        <v>1886.39322912152</v>
+        <v>1714.867860257023</v>
       </c>
       <c r="F178">
         <v>32</v>
@@ -5134,13 +5134,13 @@
         <v>37600</v>
       </c>
       <c r="C179">
-        <v>168.8555347091932</v>
+        <v>175.6440281030445</v>
       </c>
       <c r="D179">
         <v>9000</v>
       </c>
       <c r="E179">
-        <v>1983.954204731276</v>
+        <v>1816.351076494338</v>
       </c>
       <c r="F179">
         <v>32.02846975088968</v>
@@ -5154,13 +5154,13 @@
         <v>30400</v>
       </c>
       <c r="C180">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D180">
         <v>6000</v>
       </c>
       <c r="E180">
-        <v>1848.869776963922</v>
+        <v>1675.835854011902</v>
       </c>
       <c r="F180">
         <v>32.0855614973262</v>
@@ -5174,13 +5174,13 @@
         <v>26800</v>
       </c>
       <c r="C181">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D181">
         <v>3600</v>
       </c>
       <c r="E181">
-        <v>1788.709977496587</v>
+        <v>1615.371727974006</v>
       </c>
       <c r="F181">
         <v>32.14285714285715</v>
@@ -5194,13 +5194,13 @@
         <v>32200</v>
       </c>
       <c r="C182">
-        <v>168.8555347091932</v>
+        <v>175.6440281030445</v>
       </c>
       <c r="D182">
         <v>9000</v>
       </c>
       <c r="E182">
-        <v>1882.64088390576</v>
+        <v>1710.964659632511</v>
       </c>
       <c r="F182">
         <v>32.02846975088968</v>
@@ -5214,13 +5214,13 @@
         <v>34000</v>
       </c>
       <c r="C183">
-        <v>180.1125703564728</v>
+        <v>187.3536299765808</v>
       </c>
       <c r="D183">
         <v>9600</v>
       </c>
       <c r="E183">
-        <v>1916.411990847599</v>
+        <v>1746.09346525312</v>
       </c>
       <c r="F183">
         <v>32</v>
@@ -5234,13 +5234,13 @@
         <v>36800</v>
       </c>
       <c r="C184">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D184">
         <v>6000</v>
       </c>
       <c r="E184">
-        <v>1968.944823868237</v>
+        <v>1800.73827399629</v>
       </c>
       <c r="F184">
         <v>32.0855614973262</v>
@@ -5254,13 +5254,13 @@
         <v>37500</v>
       </c>
       <c r="C185">
-        <v>172.6078799249531</v>
+        <v>179.5472287275566</v>
       </c>
       <c r="D185">
         <v>9200</v>
       </c>
       <c r="E185">
-        <v>1982.078032123396</v>
+        <v>1814.399476182082</v>
       </c>
       <c r="F185">
         <v>32.05574912891986</v>
@@ -5274,13 +5274,13 @@
         <v>35500</v>
       </c>
       <c r="C186">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D186">
         <v>7200</v>
       </c>
       <c r="E186">
-        <v>1944.554579965798</v>
+        <v>1775.367469936961</v>
       </c>
       <c r="F186">
         <v>32</v>
@@ -5294,13 +5294,13 @@
         <v>40860</v>
       </c>
       <c r="C187">
-        <v>166.9565217391304</v>
+        <v>170.5756929637527</v>
       </c>
       <c r="D187">
         <v>9600</v>
       </c>
       <c r="E187">
-        <v>2030.508736095988</v>
+        <v>1861.342745782558</v>
       </c>
       <c r="F187">
         <v>32</v>
@@ -5314,13 +5314,13 @@
         <v>34600</v>
       </c>
       <c r="C188">
-        <v>150.093808630394</v>
+        <v>156.128024980484</v>
       </c>
       <c r="D188">
         <v>8000</v>
       </c>
       <c r="E188">
-        <v>1927.669026494879</v>
+        <v>1757.803067126657</v>
       </c>
       <c r="F188">
         <v>32</v>
@@ -5334,13 +5334,13 @@
         <v>37260</v>
       </c>
       <c r="C189">
-        <v>180.1125703564728</v>
+        <v>187.3536299765808</v>
       </c>
       <c r="D189">
         <v>9600</v>
       </c>
       <c r="E189">
-        <v>1977.575217864485</v>
+        <v>1809.715635432668</v>
       </c>
       <c r="F189">
         <v>32</v>
@@ -5354,13 +5354,13 @@
         <v>39200</v>
       </c>
       <c r="C190">
-        <v>168.8555347091932</v>
+        <v>175.6440281030445</v>
       </c>
       <c r="D190">
         <v>9000</v>
       </c>
       <c r="E190">
-        <v>2013.972966457355</v>
+        <v>1847.576681490435</v>
       </c>
       <c r="F190">
         <v>32.02846975088968</v>
@@ -5374,13 +5374,13 @@
         <v>41400</v>
       </c>
       <c r="C191">
-        <v>194.7826086956521</v>
+        <v>199.0049751243781</v>
       </c>
       <c r="D191">
         <v>11200</v>
       </c>
       <c r="E191">
-        <v>2039.900040443814</v>
+        <v>1870.937628511768</v>
       </c>
       <c r="F191">
         <v>32</v>
@@ -5394,13 +5394,13 @@
         <v>28800</v>
       </c>
       <c r="C192">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D192">
         <v>6000</v>
       </c>
       <c r="E192">
-        <v>1829.443175052595</v>
+        <v>1658.661771264049</v>
       </c>
       <c r="F192">
         <v>32.0855614973262</v>
@@ -5414,13 +5414,13 @@
         <v>32400</v>
       </c>
       <c r="C193">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D193">
         <v>7200</v>
       </c>
       <c r="E193">
-        <v>1886.39322912152</v>
+        <v>1714.867860257023</v>
       </c>
       <c r="F193">
         <v>32</v>
@@ -5434,13 +5434,13 @@
         <v>30000</v>
       </c>
       <c r="C194">
-        <v>122.1995926680244</v>
+        <v>129.8701298701299</v>
       </c>
       <c r="D194">
         <v>6000</v>
       </c>
       <c r="E194">
-        <v>1853.883093586199</v>
+        <v>1684.635797238075</v>
       </c>
       <c r="F194">
         <v>32.0855614973262</v>
@@ -5454,13 +5454,13 @@
         <v>29800</v>
       </c>
       <c r="C195">
-        <v>81.46639511201627</v>
+        <v>86.58008658008659</v>
       </c>
       <c r="D195">
         <v>4000</v>
       </c>
       <c r="E195">
-        <v>1849.809773830599</v>
+        <v>1680.306792909071</v>
       </c>
       <c r="F195">
         <v>32</v>
@@ -5474,13 +5474,13 @@
         <v>39000</v>
       </c>
       <c r="C196">
-        <v>180.1125703564728</v>
+        <v>187.3536299765808</v>
       </c>
       <c r="D196">
         <v>9600</v>
       </c>
       <c r="E196">
-        <v>2010.220621241595</v>
+        <v>1843.673480865923</v>
       </c>
       <c r="F196">
         <v>32</v>
@@ -5494,13 +5494,13 @@
         <v>42800</v>
       </c>
       <c r="C197">
-        <v>104.3478260869565</v>
+        <v>106.6098081023454</v>
       </c>
       <c r="D197">
         <v>6000</v>
       </c>
       <c r="E197">
-        <v>2064.24786653077</v>
+        <v>1895.813250402316</v>
       </c>
       <c r="F197">
         <v>32.0855614973262</v>
@@ -5514,13 +5514,13 @@
         <v>43660</v>
       </c>
       <c r="C198">
-        <v>111.3043478260869</v>
+        <v>113.7171286425018</v>
       </c>
       <c r="D198">
         <v>6400</v>
       </c>
       <c r="E198">
-        <v>2079.204388269901</v>
+        <v>1911.093989563652</v>
       </c>
       <c r="F198">
         <v>32</v>
@@ -5534,13 +5534,13 @@
         <v>44000</v>
       </c>
       <c r="C199">
-        <v>83.47826086956519</v>
+        <v>85.28784648187634</v>
       </c>
       <c r="D199">
         <v>4800</v>
       </c>
       <c r="E199">
-        <v>2085.117431748162</v>
+        <v>1917.135212022785</v>
       </c>
       <c r="F199">
         <v>32</v>
@@ -5554,13 +5554,13 @@
         <v>40400</v>
       </c>
       <c r="C200">
-        <v>83.47826086956519</v>
+        <v>85.28784648187634</v>
       </c>
       <c r="D200">
         <v>4800</v>
       </c>
       <c r="E200">
-        <v>2022.508736095988</v>
+        <v>1853.169327161378</v>
       </c>
       <c r="F200">
         <v>32</v>
@@ -5574,13 +5574,13 @@
         <v>35000</v>
       </c>
       <c r="C201">
-        <v>150.093808630394</v>
+        <v>156.128024980484</v>
       </c>
       <c r="D201">
         <v>8000</v>
       </c>
       <c r="E201">
-        <v>1935.173716926398</v>
+        <v>1765.609468375681</v>
       </c>
       <c r="F201">
         <v>32</v>
@@ -5594,13 +5594,13 @@
         <v>33000</v>
       </c>
       <c r="C202">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D202">
         <v>6000</v>
       </c>
       <c r="E202">
-        <v>1897.6502647688</v>
+        <v>1726.57746213056</v>
       </c>
       <c r="F202">
         <v>32.0855614973262</v>
@@ -5614,13 +5614,13 @@
         <v>34200</v>
       </c>
       <c r="C203">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D203">
         <v>6000</v>
       </c>
       <c r="E203">
-        <v>1920.164336063359</v>
+        <v>1749.996665877632</v>
       </c>
       <c r="F203">
         <v>32.0855614973262</v>
@@ -5634,13 +5634,13 @@
         <v>40200</v>
       </c>
       <c r="C204">
-        <v>112.5703564727955</v>
+        <v>117.096018735363</v>
       </c>
       <c r="D204">
         <v>10000</v>
       </c>
       <c r="E204">
-        <v>1920.164336063359</v>
+        <v>1749.996665877632</v>
       </c>
       <c r="F204">
         <v>32.05128205128205</v>
@@ -5654,13 +5654,13 @@
         <v>44000</v>
       </c>
       <c r="C205">
-        <v>139.1304347826087</v>
+        <v>142.1464108031272</v>
       </c>
       <c r="D205">
         <v>8000</v>
       </c>
       <c r="E205">
-        <v>2085.117431748162</v>
+        <v>1917.135212022785</v>
       </c>
       <c r="F205">
         <v>32</v>
@@ -5674,13 +5674,13 @@
         <v>26400</v>
       </c>
       <c r="C206">
-        <v>73.31975560081464</v>
+        <v>77.92207792207793</v>
       </c>
       <c r="D206">
         <v>3600</v>
       </c>
       <c r="E206">
-        <v>1780.563337985385</v>
+        <v>1606.713719315997</v>
       </c>
       <c r="F206">
         <v>32.14285714285715</v>
@@ -5694,13 +5694,13 @@
         <v>40800</v>
       </c>
       <c r="C207">
-        <v>146.0869565217391</v>
+        <v>149.2537313432836</v>
       </c>
       <c r="D207">
         <v>8400</v>
       </c>
       <c r="E207">
-        <v>2029.465257835118</v>
+        <v>1860.276647701534</v>
       </c>
       <c r="F207">
         <v>32.06106870229008</v>
@@ -5714,13 +5714,13 @@
         <v>39600</v>
       </c>
       <c r="C208">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D208">
         <v>7200</v>
       </c>
       <c r="E208">
-        <v>2021.477656888875</v>
+        <v>1855.383082739459</v>
       </c>
       <c r="F208">
         <v>32</v>
@@ -5734,13 +5734,13 @@
         <v>37600</v>
       </c>
       <c r="C209">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D209">
         <v>7200</v>
       </c>
       <c r="E209">
-        <v>1983.954204731276</v>
+        <v>1816.351076494338</v>
       </c>
       <c r="F209">
         <v>32</v>
@@ -5754,13 +5754,13 @@
         <v>43200</v>
       </c>
       <c r="C210">
-        <v>191.3043478260869</v>
+        <v>195.4513148542999</v>
       </c>
       <c r="D210">
         <v>11000</v>
       </c>
       <c r="E210">
-        <v>2071.204388269901</v>
+        <v>1902.920570942472</v>
       </c>
       <c r="F210">
         <v>32.06997084548105</v>
@@ -5774,13 +5774,13 @@
         <v>45600</v>
       </c>
       <c r="C211">
-        <v>201.7391304347826</v>
+        <v>206.1122956645345</v>
       </c>
       <c r="D211">
         <v>11600</v>
       </c>
       <c r="E211">
-        <v>2112.943518704683</v>
+        <v>1945.56449418341</v>
       </c>
       <c r="F211">
         <v>32.04419889502763</v>
@@ -5794,13 +5794,13 @@
         <v>50460</v>
       </c>
       <c r="C212">
-        <v>166.9565217391304</v>
+        <v>170.5756929637527</v>
       </c>
       <c r="D212">
         <v>9600</v>
       </c>
       <c r="E212">
-        <v>2197.465257835118</v>
+        <v>2031.91843874631</v>
       </c>
       <c r="F212">
         <v>32</v>
@@ -5814,13 +5814,13 @@
         <v>42800</v>
       </c>
       <c r="C213">
-        <v>104.3478260869565</v>
+        <v>106.6098081023454</v>
       </c>
       <c r="D213">
         <v>6000</v>
       </c>
       <c r="E213">
-        <v>2064.24786653077</v>
+        <v>1895.813250402316</v>
       </c>
       <c r="F213">
         <v>32.0855614973262</v>
@@ -5834,13 +5834,13 @@
         <v>48700</v>
       </c>
       <c r="C214">
-        <v>194.7826086956521</v>
+        <v>199.0049751243781</v>
       </c>
       <c r="D214">
         <v>11200</v>
       </c>
       <c r="E214">
-        <v>2166.856562182944</v>
+        <v>2000.646228369622</v>
       </c>
       <c r="F214">
         <v>32</v>
@@ -5854,13 +5854,13 @@
         <v>51660</v>
       </c>
       <c r="C215">
-        <v>187.8260869565217</v>
+        <v>191.8976545842218</v>
       </c>
       <c r="D215">
         <v>10800</v>
       </c>
       <c r="E215">
-        <v>2218.334823052509</v>
+        <v>2053.240400366779</v>
       </c>
       <c r="F215">
         <v>32.04747774480713</v>
@@ -5874,13 +5874,13 @@
         <v>50860</v>
       </c>
       <c r="C216">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D216">
         <v>10000</v>
       </c>
       <c r="E216">
-        <v>2204.421779574249</v>
+        <v>2039.025759286467</v>
       </c>
       <c r="F216">
         <v>32.05128205128205</v>
@@ -5894,13 +5894,13 @@
         <v>46400</v>
       </c>
       <c r="C217">
-        <v>125.2173913043478</v>
+        <v>127.9317697228145</v>
       </c>
       <c r="D217">
         <v>7200</v>
       </c>
       <c r="E217">
-        <v>2126.856562182944</v>
+        <v>1959.779135263723</v>
       </c>
       <c r="F217">
         <v>32</v>
@@ -5914,13 +5914,13 @@
         <v>45200</v>
       </c>
       <c r="C218">
-        <v>104.3478260869565</v>
+        <v>106.6098081023454</v>
       </c>
       <c r="D218">
         <v>6000</v>
       </c>
       <c r="E218">
-        <v>2105.986996965553</v>
+        <v>1938.457173643254</v>
       </c>
       <c r="F218">
         <v>32.0855614973262</v>
@@ -5934,13 +5934,13 @@
         <v>54600</v>
       </c>
       <c r="C219">
-        <v>213.9384116693678</v>
+        <v>215.2641878669276</v>
       </c>
       <c r="D219">
         <v>13200</v>
       </c>
       <c r="E219">
-        <v>2252.417833411188</v>
+        <v>2084.449326382493</v>
       </c>
       <c r="F219">
         <v>32.03883495145631</v>
@@ -5954,13 +5954,13 @@
         <v>36800</v>
       </c>
       <c r="C220">
-        <v>150.093808630394</v>
+        <v>156.128024980484</v>
       </c>
       <c r="D220">
         <v>8000</v>
       </c>
       <c r="E220">
-        <v>1968.944823868237</v>
+        <v>1800.73827399629</v>
       </c>
       <c r="F220">
         <v>32</v>
@@ -5974,13 +5974,13 @@
         <v>42200</v>
       </c>
       <c r="C221">
-        <v>208.695652173913</v>
+        <v>213.2196162046909</v>
       </c>
       <c r="D221">
         <v>12000</v>
       </c>
       <c r="E221">
-        <v>2053.813083922075</v>
+        <v>1885.152269592081</v>
       </c>
       <c r="F221">
         <v>32</v>
@@ -5994,13 +5994,13 @@
         <v>40800</v>
       </c>
       <c r="C222">
-        <v>146.0869565217391</v>
+        <v>149.2537313432836</v>
       </c>
       <c r="D222">
         <v>8400</v>
       </c>
       <c r="E222">
-        <v>2029.465257835118</v>
+        <v>1860.276647701534</v>
       </c>
       <c r="F222">
         <v>32.06106870229008</v>
@@ -6014,13 +6014,13 @@
         <v>30000</v>
       </c>
       <c r="C223">
-        <v>146.6395112016293</v>
+        <v>155.8441558441559</v>
       </c>
       <c r="D223">
         <v>7200</v>
       </c>
       <c r="E223">
-        <v>1853.883093586199</v>
+        <v>1684.635797238075</v>
       </c>
       <c r="F223">
         <v>32</v>
@@ -6034,13 +6034,13 @@
         <v>42400</v>
       </c>
       <c r="C224">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D224">
         <v>10000</v>
       </c>
       <c r="E224">
-        <v>2057.29134479164</v>
+        <v>1888.70592986216</v>
       </c>
       <c r="F224">
         <v>32.05128205128205</v>
@@ -6054,13 +6054,13 @@
         <v>37200</v>
       </c>
       <c r="C225">
-        <v>135.0844277673546</v>
+        <v>140.5152224824356</v>
       </c>
       <c r="D225">
         <v>7200</v>
       </c>
       <c r="E225">
-        <v>1976.449514299757</v>
+        <v>1808.544675245314</v>
       </c>
       <c r="F225">
         <v>32</v>
@@ -6074,13 +6074,13 @@
         <v>45200</v>
       </c>
       <c r="C226">
-        <v>86.95652173913041</v>
+        <v>88.84150675195453</v>
       </c>
       <c r="D226">
         <v>5000</v>
       </c>
       <c r="E226">
-        <v>2105.986996965553</v>
+        <v>1938.457173643254</v>
       </c>
       <c r="F226">
         <v>11.11111111111111</v>
@@ -6094,13 +6094,13 @@
         <v>47000</v>
       </c>
       <c r="C227">
-        <v>139.1304347826087</v>
+        <v>142.1464108031272</v>
       </c>
       <c r="D227">
         <v>8000</v>
       </c>
       <c r="E227">
-        <v>2137.29134479164</v>
+        <v>1970.440116073958</v>
       </c>
       <c r="F227">
         <v>32</v>
@@ -6114,13 +6114,13 @@
         <v>33800</v>
       </c>
       <c r="C228">
-        <v>75.04690431519698</v>
+        <v>78.06401249024201</v>
       </c>
       <c r="D228">
         <v>4000</v>
       </c>
       <c r="E228">
-        <v>1912.659645631839</v>
+        <v>1742.190264628608</v>
       </c>
       <c r="F228">
         <v>32</v>
@@ -6134,13 +6134,13 @@
         <v>47400</v>
       </c>
       <c r="C229">
-        <v>86.95652173913041</v>
+        <v>88.84150675195453</v>
       </c>
       <c r="D229">
         <v>5000</v>
       </c>
       <c r="E229">
-        <v>2144.24786653077</v>
+        <v>1977.547436614114</v>
       </c>
       <c r="F229">
         <v>32.05128205128205</v>
@@ -6154,13 +6154,13 @@
         <v>50600</v>
       </c>
       <c r="C230">
-        <v>201.7391304347826</v>
+        <v>206.1122956645345</v>
       </c>
       <c r="D230">
         <v>11600</v>
       </c>
       <c r="E230">
-        <v>2199.900040443814</v>
+        <v>2034.406000935365</v>
       </c>
       <c r="F230">
         <v>32.04419889502763</v>
@@ -6174,13 +6174,13 @@
         <v>47200</v>
       </c>
       <c r="C231">
-        <v>83.47826086956519</v>
+        <v>85.28784648187634</v>
       </c>
       <c r="D231">
         <v>4800</v>
       </c>
       <c r="E231">
-        <v>2140.769605661205</v>
+        <v>1973.993776344036</v>
       </c>
       <c r="F231">
         <v>32</v>
@@ -6194,13 +6194,13 @@
         <v>34800</v>
       </c>
       <c r="C232">
-        <v>90.05628517823638</v>
+        <v>93.6768149882904</v>
       </c>
       <c r="D232">
         <v>4800</v>
       </c>
       <c r="E232">
-        <v>1931.421371710638</v>
+        <v>1761.706267751169</v>
       </c>
       <c r="F232">
         <v>32</v>
@@ -6214,13 +6214,13 @@
         <v>56600</v>
       </c>
       <c r="C233">
-        <v>233.3873581847649</v>
+        <v>234.8336594911938</v>
       </c>
       <c r="D233">
         <v>14400</v>
       </c>
       <c r="E233">
-        <v>2284.832744270183</v>
+        <v>2117.065112422937</v>
       </c>
       <c r="F233">
         <v>32</v>
@@ -6234,13 +6234,13 @@
         <v>43400</v>
       </c>
       <c r="C234">
-        <v>146.0869565217391</v>
+        <v>149.2537313432836</v>
       </c>
       <c r="D234">
         <v>8400</v>
       </c>
       <c r="E234">
-        <v>2074.682649139466</v>
+        <v>1906.47423121255</v>
       </c>
       <c r="F234">
         <v>32.06106870229008</v>
@@ -6254,13 +6254,13 @@
         <v>47400</v>
       </c>
       <c r="C235">
-        <v>86.95652173913041</v>
+        <v>88.84150675195453</v>
       </c>
       <c r="D235">
         <v>5000</v>
       </c>
       <c r="E235">
-        <v>2144.24786653077</v>
+        <v>1977.547436614114</v>
       </c>
       <c r="F235">
         <v>32.05128205128205</v>
@@ -6274,13 +6274,13 @@
         <v>72800</v>
       </c>
       <c r="C236">
-        <v>455.235204855842</v>
+        <v>452.0795660036167</v>
       </c>
       <c r="D236">
         <v>30000</v>
       </c>
       <c r="E236">
-        <v>2526.114781048072</v>
+        <v>2355.738351789778</v>
       </c>
       <c r="F236">
         <v>66.66666666666667</v>
@@ -6294,13 +6294,13 @@
         <v>45000</v>
       </c>
       <c r="C237">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D237">
         <v>10000</v>
       </c>
       <c r="E237">
-        <v>2102.508736095988</v>
+        <v>1934.903513373176</v>
       </c>
       <c r="F237">
         <v>32.05128205128205</v>
@@ -6314,13 +6314,13 @@
         <v>41000</v>
       </c>
       <c r="C238">
-        <v>139.1304347826087</v>
+        <v>142.1464108031272</v>
       </c>
       <c r="D238">
         <v>8000</v>
       </c>
       <c r="E238">
-        <v>2032.943518704683</v>
+        <v>1863.830307971612</v>
       </c>
       <c r="F238">
         <v>32</v>
@@ -6334,13 +6334,13 @@
         <v>49200</v>
       </c>
       <c r="C239">
-        <v>156.5217391304348</v>
+        <v>159.9147121535181</v>
       </c>
       <c r="D239">
         <v>9000</v>
       </c>
       <c r="E239">
-        <v>2175.552214356857</v>
+        <v>2009.530379044818</v>
       </c>
       <c r="F239">
         <v>32.02846975088968</v>
@@ -6354,13 +6354,13 @@
         <v>52200</v>
       </c>
       <c r="C240">
-        <v>156.5217391304348</v>
+        <v>159.9147121535181</v>
       </c>
       <c r="D240">
         <v>12000</v>
       </c>
       <c r="E240">
-        <v>2175.552214356857</v>
+        <v>2009.530379044818</v>
       </c>
       <c r="F240">
         <v>32</v>
@@ -6374,13 +6374,13 @@
         <v>54000</v>
       </c>
       <c r="C241">
-        <v>162.0745542949757</v>
+        <v>163.0789302022179</v>
       </c>
       <c r="D241">
         <v>10000</v>
       </c>
       <c r="E241">
-        <v>2242.693360153489</v>
+        <v>2074.66459057036</v>
       </c>
       <c r="F241">
         <v>32.05128205128205</v>
@@ -6394,13 +6394,13 @@
         <v>47400</v>
       </c>
       <c r="C242">
-        <v>125.2173913043478</v>
+        <v>127.9317697228145</v>
       </c>
       <c r="D242">
         <v>7200</v>
       </c>
       <c r="E242">
-        <v>2144.24786653077</v>
+        <v>1977.547436614114</v>
       </c>
       <c r="F242">
         <v>32</v>
@@ -6414,13 +6414,13 @@
         <v>55200</v>
       </c>
       <c r="C243">
-        <v>233.3873581847649</v>
+        <v>234.8336594911938</v>
       </c>
       <c r="D243">
         <v>14400</v>
       </c>
       <c r="E243">
-        <v>2262.142306668886</v>
+        <v>2094.234062194626</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -6434,13 +6434,13 @@
         <v>48000</v>
       </c>
       <c r="C244">
-        <v>125.2173913043478</v>
+        <v>127.9317697228145</v>
       </c>
       <c r="D244">
         <v>7200</v>
       </c>
       <c r="E244">
-        <v>2154.682649139466</v>
+        <v>1988.208417424348</v>
       </c>
       <c r="F244">
         <v>32</v>
@@ -6454,13 +6454,13 @@
         <v>56600</v>
       </c>
       <c r="C245">
-        <v>178.2820097244732</v>
+        <v>179.3868232224397</v>
       </c>
       <c r="D245">
         <v>11000</v>
       </c>
       <c r="E245">
-        <v>2284.832744270183</v>
+        <v>2117.065112422937</v>
       </c>
       <c r="F245">
         <v>32.06997084548105</v>
@@ -6474,13 +6474,13 @@
         <v>46000</v>
       </c>
       <c r="C246">
-        <v>146.0869565217391</v>
+        <v>149.2537313432836</v>
       </c>
       <c r="D246">
         <v>8400</v>
       </c>
       <c r="E246">
-        <v>2119.900040443814</v>
+        <v>1952.671814723567</v>
       </c>
       <c r="F246">
         <v>32.06106870229008</v>
@@ -6494,13 +6494,13 @@
         <v>59200</v>
       </c>
       <c r="C247">
-        <v>220.4213938411669</v>
+        <v>221.7873450750163</v>
       </c>
       <c r="D247">
         <v>13600</v>
       </c>
       <c r="E247">
-        <v>2326.972128386877</v>
+        <v>2159.465634275513</v>
       </c>
       <c r="F247">
         <v>32</v>
@@ -6514,13 +6514,13 @@
         <v>43200</v>
       </c>
       <c r="C248">
-        <v>104.3478260869565</v>
+        <v>106.6098081023454</v>
       </c>
       <c r="D248">
         <v>6000</v>
       </c>
       <c r="E248">
-        <v>2071.204388269901</v>
+        <v>1902.920570942472</v>
       </c>
       <c r="F248">
         <v>32.0855614973262</v>
@@ -6534,13 +6534,13 @@
         <v>61260</v>
       </c>
       <c r="C249">
-        <v>175.0405186385737</v>
+        <v>176.1252446183953</v>
       </c>
       <c r="D249">
         <v>10800</v>
       </c>
       <c r="E249">
-        <v>2360.359486571641</v>
+        <v>2193.05989389717</v>
       </c>
       <c r="F249">
         <v>32.04747774480713</v>
@@ -6554,13 +6554,13 @@
         <v>58860</v>
       </c>
       <c r="C250">
-        <v>129.6596434359805</v>
+        <v>130.4631441617743</v>
       </c>
       <c r="D250">
         <v>8000</v>
       </c>
       <c r="E250">
-        <v>2321.461593540847</v>
+        <v>2153.920950648638</v>
       </c>
       <c r="F250">
         <v>32</v>
@@ -6574,13 +6574,13 @@
         <v>63660</v>
       </c>
       <c r="C251">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D251">
         <v>12000</v>
       </c>
       <c r="E251">
-        <v>2399.257379602436</v>
+        <v>2232.198837145703</v>
       </c>
       <c r="F251">
         <v>32</v>
@@ -6594,13 +6594,13 @@
         <v>62860</v>
       </c>
       <c r="C252">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D252">
         <v>12000</v>
       </c>
       <c r="E252">
-        <v>2386.291415258838</v>
+        <v>2219.152522729525</v>
       </c>
       <c r="F252">
         <v>32</v>
@@ -6614,13 +6614,13 @@
         <v>55600</v>
       </c>
       <c r="C253">
-        <v>149.1085899513776</v>
+        <v>150.0326157860405</v>
       </c>
       <c r="D253">
         <v>9200</v>
       </c>
       <c r="E253">
-        <v>2268.625288840685</v>
+        <v>2100.757219402715</v>
       </c>
       <c r="F253">
         <v>32.05574912891986</v>
@@ -6634,13 +6634,13 @@
         <v>53200</v>
       </c>
       <c r="C254">
-        <v>129.6596434359805</v>
+        <v>130.4631441617743</v>
       </c>
       <c r="D254">
         <v>8000</v>
       </c>
       <c r="E254">
-        <v>2229.727395809891</v>
+        <v>2061.618276154183</v>
       </c>
       <c r="F254">
         <v>32</v>
@@ -6654,13 +6654,13 @@
         <v>54600</v>
       </c>
       <c r="C255">
-        <v>233.3873581847649</v>
+        <v>234.8336594911938</v>
       </c>
       <c r="D255">
         <v>14400</v>
       </c>
       <c r="E255">
-        <v>2252.417833411188</v>
+        <v>2084.449326382493</v>
       </c>
       <c r="F255">
         <v>32</v>
@@ -6674,13 +6674,13 @@
         <v>61460</v>
       </c>
       <c r="C256">
-        <v>246.353322528363</v>
+        <v>247.8799739073712</v>
       </c>
       <c r="D256">
         <v>15200</v>
       </c>
       <c r="E256">
-        <v>2363.600977657541</v>
+        <v>2196.321472501214</v>
       </c>
       <c r="F256">
         <v>33.77777777777778</v>
@@ -6694,13 +6694,13 @@
         <v>55200</v>
       </c>
       <c r="C257">
-        <v>243.1118314424635</v>
+        <v>244.6183953033268</v>
       </c>
       <c r="D257">
         <v>15000</v>
       </c>
       <c r="E257">
-        <v>2262.142306668886</v>
+        <v>2094.234062194626</v>
       </c>
       <c r="F257">
         <v>33.33333333333334</v>
@@ -6714,13 +6714,13 @@
         <v>56800</v>
       </c>
       <c r="C258">
-        <v>233.3873581847649</v>
+        <v>234.8336594911938</v>
       </c>
       <c r="D258">
         <v>14400</v>
       </c>
       <c r="E258">
-        <v>2288.074235356082</v>
+        <v>2120.326691026981</v>
       </c>
       <c r="F258">
         <v>32</v>
@@ -6734,13 +6734,13 @@
         <v>46800</v>
       </c>
       <c r="C259">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D259">
         <v>10000</v>
       </c>
       <c r="E259">
-        <v>2133.813083922075</v>
+        <v>1966.886455803879</v>
       </c>
       <c r="F259">
         <v>32.05128205128205</v>
@@ -6754,13 +6754,13 @@
         <v>46800</v>
       </c>
       <c r="C260">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D260">
         <v>10000</v>
       </c>
       <c r="E260">
-        <v>2133.813083922075</v>
+        <v>1966.886455803879</v>
       </c>
       <c r="F260">
         <v>32.05128205128205</v>
@@ -6774,13 +6774,13 @@
         <v>47400</v>
       </c>
       <c r="C261">
-        <v>125.2173913043478</v>
+        <v>127.9317697228145</v>
       </c>
       <c r="D261">
         <v>7200</v>
       </c>
       <c r="E261">
-        <v>2144.24786653077</v>
+        <v>1977.547436614114</v>
       </c>
       <c r="F261">
         <v>32</v>
@@ -6794,13 +6794,13 @@
         <v>55260</v>
       </c>
       <c r="C262">
-        <v>233.3873581847649</v>
+        <v>234.8336594911938</v>
       </c>
       <c r="D262">
         <v>14400</v>
       </c>
       <c r="E262">
-        <v>2263.114753994656</v>
+        <v>2095.21253577584</v>
       </c>
       <c r="F262">
         <v>32</v>
@@ -6814,13 +6814,13 @@
         <v>50400</v>
       </c>
       <c r="C263">
-        <v>166.9565217391304</v>
+        <v>170.5756929637527</v>
       </c>
       <c r="D263">
         <v>9600</v>
       </c>
       <c r="E263">
-        <v>2196.421779574249</v>
+        <v>2030.852340665287</v>
       </c>
       <c r="F263">
         <v>32</v>
@@ -6834,13 +6834,13 @@
         <v>57000</v>
       </c>
       <c r="C264">
-        <v>162.0745542949757</v>
+        <v>163.0789302022179</v>
       </c>
       <c r="D264">
         <v>10000</v>
       </c>
       <c r="E264">
-        <v>2291.315726441982</v>
+        <v>2123.588269631025</v>
       </c>
       <c r="F264">
         <v>32.05128205128205</v>
@@ -6854,13 +6854,13 @@
         <v>61800</v>
       </c>
       <c r="C265">
-        <v>81.03727714748783</v>
+        <v>81.53946510110895</v>
       </c>
       <c r="D265">
         <v>5000</v>
       </c>
       <c r="E265">
-        <v>2369.11151250357</v>
+        <v>2201.86615612809</v>
       </c>
       <c r="F265">
         <v>32.05128205128205</v>
@@ -6874,13 +6874,13 @@
         <v>64200</v>
       </c>
       <c r="C266">
-        <v>220.4213938411669</v>
+        <v>221.7873450750163</v>
       </c>
       <c r="D266">
         <v>13600</v>
       </c>
       <c r="E266">
-        <v>2408.009405534364</v>
+        <v>2241.005099376622</v>
       </c>
       <c r="F266">
         <v>32</v>
@@ -6894,13 +6894,13 @@
         <v>64000</v>
       </c>
       <c r="C267">
-        <v>116.6936790923825</v>
+        <v>117.4168297455969</v>
       </c>
       <c r="D267">
         <v>7200</v>
       </c>
       <c r="E267">
-        <v>2404.767914448465</v>
+        <v>2237.743520772578</v>
       </c>
       <c r="F267">
         <v>32</v>
@@ -6914,13 +6914,13 @@
         <v>62460</v>
       </c>
       <c r="C268">
-        <v>116.6936790923825</v>
+        <v>117.4168297455969</v>
       </c>
       <c r="D268">
         <v>7200</v>
       </c>
       <c r="E268">
-        <v>2379.808433087039</v>
+        <v>2212.629365521436</v>
       </c>
       <c r="F268">
         <v>32</v>
@@ -6934,13 +6934,13 @@
         <v>51400</v>
       </c>
       <c r="C269">
-        <v>69.56521739130433</v>
+        <v>71.07320540156361</v>
       </c>
       <c r="D269">
         <v>4000</v>
       </c>
       <c r="E269">
-        <v>2213.813083922075</v>
+        <v>2048.620642015678</v>
       </c>
       <c r="F269">
         <v>32</v>
@@ -6954,13 +6954,13 @@
         <v>69000</v>
       </c>
       <c r="C270">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D270">
         <v>14400</v>
       </c>
       <c r="E270">
-        <v>2468.451655099665</v>
+        <v>2298.474940095986</v>
       </c>
       <c r="F270">
         <v>32</v>
@@ -6974,13 +6974,13 @@
         <v>51600</v>
       </c>
       <c r="C271">
-        <v>83.47826086956519</v>
+        <v>85.28784648187634</v>
       </c>
       <c r="D271">
         <v>4800</v>
       </c>
       <c r="E271">
-        <v>2217.29134479164</v>
+        <v>2052.174302285756</v>
       </c>
       <c r="F271">
         <v>32</v>
@@ -6994,13 +6994,13 @@
         <v>62400</v>
       </c>
       <c r="C272">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D272">
         <v>12000</v>
       </c>
       <c r="E272">
-        <v>2378.835985761269</v>
+        <v>2211.650891940223</v>
       </c>
       <c r="F272">
         <v>32</v>
@@ -7014,13 +7014,13 @@
         <v>64000</v>
       </c>
       <c r="C273">
-        <v>116.6936790923825</v>
+        <v>117.4168297455969</v>
       </c>
       <c r="D273">
         <v>7200</v>
       </c>
       <c r="E273">
-        <v>2404.767914448465</v>
+        <v>2237.743520772578</v>
       </c>
       <c r="F273">
         <v>32</v>
@@ -7034,13 +7034,13 @@
         <v>70200</v>
       </c>
       <c r="C274">
-        <v>227.617602427921</v>
+        <v>226.0397830018083</v>
       </c>
       <c r="D274">
         <v>15000</v>
       </c>
       <c r="E274">
-        <v>2486.661063293899</v>
+        <v>2316.558122736131</v>
       </c>
       <c r="F274">
         <v>33.33333333333334</v>
@@ -7054,13 +7054,13 @@
         <v>51000</v>
       </c>
       <c r="C275">
-        <v>173.9130434782608</v>
+        <v>177.6830135039091</v>
       </c>
       <c r="D275">
         <v>10000</v>
       </c>
       <c r="E275">
-        <v>2206.856562182944</v>
+        <v>2041.513321475521</v>
       </c>
       <c r="F275">
         <v>32.05128205128205</v>
@@ -7074,13 +7074,13 @@
         <v>61200</v>
       </c>
       <c r="C276">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D276">
         <v>12000</v>
       </c>
       <c r="E276">
-        <v>2359.387039245872</v>
+        <v>2192.081420315957</v>
       </c>
       <c r="F276">
         <v>32</v>
@@ -7094,13 +7094,13 @@
         <v>66200</v>
       </c>
       <c r="C277">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D277">
         <v>14000</v>
       </c>
       <c r="E277">
-        <v>2359.387039245872</v>
+        <v>2192.081420315957</v>
       </c>
       <c r="F277">
         <v>32.03661327231121</v>
@@ -7114,13 +7114,13 @@
         <v>66000</v>
       </c>
       <c r="C278">
-        <v>194.4894651539708</v>
+        <v>195.6947162426615</v>
       </c>
       <c r="D278">
         <v>12000</v>
       </c>
       <c r="E278">
-        <v>2437.18282530746</v>
+        <v>2270.359306813022</v>
       </c>
       <c r="F278">
         <v>32</v>
@@ -7134,13 +7134,13 @@
         <v>66600</v>
       </c>
       <c r="C279">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D279">
         <v>14400</v>
       </c>
       <c r="E279">
-        <v>2432.032838711198</v>
+        <v>2262.308574815697</v>
       </c>
       <c r="F279">
         <v>32</v>
@@ -7154,13 +7154,13 @@
         <v>61800</v>
       </c>
       <c r="C280">
-        <v>155.5915721231766</v>
+        <v>156.5557729941292</v>
       </c>
       <c r="D280">
         <v>9600</v>
       </c>
       <c r="E280">
-        <v>2369.11151250357</v>
+        <v>2201.86615612809</v>
       </c>
       <c r="F280">
         <v>32</v>
@@ -7174,13 +7174,13 @@
         <v>71600</v>
       </c>
       <c r="C281">
-        <v>248.8619119878603</v>
+        <v>247.1368294153104</v>
       </c>
       <c r="D281">
         <v>16400</v>
       </c>
       <c r="E281">
-        <v>2507.905372853838</v>
+        <v>2337.655169149633</v>
       </c>
       <c r="F281">
         <v>36.44444444444444</v>
@@ -7194,13 +7194,13 @@
         <v>69600</v>
       </c>
       <c r="C282">
-        <v>197.2685887708649</v>
+        <v>195.9011452682339</v>
       </c>
       <c r="D282">
         <v>13000</v>
       </c>
       <c r="E282">
-        <v>2477.556359196782</v>
+        <v>2307.516531416059</v>
       </c>
       <c r="F282">
         <v>32.01970443349754</v>
@@ -7214,13 +7214,13 @@
         <v>73600</v>
       </c>
       <c r="C283">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D283">
         <v>14400</v>
       </c>
       <c r="E283">
-        <v>2538.254386510894</v>
+        <v>2367.793806883208</v>
       </c>
       <c r="F283">
         <v>32</v>
@@ -7234,13 +7234,13 @@
         <v>72200</v>
       </c>
       <c r="C284">
-        <v>197.2685887708649</v>
+        <v>195.9011452682339</v>
       </c>
       <c r="D284">
         <v>13000</v>
       </c>
       <c r="E284">
-        <v>2517.010076950955</v>
+        <v>2346.696760469706</v>
       </c>
       <c r="F284">
         <v>32.01970443349754</v>
@@ -7254,13 +7254,13 @@
         <v>74800</v>
       </c>
       <c r="C285">
-        <v>236.7223065250379</v>
+        <v>235.0813743218806</v>
       </c>
       <c r="D285">
         <v>15600</v>
       </c>
       <c r="E285">
-        <v>2556.463794705128</v>
+        <v>2385.876989523352</v>
       </c>
       <c r="F285">
         <v>34.66666666666666</v>
@@ -7274,13 +7274,13 @@
         <v>53600</v>
       </c>
       <c r="C286">
-        <v>116.6936790923825</v>
+        <v>117.4168297455969</v>
       </c>
       <c r="D286">
         <v>7200</v>
       </c>
       <c r="E286">
-        <v>2236.21037798169</v>
+        <v>2068.141433362272</v>
       </c>
       <c r="F286">
         <v>32</v>
@@ -7294,13 +7294,13 @@
         <v>73260</v>
       </c>
       <c r="C287">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D287">
         <v>12000</v>
       </c>
       <c r="E287">
-        <v>2533.095054189195</v>
+        <v>2362.6702384685</v>
       </c>
       <c r="F287">
         <v>32</v>
@@ -7314,13 +7314,13 @@
         <v>68860</v>
       </c>
       <c r="C288">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D288">
         <v>10000</v>
       </c>
       <c r="E288">
-        <v>2466.327224143671</v>
+        <v>2296.365235454636</v>
       </c>
       <c r="F288">
         <v>32.05128205128205</v>
@@ -7334,13 +7334,13 @@
         <v>67400</v>
       </c>
       <c r="C289">
-        <v>303.4901365705614</v>
+        <v>301.3863773357444</v>
       </c>
       <c r="D289">
         <v>20000</v>
       </c>
       <c r="E289">
-        <v>2444.17244417402</v>
+        <v>2274.364029909127</v>
       </c>
       <c r="F289">
         <v>44.44444444444444</v>
@@ -7354,13 +7354,13 @@
         <v>76860</v>
       </c>
       <c r="C290">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D290">
         <v>14000</v>
       </c>
       <c r="E290">
-        <v>2587.723278771896</v>
+        <v>2416.919786388934</v>
       </c>
       <c r="F290">
         <v>32.03661327231121</v>
@@ -7374,13 +7374,13 @@
         <v>69000</v>
       </c>
       <c r="C291">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D291">
         <v>14400</v>
       </c>
       <c r="E291">
-        <v>2468.451655099665</v>
+        <v>2298.474940095986</v>
       </c>
       <c r="F291">
         <v>32</v>
@@ -7394,13 +7394,13 @@
         <v>60600</v>
       </c>
       <c r="C292">
-        <v>213.9384116693678</v>
+        <v>215.2641878669276</v>
       </c>
       <c r="D292">
         <v>13200</v>
       </c>
       <c r="E292">
-        <v>2349.662565988173</v>
+        <v>2182.296684503824</v>
       </c>
       <c r="F292">
         <v>32.03883495145631</v>
@@ -7414,13 +7414,13 @@
         <v>66800</v>
       </c>
       <c r="C293">
-        <v>169.9544764795144</v>
+        <v>168.7763713080169</v>
       </c>
       <c r="D293">
         <v>11200</v>
       </c>
       <c r="E293">
-        <v>2435.067740076904</v>
+        <v>2265.322438589054</v>
       </c>
       <c r="F293">
         <v>32</v>
@@ -7434,13 +7434,13 @@
         <v>63200</v>
       </c>
       <c r="C294">
-        <v>162.0745542949757</v>
+        <v>163.0789302022179</v>
       </c>
       <c r="D294">
         <v>10000</v>
       </c>
       <c r="E294">
-        <v>2391.801950104867</v>
+        <v>2224.6972063564</v>
       </c>
       <c r="F294">
         <v>32.05128205128205</v>
@@ -7454,13 +7454,13 @@
         <v>63200</v>
       </c>
       <c r="C295">
-        <v>162.0745542949757</v>
+        <v>163.0789302022179</v>
       </c>
       <c r="D295">
         <v>10000</v>
       </c>
       <c r="E295">
-        <v>2391.801950104867</v>
+        <v>2224.6972063564</v>
       </c>
       <c r="F295">
         <v>32.05128205128205</v>
@@ -7474,13 +7474,13 @@
         <v>83400</v>
       </c>
       <c r="C296">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D296">
         <v>28800</v>
       </c>
       <c r="E296">
-        <v>2686.96455343047</v>
+        <v>2515.473131777722</v>
       </c>
       <c r="F296">
         <v>64</v>
@@ -7494,13 +7494,13 @@
         <v>71200</v>
       </c>
       <c r="C297">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D297">
         <v>14400</v>
       </c>
       <c r="E297">
-        <v>2501.835570122427</v>
+        <v>2331.627441602918</v>
       </c>
       <c r="F297">
         <v>32</v>
@@ -7514,13 +7514,13 @@
         <v>71200</v>
       </c>
       <c r="C298">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D298">
         <v>14400</v>
       </c>
       <c r="E298">
-        <v>2501.835570122427</v>
+        <v>2331.627441602918</v>
       </c>
       <c r="F298">
         <v>32</v>
@@ -7534,13 +7534,13 @@
         <v>71200</v>
       </c>
       <c r="C299">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D299">
         <v>14400</v>
       </c>
       <c r="E299">
-        <v>2501.835570122427</v>
+        <v>2331.627441602918</v>
       </c>
       <c r="F299">
         <v>32</v>
@@ -7554,13 +7554,13 @@
         <v>61400</v>
       </c>
       <c r="C300">
-        <v>149.1085899513776</v>
+        <v>150.0326157860405</v>
       </c>
       <c r="D300">
         <v>9200</v>
       </c>
       <c r="E300">
-        <v>2362.628530331771</v>
+        <v>2195.342998920001</v>
       </c>
       <c r="F300">
         <v>32.05574912891986</v>
@@ -7574,13 +7574,13 @@
         <v>69660</v>
       </c>
       <c r="C301">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D301">
         <v>14400</v>
       </c>
       <c r="E301">
-        <v>2478.466829606494</v>
+        <v>2308.420690548066</v>
       </c>
       <c r="F301">
         <v>32</v>
@@ -7594,13 +7594,13 @@
         <v>61200</v>
       </c>
       <c r="C302">
-        <v>175.0405186385737</v>
+        <v>176.1252446183953</v>
       </c>
       <c r="D302">
         <v>10800</v>
       </c>
       <c r="E302">
-        <v>2359.387039245872</v>
+        <v>2192.081420315957</v>
       </c>
       <c r="F302">
         <v>32.04747774480713</v>
@@ -7614,13 +7614,13 @@
         <v>69000</v>
       </c>
       <c r="C303">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D303">
         <v>12000</v>
       </c>
       <c r="E303">
-        <v>2468.451655099665</v>
+        <v>2298.474940095986</v>
       </c>
       <c r="F303">
         <v>32</v>
@@ -7634,13 +7634,13 @@
         <v>88400</v>
       </c>
       <c r="C304">
-        <v>75.87253414264035</v>
+        <v>75.34659433393611</v>
       </c>
       <c r="D304">
         <v>5000</v>
       </c>
       <c r="E304">
-        <v>2762.83708757311</v>
+        <v>2590.819726111658</v>
       </c>
       <c r="F304">
         <v>32.05128205128205</v>
@@ -7654,13 +7654,13 @@
         <v>79800</v>
       </c>
       <c r="C305">
-        <v>236.7223065250379</v>
+        <v>235.0813743218806</v>
       </c>
       <c r="D305">
         <v>15600</v>
       </c>
       <c r="E305">
-        <v>2632.336328847769</v>
+        <v>2461.223583857288</v>
       </c>
       <c r="F305">
         <v>34.66666666666666</v>
@@ -7674,13 +7674,13 @@
         <v>69200</v>
       </c>
       <c r="C306">
-        <v>91.04704097116841</v>
+        <v>90.41591320072332</v>
       </c>
       <c r="D306">
         <v>6000</v>
       </c>
       <c r="E306">
-        <v>2471.486556465371</v>
+        <v>2301.488803869344</v>
       </c>
       <c r="F306">
         <v>32.0855614973262</v>
@@ -7694,13 +7694,13 @@
         <v>85600</v>
       </c>
       <c r="C307">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D307">
         <v>14400</v>
       </c>
       <c r="E307">
-        <v>2720.348468453231</v>
+        <v>2548.625633284654</v>
       </c>
       <c r="F307">
         <v>32</v>
@@ -7714,13 +7714,13 @@
         <v>97800</v>
       </c>
       <c r="C308">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D308">
         <v>14400</v>
       </c>
       <c r="E308">
-        <v>2905.477451761274</v>
+        <v>2732.471323459458</v>
       </c>
       <c r="F308">
         <v>32</v>
@@ -7734,13 +7734,13 @@
         <v>85600</v>
       </c>
       <c r="C309">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D309">
         <v>14400</v>
       </c>
       <c r="E309">
-        <v>2720.348468453231</v>
+        <v>2548.625633284654</v>
       </c>
       <c r="F309">
         <v>32</v>
@@ -7754,13 +7754,13 @@
         <v>97800</v>
       </c>
       <c r="C310">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D310">
         <v>14400</v>
       </c>
       <c r="E310">
-        <v>2905.477451761274</v>
+        <v>2732.471323459458</v>
       </c>
       <c r="F310">
         <v>32</v>
@@ -7774,13 +7774,13 @@
         <v>73800</v>
       </c>
       <c r="C311">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D311">
         <v>12000</v>
       </c>
       <c r="E311">
-        <v>2541.2892878766</v>
+        <v>2370.807670656565</v>
       </c>
       <c r="F311">
         <v>32</v>
@@ -7794,13 +7794,13 @@
         <v>77000</v>
       </c>
       <c r="C312">
-        <v>230.6525037936266</v>
+        <v>229.0536467751658</v>
       </c>
       <c r="D312">
         <v>15200</v>
       </c>
       <c r="E312">
-        <v>2589.84770972789</v>
+        <v>2419.029491030284</v>
       </c>
       <c r="F312">
         <v>33.77777777777778</v>
@@ -7814,13 +7814,13 @@
         <v>73200</v>
       </c>
       <c r="C313">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D313">
         <v>12000</v>
       </c>
       <c r="E313">
-        <v>2532.184583779483</v>
+        <v>2361.766079336493</v>
       </c>
       <c r="F313">
         <v>32</v>
@@ -7834,13 +7834,13 @@
         <v>71800</v>
       </c>
       <c r="C314">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D314">
         <v>10000</v>
       </c>
       <c r="E314">
-        <v>2510.940274219544</v>
+        <v>2340.66903292299</v>
       </c>
       <c r="F314">
         <v>32.05128205128205</v>
@@ -7854,13 +7854,13 @@
         <v>80000</v>
       </c>
       <c r="C315">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D315">
         <v>14000</v>
       </c>
       <c r="E315">
-        <v>2635.371230213474</v>
+        <v>2464.237447630646</v>
       </c>
       <c r="F315">
         <v>32.03661327231121</v>
@@ -7874,13 +7874,13 @@
         <v>76200</v>
       </c>
       <c r="C316">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D316">
         <v>14400</v>
       </c>
       <c r="E316">
-        <v>2577.708104265067</v>
+        <v>2406.974035936854</v>
       </c>
       <c r="F316">
         <v>32</v>
@@ -7894,13 +7894,13 @@
         <v>90600</v>
       </c>
       <c r="C317">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D317">
         <v>28800</v>
       </c>
       <c r="E317">
-        <v>2796.221002595872</v>
+        <v>2623.97222761859</v>
       </c>
       <c r="F317">
         <v>64</v>
@@ -7914,13 +7914,13 @@
         <v>76200</v>
       </c>
       <c r="C318">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D318">
         <v>14400</v>
       </c>
       <c r="E318">
-        <v>2577.708104265067</v>
+        <v>2406.974035936854</v>
       </c>
       <c r="F318">
         <v>32</v>
@@ -7934,13 +7934,13 @@
         <v>84600</v>
       </c>
       <c r="C319">
-        <v>227.617602427921</v>
+        <v>226.0397830018083</v>
       </c>
       <c r="D319">
         <v>15000</v>
       </c>
       <c r="E319">
-        <v>2705.173961624703</v>
+        <v>2533.556314417867</v>
       </c>
       <c r="F319">
         <v>33.33333333333334</v>
@@ -7954,13 +7954,13 @@
         <v>103600</v>
       </c>
       <c r="C320">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D320">
         <v>28800</v>
       </c>
       <c r="E320">
-        <v>2993.489591366736</v>
+        <v>2819.873372886824</v>
       </c>
       <c r="F320">
         <v>64</v>
@@ -7974,13 +7974,13 @@
         <v>92400</v>
       </c>
       <c r="C321">
-        <v>267.071320182094</v>
+        <v>265.2200120554551</v>
       </c>
       <c r="D321">
         <v>17600</v>
       </c>
       <c r="E321">
-        <v>2823.535114887222</v>
+        <v>2651.097001578808</v>
       </c>
       <c r="F321">
         <v>39.11111111111111</v>
@@ -7994,13 +7994,13 @@
         <v>62000</v>
       </c>
       <c r="C322">
-        <v>136.1426256077795</v>
+        <v>136.986301369863</v>
       </c>
       <c r="D322">
         <v>8400</v>
       </c>
       <c r="E322">
-        <v>2372.35300358947</v>
+        <v>2205.127734732134</v>
       </c>
       <c r="F322">
         <v>32.06106870229008</v>
@@ -8014,13 +8014,13 @@
         <v>80860</v>
       </c>
       <c r="C323">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D323">
         <v>12000</v>
       </c>
       <c r="E323">
-        <v>2648.421306086008</v>
+        <v>2477.197061856083</v>
       </c>
       <c r="F323">
         <v>32</v>
@@ -8034,13 +8034,13 @@
         <v>83400</v>
       </c>
       <c r="C324">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D324">
         <v>14400</v>
       </c>
       <c r="E324">
-        <v>2686.96455343047</v>
+        <v>2515.473131777722</v>
       </c>
       <c r="F324">
         <v>32</v>
@@ -8054,13 +8054,13 @@
         <v>75800</v>
       </c>
       <c r="C325">
-        <v>230.6525037936266</v>
+        <v>229.0536467751658</v>
       </c>
       <c r="D325">
         <v>15200</v>
       </c>
       <c r="E325">
-        <v>2571.638301533656</v>
+        <v>2400.94630839014</v>
       </c>
       <c r="F325">
         <v>33.77777777777778</v>
@@ -8074,13 +8074,13 @@
         <v>75200</v>
       </c>
       <c r="C326">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D326">
         <v>12000</v>
       </c>
       <c r="E326">
-        <v>2562.533597436539</v>
+        <v>2391.904717070067</v>
       </c>
       <c r="F326">
         <v>32</v>
@@ -8094,13 +8094,13 @@
         <v>69200</v>
       </c>
       <c r="C327">
-        <v>91.04704097116841</v>
+        <v>90.41591320072332</v>
       </c>
       <c r="D327">
         <v>6000</v>
       </c>
       <c r="E327">
-        <v>2471.486556465371</v>
+        <v>2301.488803869344</v>
       </c>
       <c r="F327">
         <v>32.0855614973262</v>
@@ -8114,13 +8114,13 @@
         <v>75200</v>
       </c>
       <c r="C328">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D328">
         <v>12000</v>
       </c>
       <c r="E328">
-        <v>2562.533597436539</v>
+        <v>2391.904717070067</v>
       </c>
       <c r="F328">
         <v>32</v>
@@ -8134,13 +8134,13 @@
         <v>85600</v>
       </c>
       <c r="C329">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D329">
         <v>14400</v>
       </c>
       <c r="E329">
-        <v>2720.348468453231</v>
+        <v>2548.625633284654</v>
       </c>
       <c r="F329">
         <v>32</v>
@@ -8154,13 +8154,13 @@
         <v>100000</v>
       </c>
       <c r="C330">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D330">
         <v>28800</v>
       </c>
       <c r="E330">
-        <v>2938.861366784035</v>
+        <v>2765.62382496639</v>
       </c>
       <c r="F330">
         <v>64</v>
@@ -8174,13 +8174,13 @@
         <v>84060</v>
       </c>
       <c r="C331">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D331">
         <v>14400</v>
       </c>
       <c r="E331">
-        <v>2696.979727937298</v>
+        <v>2525.418882229802</v>
       </c>
       <c r="F331">
         <v>32</v>
@@ -8194,13 +8194,13 @@
         <v>98460</v>
       </c>
       <c r="C332">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D332">
         <v>28800</v>
       </c>
       <c r="E332">
-        <v>2915.492626268102</v>
+        <v>2742.417073911538</v>
       </c>
       <c r="F332">
         <v>64</v>
@@ -8214,13 +8214,13 @@
         <v>83000</v>
       </c>
       <c r="C333">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D333">
         <v>14000</v>
       </c>
       <c r="E333">
-        <v>2680.894750699058</v>
+        <v>2509.445404231008</v>
       </c>
       <c r="F333">
         <v>32.03661327231121</v>
@@ -8234,13 +8234,13 @@
         <v>80000</v>
       </c>
       <c r="C334">
-        <v>72.83763277693473</v>
+        <v>72.33273056057867</v>
       </c>
       <c r="D334">
         <v>4800</v>
       </c>
       <c r="E334">
-        <v>2635.371230213474</v>
+        <v>2464.237447630646</v>
       </c>
       <c r="F334">
         <v>32</v>
@@ -8254,13 +8254,13 @@
         <v>80200</v>
       </c>
       <c r="C335">
-        <v>75.87253414264035</v>
+        <v>75.34659433393611</v>
       </c>
       <c r="D335">
         <v>5000</v>
       </c>
       <c r="E335">
-        <v>2638.40613157918</v>
+        <v>2467.251311404003</v>
       </c>
       <c r="F335">
         <v>32.05128205128205</v>
@@ -8274,13 +8274,13 @@
         <v>115600</v>
       </c>
       <c r="C336">
-        <v>455.235204855842</v>
+        <v>452.0795660036167</v>
       </c>
       <c r="D336">
         <v>30000</v>
       </c>
       <c r="E336">
-        <v>3175.583673309073</v>
+        <v>3000.705199288271</v>
       </c>
       <c r="F336">
         <v>66.66666666666667</v>
@@ -8294,13 +8294,13 @@
         <v>87800</v>
       </c>
       <c r="C337">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D337">
         <v>14000</v>
       </c>
       <c r="E337">
-        <v>2753.732383475993</v>
+        <v>2581.778134791586</v>
       </c>
       <c r="F337">
         <v>32.03661327231121</v>
@@ -8314,13 +8314,13 @@
         <v>96200</v>
       </c>
       <c r="C338">
-        <v>291.3505311077389</v>
+        <v>289.3309222423147</v>
       </c>
       <c r="D338">
         <v>19200</v>
       </c>
       <c r="E338">
-        <v>2881.198240835628</v>
+        <v>2708.360413272599</v>
       </c>
       <c r="F338">
         <v>42.66666666666666</v>
@@ -8334,13 +8334,13 @@
         <v>85800</v>
       </c>
       <c r="C339">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D339">
         <v>12000</v>
       </c>
       <c r="E339">
-        <v>2723.383369818937</v>
+        <v>2551.639497058012</v>
       </c>
       <c r="F339">
         <v>32</v>
@@ -8354,13 +8354,13 @@
         <v>83400</v>
       </c>
       <c r="C340">
-        <v>109.2564491654021</v>
+        <v>108.499095840868</v>
       </c>
       <c r="D340">
         <v>7200</v>
       </c>
       <c r="E340">
-        <v>2686.96455343047</v>
+        <v>2515.473131777722</v>
       </c>
       <c r="F340">
         <v>32</v>
@@ -8374,13 +8374,13 @@
         <v>101600</v>
       </c>
       <c r="C341">
-        <v>257.9666160849771</v>
+        <v>256.1784207353828</v>
       </c>
       <c r="D341">
         <v>17000</v>
       </c>
       <c r="E341">
-        <v>2963.14057770968</v>
+        <v>2789.73473515325</v>
       </c>
       <c r="F341">
         <v>37.77777777777778</v>
@@ -8394,13 +8394,13 @@
         <v>146800</v>
       </c>
       <c r="C342">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D342">
         <v>43200</v>
       </c>
       <c r="E342">
-        <v>3649.028286359149</v>
+        <v>3470.867947932032</v>
       </c>
       <c r="F342">
         <v>96</v>
@@ -8414,13 +8414,13 @@
         <v>118600</v>
       </c>
       <c r="C343">
-        <v>227.617602427921</v>
+        <v>226.0397830018083</v>
       </c>
       <c r="D343">
         <v>15000</v>
       </c>
       <c r="E343">
-        <v>3221.107193794657</v>
+        <v>3045.913155888632</v>
       </c>
       <c r="F343">
         <v>33.33333333333334</v>
@@ -8434,13 +8434,13 @@
         <v>105000</v>
       </c>
       <c r="C344">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D344">
         <v>28800</v>
       </c>
       <c r="E344">
-        <v>3014.733900926676</v>
+        <v>2840.970419300326</v>
       </c>
       <c r="F344">
         <v>64</v>
@@ -8454,13 +8454,13 @@
         <v>112200</v>
       </c>
       <c r="C345">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D345">
         <v>28800</v>
       </c>
       <c r="E345">
-        <v>3123.990350092078</v>
+        <v>2949.469515141194</v>
       </c>
       <c r="F345">
         <v>64</v>
@@ -8474,13 +8474,13 @@
         <v>97800</v>
       </c>
       <c r="C346">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D346">
         <v>14400</v>
       </c>
       <c r="E346">
-        <v>2905.477451761274</v>
+        <v>2732.471323459458</v>
       </c>
       <c r="F346">
         <v>32</v>
@@ -8494,13 +8494,13 @@
         <v>93000</v>
       </c>
       <c r="C347">
-        <v>261.0015174506828</v>
+        <v>259.1922845087402</v>
       </c>
       <c r="D347">
         <v>17200</v>
       </c>
       <c r="E347">
-        <v>2832.639818984339</v>
+        <v>2660.13859289888</v>
       </c>
       <c r="F347">
         <v>38.22222222222222</v>
@@ -8514,13 +8514,13 @@
         <v>85200</v>
       </c>
       <c r="C348">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D348">
         <v>10000</v>
       </c>
       <c r="E348">
-        <v>2714.27866572182</v>
+        <v>2542.59790573794</v>
       </c>
       <c r="F348">
         <v>32.05128205128205</v>
@@ -8534,13 +8534,13 @@
         <v>77200</v>
       </c>
       <c r="C349">
-        <v>121.3960546282245</v>
+        <v>120.5545509342978</v>
       </c>
       <c r="D349">
         <v>8000</v>
       </c>
       <c r="E349">
-        <v>2592.882611093595</v>
+        <v>2422.043354803642</v>
       </c>
       <c r="F349">
         <v>32</v>
@@ -8554,13 +8554,13 @@
         <v>119400</v>
       </c>
       <c r="C350">
-        <v>546.2822458270105</v>
+        <v>542.49547920434</v>
       </c>
       <c r="D350">
         <v>36000</v>
       </c>
       <c r="E350">
-        <v>3233.24679925748</v>
+        <v>3057.968610982062</v>
       </c>
       <c r="F350">
         <v>80</v>
@@ -8574,13 +8574,13 @@
         <v>147200</v>
       </c>
       <c r="C351">
-        <v>858.8770864946887</v>
+        <v>852.9234478601568</v>
       </c>
       <c r="D351">
         <v>56600</v>
       </c>
       <c r="E351">
-        <v>3655.09808909056</v>
+        <v>3476.895675478747</v>
       </c>
       <c r="F351">
         <v>125.7777777777778</v>
@@ -8594,13 +8594,13 @@
         <v>100000</v>
       </c>
       <c r="C352">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D352">
         <v>14400</v>
       </c>
       <c r="E352">
-        <v>2938.861366784035</v>
+        <v>2765.62382496639</v>
       </c>
       <c r="F352">
         <v>32</v>
@@ -8614,13 +8614,13 @@
         <v>114400</v>
       </c>
       <c r="C353">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D353">
         <v>28800</v>
       </c>
       <c r="E353">
-        <v>3157.37426511484</v>
+        <v>2982.622016648126</v>
       </c>
       <c r="F353">
         <v>64</v>
@@ -8634,13 +8634,13 @@
         <v>143200</v>
       </c>
       <c r="C354">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D354">
         <v>43200</v>
       </c>
       <c r="E354">
-        <v>3594.400061776448</v>
+        <v>3416.618400011598</v>
       </c>
       <c r="F354">
         <v>96</v>
@@ -8654,13 +8654,13 @@
         <v>98460</v>
       </c>
       <c r="C355">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D355">
         <v>14400</v>
       </c>
       <c r="E355">
-        <v>2915.492626268102</v>
+        <v>2742.417073911538</v>
       </c>
       <c r="F355">
         <v>32</v>
@@ -8674,13 +8674,13 @@
         <v>127260</v>
       </c>
       <c r="C356">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D356">
         <v>28800</v>
       </c>
       <c r="E356">
-        <v>3352.518422929711</v>
+        <v>3176.41345727501</v>
       </c>
       <c r="F356">
         <v>64</v>
@@ -8694,13 +8694,13 @@
         <v>99000</v>
       </c>
       <c r="C357">
-        <v>242.7921092564491</v>
+        <v>241.1091018685955</v>
       </c>
       <c r="D357">
         <v>16000</v>
       </c>
       <c r="E357">
-        <v>2923.686859955507</v>
+        <v>2750.554506099603</v>
       </c>
       <c r="F357">
         <v>35.55555555555556</v>
@@ -8714,13 +8714,13 @@
         <v>132760</v>
       </c>
       <c r="C358">
-        <v>83.45978755690437</v>
+        <v>82.88125376732972</v>
       </c>
       <c r="D358">
         <v>5500</v>
       </c>
       <c r="E358">
-        <v>3435.978210486615</v>
+        <v>3259.29471104234</v>
       </c>
       <c r="F358">
         <v>32.16374269005848</v>
@@ -8734,13 +8734,13 @@
         <v>133800</v>
       </c>
       <c r="C359">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D359">
         <v>28800</v>
       </c>
       <c r="E359">
-        <v>3451.759697588284</v>
+        <v>3274.966802663798</v>
       </c>
       <c r="F359">
         <v>64</v>
@@ -8754,13 +8754,13 @@
         <v>139800</v>
       </c>
       <c r="C360">
-        <v>309.5599393019726</v>
+        <v>307.4141048824593</v>
       </c>
       <c r="D360">
         <v>20400</v>
       </c>
       <c r="E360">
-        <v>3542.806738559452</v>
+        <v>3365.382715864522</v>
       </c>
       <c r="F360">
         <v>45.33333333333334</v>
@@ -8774,13 +8774,13 @@
         <v>137260</v>
       </c>
       <c r="C361">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D361">
         <v>10000</v>
       </c>
       <c r="E361">
-        <v>3504.263491214991</v>
+        <v>3327.106645942882</v>
       </c>
       <c r="F361">
         <v>32.05128205128205</v>
@@ -8794,13 +8794,13 @@
         <v>141660</v>
       </c>
       <c r="C362">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D362">
         <v>14400</v>
       </c>
       <c r="E362">
-        <v>3571.031321260515</v>
+        <v>3393.411648956746</v>
       </c>
       <c r="F362">
         <v>32</v>
@@ -8814,13 +8814,13 @@
         <v>103800</v>
       </c>
       <c r="C363">
-        <v>242.7921092564491</v>
+        <v>241.1091018685955</v>
       </c>
       <c r="D363">
         <v>16000</v>
       </c>
       <c r="E363">
-        <v>2996.524492732442</v>
+        <v>2822.887236660182</v>
       </c>
       <c r="F363">
         <v>35.55555555555556</v>
@@ -8834,13 +8834,13 @@
         <v>99800</v>
       </c>
       <c r="C364">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D364">
         <v>14000</v>
       </c>
       <c r="E364">
-        <v>2935.826465418329</v>
+        <v>2762.609961193033</v>
       </c>
       <c r="F364">
         <v>32.03661327231121</v>
@@ -8854,13 +8854,13 @@
         <v>120600</v>
       </c>
       <c r="C365">
-        <v>288.3156297420333</v>
+        <v>286.3170584689572</v>
       </c>
       <c r="D365">
         <v>19000</v>
       </c>
       <c r="E365">
-        <v>3251.456207451713</v>
+        <v>3076.051793622207</v>
       </c>
       <c r="F365">
         <v>42.22222222222222</v>
@@ -8874,13 +8874,13 @@
         <v>163800</v>
       </c>
       <c r="C366">
-        <v>257.9666160849771</v>
+        <v>256.1784207353828</v>
       </c>
       <c r="D366">
         <v>17000</v>
       </c>
       <c r="E366">
-        <v>3906.994902444126</v>
+        <v>3727.046368667415</v>
       </c>
       <c r="F366">
         <v>37.77777777777778</v>
@@ -8894,13 +8894,13 @@
         <v>126600</v>
       </c>
       <c r="C367">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D367">
         <v>28800</v>
       </c>
       <c r="E367">
-        <v>3342.503248422882</v>
+        <v>3166.46770682293</v>
       </c>
       <c r="F367">
         <v>64</v>
@@ -8914,13 +8914,13 @@
         <v>130000</v>
       </c>
       <c r="C368">
-        <v>379.3626707132017</v>
+        <v>376.7329716696805</v>
       </c>
       <c r="D368">
         <v>25000</v>
       </c>
       <c r="E368">
-        <v>3394.096571639877</v>
+        <v>3217.703390970007</v>
       </c>
       <c r="F368">
         <v>55.55555555555556</v>
@@ -8934,13 +8934,13 @@
         <v>155400</v>
       </c>
       <c r="C369">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D369">
         <v>43200</v>
       </c>
       <c r="E369">
-        <v>3779.52904508449</v>
+        <v>3600.464090186402</v>
       </c>
       <c r="F369">
         <v>96</v>
@@ -8954,13 +8954,13 @@
         <v>126600</v>
       </c>
       <c r="C370">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D370">
         <v>28800</v>
       </c>
       <c r="E370">
-        <v>3342.503248422882</v>
+        <v>3166.46770682293</v>
       </c>
       <c r="F370">
         <v>64</v>
@@ -8974,13 +8974,13 @@
         <v>97200</v>
       </c>
       <c r="C371">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D371">
         <v>12000</v>
       </c>
       <c r="E371">
-        <v>2896.372747664157</v>
+        <v>2723.429732139386</v>
       </c>
       <c r="F371">
         <v>32</v>
@@ -8994,13 +8994,13 @@
         <v>87200</v>
       </c>
       <c r="C372">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D372">
         <v>10000</v>
       </c>
       <c r="E372">
-        <v>2744.627679378876</v>
+        <v>2572.736543471514</v>
       </c>
       <c r="F372">
         <v>32.05128205128205</v>
@@ -9014,13 +9014,13 @@
         <v>143200</v>
       </c>
       <c r="C373">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D373">
         <v>28800</v>
       </c>
       <c r="E373">
-        <v>3594.400061776448</v>
+        <v>3416.618400011598</v>
       </c>
       <c r="F373">
         <v>64</v>
@@ -9034,13 +9034,13 @@
         <v>128800</v>
       </c>
       <c r="C374">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D374">
         <v>28800</v>
       </c>
       <c r="E374">
-        <v>3375.887163445644</v>
+        <v>3199.620208329862</v>
       </c>
       <c r="F374">
         <v>64</v>
@@ -9054,13 +9054,13 @@
         <v>157600</v>
       </c>
       <c r="C375">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D375">
         <v>43200</v>
       </c>
       <c r="E375">
-        <v>3812.912960107252</v>
+        <v>3633.616591693334</v>
       </c>
       <c r="F375">
         <v>96</v>
@@ -9074,13 +9074,13 @@
         <v>170460</v>
       </c>
       <c r="C376">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D376">
         <v>43200</v>
       </c>
       <c r="E376">
-        <v>4008.057117922123</v>
+        <v>3827.408032320218</v>
       </c>
       <c r="F376">
         <v>96</v>
@@ -9094,13 +9094,13 @@
         <v>127260</v>
       </c>
       <c r="C377">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D377">
         <v>28800</v>
       </c>
       <c r="E377">
-        <v>3352.518422929711</v>
+        <v>3176.41345727501</v>
       </c>
       <c r="F377">
         <v>64</v>
@@ -9114,13 +9114,13 @@
         <v>117000</v>
       </c>
       <c r="C378">
-        <v>273.1411229135052</v>
+        <v>271.24773960217</v>
       </c>
       <c r="D378">
         <v>18000</v>
       </c>
       <c r="E378">
-        <v>3196.827982869012</v>
+        <v>3021.802245701773</v>
       </c>
       <c r="F378">
         <v>40</v>
@@ -9134,13 +9134,13 @@
         <v>141000</v>
       </c>
       <c r="C379">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D379">
         <v>14400</v>
       </c>
       <c r="E379">
-        <v>3561.016146753686</v>
+        <v>3383.465898504666</v>
       </c>
       <c r="F379">
         <v>32</v>
@@ -9154,13 +9154,13 @@
         <v>162600</v>
       </c>
       <c r="C380">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D380">
         <v>28800</v>
       </c>
       <c r="E380">
-        <v>3888.785494249893</v>
+        <v>3708.96318602727</v>
       </c>
       <c r="F380">
         <v>64</v>
@@ -9174,13 +9174,13 @@
         <v>172000</v>
       </c>
       <c r="C381">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D381">
         <v>28800</v>
       </c>
       <c r="E381">
-        <v>4031.425858438056</v>
+        <v>3850.61478337507</v>
       </c>
       <c r="F381">
         <v>64</v>
@@ -9194,13 +9194,13 @@
         <v>121800</v>
       </c>
       <c r="C382">
-        <v>273.1411229135052</v>
+        <v>271.24773960217</v>
       </c>
       <c r="D382">
         <v>18000</v>
       </c>
       <c r="E382">
-        <v>3269.665615645947</v>
+        <v>3094.134976262352</v>
       </c>
       <c r="F382">
         <v>40</v>
@@ -9214,13 +9214,13 @@
         <v>115800</v>
       </c>
       <c r="C383">
-        <v>242.7921092564491</v>
+        <v>241.1091018685955</v>
       </c>
       <c r="D383">
         <v>16000</v>
       </c>
       <c r="E383">
-        <v>3178.618574674779</v>
+        <v>3003.719063061628</v>
       </c>
       <c r="F383">
         <v>35.55555555555556</v>
@@ -9234,13 +9234,13 @@
         <v>141600</v>
       </c>
       <c r="C384">
-        <v>318.6646433990894</v>
+        <v>316.4556962025317</v>
       </c>
       <c r="D384">
         <v>21000</v>
       </c>
       <c r="E384">
-        <v>3570.120850850803</v>
+        <v>3392.507489824739</v>
       </c>
       <c r="F384">
         <v>46.66666666666666</v>
@@ -9254,13 +9254,13 @@
         <v>213800</v>
       </c>
       <c r="C385">
-        <v>758.7253414264034</v>
+        <v>753.465943339361</v>
       </c>
       <c r="D385">
         <v>50000</v>
       </c>
       <c r="E385">
-        <v>4665.72024387053</v>
+        <v>4480.512312006776</v>
       </c>
       <c r="F385">
         <v>111.1111111111111</v>
@@ -9274,13 +9274,13 @@
         <v>169800</v>
       </c>
       <c r="C386">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D386">
         <v>43200</v>
       </c>
       <c r="E386">
-        <v>3998.041943415295</v>
+        <v>3817.462281868138</v>
       </c>
       <c r="F386">
         <v>96</v>
@@ -9294,13 +9294,13 @@
         <v>111200</v>
       </c>
       <c r="C387">
-        <v>212.443095599393</v>
+        <v>210.9704641350211</v>
       </c>
       <c r="D387">
         <v>14000</v>
       </c>
       <c r="E387">
-        <v>3108.81584326355</v>
+        <v>2934.400196274407</v>
       </c>
       <c r="F387">
         <v>32.03661327231121</v>
@@ -9314,13 +9314,13 @@
         <v>99200</v>
       </c>
       <c r="C388">
-        <v>182.0940819423368</v>
+        <v>180.8318264014466</v>
       </c>
       <c r="D388">
         <v>12000</v>
       </c>
       <c r="E388">
-        <v>2926.721761321213</v>
+        <v>2753.56836987296</v>
       </c>
       <c r="F388">
         <v>32</v>
@@ -9334,13 +9334,13 @@
         <v>186400</v>
       </c>
       <c r="C389">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D389">
         <v>28800</v>
       </c>
       <c r="E389">
-        <v>4249.938756768861</v>
+        <v>4067.612975056806</v>
       </c>
       <c r="F389">
         <v>64</v>
@@ -9354,13 +9354,13 @@
         <v>170460</v>
       </c>
       <c r="C390">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D390">
         <v>43200</v>
       </c>
       <c r="E390">
-        <v>4008.057117922123</v>
+        <v>3827.408032320218</v>
       </c>
       <c r="F390">
         <v>96</v>
@@ -9374,13 +9374,13 @@
         <v>213660</v>
       </c>
       <c r="C391">
-        <v>655.5386949924125</v>
+        <v>650.994575045208</v>
       </c>
       <c r="D391">
         <v>43200</v>
       </c>
       <c r="E391">
-        <v>4663.595812914536</v>
+        <v>4478.402607365426</v>
       </c>
       <c r="F391">
         <v>96</v>
@@ -9394,13 +9394,13 @@
         <v>263660</v>
       </c>
       <c r="C392">
-        <v>758.7253414264034</v>
+        <v>753.465943339361</v>
       </c>
       <c r="D392">
         <v>50000</v>
       </c>
       <c r="E392">
-        <v>5422.321154340939</v>
+        <v>5231.868550704787</v>
       </c>
       <c r="F392">
         <v>111.1111111111111</v>
@@ -9414,13 +9414,13 @@
         <v>223660</v>
       </c>
       <c r="C393">
-        <v>151.7450682852807</v>
+        <v>150.6931886678722</v>
       </c>
       <c r="D393">
         <v>10000</v>
       </c>
       <c r="E393">
-        <v>4815.340881199816</v>
+        <v>4629.095796033298</v>
       </c>
       <c r="F393">
         <v>32.05128205128205</v>
@@ -9434,13 +9434,13 @@
         <v>215200</v>
       </c>
       <c r="C394">
-        <v>437.0257966616084</v>
+        <v>433.996383363472</v>
       </c>
       <c r="D394">
         <v>28800</v>
       </c>
       <c r="E394">
-        <v>4686.964553430469</v>
+        <v>4501.609358420278</v>
       </c>
       <c r="F394">
         <v>64</v>
@@ -9454,13 +9454,13 @@
         <v>193200</v>
       </c>
       <c r="C395">
-        <v>758.7253414264034</v>
+        <v>753.465943339361</v>
       </c>
       <c r="D395">
         <v>50000</v>
       </c>
       <c r="E395">
-        <v>4353.125403202851</v>
+        <v>4170.084343350959</v>
       </c>
       <c r="F395">
         <v>111.1111111111111</v>
@@ -9474,13 +9474,13 @@
         <v>228060</v>
       </c>
       <c r="C396">
-        <v>218.5128983308042</v>
+        <v>216.998191681736</v>
       </c>
       <c r="D396">
         <v>14400</v>
       </c>
       <c r="E396">
-        <v>4882.10871124534</v>
+        <v>4695.400799047162</v>
       </c>
       <c r="F396">
         <v>32</v>
@@ -9494,13 +9494,13 @@
         <v>216400</v>
       </c>
       <c r="C397">
-        <v>455.235204855842</v>
+        <v>452.0795660036167</v>
       </c>
       <c r="D397">
         <v>30000</v>
       </c>
       <c r="E397">
-        <v>4705.173961624702</v>
+        <v>4519.692541060423</v>
       </c>
       <c r="F397">
         <v>66.66666666666667</v>
@@ -9514,13 +9514,13 @@
         <v>143800</v>
       </c>
       <c r="C398">
-        <v>333.8391502276175</v>
+        <v>331.5250150693189</v>
       </c>
       <c r="D398">
         <v>22000</v>
       </c>
       <c r="E398">
-        <v>3603.504765873565</v>
+        <v>3425.65999133167</v>
       </c>
       <c r="F398">
         <v>48.88888888888889</v>
@@ -9534,13 +9534,13 @@
         <v>268800</v>
       </c>
       <c r="C399">
-        <v>834.5978755690437</v>
+        <v>828.8125376732971</v>
       </c>
       <c r="D399">
         <v>55000</v>
       </c>
       <c r="E399">
-        <v>5500.318119439573</v>
+        <v>5309.324849680073</v>
       </c>
       <c r="F399">
         <v>122.2222222222222</v>
@@ -9554,13 +9554,13 @@
         <v>167800</v>
       </c>
       <c r="C400">
-        <v>364.1881638846737</v>
+        <v>361.6636528028933</v>
       </c>
       <c r="D400">
         <v>24000</v>
       </c>
       <c r="E400">
-        <v>3967.692929758238</v>
+        <v>3787.323644134564</v>
       </c>
       <c r="F400">
         <v>53.33333333333334</v>
